--- a/mdna_extraction_project/output/mdna_extracted.xlsx
+++ b/mdna_extraction_project/output/mdna_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>mdna_start_page</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mdna_end_page</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>mdna_text</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mdna_word_count</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>narrative_density</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>keyword_hits</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quality_passed</t>
         </is>
@@ -488,8 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>You are requested to take the above mentioned information on your records.
-For Alchemist Limited</t>
+          <t>ALCHEMIST LTD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,6 +512,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>V.
 INDEBTEDNESS - Indebtedness of the Company including interest outstanding/accrued but not due for payment.
@@ -1151,19 +1170,25 @@
 To look into the reasons for substantial defaults in the payment to the de</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>37325</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7704144797642505</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>risk management, segment performance</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+          <t>37325</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.7704144797642505</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['risk management', 'segment performance']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1174,12 +1199,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bankers
-Punjab National Bank
-Bank Of india
-HDFC Bank
-Registrar &amp; Share Transfers Agent
-Link Intime India Private Limited</t>
+          <t>ALCHEMIST LIMITED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1193,6 +1213,16 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Annexure VI
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
@@ -1364,15 +1394,25 @@
 Time taken by executives to overcome from various new rules and regulations.</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>2740</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8166772756206238</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2740</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.8166772756206238</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1381,7 +1421,11 @@
           <t>ALok</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALOK</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>5210700315.pdf</t>
@@ -1389,6 +1433,16 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>PRIMED
 TO UNLOCK VALUE
@@ -2504,15 +2558,25 @@
 Plan period wit</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>16737</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7509858872985687</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16737</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.7509858872985687</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2521,7 +2585,11 @@
           <t>ALok</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALOK</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>5210700316.pdf</t>
@@ -2533,6 +2601,16 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Innovative Textile Solutions 43
 Form No. MR-3
@@ -3190,15 +3268,25 @@
 US$ 90 bn from the existing US$ 25 bn growing at</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>11815</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.755314143963047</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11815</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.755314143963047</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -3207,7 +3295,11 @@
           <t>ALok</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALOK</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>5210700317.pdf</t>
@@ -3219,6 +3311,16 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>As mentioned earlier, the overall performance of
 Alok industries in recent past has been impacted by
@@ -3269,15 +3371,25 @@
 Chairman</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>368</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8202542744410346</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.8202542744410346</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3286,7 +3398,11 @@
           <t>ALok</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALOK</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>5210700318.pdf</t>
@@ -3298,6 +3414,16 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>(vi)
 The following laws are applicable to the Company :-
@@ -4159,19 +4285,25 @@
 (previous</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>9254</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7307276690049268</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>risk management, global economy</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+          <t>9254</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.7307276690049268</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['risk management', 'global economy']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -4196,6 +4328,16 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>DIRECTORS’ REPORT
 Your Directors have great pleasure in presenting the 23rd Annual Report together with Audited Statements of Accounts of the Company for
@@ -4604,19 +4746,25 @@
 (g) Minutes of the Board meetings, Annu</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>5952</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7747705665769082</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>risk management, future outlook</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.7747705665769082</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['risk management', 'future outlook']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -4627,7 +4775,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JM Financial Asset Reconstruction Company Pvt. Ltd.</t>
+          <t>AMIT SPINNING INDUSTRIES LIMITED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4642,7 +4790,272 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N O T I C E
+Notice is hereby given that the 24th Annual General Meeting of the Members of Amit Spinning Industries Limited will be held
+on Tuesday the 27th day of September, 2016 at 12:00 Noon at Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan
+Park, New Delhi 110019 to transact the following business:
+ORDINARY BUSINESS :
+1.
+To consider and adopt the Audited Financial Statements of the Company for the financial year ended 31st March, 2016,
+and the reports of the Board of Directors and Auditors thereon.
+2.
+To appoint a Director in place of Mr. Ranjan Mangtani (DIN: 00678341) who retires by rotation and being eligible, offers
+himself for re-appointment.
+3.
+To ratify the appointment of the Statutory Auditors of the Company for the year financial year 2016-17 and to fix their
+remuneration.
+SPECIAL BUSINESS:
+4. To consider and, if thought fit, to pass, with or without modifications the following resolution as an Ordinary Resolution:
+“RESOLVED THAT pursuant to the provisions of sections 149, 150, 152 and other applicable provisions and Schedule IV,
+of the Companies Act, 2013 read with the Companies (Appointment and Qualification of Directors) Rules, 2014, as may be
+amended from time to time, and SEBI (Listing Obligations and Disclosure Requirements) Regulations 2015, as may be
+amended, superseded or replaced from time to time, Mrs. Shivani Gupta (DIN 07547509), who was appointed as an
+Additional Director by the Board of Directors of the Company pursuant to section 161(1) of the Companies Act, 2013 and
+Article 85 of the Articles of Association and who holds office only upto the date of this Annual General Meeting and has
+submitted a declaration that she meets the criteria for independence as provided in section 149(6) of the Act and is eligible
+for appointment and in respect of whom the Company has received a notice in writing from a Member proposing her
+candidature for the office of Director, be and is hereby appointed as an Independent Non Executive Woman Director of the
+Company, for five consecutive years with effect from 30th June 2016 and whose office shall not be liable to retirement by
+rotation".
+"RESOLVED FURTHER THAT the Board of Directors of the Company be and is hereby authorized to do all such acts,
+matters, deeds and things as may be necessary, proper or expedient to give effect to the above resolution.”
+5.
+To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
+“RESOLVED THAT pursuant to the provisions of Sections 196, 197, 203 and other applicable provisions of the
+Companies Act, 2013 and the Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014, read
+with Schedule V of the Companies Act, 2013, including any statutory modification(s) or re-enactment(s) thereof, and other
+requisite approvals as may be necessitated from time to time, the consent of the Company be and is hereby accorded for
+seeking Shareholders approval for appointment and fixation of remuneration to Mr. I D Desai as Manager to the Company
+for a period of three years w.e.f. 1st September, 2016, as per the terms and conditions set out in the explanatory statement
+annexed to the Notice convening this meeting with liberty to alter and vary the same upto 15% increase per annum on his
+remuneration, subject to maximum limits specified under Schedule V of the Companies Act, 2013 or any other statutory
+modification(s) or re-enactment thereof or in accordance with the approval of Shareholders of the Company.”
+"RESOLVED FURTHER THAT the Board of Directors of the Company be and is hereby authorized to do all such acts,
+matters, deeds and things as may be necessary, proper or expedient to give effect to the above resolution.”
+6.
+To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
+“RESOLVED THAT pursuant to section 20 and other applicable provisions, if any, of the Companies Act, 2013 and
+relevant Rules prescribed thereunder, upon receipt of a request from a member for delivery of any document through a
+particular mode an amount of Rs.50/- (Rupees Fifty Only) for each such document, over and above reimbursement of
+actual expenses incurred by the Company, be levied as and by way of fees for sending the document to him in the desired
+particular mode.
+FURTHER RESOLVED THAT the estimated fees for delivery of the document shall be paid by the member in advance to
+the Company, before dispatch of such document.
+RESOLVED FURTHER THAT for the purpose of giving effect to this resolution, the Compliance Officer of the Company be
+and is hereby authorized to do all such acts, deeds, matters and things as he may in his absolute discretion deem
+necessary, proper, desirable or expedient and to settle any question, difficulty, or doubt that may arise in respect of the
+matter aforesaid, including determination of the estimated fees for delivery of the document to be paid in advance.”
+By Order of the Board
+For AMIT SPINNING INDUSTRIES LIMITED
+Place: New Delhi
+Sd/-
+Date : August 09, 2016
+Director
+NOTES:
+A.
+Explanatory Statement setting out all material facts regarding Special Business contained in Item Nos. 4 to 6 as required
+under Section 102 (1) of the Companies Act, 2013, is annexed hereto.
+B.
+A MEMBER ENTITLED TO ATTEND AND VOTE IS ENTITLED TO APPOINT A PROXY TO ATTEND AND VOTE
+INSTEAD OF HIMSELF/HERSELF AND THE PROXY NEED NOT BE A MEMBER OF THE COMPANY. PROXY
+SHOULD BE DEPOSITED AT THE REGISTERED OFFICE OF THE COMPANY ATLEAST 48 HOURS BEFORE THE
+COMMENCEMENT OF THE MEETING.
+C.
+A person can act as a proxy on behalf of members not exceeding fifty and holding in the aggregate not more than ten
+percent of the total share capital of the Company carrying voting rights. A member holding more than ten percent of the
+total share capital of the Company carrying voting rights may appoint a single person as proxy and such person shall not
+act as proxy for any other person or shareholder.
+D.
+The Register of Members and Share Transfer Books of the Company will be closed from Friday, the 23th day of
+September, 2016 to Tuesday the 27th day of September, 2016 (both days inclusive) for the purpose of this Annual
+General Meeting.
+E.
+All documents referred to in the Notice and accompanying explanatory statement are open for inspection at the
+Registered Office of the Company on all the working days of the Company between 10.00 A.M. to 1.00 P.M. upto the date
+of Annual General Meeting and also at the meeting.
+F.
+Members are requested to intimate the change, if any, in their registered address immediately.
+G. Members/Proxies should bring the attendance slips duly filled in and signed for attending the meeting.
+H.
+It will be appreciated that queries, if any, on accounts and operations of the Company are sent to the Registered Office of
+the company ten days in advance of the meeting so that the information may be made readily available.
+I.
+As per provisions of the Companies Act, facility of nomination is available to the members in respect of the shares held by
+them.
+J.
+For any query on the Depository System, members may contact any depository participant or the Share Department at the
+Registered Office of the Company.
+K.
+In terms of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015, a brief resume of directors who
+are proposed to be appointed/re-appointed at this meeting is provided in Corporate Governance Report, forming part of
+the Annual Report.
+L.
+Securities and Exchange Board of India (SEBI) has made it mandatory for the transferees to furnish copy of PAN card to
+the Company/RTA for registration of shares held in Physical Form.
+M. Members are requested to send queries, if any, at E-mail ID secretarial@clcindia.com which is being used exclusively for
+the purpose of redressing the complaint(s) of the investors.
+N.
+VOTING THROUGH ELECTRONIC MEANS
+In accordance with provisions of section 108 of the Companies Act, 2013 read with Rule 20 of the Companies
+(Management and Administration) Rules, 2014 the business may be transacted through electronic voting system and the
+Company intends to provide facility for voting by electronic means ("e-voting") to its members. The Company has engaged
+the services of Central Depository Services (India) Limited (CDSL) to provide e-voting facilities and for security and
+enabling the members to cast their Vote in a secure manner. However, the Company has not paid the Annual Custodian
+Fee to the CDSL due the financial difficulties, the CDSL has blocked the benpos and not provided the shareholders list,
+and the Company is not in a position to conduct the e-voting process for the said meeting. Company has requested and
+assured the CDSL that the dues will be cleared once the rehabilitation scheme approved by the concerned authority
+inspite of our request, CDSL has not provided the benpos.
+ANNEXURE TO THE NOTICE
+EXPLANATORY STATEMENT PURSUANT TO SECTION 102(1) OF THE COMPANIES ACT, 2013
+ITEM NO. 4
+The Board of Directors had appointed Mrs. Shivani Gupta as an Additional Director of the Company on 30th June, 2016 under
+category of Independent Women Director.
+In terms of Section 161(1) of the Companies Act, 2013, Mrs. Shivani Gupta holds office upto the date of the ensuing Annual
+General Meeting. In this regard, the Company has received a notice in writing from a member alongwith deposit of requisite
+amount required under Section 160 of the Companies Act, 2013, proposing her candidature for the office of Independent
+Woman Director of the Company.
+In terms of the provisions of Section 149 of the Companies Act, 2013, an Independent Director shall hold office for a term up to
+five consecutive years on the Board of a company and is not liable to retire by rotation. Mrs. Shivani Gupta has given a
+declaration to the Board that she meets the criteria of independence as provided under Section 149 (6) of the Act.
+In compliance with the provisions of Section 149 read with Schedule IV of the Act, the appointment of Mrs. Shivani Gupta as
+Independent Women Director is now being placed before the Members in General Meeting for their approval.
+None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mrs. Shivani Gupta is
+concerned or interested in the resolution set out in Item No. 4.
+Your Directors recommend the ordinary resolution set out at Item No. 4 of the Notice for your approval.
+ITEM NO. 5:
+Since the Managing Director Mr. I B Maner's term is expiring on 31st August, 2016 and keeping in view of financial difficulties,
+the Company cannot afford the remuneration payable to Managing Director and the Nomination and Remuneration
+Committee and Board of Directors at their meeting held on 9th August, 2016 have proposed to appoint Mr. Ishwar Dhondiba
+Desai as Manager to the Company w.e.f 1st September, 2016 as per the remuneration mutually agreed upon the Board and
+Mr. Desai.
+Mr. Desai aged about 58 years is a Post Graduate and having 30 years of rich experience in Human Resources and related
+matters and has been working with the Company for the past many years.
+As per the applicable provision read with Schedule V of the Companies Act, 2013, Company is not required to obtain the
+Central Government approval as the remuneration payable to Mr. I.D. Desai is within the limits prescribed under the said Act.
+OVERALL REMUNERATION
+Subject to the provisions of Section 196, 197 &amp; 203 read with Schedule V and other applicable provisions, if any, of the
+Companies Act, 2013 and the Companies (Appointment and Remuneration of Managerial Personnel) Rules 2014, the
+remuneration payable to a Manager in a financial year shall not exceed 5% of the net profit of the company computed in the
+manner laid down in section 198 except that the remuneration of the Directors shall not be deducted from the gross profits.
+Within the aforesaid ceiling, remuneration payable to Mr. I.D. Desai shall be as follows:
+I.
+Tenure of Remuneration
+1st September, 2016 to 31st August, 2019
+II.
+Remuneration
+Rs. 54,256/- including perquisites for aforesaid period subject to overall increase in
+remuneration shall be decided by the Chairman of the Company as per the relevant
+provisions on yearly basis and excluding the EPF, Gratuity/Superannuation fund and
+applicable incentives as mentioned in the Section 197 read with Schedule V of the
+Companies Act, 2013.
+III. Other terms of Appointment :
+a)
+No sitting fees shall be paid to them for attending meetings of Board of Directors/ Committee of the Board.
+b)
+Reimbursement of all entertainment, travelling, hotel and other expenses actually incurred by them in connection with
+the business of the Company.
+c)
+Normal annual Increment if any shall be decided by the Chairman of the Company as per the relevant provisions on
+yearly basis.
+The draft of Agreement to be entered into between the Company and Mr. I.D. Desai for appointment and remuneration is
+available for inspection by the members at the Registered Office of the Company during the business hours on any working
+day. The explanatory statement may also be regarded as a disclosure under SEBI (LODR) Regulations.
+None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mr. I D Desai is
+concerned or interested in the resolution set out in Item No. 5.
+Your Directors recommend the ordinary resolutions set out at Item No. 5 of the Notice for your approval.
+ITEM NO. 6
+This is to inform to the members that pursuant to Section 20 of the Companies Act, 2013 and applicable provisions of the said Act,
+the company is required to serve a document to any member by sending it by Post or by Registered post or by Speed post or by
+Courier or by delivering at his office or address or by such electronic or other mode as may be prescribed by him from time to time.
+It is further informed that a member can request for delivery of any document to him through a particular mode for which he shall pay
+such fees as may be determined by the company in its Annual General Meeting. Therefore, to enable the members to avail of this
+facility, it is necessary for the Company to determine the fees to be charged for delivery of a document in a particular mode, as
+mentioned in the resolution. Since the Companies Act, 2013 requires the fees to be determined in the Annual General Meeting,
+None of the Directors and/or Key Managerial Personnel of the Company and their relatives is concerned or interested, financially or
+otherwise, in the resolution set out at Item No.6 of the accompanying Notice.
+Your Directors, accordingly, recommend this Ordinary Resolution at item no. 6 of the accompanying notice, for the approval of the
+members of the Company.
+BOARD'S REPORT
+Dear Members,
+Your Directors have great pleasure in presenting the 24th Annual Report together with Audited Statements of Accounts of the Company
+for the year ended March 31, 2016.
+Financial Results
+The summarized financial results for the year ended March 31, 2016 as compared to the previous year are as follows:
+(` in Lakhs)
+2015-2016
+2014-2015
+Revenue from Operation
+38.98
+3205.52
+Other Income
+1.63
+4.06
+Profit before depreciation, interest finance charges and tax (PBDIT)
+(847.18)
+(842.59)
+Less: Interest and Finance Charges
+309.38
+347.29
+Less: Depreciation
+346.61
+343.59
+Profit/(Loss) before Tax (PBT)
+(1503.17)
+(1533.46)
+Less : Tax Expense/Deferred Tax
+878.25
+Profit/(Loss) after Tax (PAT)
+(1503.17)
+(2411.71)
+FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+During the financial year 2015-16 under review, your company could not utilize its capacities due to financial constraints/shortage of
+working capital and the unit of the company located at Kolhapur remained inoperative accordingly the revenue from operations
+decreased to Rs. 38.98 lakhs as compared to Rs. 3,205.52 lakhs in the previous year.
+Further, over the period the company has eroded its net worth completely and it has been declared as a Sick Company under Sick
+Industrial Companies (Special Provisions) Act'1985 by the Board for Industrial and Financial Restructuring (BIFR) vide its order dated
+MANAGEMENT DISCUSSION AND ANALYSIS REPORT
+India’s Textiles Sector is one of the oldest Industry in Indian economy dating back several centuries. Even today, textiles sector is one of
+the largest contributor to India’s exports accounting for approximately 11% of total exports. The Textile Industry is also labor intensive
+and is one of the largest employers. The industry realised export earnings worth US$ 41.4 billion and a growth of 5.4 per cent.
+The textile industry has two broad segments. First, the unorganised sector consists of handloom, handicrafts and sericulture, which are
+operated on a small scale and through traditional tools and methods. The second is the organized sector consisting of Spinning,
+Apparel and Garment segment which apply modern machinery and technology.
+Amit Spinning is producing only Cotton Yarn with a capacity of 30672 spindles. However, during the period under review, the operations
+of Amit Spinning were badly affected due to shortage of Working Capital and non approval of Rehabilitation Plan by BIFR.
+Due to these constraints the Company operations have been suspended since 11th August, 2015 resulting in revenue from
+operations decreasing to Rs. 38.98 Lakhs as compared to Rs. 32.05 Crores during 2014-15.
+MANAGEMENT PERCEPTION ON OPPORTUNITIES, RISKS, CONCERN &amp; OUTLOOK
+The Low per-capita domestic consumption of textile indicates potential of growth in the textile industry. The Indian government has
+come up with a number of export promotion policies for the textiles sector. A new National Textiles Policy is expected to be announced
+soon Further, the Government has proposed the establishment of Centres of Excellence for training the workforce in the textile sector
+and also to establish institutes under the public-private partnership (PPP) model to encourage private sector participation in the
+development of the industry.
+Further, with focus on Make in India, the Indian Textile industry is expected to become resilient and robust through various support
+measures likely to be announced by the government. The future outlook for the Indian Textile Industry looks promising, buoyed by both
+strong domestic consumption and increase in export turnover.
+The major factors hindering progress of the textiles industry are Increase in the power costs, higher transaction costs, high cost of
+labour and general increase in input costs, thus the industry has to concentrate on cost reduction exercises and improvement in
+efficiency. With conscious and focused efforts and strategies built around optimum product mix, operational efficiencies and customer
+satisfaction the management is confident of a turnaround of the company in near future.
+With the awaited / impending approval of rehabilitation scheme of the company by BIFR and with the continued support and co-
+operation of company’s bankers, management believes that your Company would again resume production, optimally utilize
+capacities, and generate increasing sales volumes, margins in due course.
+SEGMENT-WISE PERFORMANCE
+Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of geographical
+categorization of market, ASIL identified two segments i.e. exports and domestic.
+During the year under review, Company has not manufactured yarn as against 1281.64 MT produced by the company in the previous
+year.
+SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
 As there are no subsidiaries/associates/joint ventures of the Company, the provisions contained in Companies Act, 2013/ SEBI
 (LODR) Regulations relating to subsidiaries are not applicable.
 DIVIDEND
@@ -4786,128 +5199,1004 @@
 8 of the Companies (Accounts) Rules, 2014 is set out in the Annexure – 4 to this Report.
 PARTICULARS OF EMPLOYEES
 The statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) &amp; 5(3) of the
-Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014 as amended, shall be made available to any
-shareholder on a specific request made by him in writing on or before 27th September, 2016.
+Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8922</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.7677311237314961</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['risk management', 'future outlook']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amit_spinning</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMIT SPINNING INDUSTRIES LIMITED</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5210760317.pdf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BOARD OF DIRECTORS
+REGISTERED &amp; CORPORATE OFFICE
+S P Setia
+(Non-Executive / Independent Chairman)
+A-60, Okhla Industrial Area,
+I. D. Desai
+(Manager)
+Phase - II, New Delhi - 110020
+Shivani Gupta
+(Non-Executive / Independent Woman Director)
+K Sankaramani
+(Non-Executive Director)
+Vijay Bhan Singh
+(Non-Executive Director)
+REGISTRAR &amp; TRANSFER AGENTS
+M/s. RCMC Share Registry Pvt. Ltd.
+B-25/1, Okhla Industrial Area, Phase-II,
+Near Rana Motor, New Delhi - 110020
+PLANT
+Gat No. 47 &amp; 48, Sangavade Village
+Kolhapur - Hupari Road
+Taluka Karveer
+Dist. Kolhapur 416 202
+MAHARASHTRA
+BANKERS / ARC
+AXIS Bank Limited
+JM Financial Asset Reconstruction
+Company Pvt. Ltd.
+AUDITORS
+Sunil Jain &amp; Co.
+Chartered Accountants
+New Delhi
+AUDIT COMMITTEE
+S P Setia (Chairman)
+K. Sankaramani
+Shivani Gupta
+NOMINATION AND REMUNERATION COMMITTEE
+S P Setia (Chairman)
+K. Sankaramani
+Shivani Gupta
+STAKEHOLDERS RELALTIONSHIP COMMITTEE
+S P Setia (Chairman)
+K. Sankaramani
+Shivani Gupta
+INDEX
+Page No.
+Notice
+Board’s Report Including
+Management Discussions &amp;
+Analysis Report
+Annexures to Boards’ Report
+Corporate Governance
+Auditor’s Report
+Balance Sheet
+Statement of Profit &amp; Loss
+Cash Flow Statement
+Notes
+25th AGM
+Date
+September 25, 2017 Time 11:30 A.M.
+Venue
+Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan Park, New Delhi - 110 019
+Book Closure :
+From Thursday September 21, 2017 to Monday, September 25, 2017 (both days inclusive).
+Company’s shares are listed on BSE Ltd. and National Stock Exchange of India Ltd.
+N O T I C E
+NOTICE is hereby given that the 25th Annual General Meeting of the Members of Amit Spinning Industries Limited will
+be held on Monday the 25th day of September, 2017 at 11.30 A.M at Bipin Chandra Pal Memorial Bhavan, A-81,
+Chittaranjan Park, New Delhi 110019 to transact the following business:
+ORDINARY BUSINESS:
+1.
+To consider and adopt the Audited Financial Statements of the Company for the financial year ended 31st March,
+2017 including Balance Sheet of the Company as at 31st March, 2017, Statement of Profit &amp; Loss for the year ended
+on that date and the Reports of the Board of Directors' and Auditors' thereon.
+2.
+To ratify appointment of the Statutory Auditors of the Company for the financial year 2017-18 and to fix their remuneration.
+SPECIAL BUSINESS:
+3.
+To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
+"RESOLVED THAT pursuant to the provisions of sections 149, 152 and other applicable provisions, if any, of the
+Companies Act, 2013 read with Companies (Appointment and Qualification of Directors) Rules, 2014 and SEBI
+(Listing Obligation and Disclosure Requirements) Regulations 2015 (including any statutory modification(s) or re-
+enactment thereof, for the time being in force) , Mr. Vijay Bhan Singh (DIN 07764296), who was appointed as an
+Additional Director by the Board of Directors of the Company pursuant to section 161(1) of the Companies Act, 2013
+and Article 85 of the Article of Association of the company and who holds office up to the date of this Annual General
+Meeting and in respect of whom the Company has received a notice in writing from a member alongwith the requisite
+fee proposing his candidature for the office of director, be and is hereby appointed as Non Executive Director of the
+Company and who shall be liable to retire by rotation".
+For &amp; on behalf of the Board
+Sd/-
+Director
+(Signed under the authority of Parveen Bansal, who has been appointed as Interim Resolution Professional by
+order of Principal Bench, National Company Law Tribunal dated August 1, 2017 under the provisions of
+Insolvency and Bankruptcy Code, 2016)
+Place : New Delhi
+Date : 17th August, 2017
+NOTES:
+A.
+Explanatory Statement setting out all material facts regarding Special Business contained in Item Nos. 3 as required
+under Section 102 (1) of the Companies Act, 2013, is annexed hereto.
+B.
+A MEMBER ENTITLED TO ATTEND AND VOTE IS ENTITLED TO APPOINT A PROXY TO ATTEND AND VOTE
+INSTEAD OF HIMSELF/HERSELF AND THE PROXY NEED NOT BE A MEMBER OF THE COMPANY. PROXY
+SHOULD BE DEPOSITED AT THE REGISTERED OFFICE OF THE COMPANY ATLEAST 48 HOURS BEFORE
+THE COMMENCEMENT OF THE MEETING.
+C. A person can act as a proxy on behalf of members not exceeding fifty and holding in the aggregate not more than ten
+percent of the total share capital of the Company carrying voting rights. A member holding more than ten percent of
+the total share capital of the Company carrying voting rights may appoint a single person as proxy and such person
+shall not act as proxy for any other person or shareholder.
+D. The Register of Members and Share Transfer Books of the Company will be closed from Thursday, the 21st day of
+September, 2017 to Monday, the 25th day of September, 2017 (both days inclusive) for the purpose of this Annual
+General Meeting.
+E.
+All documents referred in the Notice and accompanying explanatory statement are open for inspection at the Registered
+Office of the Company on all working days of the Company between 10.00 A.M. to 1.00 P.M. upto the date of Annual
+General Meeting and also at the meeting.
+F.
+Members are requested to intimate the change, if any, in their registered address immediately.
+G.
+Members/Proxies should bring the attendance slips duly filled in and signed for attending the meeting.
+H. It will be appreciated that queries, if any, on accounts and operations of the Company are sent to the Registered Office
+of the company ten days in advance of the meeting so that the information may be made readily available.
+I.
+As per provisions of the Companies Act, facility of nomination is available to the members in respect of the shares
+held by them.
+J.
+For any query on the Depository System, members may contact any depository participant or the Share Department
+at the Registered Office of the Company.
+K.
+In terms of SEBI (Listing Obligation and Disclosure Requirements) Regulations, 2015, a brief resume of directors who
+are proposed to be appointed at this meeting is provided in Corporate Governance Report, forming part of the Annual
+ANNEXURE TO THE NOTICE
+EXPLANATORY STATEMENT PURSUANT TO SECTION 102(1) OF THE COMPANIES ACT, 2013
+ITEM NO. 3:
+Mr. Vijay Bhan Singh was appointed as an Additional Director on the position of Non-Executive Director of the Company
+on 27th March, 2017 by the Board of Directors of the Company and holds office upto the date of this Annual General
+Meeting. Mr. Singh (52 years) is Commerce Graduate and having rich experience in Accounts, finance and related
+matters.
+The Company has received a notice in terms of Section 160 of the Companies Act, 2013 alongwith the amount of requisite
+deposit from a member signifying his intention to propose the appointment of Mr. Vijay Bhan SIngh as a Director of the
+Company.
+As required under Section 152 of the Companies Act, 2013, the Company has received a declaration from Mr. Vijay Bhan
+Singh that he is not disqualified from being appointed as a Director in terms of Section 164 of the Act and has given his
+consent to act as a Director.
+Brief resume of Mr. Vijay Bhan Singh, nature of his expertise in specific functional areas are provided in the Corporate
+governance Report forming part of the Annual Report.
+None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mr. Vijay Bhan
+Singh is concerned or interested in the resolution set out in Item No. 3.
+Board/ Interim Resolution Professional recommends the resolution in relation to appointment of Mr. Vijay Bhan Singh as
+a Director, for the approval by the shareholders of the Company.
+For &amp; on behalf of the Board
+Sd/-
+Director
+(Signed under the authority of Parveen Bansal, who has been appointed as Interim Resolution Professional by
+order of Principal Bench, National Company Law Tribunal dated August 1, 2017 under the provisions of
+Insolvency and Bankruptcy Code, 2016)
+Place : New Delhi
+Date : 17th August, 2017
+Report.
+L.
+Securities and Exchange Board of India (SEBI) made it mandatory for the transferees to furnish copy of PAN card to
+the Company/RTA for registration of shares held in Physical Form.
+M. Members are requested to send queries, if any, at E-mail ID secretarial@clcindia.com which is being used exclusively
+for the purpose of redressing the complaint(s) of the investors.
+N. VOTING THROUGH ELECTRONIC MEANS
+In accordance with provisions of section 108 of the Companies Act, 2013 read with Rule 20 of the Companies
+(Management and Administration) Rules, 2014 the business may be transacted through electronic voting system and
+the Company intends to provide facility for voting by electronic means ("e-voting") to its members. The Company has
+engaged the services of Central Depository Services (India) Limited (CDSL) to provide e-voting facilities and for
+security and enabling the members to cast their vote in a secure manner. However, the company has not paid the
+Annual Custodian Fee to the CDSL due to financial difficulties, the CDSL/NSDL have blocked the benpos and not
+provided the shareholders list, and the company is not in a position to conduct the e-voting process for the said
+meeting. Company has requested and assured the CDSL that the dues will be cleared, inspite of our request, CDSL
+has not provided the benpos.
+BOARD'S REPORT
+Dear Members,
+Your Directors have great pleasure in presenting the 25th Annual Report together with Audited Statements of Accounts of
+the Company for the year ended March 31, 2017.
+FINANCIAL RESULTS:
+The summarized financial results for the year ended March 31, 2017 as compared to the previous year are as follows:
+( in Lakhs)
+FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+During the financial year 2016-17 under review, due to financial constraints and shortage of working capital the Company
+operations have remained suspended since 11th August, 2015 resulting in revenue from operations decreased in the
+current financial year ended 31st March, 2017 to Rs. 15.85 Lakhs as compared to Rs. 38.98 Lakhs during previous year
+ended 31st March, 2016.
+Further, the manufacturing unit situated at Kolhapur, Maharashtra stand closed with effect from 1st July, 2017 in accordance
+with applicable legal provisions.
+The Company was declared as a Sick Company under Section 3(1)(o) of SICA 1985., SICA has been repealed w.e.f. 1st
+December, 2016, and such companies were allowed to approach (NCLT) within 180 days. Accordingly, the Company has
+filed its petition before NCLT for resolution of default of payments to banks and other creditors and approval of Resolution
+Plan and NCLT has pronounced the commencement of a corporate insolvency resolution process, effective August 1,
+2017 and Mr. Parveen Bansal, has been appointed as Interim Resolution Professional in accordance with applicable
+regulations under Insolvency and Bankruptcy Code, 2016.
+MANAGEMENT DISCUSSION AND ANALYSIS REPORT
+The Indian textiles industry is one of the oldest industries in India having evolved impressively from a domestic small scale
+industry to becoming a major employment and GDP contributor with a massive manufacturing base. It is also one of the
+largest and most important sectors of the Indian economy in terms of output, foreign exchange earnings thus contributing
+greatly to the exchequer. The Textile sector occupies a unique position as a self-reliant industry, with substantial value-
+addition at each stage of processing. It has vast potential for creation of employment opportunities in the agricultural,
+industrial, organized &amp; decentralized sectors and 5.8 million cotton farmers, 40 to 50 million people engaged in textile
+related activities in rural and urban areas, particularly for un-educated, women &amp; unskilled labour. Thus, the growth and all
+round development of this sector has a direct bearing on the development of the economy.
+Amit Spinning has capacity to produce Cotton Yarn with 30672 spindles. During the period under review, the operations of
+Amit Spinning were badly affected due to shortage of Working Capital. Due to the financial constraints the Company
+operations have been suspended since 11th August, 2015 resulting in revenue from operations decreased in the current
+financial year ended 31st March, 2017 to Rs. 15.85 Lakhs as compared to Rs. 38.98 Lakhs during previous year ended
+31st March, 2016.
+As members of Amit Spinning are aware that the Company was declared as a Sick Company under Section 3(1)(o) of
+SICA 1985, from 1st December, 2016, SICA has been repealed and such companies were allowed to approach National
+Company Law Tribunal (NCLT) within 180 days. Accordingly, the Company has filed its petition before NCLT for resolution
+of its debts and approval of resolution plan
+In addition to the above, the manufacturing unit situated at Kolhapur, Maharashtra stand closed with effect from 1st July,
+2017 in accordance with applicable legal provisions due to shortage of working capital and closing of unit is a major jolt to
+the Company.
+However, with due strategic focus on Company by the management towards arrangement of funds through various
+options, Amit Spinning is confident to re-start its manufacturing unit in near future.
+MANAGEMENT PERCEPTION ON OPPORTUNITIES, RISKS, CONCERN &amp; OUTLOOK
+The Indian government has come up with the Revised Restructured Technology Up gradation Fund Scheme (RRTUFS),
+10% capital subsidy to the specified technical textile machinery, allowing 100% FDI in the Indian textiles sector under the
+automatic route may increase the profits in the coming years, the future of the Indian textile industry looks promising,
+Particulars
+2015-2016
+2016-2017
+Revenue from Operation
+15.85
+38.98
+Other Income
+0 .76
+1.63
+Profit before depreciation, interest finance charges and tax (PBDIT)
+(1023.75)
+(847.18)
+Less: Interest and Finance Charges
+1.86
+309.38
+Less: Depreciation
+296.82
+346.61
+Profit/(Loss) before Tax (PBT)
+(1322.43)
+(1503.17)
+Less : Tax Expense/Deferred Tax
+Profit/(Loss) after Tax (PAT)
+(1322.43)
+(1503.17)
+buoyed by both strong domestic consumption as well as export demand. With consumerism and disposable income on
+the rise, the retail sector has experienced a rapid growth in the past decade with the entry of several international players.
+Further, the Textile Ministry has also introduced a new textile policy to promote value additions which sets a target of
+doubling textile exports in next 10 years.
+The major factors hindering progress of the textiles industry are increase in the power costs, higher transaction costs, high
+cost of labour and general increase in input costs, thus the industry has to concentrate on cost reduction exercises and
+improvement in efficiency. Another key challenge presently is the Fiber/Raw Material cost, which is increasing abruptly
+and increase is not fully absorbed in the yarn prices and accordingly yarn spinners are hit the most in the entire textile
+chain.
+Due to fluctuating prices and uncertainties in the foreign exchange market, increase in power cost, introduction of GST
+and lack of adequate working capital, the EBITA levels may remain stagnant during the year.
+Further, to overcome the losses promptly in this challenging scenario, the Management is keeping a close watch on
+various threats/risks facing the company and taking all appropriate steps to restart of manufacturing unit.
+With much awaited / impending approval of rehabilitation scheme of the Company by NCLT and with the continued
+support and co-operation of company's bankers, management believes that your Company would again resume production,
+optimally utilize capacities, and generate increasing sales volumes, margins in due course and the management is
+confident of a turnaround of the company in near future.
+SEGMENT-WISE PERFORMANCE
+Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of
+geographical categorization of market, ASIL identified two segments i.e. exports and domestic. During the year under
+review, Company has not manufactured yarn due to suspension of operations of manufacturing unit.
+SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
+As there are no subsidiaries/ associates / joint ventures of the Company, the provisions contained in Companies Act,
+2013/SEBI (LODR) Regulations relating to subsidiaries are not applicable.
+DIVIDEND
+During the year under review, the Company has no distributable profits hence directors regret their inability to recommend
+any dividend for financial period 2016-17.
+TRANSFER OF RESERVES
+During the year, the Company has not transferred any amount to reserves.
+SHARE CAPITAL
+The Company's Authorized Share Capital as on 31st March, 2017 stands at Rs. 25,00,00,000/- and issued &amp; paid up
+capital as on 31st March, 2017 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity shares of Rs.5/-
+each. During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
+share with differential Voting Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
+The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the
+benefit of employees. Hence the details under rule 16 (4) of Companies (Share Capital and Debentures) Rules, 2014 are
+not required to be disclosed.
+DIRECTORS AND KEY MANAGERIAL PERSONNEL
+(a) Change in Directors and Key Managerial Personnel
+Mr. Vijay Bhan Singh has been appointed as an Additional Non-Executive Director on the Board of the Company with
+effect from 27th March, 2017.
+Mr. Ranjan Mangtani, Non-Executive Director has tendered his resignation w.e.f. closing hours of 10th November,
+2016. During the year, the term of I.B. Maner as Managing Director has expired on closing hours of 31st August, 2016
+and has resigned from directorship w.e.f. 10th November, 2016 keeping in view of financial difficulties of the Company,
+members of the Company have appointed Mr. I D Desai as Manager for a period of 3 years w.e.f. 1st September, 2016.
+Further, during the year, under review, Ms. Priya Lohani, Company Secretary has resigned w.e.f. 22nd June, 2016 and
+Company has appointed Mr. Deepanshu Arora as Compliance Officer to the Company w.e.f 9th August, 2016, he has
+also tendered his resignation and subsequently, Mr. Bharat Kapoor has been appointed as Compliance Officer of the
+Company w.e.f 31st December, 2016 in place of Mr. Deepanshu Arora.
+Mr. K. Sankaramani, Non Executive Director and Mr. Malpeddi Nagnath S, CFO have resigned w.e.f. 1st August, 2017.
+Brief resume of the Director(s) proposed to be appointed/re-appointed, nature of their expertise in specific functional
+areas and names of the companies in which they hold directorship and membership/chairmanships of the Board or its
+Committees, as stipulated under SEBI (LODR) Regulations entered into by the Company with stock exchanges in
+India, is provided in the Report of Corporate Governance forming part of the Annual Report.
+(b) Number of Meetings of the Board
+Five meetings of the Board were held during the year. The detailed information regarding meetings of the Board held
+during the year is mentioned in the Corporate Governance Report which forms part to this report.
+(c) Declaration by Independent Directors
+All Independent Directors have given declarations that they meet the criteria of independence as laid down under
+Section 149(6) of the Companies Act, 2013 and SEBI (LODR) Regulations.
+(d) Annual Evaluation by the Board
+Pursuant to the provisions of the Companies Act, 2013 and SEBI (LODR) Regulations, the Board has carried out an
+annual performance evaluation of its own performance, the directors individually as well as its Committees. The
+manner in which the evaluation has been carried out has been explained in the Corporate Governance Report.
+(e) Remuneration Policy
+The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection
+and appointment of Directors, Senior Management and their remuneration. The Remuneration Policy is enumerated
+in the Corporate Governance Report. During the year, neither the Managing Director nor the Whole-time Directors of
+the Company received any remuneration or commission from any of its subsidiaries.
+DIRECTORS' RESPONSIBILITY STATEMENT
+Pursuant to the requirement of Section 134(3) (c) of the Companies Act, 2013, with respect to Directors' Responsibility
+Statement, it is hereby confirmed that:
+(a) in the preparation of the annual accounts for the financial year ended 31st March, 2017, the applicable accounting
+standards had been followed along with proper explanation relating to material departures;
+(b) the directors had selected such accounting policies and applied them consistently and made judgments and
+estimates that are reasonable and prudent so as to give a true and fair view of the state of affairs of the company
+as at March 31, 2017 and of the profit and loss of the company for that period;
+(c) the directors had taken proper and sufficient care for the maintenance of adequate accounting records in accordance
+with the provisions of the Companies Act, 2013 for safeguarding the assets of the company and for preventing and
+detecting fraud and other irregularities;
+(d) the directors had prepared the annual accounts on a going concern basis; and
+(e) the directors had laid down internal financial controls to be followed by the company and that such internal
+financial controls are adequate and were operating effectively.
+(f) the directors had devised proper systems to ensure compliance with the provisions of all applicable laws and that
+such systems were adequate and operating effectively.
+RELATED PARTY TRANSACTIONS
+None of the transactions with related parties falls under the scope of section 188(1) of the Act. All related party transactions
+that were entered into during the financial year were on an arm's length basis and were in the ordinary course of business.
+There were no materially significant related parties transactions entered into by the Company with Holding Company/
+Promoters, Directors, Key Managerial Personnel or other designated persons which may have a potential conflict with the
+interest of the Company at large.
+Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for the year ended 31st
+March, 2017 and for transactions proposed to be entered into with related parties for the financial year 2017-18 were
+placed before the said committee and consent of the said committee was obtained.
+The policy on Related Party Transactions as approved by the Board has been uploaded on the Company's website
+www.spentex.net. None of the Directors has any pecuniary relationships or transactions vis-a-vis the Company. Since all
+related party transactions entered into by the Company were in ordinary course of business and were on an arm's length
+basis, form AOC - 2 is not applicable to the Company.
+MATERIAL CHANGES AND COMMITMENTS AFFECTING THE FINANCIAL POSITION BETWEEN THE DATE OF THE
+BOARD REPORT AND END OF FINANCIAL YEAR
+The operations of manufacturing unit situated at Kolhapur, Maharashtra remains closed with effect from 1st July, 2017
+after completion of applicable legal formalities.
+As the Company was declared as a Sick Company under Section 3(1)(o) of SICA 1985 and SICA has been repealed w.e.f
+1st December, 2016, accordingly, the Company had filed its petition before NCLT under Insolvency and Bankruptcy Code,
+2016 and NCLT has pronounced the order admitting the petition of the Company, and appointing Mr. Parveen Bansal, as
+an Interim Resolution Professional in accordance with applicable regulations under Insolvency and Bankruptcy Code,
+2016. With this, corporate insolvency resolution process, against the Company Commences w.e.f 1st August, 2017.
+SIGNIFICANT AND MATERIAL ORDERS PASSED BY THE REGULATORS OR COURTS.
+NCLT has, vide its order dated 1st August, 2017, admitted Company's petition under Insolvency and Bankruptcy Code,
+2016 and has appointed Interim Resolution Professional and with that Corporate Insolvency Resolution Process in respect
+of the Company under IBC, 2016, commences.
+AUDITORS AND AUDITORS REPORT
+(a) Statutory Auditors
+At the 22nd Annual General Meeting held on 11.09.2014, M/s Sunil Jain &amp; Co., Chartered Accountants, (Firm Registration
+No. 003855N) was appointed as Statutory Auditor of the Company to hold office till the conclusion of the 26th Annual
+General Meeting to be held in the Calendar Year 2018. In terms of the proviso to Section 139 of the Companies Act,
+2013, the appointment of the Auditors shall be placed for ratification at every Annual General Meeting. Therefore, the
+appointment of M/s. Sunil Jain &amp; Co., Chartered Accountants, as statutory auditors of the Company is placed for
+ratification by the shareholders. The Company has received a confirmation from M/s. Sunil Jain &amp; Co., Chartered
+Accountants to the effect that their appointment, if made, at the ensuing AGM would be in terms of Sections 139 and
+141 of the Companies Act, 2013 and rules made there under and that they are not disqualified for re-appointment.
+Further, the Statutory Auditors have submitted Auditors' Report on the accounts of the Company for the period ended
+Directors' view on Auditor's Observations
+Directors' response to the various observations of the auditors made in their report, have been explained wherever
+necessary through appropriate notes to accounts, however pertinent notes are reproduced hereunder in compliance with
+the relevant legal requirements and wherever required further explanation is furnished:
+Note No. 30 of the Financial Statement qualified by Auditors
+The Company has not charged interest amounting to Rs.6,98,32,251. Further the company has not charged penal interest
+and other charges, if any, in respect of delay in repayment of borrowings from banks to the statement of profit and loss
+account from the date of declaration of account as Non Performing Assets.
+The management is of the opinion that since the lenders have categorized their outstanding debts from the Company and
+stopped charging interest on their debt, the management has decided not to provide interest on such loans for the current
+year and also reversed interest provided earlier years from the date of NPA.
+Note No. 28 of the Financial Statement without qualifying, Auditors have drawn attention:
+The outstanding balances of parties under the head trade payables and loans &amp; advances and Banks and other deposite
+are subject to confirmation, reconciliation and consequential adjustments arising there from if any. The management,
+however, does not expect any material variations.
+Note No. 29 of the Financial Statement without qualifying, Auditors have drawn attention:
+As on March 31, 2017, the accumulated losses of the Company have far exceeded its net worth. In the opinion of the
+management, the Company's operations were in the earlier years affected by global business downturn which has resulted
+in reduction in demand, increase in input costs and shortage of working capital. Due to these factors, the Company had
+filed a reference with Board for Industrial and Financial Restructuring (BIFR) under section 15 of Sick Industrial Companies
+(Special Provisions) Act, 1985 for determination of sickness and measures to be adopted for rehabilitation. The BIFR, vide
+its order, dated 18.07.2012 declared the Company as sick under section 3(1)(o) of SICA, 1985 and appointed UCO Bank
+as Operating Agency (OA) under section 17(3) to prepare Rehabilitation Scheme for the Company. The Company's
+accounts have become Non Performing Assets (NPA) with all the dealing banks and the company is also in receipt of NPA
+cum recall notice. Pending approval of DRS by OA/ BIFR, SICA has been repealed w.e.f 1/12/2016, and 6 months window
+has been provided to the Company to approach to National Company Law Tribunal (NCLT), as per section 4(b) of the
+SICA repeal act read with Sec. 252 of the Insolvency and Bankruptcy Code, 2016 to initiate Corporate Resolution Process
+under the code. Company is in the process of moving NCLT for resolution of its liabilities. In the meanwhile, Axis Bank has
+initiated recovery proceedings before DRT against the Company, however the same is being contested by the company.
+The company has submitted restructuring proposal proposing various alternative to the banks which is currently under
+discussion. With strong management focus on strategic initiatives on cost rationalization, optimum product mix and
+efficient plant operations, the management believes that accumulated losses would reasonably be paired in due course.
+Thus, on the strength of management's plan of revival including reorganization of business, these financial statements are
+prepared on a going concern basis.
+As per management, the company has filed its petition before NCLT for resolution of its debts and approval of rehabilitation
+scheme and NCLT has pronounced the commencement of a corporate insolvency resolution process, against the Company
+w.e.f 1st August, 2017 in accordance with applicable regulations under Insolvency and Bankruptcy Code, 2016.
+Note No. 31 of the Financial Statement without qualifying, Auditors have drawn attention:
+The company has advanced an amount of Rs.27,77,23,608/- as Inter Corporate Deposit and Capital Advances without
+any repayment schedule and interest free. The management is however hopefull of recovering the same in full. Auditors
+have relied upon the assertions given by the management as to the recoverability of the said amounts.
+(b) Cost Auditor:
+The Company having been declared as a sick company under repealed SICA and having not produced any yarn in the
+year 2016-17, the Companies (Cost Records and Audit Rules), 2014 is not applicable to the Company.
+(c) Secretarial Auditor &amp; Audit Report:
+Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa
+&amp; Associate, Practicing Company Secretary (having CP No. 10753 &amp; Membership No. F-9055) as Secretarial Auditor
+to carry out the secretarial audit for the financial year 2016-17. The Secretarial Audit Report for the financial year
+ended March 31, 2017 in Form MR-3 is annexed herewith as Annexure I to this Report in compliance with the provisions
+of Section 204 of the Companies Act, 2013.
+The qualifications/observations/remarks made by the Secretarial Auditors and management's view thereon are given
+in their Report attached hereto.
+(d) Internal Auditors
+During the year, Dr. Sunil Kumar Gupta is Internal Auditor of the Company pursuant to section 138 of the Companies
+Act, 2013 read with The Companies (Accounts) Rules, 2014. However he has tendered his resignation w.e.f. 25th
+July, 2017.
+INTERNAL CONTROL SYSTEMS AND ADEQUACY
+The Company has established adequate internal control systems, commensurate with its size and nature of business and
+such systems are periodically audited, verified and reviewed for their validity, considering the changing business scenario
+from time to time, the Audit Committee of the Board of Directors reviews the adequacy and effectiveness of internal
+control systems and suggests improvement for strengthening them.
+EXTRACT OF THE ANNUAL RETURN
+The details forming part of the extract of the Annual Return in form MGT 9 is annexed herewith as Annexure-2 to this
+Report.
+CONSERVATION OF ENERGY, TECHNOLOGY ABSORPTION AND FOREIGN EXCHANGE EARNINGS AND OUTGO.
+As there is no operation/production during the year under review, the information as required to be disclosed under
+Section 134(3)(m) of the Companies Act, 2013 read with Rule, 8 of the Companies (Accounts) Rules, 2014 is not applicable.
+PARTICULARS OF EMPLOYEES
+The statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) &amp; 5(3)
+of the companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014 as amended, shall be made
+available to any shareholder on a specific request made by him in writing on or before 25th September, 2017.
 DEPOSITS
-The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue deposits as at
-31st March, 2016.
+The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue
+deposits as at 31st March, 2017.
 PARTICULARS OF LOANS, GUARANTEES OR INVESTMENTS
-Details of loans, Guarantees and Investments covered under the provision of Section 186 of the Companies Act, 2013 are given in the
-notes to the Financial Statements.
+Details of loans, Guarantees and Investments covered under the provision of Section 186 of the Companies Act, 2013 are
+given in the notes to the Financial Statements.
 RISK MANAGEMENT
-A Risk Management Committee has been constituted to oversee the risk management process in the Company as required under the
-Companies Act, 2013 and SEBI (LODR) Regulations. The details of the Committee and its terms of reference are set out in the
-Corporate Governance Report forming part of the Board's Report. The Risk Management Policy has also been hosted on the website
-of the company
+A Risk Management Committee has been constituted to oversee the risk management process in the Company as
+required under the Companies Act, 2013 and SEBI (LODR) Regulations. The details of the Committee and its terms of
+reference are set out in the Corporate Governance Report forming part of the Board's Report. The Risk Management
+Policy h</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17248</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.7688718769043267</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['risk management']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Amit_spinning</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMIT SPINNING INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5210760318.pdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AMIT SPINNING INDUSTRIES LTD.
+CLC
+(Manufacturer onarns &amp; Govt. Recognised Trading House)
+September 27, 2018
+ESE Limited
+Stock Code. 521076
+Corporate Realationship Deptt.
+1“ Floor, New Trading Ring, Rotunda Bldg.
+PJ Towers, Dalal Street
+National Stock Exchange of India Ltd.
+Stock Code: ASIL
+Exchange Plaza
+Bandra Kurla Complex
+Bandar (E), Mumbai-400051
+Dear Sir/Madam,
+Sub:
+Submission of Annual Report for the financial year 2017-2018
+Ref:
+Regulation 34 (1) of SEBI (Listing Obligations and Disclosure Requirements) Regulations,
+Pursuant
+to
+Regulation
+(1)
+of
+SEBI
+(Listing Obligations
+and
+Disclosure Requirements)
+Regulations,
+2015,
+please find
+enclosed
+herewith Annual
+Report of the Company for the
+financial year 2017-18 duly approved and adopted by the members at the 26'h Annual General
+Meeting held on 27th September, 2018 as per the applicable provisions of the Companies Act,
+2013.
+Please take the above on record.
+Thanking you,
+Yours truly,
+For AMIT SPINNING INDUSTRIES LIMITED
+a? w.
+r \ I
+COMPLIANCE OFFICER
+W".
+Encl:
+as above.
+Regd. &amp; Corporate Office :A»60, Okhla Industrial Area, Phase-II, New Delhi 110 020 (INDIA)
+: +91—11-26385181,Emai1 :inIo@clcindia.com. www.5pemexinduslries.com
+Factory Address : Gate No. 47 &amp; 48, Sangawade Village, Kolhapur—Hupari Road, Taluka-Karveer, Distt. Kolhapur-4 l 6 202 (INDIA)
+Tel.
+BOARD OF DIRECTORS
+REGISTERED &amp; CORPORATE OFFICE
+S P Setia
+(Non-Executive / Independent Chairman)
+A-60, Okhla Industrial Area,
+Jitendra Chopra
+(Managing Director)
+Phase - II, New Delhi - 110020
+Deepak Choudhari
+(Joint Managing Director)
+Sharmila Devi Chopra (Non-Executive Director)
+Shivani Gupta
+(Non-Executive / Independent Woman Director)
+Vijay Bhan Singh
+(Non-Executive Director)
+REGISTRAR &amp; TRANSFER AGENTS
+M/s. RCMC Share Registry Pvt. Ltd.
+B-25/1, Okhla Industrial Area, Phase-II,
+Near Rana Motor, New Delhi - 110020
+PLANT
+Gat No. 47 &amp; 48, Sangavade Village
+Kolhapur - Hupari Road
+Taluka Karveer
+Dist. Kolhapur 416 202
+MAHARASHTRA
+AUDITORS
+Sunil Jain &amp; Co.
+Chartered Accountants
+New Delhi
+CHIEF FINANCIAL OFFICER
+Shreyans Rajendra Choudhari
+COMPANY SECRETARY
+Aniruddha Badkatte
+BANKERS / ARC
+AXIS Bank Limited
+JM Financial Asset Reconstruction Company Pvt. Ltd.
+INDEX
+Page No.
+Board’s Report Including
+Management Discussions &amp;
+Analysis Report
+Annexures to Boards’ Report
+Corporate Governance
+Auditor’s Report
+Balance Sheet
+Statement of Profit &amp; Loss
+Cash Flow Statement
+Notes
+26th AGM
+Date
+September 27, 2018 Time 11:30 A.M.
+Venue
+Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan Park, New Delhi - 110 019
+Book Closure :
+Saturday, the 22nd September, 2018 to Thursday, the 27th September, 2018 (both days inclusive)
+Company’s shares are listed on BSE Ltd. and National Stock Exchange of India Ltd.
+BOARD'S REPORT
+Dear Members,
+Your Directors have great pleasure in presenting the 26th Annual Report together with Audited Statements of Accounts of
+the Company for the year ended March 31, 2018.
+FINANCIAL RESULTS:
+The summarized financial results for the year ended March 31, 2018 as compared to the previous year are as follows:
+( in Lakhs)
+FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+Due to the financial constraints the company's operations remain suspended during the year under review resulting in
+decrease in revenue from operations in the current financial year ended 31st March, 2018 of Nil as compared to Rs. 15.85
+Lakhs during the previous year ended 31st March, 2017. In addition to the above, the manufacturing unit situated at
+Kolhapur, Maharashtra stands closed with effect from 1st July, 2017 after completion of applicable legal formalities.
+As the company was declared as a Sick Company under Section 3(1)(o) of SICA 1985, SICA has been repealed w.e.f 1st
+December, 2016, and such companies were allowed to approach (NCLT) within 180 days. Accordingly, the Company had
+filed its petition before NCLT for resolution of its debts and approval of rehabilitation scheme and NCLT has pronounced
+the commencement of a corporate insolvency resolution process, against the Company w.e.f 1st August, 2017 and Mr.
+Praveen Bansal was appointed as Interim Resolution Professional to exercise management powers of the Company, in
+accordance with applicable regulations under Insolvency and Bankruptcy Code, 2016.
+Subsequently, NCLT has, vide its order dated 31st July, 2018 approved the resolution plan as submitted by Resolution
+Applicants for the Company pursuant to the Corporate Insolvency Resolution Process initiated as per the provisions of the
+Insolvency and Bankruptcy Code, 2016.
+MANAGEMENT DISCUSSION AND ANALYSIS REPORT
+The Indian textiles industry is one of the leading industries in India having evolved impressively from a domestic small
+scale industry to becoming a major employment and GDP contributor with a massive manufacturing base. It is also one
+of the largest and most important sectors of the Indian economy in terms of output, foreign exchange earnings thus
+contributing greatly to the exchequer. The Textile sector occupies a unique position as a self-reliant industry, with substantial
+value-addition at each stage of processing. It has vast potential for creation of employment opportunities in the agricultural,
+industrial, organized &amp; decentralized sectors and 5.8 million cotton farmers, 40 to 50 million people engaged in textile
+related activities in rural and urban areas, particularly for un-educated, women &amp; unskilled labour. Thus, the growth and all
+round development of this sector has a direct bearing on the development of the economy.
+Amit Spinning was producing only Cotton Yarn with a capacity of 30672 spindles. During the period under review, the
+operations of Amit Spinning were badly affected due to shortage of Working Capital. Due to the financial constraints the
+Company operations had been suspended since 11th August, 2015. In addition to the above, the manufacturing unit
+situated at Kolhapur, Maharashtra stand closed with effect from 1st July, 2017 in accordance with applicable legal provisions
+due to shortage of working capital and closing of unit is a major jolt to the Company.
+MANAGEMENT PERCEPTION ON OPPORTUNITIES, RISKS, CONCERN &amp; OUTLOOK
+The Indian government has come up with the Revised Restructured Technology Up gradation Fund Scheme (RRTUFS),
+10% capital subsidy to the specified technical textile machinery, allowing 100% FDI in the Indian textiles sector under the
+automatic route may increase the profits in the coming years, the future of the Indian textile industry looks promising,
+buoyed by both strong domestic consumption as well as export demand. With consumerism and disposable income on
+the rise, the retail sector has experienced a rapid growth in the past decade with the entry of several international players.
+Further, the Textile Ministry has also introduced a new textile policy to promote value additions which sets a target of
+doubling textile exports in next 10 years.
+Particulars
+2016-2017
+2017-2018
+Revenue from Operation
+15.85
+Other Income
+0.19
+0 .76
+Profit before depreciation, interest finance charges and tax (PBDIT)
+(3,306.26)
+(1,007.67)
+Less: Interest and Finance Charges
+86.17
+1.86
+Less: Depreciation
+269.68
+296.82
+Profit/(Loss) before Tax (PBT)
+(3,662.11)
+(1,306.34)
+Less : Tax Expense/Deferred Tax
+Profit/(Loss) after Tax (PAT)
+(3,662.11)
+(1,306.34)
+Other Comprehensive Income
+(16.08)
+Total Comprehensive Income
+(3,662.11)
+(1,322.42
+The major factors hindering progress of the textiles industry are Increase in the power costs, higher transaction costs,
+high cost of labour and general increase in input costs, thus the industry has to concentrate on cost reduction exercises
+and improvement in efficiency. Another key challenge presently is the Fiber/Raw Material cost, which is increasing
+abruptly and increase is not fully absorbed in the yarn prices and accordingly yarn spinners are hit the most in the entire
+textile chain. Due to fluctuating prices and uncertainties in the foreign exchange market, increase in power cost, introduction
+of GST and lack of adequate working capital, the EBITA levels may remain stagnant during the year.
+Further, to overcome the losses promptly in this challenging scenario, the Management is keeping a close watch on
+various threats/risks facing the company and taking all appropriate steps to restart of manufacturing unit.
+With much awaited / impending approval of Resolution Plan of the Company by NCLT and with the continued support and
+co-operation of company's bankers, management believes that your Company would again resume production, optimally
+utilize capacities, and generate increasing sales volumes, margins in due course and the management is confident of a
+turnaround of the company in near future.
+SEGMENT-WISE PERFORMANCE
+Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of
+geographical categorization of market, ASIL identified two segments i.e. exports and domestic.
+During the year under review, Company has not manufactured yarn.
+SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
+As there are no subsidiaries/ associates / joint ventures of the Company, the provisions contained in Companies Act,
+2013/SEBI (LODR) Regulations relating to subsidiaries are not applicable.
+DIVIDEND
+During the year under review, the Company has no distributable profits hence directors regret their inability to recommend
+any dividend for financial period 2017-18.
+TRANSFER TO RESERVES
+During the year, the Company has not transferred any amount to reserves.
+SHARE CAPITAL
+The Company's Authorized Share Capital as on 31st March, 2018 stands at Rs. 25,00,00,000/- and issued &amp; paid up
+capital as on 31st March, 2018 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity shares of Rs. 5/
+- each. During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
+share with differential Voting Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
+The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the
+benefit of employees. Hence the details under rule 16 (4) of Companies (Share Capital and Debentures) Rules, 2014 are
+not required to be disclosed.
+DIRECTORS AND KEY MANAGERIAL PERSONNEL
+(a) Change in Directors and Key Managerial Personnel
+Mr. Jitendra kumar Goutamchand Chopra has been appointed as an Additional Director and designated as Executive
+Managing Director on the Board of the Company with effect from 10th August, 2018.
+Mr. Deepak Chaganlal Choudhari has been appointed as an Additional Director and designated as Executive Joint Managing
+Director on the Board of the Company with effect from 10th August, 2018.
+Mrs. Sharmila Devi J Chopra has been appointed as a Woman Non-Executive Director on the Board of the Company with
+effect from 10th August, 2018.
+Mr. Aniruddha Badkatte has been appointed as a Company Secretary of the Company with effect from 10th August, 2018.
+Mr. Shreyans Rajendra Choudhari has been appointed as a Chief Financial Officer of the Company with effect from 10th
+August, 2018.
+Ms. Shifali has been appointed as compliance officer of the Company w.e.f 13th April, 2018 in place of Mr. Bharat Kapoor,
+who has resigned w.e.f 10th April, 2018.
+Brief resume of the Directors proposed to be appointed/re-appointed, nature of their expertise in specific functional areas
+and names of the companies in which they hold directorship and membership/chairmanships of the Board or its Committees,
+as stipulated under SEBI (LODR) Regulations entered into by the Company with stock exchanges in India, is provided in
+the notice of 26th Annual General Meeting.
+(b) Number of Meetings of the Board
+Four meetings of the Board were held during the year. The detailed information regarding meetings of the Board held
+during the year is mentioned in the Corporate Governance Report which forms part to this report.
+(c) Declaration by Independent Directors
+All Independent Directors have given declarations that they meet the criteria of independence as laid down under Section
+149(6) of the Companies Act, 2013 and SEBI (LODR) Regulations.
+(d) Annual Evaluation by the Board
+Pursuant to the provisions of the Companies Act, 2013 and SEBI (LODR) Regulations, the Board has carried out an
+annual performance evaluation of its own performance, the directors individually as well as its Committees. The manner
+in which the evaluation has been carried out has been explained in the Corporate Governance Report.
+(e) Remuneration Policy
+The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection and
+appointment of Directors, Senior Management and their remuneration. The Remuneration Policy is enumerated in the
+Corporate Governance Report. During the year, neither the Managing Director nor the Whole-time Directors of the Company
+received any remuneration or commission from any of its subsidiaries.
+DIRECTORS' RESPONSIBILITY STATEMENT
+Pursuant to the requirement of Section 134(3) (c) of the Companies Act, 2013, with respect to Directors' Responsibility
+Statement, it is hereby confirmed that:
+(a) in the preparation of the annual accounts for the financial year ended 31st March, 2018, the applicable accounting
+standards had been followed along with proper explanation relating to material departures;
+(b) the directors had selected such accounting policies and applied them consistently and made judgments and estimates
+that are reasonable and prudent so as to give a true and fair view of the state of affairs of the company as at March 31,
+2018 and of the profit and loss of the company for that period;
+(c) the directors had taken proper and sufficient care for the maintenance of adequate accounting records in accordance
+with the provisions of the Companies Act, 2013 for safeguarding the assets of the company and for preventing and
+detecting fraud and other irregularities;
+(d) the directors had prepared the annual accounts on a going concern basis; and
+(e) the directors had laid down internal financial controls to be followed by the company and that such internal financial
+controls are adequate and were operating effectively.
+(f)
+the directors had devised proper systems to ensure compliance with the provisions of all applicable laws and that
+such systems were adequate and operating effectively.
+RELATED PARTY TRANSACTIONS
+None of the transactions with related parties falls under the scope of section 188(1) of the Act. All related party transactions
+that were entered into during the financial year were on an arm's length basis and were in the ordinary course of business.
+There were no materially significant related parties transactions entered into by the Company with Holding Company/
+Promoters, Directors, Key Managerial Personnel or other designated persons which may have a potential conflict with the
+interest of the Company at large.
+Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for the year ended 31st
+March, 2018 and for transactions proposed to be entered into with related parties for the financial year 2018-19 were
+placed before the said committee and consent of the said committee was obtained.
+The policy on Related Party Transactions as approved by the Board has been uploaded on the website www.spentex.net.
+None of the Directors has any pecuniary relationships or transactions vis-a-vis the Company. Since all related party
+transactions entered into by the Company were in ordinary course of business and were on an arm's length basis, form
+AOC - 2 is not applicable to the Company.
+MATERIAL CHANGES AND COMMITMENTS AFFECTING THE FINANCIAL POSITION BETWEEN THE DATE OF THE
+BOARD REPORT AND END OF FINANCIAL YEAR
+During the year under review, the company's operations remain suspended due to the financial constraints and in addition
+to the above, the manufacturing unit situated at Kolhapur, Maharashtra stands closed with effect from 1st July, 2017 after
+completion of applicable legal formalities.
+NCLT has, vide its order dated 31st July, 2018 approved the resolution plan as submitted by Resolution Applicants for the
+Company pursuant to the Corporate Insolvency Resolution Process in respect of the Company under Insolvency and
+Bankruptcy Code, 2016.
+SIGNIFICANT AND MATERIAL ORDERS PASSED BY THE REGULATORS OR COURTS.
+NCLT has, vide its order dated 31st July, 2018 approved the resolution plan as submitted by Resolution Applicants for the
+Company pursuant to the Corporate Insolvency Resolution Process in respect of the Company under Insolvency and
+Bankruptcy Code, 2016.
+AUDITORS AND AUDITORS REPORT
+(a) Statutory Auditors
+Pursuant to the provisions of Section 139 of the Companies Act, 2013 read with the rules framed thereunder, M/s Sunil
+Jain &amp; Co., Chartered Accountants, (Firm Registration No. 002855N) was appointed as Statutory Auditor of the Company
+at the 22nd Annual General Meeting held on 11.09.2014, to hold office till the conclusion of the 26th Annual General
+Meeting to be held in the Calendar Year 2018, subject to ratification of their appointment at every annual general meeting.
+The terms of M/s Sunil Jain &amp; Co., Chartered Accountants, will expire at the ensuing Annual General Meeting.
+The Audit Committee and Board of Directors, at their meeting held on 10th August, 2018, have recommended the
+appointment of M/s Sanjay Vhanbatte &amp; Company, Chartered Accountants, (Firm Registration No. 112996W) as statutory
+auditors of the Company in place of retiring Auditor, to hold office from the conclusion of 26th Annual General Meeting till
+the conclusion of 31st Annual General Meeting. The Company has received a confirmation from M/s Sanjay Vhanbatte &amp;
+Company, Chartered Accountants to the effect that their appointment, if made, at the ensuing AGM would be in terms of
+Sections 139 and 141 of the Companies Act, 2013 and rules made there under and that they are not disqualified for the
+appointment. Their appointment is being placed for consideration of members in ensuing Annual General Meeting.
+Auditor's Report
+Statutory Auditors i.e, M/s Sunil Jain &amp; Co., have submitted Auditors' Report on the accounts of the Company for the
+period ended 31st March 2018. The Auditor's Report read with Notes to Accounts is self-explanatory and does not call for
+any further explanation under Section 134 of the Companies Act, 2013. Directors' response to the various observations of
+the auditors made in their report, have been explained wherever necessary through appropriate notes to accounts
+(b) Cost Auditor:
+The Company having been declared as a sick company under repealed SICA and having not produced any yarn in the
+year 2017-18, the Companies (Cost Records and Audit Rules), 2014 is not applicable to the Company.
+(c) Secretarial Auditor &amp; Audit Report:
+Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa &amp;
+Associate, Practicing Company Secretary (having CP No. 10753 &amp; Membership No. 9055) as Secretarial Auditor to carry
+out the secretarial audit for the financial year 2017-18.
+The Secretarial Audit Report for the financial year ended March 31, 2018 is annexed herewith marked as Annexure 1 to
+this Report.
+The qualifications/observations/remarks made by the Secretarial Auditors and management's view thereon are given in
+their Report attached hereto.
+INTERNAL CONTROL SYSTEMS AND ADEQUACY
+The Company has established adequate internal control systems, commensurate with its size and nature of business and
+such systems are periodically audited, verified and reviewed for their validity, considering the changing business scenario
+from time to time, the Audit Committee of the Board of Directors reviews the adequacy and effectiveness of internal
+control systems and suggests improvement for strengthening them.
+EXTRACT OF THE ANNUAL RETURN
+The details forming part of the extract of annual return in Form MGT-9 as required under Section 92(3) of the Companies
+Act and Rule 12 of the Companies (Management and Administration) Rules, 2014 is available on the website
+www.spentex.net
+CONSERVATION OF ENERGY, TECHNOLOGY ABSORPTION AND FOREIGN EXCHANGE EARNINGS AND OUTGO.
+As there is no operation/production during the year under review, the information as required to be disclosed under
+Section 134(3)(m) of the Companies Act, 2013 read with Rule, 8 of the Companies (Accounts) Rules, 2014 is not applicable.
+PARTICULARS OF EMPLOYEES
+The statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) &amp; 5(3)
+of the companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014 as amended, shall be made
+available to any shareholder on a specific request made by him in writing on or before 27th September, 2018
+DEPOSITS
+The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue
+deposits as at 31st March, 2018.
+PARTICULARS OF LOANS, GUARANTEES OR INVESTMENTS
+Details of loans, Guarantees and Investments covered under the provision of Section 186 of the Companies Act, 2013 are
+given in the notes to the Financial Statements.
+RISK MANAGEMENT
+A Risk Management Committee has been constituted to oversee the risk management process in the Company as
+required under the Companies Act, 2013 and SEBI (LODR) Regulations. The details of the Committee and its terms of
+reference are set out in the Corporate Governance Report forming part of the Board's Report. The Risk Management
+Policy has also been hosted on the website of the company
 VIGIL MECHANISM
-The Company has framed and implemented a vigil mechanism named as Whistle Blower Policy to deal with instances of fraud and
-mismanagement, if any. The details of the Whistle Blower Policy are provided in the Corporate Governance Report and also hosted on
-the website of the Company.
-During the year under review, there were no cases filed pursuant to the Sexual Harassment of Women at Workplace (Prevention,
-Prohibition and Redressal) Act, 2013.
+The Company has framed and implemented a vigil mechanism named as Whistle Blower Policy to deal with instances of
+fraud and mismanagement, if any. The details of the Whistle Blower Policy are provided in the Corporate Governance
+Report and also hosted on the website of the Company.
+During the year under review, the Company has an Internal Complaint Committee as required under Sexual Harassment
+of Women at Workplace (Prevention, Prohibition and Redressal) Act, 2013 and, there were no compliant received during
+the year.
 HUMAN RESOURCES/INDUSTRIAL RELATIONS
-A Fundamental concept embodied in the company's code of conduct is to provide working environment that motivate employees to be
-productive and innovative and provide opportunities for employee training and development to maximize personal potential and
-develop careers within the Group. The Company values the involvement of its employees and keep them informed on matters affecting
-them as employees and factors relevant to the company's performance and other employee related issues on a non discriminatory
-basis.
-The Board of Directors place on record the active, dedicated and valuable contribution made by employees of the Company at all levels
-with regard to the affairs of the Company. The Industrial relations remained cordial within the Company.
+A fundamental concept embodied in the company's code of conduct is to provide working environment that motivate
+employees to be productive and innovative and provide opportunities for employee training and development to maximize
+personal potential and develop careers within the Company. The Company values the involvement of its employees and
+keep them informed on matters affecting them as employees and factors relevant to the company's performance and
+other employee related issues on a non discriminatory basis.
+The Board of Directors place on record the active, dedicated and valuable contribution made by employees of the Company
+at all levels with regard to the affairs of the Company. The Industrial relations remained cordial within the Company.
 FRAUD REPORTING
-During the year no fraud has been reported to the Audit Committee / Board.
+During the year Statutory Auditors has not found any instance of fraud committed against the Company by its employees
+or officers and accordingly, reporting to the Audit Committee or Central Government is not required.
 INFORMATION TECHNOLOGY
-Information Technology continues to be an integral part of your company's business strategy. The Company is working on SAP
-platform integrating its business processes, financial parameters, customer transactions and people, effectively on real time basis.
+Information Technology continues to be an integral part of your company's business strategy. The Company is working on
+SAP platform integrating its business processes, financial parameters, customer transactions and people, effectively on
+real time basis.
 CHANGE IN THE NATURE OF BUSINESS
 There is no change in the nature of the business of the company.
 CORPORATE GOVERNANCE AND MANAGEMENT DISCUSSION AND ANALYSIS
-As stipulated under SEBI (LODR) Regulations, 2015, a report on Corporate Governance is attached separately as a part of the Annual
-Report and the Management Discussion and Analysis (MD &amp; A) is included in this report so that duplication and overlap between
-Boards' Report and a separate MD &amp; A is avoided and the entire information is provided in a composite and comprehensive manner.
+As stipulated under SEBI (LODR) Regulations entered into with Stock Exchanges, a report on Corporate Governance is
+attached separately as a part of the Annual Report and the Management Discussion and Analysis (MD &amp; A) is included in
+this report so that duplication and overlap between Directors' Report and a separate MD &amp; A is avoided and the entire
+information is provided in a composite and comprehensive manner.
 LISTING OF SHARES
-Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of India, Mumbai
-(NSE). Due to closure of operations of manufacturing unit and non approval of Rehabilitation Scheme by concerned authority the
-company has not paid the Annual Listing Fee for the financial year 2015-16 and 2016-17 to BSE &amp; NSE and Company would be in a
-position to pay the same only after infusion of funds pursuant and subsequent to the approval of Rehabilitation Scheme.
+Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of
+India, Mumbai (NSE). Due to closure of the manufacturing unit situated at Kolhapur the company could not pay the Annual
+Listing Fee to BSE &amp; NSE.
 CONCLUSION
-Your company is presently going through challenging and difficult period due to market and financial constraints. It has already been
-declared as a Sick Company under Sick Industrial Companies (Special Provisions) Act, 1985 by BIFR vide its order dated 18th
-July'2012, and UCO Bank has been appointed as an Operating Agency to work out DRS for the Company in consultation with lenders.
-It is however expected, on Company receiving BIFR approval for its DRS, it would be in a better position to augment its production and
-sales, by utilizing its capacities optimally. UCO Bank has assigned its debt to JM Financial Asset Reconstruction Company Pvt. Ltd.
-Acknowledgments
-Your Directors place on record their sincere thanks to bankers, financial institutions business associates, consultants, customers,
-suppliers, contractors and various Government Authorities for their continued support extended to your Company's activities during
-the year under review. Your Directors also gratefully acknowledge the continuing support of the shareholders and the confidence
-reposed by them in the company
-Place New Delhi
-Date : August 9, 2016
-On behalf of the BOARD OF DIRECTORS
+Your company was going through challenging and difficult period due to market and financial constraints. The Resolution
+Applicants have submitted the Resolution Plans for the revival of the Company, out of which one Resolution Plan has
+been approved by the Committee of Creditors at their meeting held on 26th April, 2018 and the same was subsequently
+approved by the NCLT, vide its order dated 31st July, 2018. It is however expected, that with approval of Resolution Plan
+by NCLT, It would be in a better position to augment its production and sales by utilizing its capacities optimally.
+Acknowledgements
+Your Directors place on record their sincere thanks to bankers, financial institutions business associates, consultants,
+customers, suppliers, contractors and various Government Authorities for their continued support extended to your
+Companies activities during the year under review. Your Directors also acknowledge gratefully the shareholders for their
+support and confidence reposed on the Company.
+For &amp; on behalf of the Board
 Sd/-
-S P SETIA
-CHAIRMAN
-Annexure - 1 to the Director's Report
-Form for Disclosure of particulars of contracts/arrangements entered into by the company with related parties referred to in sub section
-(1) of section 188 of the Companies Act, 2013 including certain arms length transaction under third proviso thereto.
-1. Details of contracts or arrangements or transactions not at Arm's length basis – N.A.
-2. Details of material contracts or arrangements or transactions at Arm's length basis.
-FORM NO. AOC -2
-(Pursuant to clause (h) of sub-section (3) of section 134 of the Act and
-Rule 8(2) of the Companies (Accounts) Rules, 2014)
-SL. No.
-Particulars
-Details
-Name (s) of the related party &amp; nature of relationship
-Spentex Industries Ltd. (Holding Company)
-Nature of contracts/arrangements/transaction
-Sale/Purchase of godds/services
-Duration of the contracts/arrangements/transaction
-Salient terms of the contracts or arrangements or
-Ongoing transactions on normal business terms.
-transaction including the value, if any
-Value of all transactions is Rs. 50,71,101/-
-Date of approval by the Board
-25.05.2016
-Amount paid as advances, if any
-Annexure-2 to the Director's Report
+S.P. Setia
+Chairman
+Place : New Delhi
+Date : 10th August, 2018
+Annexure - 1 to the Director’s Report
 Form No. MR-3
 SECRETARIAL AUDIT REPORT
-FOR THE FINANCIAL YEAR ENDED ON 31ST MARCH, 2016
-(Pursuant to section 204(1) of the Companies Act, 2013 and Rule No. 9
-of the Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014)
+FOR THE FINANCIAL YEAR ENDED ON 31ST MARCH, 2018
+(Pursuant to section 204(1) of the Companies Act, 2013 and Rule No. 9 of the Companies (Appointment and
+Remuneration of Managerial Personnel) Rules, 2014)
 To,
 The Members,
 Amit Spinning Industries Limited
-We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good corporate
-practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was conducted in a manner
-that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances and expressing our opinion thereon.
-Based on our verification of the Company's books, papers, minute books, forms and returns filed and other records maintained by the
-Company and also information provided by the Company, its officers, agents and authorized representatives during the conduct of
-secretarial audit, We hereby report that in our opinion, the company has, during the audit period covering the financial year ended on
-31st March, 2016, complied with the statutory provisions listed hereunder and also that the Company has proper Board-processes and
-compliance-mechanism in place to the extent, in the manner and subject to the reporting made hereinafter:
-We have examined the books, papers, minute books, forms and returns filed and other records maintained by M/s. Amit Spinning
-Industries Limited as given in Annexure I for the financial year ended on 31st March, 2016 according to the provisions of:
+We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good
+corporate practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was
+conducted in a manner that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances
+and expressing our opinion thereon.
+Based on our verification of the Company's books, papers, minute books, forms and returns filed and other records
+maintained by the Company and also information provided by the Company, its officers, agents and authorized
+representatives during the conduct of secretarial audit, we hereby report that in our opinion, the company has, during the
+audit period covering the financial year ended on 31st March, 2018, complied with the statutory provisions listed hereunder
+and also that the Company has proper Board-processes and compliance-mechanism in place to the extent, in the manner
+and subject to the reporting made hereinafter:
+We have examined the books, papers, minute books, forms and returns filed and other records maintained by M/s Amit
+Spinning Industries Limited as given in Annexure I for the financial year ended on 31st March, 2018 according to the
+provisions of:
+I.
+The Companies Act, 2013 (the Act) and the rules made there under;
+II.
+The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
+III. The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
+IV. Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign
+Direct Investment, Overseas Direct Investment and External Commercial Borrowings;
+V.
+The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act') viz.:
+VI. The Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) Regulations, 2011;
+VII. The Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015;
+VIII.The Securities and Exchange Board of India (Issue of Capital and Disclosure Requirements) Regulations, 2009;
+IX. The Securities and Exchange Board of India (Share Based Employee Benefits) Regulations, 2014); (N.A.)
+X.
+The Securities and Exchange Board of India (Issue and Listing of Debt Securities) Regulations. 2008; (N.A.)
+XI. The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993
+regarding the Companies Act and dealing with client;
+XII. The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009; (N.A.) and
+XIII.The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
 (i)
-The Companies Act, 2013 (the Act) and the rules made there under;
-(ii)
-The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
-(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
-(iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign Direct
-Investment, Overseas Direct Investment and External Commercial Borrowings;
-(v) The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act') viz.:
-(a) The Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) Regulations, 2011;
-(b) The Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015;
-(c) The Securities and Exchange Board of India (Issue of Capital and Disclosure Requirements) Regulations, 2009;
-(d) The Securities and Exchange Board of India (Employee Stock Option Scheme and Employee Stock Purchase Scheme)
-Guidelines, 1999; (N.A.)
-(e) The Securities and Exchange Board of India (Issue and Listing of Debt Securities) Regulations. 2008; (N.A.)
-(f)
-The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993 regarding
-the Companies Act and dealing with client;
-(g) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009; (N.A.) and
-(h) The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
-(vi) OTHER APPLICABLE ACTS
+OTHER APPLICABLE ACTS
 (a) Factories Act, 1948
 (b) Payment Of Wages Act, 1936, and rules made there under,
 (c) The Minimum Wages Act, 1948, and rules made there under,
@@ -4920,508 +6209,110 @@
 (i)
 Food Safety and Standards Act, 2006, and rules made there under.
 (j)
-Environment (Protection) Act, 1986
+Environment (Protection) Act, 1986.
 We have also examined compliance with the applicable clauses of the following:
 1.
 Secretarial Standards issued by The Institute of Company Secretaries of India.
 2.
-The Listing Agreements entered into by the Company with Bombay Stock Exchange and National Stock Exchange.
+The Listing Agreements entered into by the Company with BSE Limited and National Stock Exchange of India Limited.
 3.
 Securities and Exchange Board of India (Listing Obligations and Disclosure Requirements) Regulations, 2015
-During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines, Standards,
-etc. mentioned above.
+(hereinafter called "SEBI Listing Regulations").
+During the year under review, the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines,
+Standards, etc. mentioned above.
 We further report that:
 1.
-The Board of Directors of the Company was not constituted with proper balance of Executive Directors, Non-Executive/
-Independent Directors as on March 31, 2016. However, as on June 30, 2016, the composition of the Board of Directors of the
-Company is in conformity with the requirements as stipulated under SEBI (LODR) Regulations, 2015 and the Companies Act,
-2013 and rules framed there under.
+The Board of Directors of the Company is not constituted with proper balance of Executive Directors and Non-
+Executive Directors. There is no Executive Director on the Board of the Company. The composition of Independent
+Directors on the Board of Directors of the Company is in conformity with the requirements as stipulated under SEBI
+Listing Regulations and the Companies Act, 2013 and rules framed there under.
 2.
-Adequate notice is given to all directors to schedule the Board Meetings, agenda and detailed notes on agenda were sent at least
-seven days in advance and a system exists for seeking and obtaining further information and clarifications on the agenda items
-before the meeting and for meaningful participation at the meeting.
+The Company is required to appoint a Whole Time Company Secretary as per the provisions of Section 203 of the
+Companies Act, 2013 read with Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014
+and SEBI Listing Regulations, however, there is no Whole Time Company Secretary of the Company, during the
+financial year ended on 31st March, 2018.
 3.
-Majority decision is carried through while the dissenting members' views are captured and recorded as part of the minutes.
+Mr. Malpeddi Nagnath S, the Chief Financial Officer (CFO) of the Company has resigned w.e.f. 01st August, 2017 and
+no person has further been appointed as CFO of the Company under Section 203 of the Companies Act, 2013.
 4.
-There are adequate systems and processes in the company commensurate with the size and operations of the company to
-monitor and ensure compliance with applicable laws, rules, regulations and guidelines.
+As per provisions of Companies Act, 2013 and Company rules 2014 read with various Regulations of SEBI Listing
+Regulations, 2015, the Company has constituted the Risk Management Committee, Stakeholders Relationship Committee,
+Audit Committee, Nomination &amp; Remuneration Committee and uploaded applicable policies at Company's website.
 5.
-The Company has well maintained all the Statutory Registers i.e. Register of Members, Register of Charges, Register of Directors
-Shareholding etc. mandatory to be maintained under Companies Act, 2013.
+The number of members of Audit Committee and Nomination and Remuneration Committee of the Company was less
+than three from 01st August, 2017 to 31st December, 2017 due to the resignation of Mr. K. Sankaramani, Independent
+Director of the Company, which was not in accordance with SEBI Listing Regulations and Section 177 and 178 of the
+Companies Act, 2013.
 6.
-The Company was unable to pay off listing fees to stock exchanges; NSE &amp; BSE, for the financial year 2015-16 &amp; 2016-17. The
-Rehabilitation Scheme filed by the company with BIFR is yet to be considered and approved. The management has no option but
-continue to keep the manufacturing unit situated at Kolhapur, Maharashtra, inoperative, as before for the time being, due to
-financial constraints and non-availability of working capital.
+The company was unable to pay off the Listing Fees of National Stock Exchange (NSE) and Bombay Stock Exchange
+(BSE) for the Financial Year 2016-2017 and 2017-18 due to financial constraints. The Company has received Letters,
+Reminders, E mails from the NSE &amp; BSE for the payment of unpaid listing fees.
 7.
-The Company has paid all the statutory dues except dues related to EPF (Employee Provident Fund) and Service Tax for the
-financial year 2015-2016 due to financial constraints.
+In view of adoption of IND-AS by the Company for the first time w.e.f 1st April, 2017, the Company has submitted the
+Financial Results for the quarter ended 30th June, 2017 on 23rd September, 2017 as against the due date of 14th
+September, 2017, hence the BSE Ltd. and National Stock Exchange Ltd. has imposed SOP (Standard Operating
+Procedure) fine for the non compliance of Regulation 33 of SEBI Listing Regulations. The Company has received
+letters, reminders from the stock exchanges for the payment of same with the statement that if the same would not be
+paid within stipulated time, then, the holding of the promoter and promoter group in other securities shall be freezed,
+in consequence.
 8.
-The Company has complied with all the provisions of SEBI (Listing obligations and Disclosure Requirements) regulation, 2015
-and SEBI (Insider Trading) Regulations, 2015 in respect to opening trading window, Company intimated 24 hours instead of 48
-hours.
-9.
-On July 18, 2012 Board for Industrial &amp; Financial Reconstruction declared the company as Sick Industrial Company under Section
-3(1)(o) of SICA, 1985 &amp; has also appointed Operating Agency to prepare a rehabilitation scheme.
-10. As per provisions of Companies Act, 2013 and Company rules 2014 read with various clauses of Listing Agreement/SEBI (Listing
-Obligation and Disclosure Requirements) Regulations, 2015, the Company has constituted the Risk Management Committee,
-Stakeholders Relationship Committee, Audit Committee, Nomination &amp; Remuneration Committee and uploaded applicable
-policies at Company's website.
-11. The Company has appointed Mr. Malpeddi Nagnath S as Chief Financial Officer of the Company in the Board Meeting held on 08-
-02-2016 and filed all necessary documents with Registrar of Companies except MR-1 till today. At the time of appointment of CFO,
-Form MR-1 is applicable, however, the same have now been dispensed by Ministry of Corporate Affairs.
-During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines, Standards,
-etc. mentioned above and there were no specific events / actions having a major bearing on the company's affairs
-For Loveneet Handa &amp; Associates
-(Practicing Company Secretary)
-Sd/-
-Place: New Delhi
-Loveneet Handa
-Dated: August 03, 2016
-Annexure - I
-Documents examined/verified while conducting secretarial audit:
-(a) Books ,Papers, as per Section 2 (12) of Companies Act, 2013,“book and paper” and “book or paper” include books of account,
-deeds, vouchers, writings, documents, minutes and registers maintained on paper or in electronic form. (Registers Maintained by
-RTA)
-(b) Memorandum of association
-(c) Articles of association
-(d) Certificate of Incorporation
-(e) Audited balance sheet(s)
-(f)
-Statutory Registers maintained by the Company i.e. Register of Members/ Register of Charges/ Register of Directors
-Shareholding/ Register of Contract/ Register of Investment, Register of Director Shareholdings, Register of Contracts of the Co.
-and firms in which directors etc are interested, Common Seal Register etc.
-(g) Minutes of the Board meetings, Annual General Meeting, Stakeholders Relationship Committee Meeting, and Audit Committee
-Meeting, Nomination &amp; Remuneration Committee Meeting.
-(h) Notice of calling Annual General Meeting along with the explanatory statement.
-(i)
-Copy of documents related to the appointment/Resignation of Statutory Auditor of the company
-(J) Copy of Internal Audit Report given by Internal Auditor appointed u/s 138 of Companies Act, 2013.
-I.
-REGISTRATION AND OTHER DETAILS:
-FORM NO. MGT 9
-EXTRACT OF ANNUAL RETURN
-as on financial year ended on 31.03.2016
-Pursuant to Section 92 (3) of the Companies Act, 2013 and rule 12(1) of the Company
-(Management &amp; Administration ) Rules, 2014.
-Annexure - 3 to the Director's Report
-i)
-CIN
-ii)
-Registration Date
-18.11.1991
-iii) Name of the Company
-Amit Spinning Industries Limited
-iv) Category/Sub-category of the Company
-Public Limited Company
-v)
-Address of the Registered office &amp; contact details
-A - 60, Okhla Industrial Area, Phase - II, New Delhi - 110020;
-vi) Whether listed company
-Yes
-vii) Name, Address &amp; contact details of
-RCMC Share Registry Pvt. Ltd., B-25/1, Okhla Industrial Area,
-the Registrar &amp; Transfer Agent, if any
-II.
-PRINCIPAL BUSINESS ACTIVITIES OF THE COMPANY
-All the business activities contributing 10 % or more of the total turnover of the company shall be stated:-
-Sr. No.
-Name &amp; Description of main products/services
-NIC Code of the
-% to total turnover
-Product /service
-of the company
-Yarn
-III.
-PARTICULARS OF HOLDING , SUBSIDIARY &amp; ASSOCIATE COMPANIES
-Sr.
-NAME AND ADDRESS OF
-CIN/GLN
-HOLDING/
-% OF
-APPLICABLE
-No.
-THE COMPANY
-SUBSIDIARY/
-SHARES
-SECTION
-ASSOCIATE
-HELD
-Spentex Industries Limited
-Holding
-50.96%
-2 (46)
-A - 60, Okhla Industrial Area,
-Phase - II, New Delhi - 110020
-A. Promoters
-(1)Indian
-a) Individual/HUF
-0.00
-0.00
-0.00
-b) Central Govt. or
-0.00
-0.00
-0.00
-State Govt.
-c) Bodies Corporates
-20,981,077
-20,981,077
-50.96
-20,981,077
-20,981,077
-50.96
-0.00
-d) Bank/FI
-0.00
-0.00
-0.00
-e) Any other
-0.00
-0.00
-0.00
-SUB TOTAL:(A) (1)
-50.96
-20,981,077
-20,981,077
-50.96
-0.00
-IV. SHAREHOLDING PATTERN (Equity Share capital Break up as % to total Equity)
-i)
-Category wise shareholding
-Category of
-No. of Shares held at the beginning
-No. of Shares held at the end
-%change
-Shareholders
-of the year
-of the year
-during
-Demat
-Physical
-Total
-% of
-Demat
-Physical
-Total
-% of
-the year
-Total
-Total
-Shares
-Share
-(2)Foreign
-a) NRI- Individuals
-0.00
-0.00
-0.00
-b) Other Individuals
-0.00
-0.00
-0.00
-c) Bodies Corporates
-0.00
-0.00
-0.00
-d) Banks/FI
-0.00
-0.00
-0.00
-e) Any other
-0.00
-0.00
-0.00
-SUB TOTAL (A) (2)
-0.00
-0.00
-0.00
-Total Shareholding of
-20,981,077
-20,981,077
-50.96
-20,981,077
-20,981,077
-50.96
-0.00
-Promoter (A) = (A)(1)+
-(A)(2)
-B. PUBLIC
-SHAREHOLDING
-(1)Institutions
-a) Mutual Funds
-0.00
-0.00
-0.00
-b) Banks/FI
-0.00
-0.00
-0.00
-C) Central Govt
-0.00
-0.00
-0.00
-d) State Govt.
-0.00
-0.00
-0.00
-e) Venture Capital Fund
-0.00
-0.00
-0.00
-f) Insurance Companies
-2,000
-2,000
-0.00
-2,000
-2,000
-0.00
-0.00
-g) FIIS
-0.00
-0.00
-0.00
-h) Foreign Venture
-0.00
-0.00
-0.00
-Capital Funds
-i) Others (specify)
-0.00
-0.00
-0.00
-Foreign Bank
-SUB TOTAL (B)(1):
-2,000
-2,100
-0.01
-2,000
-2,100
-0.01
-0.00
-(2)Non Institutions
-a) Bodies Corporates
-i) Indian
-860,293
-7,900
-868,193
-2.11
-799,811
-7,900
-807,711
-1.96
--0.15
-ii) Overseas
-0.00
-0.00
-0.00
-b) Individuals
-i) Individual shareholders
-4,343,826
-1,748,240
-6,092,066
-14.80
-6,718,997
-16.32
-1.52
-holding nominal share
-capital upto Rs.1 lakhs
-ii) Individuals
-12,094,882
-47,300
-12,142,182
-29.49
-11,609,292
-11,609,292
-28.20
--1.29
-shareholders holding
-nominal share capital
-in excess of Rs.1 lakhs
-c) Others (specify)
-i) Directors other than
-0.00
-0.00
-0.00
-Promoters
-ii) Trust
-676,142
-676,142
-1.64
-676,142
-676,142
-1.64
-0.00
-iii) Clearing Member
-56,311
-56,311
-0.14
-21,354
-21,354
-0.05
--0.08
-iv) Hindu Undivided
-0.00
-0.00
-0.00
-Families
-Category of
-No. of Shares held at the beginning
-No. of Shares held at the end
-%change
-Shareholders
-of the year
-of the year
-during
-Demat
-Physical
-Total
-% of
-Demat
-Physical
-Total
-% of
-the year
-Total
-Total
-Shares
-Share
-v) NRI
-78,891
-272,705
-351,596
-0.85
-81,289
-271,705
-352,994
-0.86
-0.00
-SUB TOTAL (B)(2):
-18,110,345
-2,076,145
-20,186,490
-49.03
-20,186,490
-49.03
-0.00
-Total Public
-18,112,345
-2,076,245
-20,188,590
-49.04
-20,188,590
-49.04
-0.00
-Shareholding (B)= (B)(1)
-(B)(2)
-C. Shares held by
-0.00
-0.00
-0.00
-Custodian for GDRs
-&amp; ADRs
-Grand Total (A+B+C)
-39,093,422
-2,076,245
-41,169,667
-100.00
-41,169,667
-100.00
-0.00
-Category of
-No. of Shares held at the beginning
-No. of Shares held at the end
-%change
-Shareholders
-of the year
-of the year
-during
-Demat
-Physical
-Total
-% of
-Demat
-Physical
-Total
-% of
-the year
-Total
-Total
-Shares
-Share
-ii)
-Shareholding of Promoters
-Spentex Industries
-20,981,077
-50.96
-20.00
-20,981,077
-50.96
-20.00
-0.00
-Limited
-Sr
-Shareholders
-Shareholding at the
-Shareholding at the
-% change
-No.
-Name
-beginning of the year
-end of the year
-in share
-holding
-No. of
-% of total
-% of shares
-No. of
-% of total
-% of s</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5666</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7572338808674811</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>risk management</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+The intimation of the Board Meeting of the Company held on 14th December, 2017 for the consideration and approval
+of unaudited Financial Results of the Company for the quarter ended on 30th September,</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12828</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.7833737788563251</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['risk management']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Amtek</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bankers
-Corporation Bank
-Andhra Bank
-Indian Overseas Bank
-IDBI Bank
-Registrar &amp; Share Transfer Agent
-Beetal Financial &amp; Computer
-Services Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AMTEK AUTO LIMITED</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>5200770316.pdf</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2015-16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>62 | AMTEK AUTO LIMITED
 AUDITORS’ REPORT ON COMPLIANCE OF CONDITIONS OF CORPORATE GOVERNANCE
@@ -5881,50 +6772,59 @@
 from various departments of the Company and the Board is informed of the same at every Board Meeting.</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>4742</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8014434484576852</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>risk management, global economy</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.8014434484576852</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['risk management', 'global economy']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Amtek</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Bankers
-Corporation Bank
-Andhra Bank
-Indian Overseas Bank
-IDBI Bank
-Registrar &amp; Share Transfer Agent
-Beetal Financial &amp; Computer
-Services Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMTEK AUTO LIMITED</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>5200770317.pdf</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2016-17</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>ANNUAL REPORT 2016-17 | 63
 CEO/CFO CERTIFICATE
@@ -6356,46 +7256,59 @@
 systems and processes.</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>4994</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.802535717664869</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.802535717664869</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Amtek</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Bankers
-Corporation Bank
-Andhra Bank
-Indian Overseas Bank
-IDBI Bank
-Registrar &amp; Share Transfer Agent
-Beetal Financial &amp; Computer
-Services Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AMTEK AUTO LIMITED</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>5200770318.pdf</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>64 | AMTEK AUTO LIMITED
 (Company under Corporate Insolvency Resolution Process)
@@ -6744,50 +7657,59 @@
 to the Audit Committee and rectify the same.</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>4007</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7948383526993914</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>global economy</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.7948383526993914</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['global economy']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Amtek</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bankers
-Corporation Bank
-Andhra Bank
-Indian Overseas Bank
-IDBI Bank
-Registrar &amp; Share Transfer Agent
-Beetal Financial
-&amp; Computer Services Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AMTEK AUTO LIMITED</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>5200770915.pdf</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2014-15</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>56 | AMTEK AUTO LIMITED
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
@@ -7066,19 +7988,25 @@
 CHAIRMAN</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>3631</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.811975996935779</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>risk management, global economy</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3631</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.811975996935779</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['risk management', 'global economy']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mdna_extraction_project/output/mdna_extracted.xlsx
+++ b/mdna_extraction_project/output/mdna_extracted.xlsx
@@ -513,233 +513,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>V.
-INDEBTEDNESS - Indebtedness of the Company including interest outstanding/accrued but not due for payment.
-(` In Lakhs)
-Secured Loans
-Unsecured
-Deposits
-Total
-excluding Deposits
-Loans
-Indebtedness
-Indebtedness at the beginning of
-the financial year (FY-2018-19)
-i)
-Principal Amount
-299.99
-74167.03
-74467.02
-ii) Interest due but not paid
-9.05
-9.05
-iii) Interest accrued but not due
-Nil
-Total (i+ii+iii)
-309.04
-74167.03
-74476.07
-Change in Indebtedness during the financial year
-* Addition
-49.98
-1301.49
-1351.47
-* Reduction
-Net Change
-49.98
-1301.49
-1351.47
-Indebtedness at the end of the
-financial year (FY-2018-19)
-i)
-Principal Amount
-349.32
-75468.52
-75817.84
-ii) Interest due but not paid
-9.70
-9.70
-iii) Interest accrued but not due
-Total (i+ii+iii)
-359.02
-75468.52
-75827.54
-VI. REMUNERATION OF DIRECTORS AND KEY MANAGERIAL PERSONNEL
-A.
-Remuneration to Managing Director, Whole-Time Directors and/or Manager:
-(` In Lakhs)
-Sl.
-Particulars of Remuneration
-Name of MD/WTD/ Manager
-Total
-No.
-Amount
-Mr.Bikram Bhattacharya (WTD)
-Gross salary
-Salary as per provisions contained in section 17(1)
-28.88
-28.88
-of the Income-tax Act, 1961
-Value of perquisites u/s 17(2) Income-tax Act, 1961
-Profits in lieu of salary under section 17(3)
-Income- tax Act, 1961
-Stock Option
-Sweat Equity
-Commissionas % of profit
-Others, please specify
-Total (A)
-28.88
-28.88
-Ceiling as per the Act
-@5% or 10% of profits calculated under Section 198
-or within the limit as permissible under schedule V of
-the Companies Act, 2013. The above remuneration
-was paid within the limit as prescribed under the Act.
-B.
-Remuneration to Other Directors:
-(` In Lakhs)
-S.
-Particulars of Remuneration
-Name of Directors
-Total
-No.
-Amount
-Independent Directors
-Ms. Maria
-Ms.Ambika
-Fernandes
-Chowdhary
-Sitting Fees for Board/ Committee Meetings
-0.40
-0.40
-0.80
-Commission
-Others, please specify
-Total (1)
-0.40
-0.40
-0.80
-2.
-Other Non-Executive Directors
-Mr. Vinay
-Kumar Mittal
-Sitting Fees for Board/ Committee Meetings
-Nil
-NA
-NA
-Commission
-Nil
-NA
-NA
-Others, please specify
-Nil
-NA
-NA
-Total (2)
-Nil
-NA
-NA
-Total (B)=(1+2)
-Nil
-0.40
-0.40
-0.80
-Total ManagerialRemuneration (A+B)
-NA
-NA
-NA
-29.68
-Overall Ceiling as per the Act
-@ 1% of profits calculated under section 198 of the
-Companies Act,2013
-Note: - Excluding reimbursement of travel and other expenses incurred for the Company's business/meetings.
-C.
-Remuneration to Key Managerial Personnel Other Than Managing Director/ Manager/Whole-Time Director
-(` In Lakhs)
-S.
-Particulars of Remuneration
-Key Managerial Personnel
-No.
-Mr. Dinesh
-Mr. Hemant
-Mr. Sunil
-Total
-Kumar (CFO)
-Kumar Mangal
-Jain (CS)
-(CS)
-Gross salary
-Salary as per provisions contained in
-8.08
-2.31
-0.40
-10.79
-section 17(1) of the Income-tax Act, 1961
-Value of perquisites u/s 17(2)
-Income-taxAct, 1961
-Profits in lieu of salary under section 17(3)
-Income-tax Act, 1961
-Stock Option
-Sweat Equity
-Commission as % of profit
-Others, please specify
-Total
-8.08
-2.31
-0.87
-10.79
-Notes: - Mr. Sunil Jain appointed as Company Secretary &amp; Compliance officer w.e.f.March 15, 2019 in place of Mr.
-Hemant Kumar Mangal.
-VII. PENALTIES / PUNISHMENT/ COMPOUNDING OF OFFENCES:
-Type
-Section of
-Brief
-Details of
-Authority
-Appeal
-the Companies
-Description
-Penalty/
-[RD/NCLT/
-made,if
-Act
-Punishment/
-COURT]
-any (give
-Compounding
-Details)
-fees imposed
-A. COMPANY
-NIL
-Penalty
-Punishment
-Compounding
-B. DIRECTORS
-NIL
-Penalty
-Punishment
-Compounding
-C. OTHER OFFICERS IN DEFAULT
-NIL
-Penalty
-Punishment
-Compounding
-For and on behalf of the Board of Directors
-Sd/-
-Bikram Bhattacharya
-(Whole Time Director)
-Place : New Delhi
-Annexure VI
+          <t>Annexure VI
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 Statements in the Management Discussion &amp; Analysis Report which seek to describe the Company’s objectives, projections,
 estimates, expectations or predictions may be considered to be “forward-looking statements” and are stated as required
@@ -1167,22 +951,85 @@
 board;
 Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as
 post-audit discussion to ascertain any area of concern;
-To look into the reasons for substantial defaults in the payment to the de</t>
+To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders
+(in case of non-payment of declared dividends) and creditors;
+To review the functioning of the Whistle Blower mechanism;
+Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance
+function or discharging that function) after assessing the qualifications, experience and background, etc. of the
+candidate;
+Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
+5.
+NOMINATION &amp; REMUNERATION COMMITTEE
+The Nomination and Remuneration Committee constituted with terms of reference as per provisions of the Companies
+Act, 2013 and SEBI (Listing Obligations and Disclosure Requirement) Regulations, 2015.
+During the year 2018-19 there was no change in the composition of Nomination and Remuneration Committee of the
+Company except resignation of Mr. Vinay Kumar Mittal from the Directorship of the company w.e.f. 21st March, 2019
+and the resulting vacancy has been filled by the Board of Directors by designated Mr. Bikram Bhattacharya as member
+of the Committee in its meeting held on 27th May, 2019.
+MEETING AND ATTENDANCE
+The Committee met Three (3) timesduring the year on 02nd April, 2018, 09th August 2018, and 15thMarch, 2019and
+was attended by members as under:
+Name of members
+Designation in
+No. of meetings
+No. of meetings
+the Committee
+held
+attended
+Ms. Maria Fernandes
+Chairperson
+Ms. Ambika Chowdhary
+Member
+Mr. Vinay Kumar Mittal*
+Member
+Mr. Bikram Bhattacharya**
+Member
+NA
+NA
+Notes:
+*Mr. Vinay Kumar Mittal has resigned from the directorship of the company w.e.f. March 21, 2019.
+**Mr. Bikram Bhattacharya has been designated as Member of the Nomination &amp; Remuneration Committee by the
+Board of Directors in its meeting held on 27th May, 2019.
+The Nomination and Remuneration Committee is empowered-
+To oversee the method, criteria and quantum of compensation for directors and senior management based on
+their performance and defined assessment criteria.
+To identify persons qualified to become directors, and who may be appointed in senior management and
+recommend to the Board their appointment and removal.
+To carry out evaluation of every Director’s performance.
+REMUNERATION POLICY
+The remuneration of the Board members is based on the Company’s size &amp; its economic &amp; financial position, industrial
+trends, compensation paid by the peer companies, etc. Compensation reflects each Board member’s responsibility
+and performance. The level of compensation to Executive Directors is designed to be competitive in the market for
+highly qualified executives. The committee recommends the appointment and the remuneration for Executive Directors,
+and sitting fee for Non-executive Independent directors is fixed within the limits prescribed under Companies Act,
+2013.
+The details of remuneration paid to Executive Directors and sitting fees paid to Non-Executive Independent Directors
+for attending the meetings of the Board and Committees thereof during the year are given herein above.
+6.
+STAKEHOLDERS RELATIONSHIP COMMITTEE
+The Stakeholders Relationship Committee was reconstituted by the Board of Directors consists of three Directors viz.
+(i)
+Ms. Ambika Chowdhary (Chairperson),
+(ii)
+Mr. Bikram Bhattacharya (Member) and
+(iii) Mr. Vinay Kumar Mittal (Member) {Resigned from the directorship of the Company w.e.f. 21-03-2019.}
+This Committee oversees and reviews all matters connected with redressal of Investor Grievances and complaints.
+The transfer of shares is undertaken by Link Intime India Pvt. Ltd., New Delh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>37325</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.7704144797642505</t>
+          <t>0.7799262795335066</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['risk management', 'segment performance']</t>
+          <t>['risk management']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1219,7 +1066,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1391,22 +1238,321 @@
 1.
 Various business risk faced by the Pharma division.
 2.
-Time taken by executives to overcome from various new rules and regulations.</t>
+Time taken by executives to overcome from various new rules and regulations.
+3.
+Extended credit allowed international and overseas trading causing fund blockage.
+4.
+Reduction in overall business output and gross turnover.
+STRATEGIES
+1.
+Strategies development and deployment aligned to its vision.
+2.
+Substantialinvestment in past creating manufacturing and other business infrastructure.
+3.
+Developing and maintaining production as per market demand.
+4.
+Achieving process improvement, cost efficiency, optimizing raw material sourcing and innovate new business ideas.
+INTERNAL CONTROL SYSTEMS
+ALCHEMIST is continuously working to strengthen internal control systems commensurate with the size and scale of business. Clearly
+defined policies and procedures supplement the Internal Control procedures. A well established and empowered system of internal audit
+and control procedures independently review the financial and operational controls and reports deviations, if any, across all verticals and
+further enables rectification, as and when required. The Company is constantly engaged in practicing the best financial and operational
+control systems, as per international practices and standards. The Company’s internal audit team carried out extensive audits throughout
+the year, across all verticals and reported to the Audit Committee of the Board of Directors. The Audit Committee continues to address all
+important issues and recommendations made by the Internal and Statutory Auditors which are consequently implemented to strengthen
+various functional areas.
+HEALTH, SAFETY &amp; ENVIRONMENT (HSE) POLICY
+ALCHEMIST has recognized health management, occupational safety and environment protection (HSE) as one of the most important
+elements in the organization’s sustainable growth and has closely linked it to Alchemists’ cultural values. The Company continually strives to
+create a safe working environment by being responsive, caring and committed to the various needs governing the security and well-being
+of employees.
+In order to honour the aforesaid commitments, the Company has implemented systems in its operations that accord with the requirements
+of health, safety and environmental standards and strive to:
+Assume its business and ethical responsibilities to exemplify its endeavour towards good corporate citizenship.
+Continue to inspire innovations in methods &amp; practices and to ensure highest standards of health, safety and environment.
+Comply with all applicable laws and regulations with regards to HSE and continually aspire to the highest standards in the same.
+Commit to the continual reduction of waste and implement processes to ensure the reusability of natural resources.
+Continually invest in the up-gradation of facilities, maintenance of machinery and welfare of our employees.
+Constantly train and educate employees on contemporary best practices to ensure the highest levels of safety and sustainability in our
+operations.
+INDUSTRIAL RELATIONS &amp; HUMAN RESOURCE DEVELOPMENT
+The Company continues to be committed and focused on its most valuable resource viz. its employees. The Company believes that
+employee plays a pivotal role in driving performance and has effectively empowered them. As a means of equipping employees with a
+range of skills including their up-gradation and to enable them to perform their responsibilities, training and human resource development
+(HRD) continued to receive priority during the year. Training and HRD efforts of the Company are aimed at sharpening business skills and
+competence needed for better employee performance and provides all possible opportunities and support to the employees to improve
+their performance and productivity. In pursuance of the Company’s commitment to retain and develop best available talents, several
+programmes are conducted at various levels on a regular basis. Employee relations continued to be cordial and harmonious at all levels and
+in all units of the Company.
+CAUTIONARY STATEMENT
+Statements in the Management Discussion and Analysis describing the Company’s objectives, expectations, predictions and assumptions
+may be ‘forward looking’ within the meaning of applicable Securities Laws and Regulations. Actual results may differ materially from those
+expressed herein. Important factors that could influence the Company’s operations include global and domestic economic conditions
+affecting demand, supply, price conditions, change in Government’s regulations, tax regimes, the laws and other factors such as litigation
+and industrial relations.
+For and on behalf of Boards of Directors
+Alchemist Limited
+Place: New Delhi
+Sd/-
+Bikram Bhattacharya
+(Whole-Time Director)
+Annexure-VII
+REPORT ON CORPORATE GOVERNANCE
+1.
+COMPANY’S PHILOSOPHY ON CORPORATE GOVERNANCE
+At Alchemist, the essence of Corporate Governance lies in establishing the highest standards in good Corporate Governance and
+to attain high level of transparency, integrity and accountability. Our policies and procedures exemplify our core values in utmost
+professionalism across all functions of our organization. The Company has, and will, continually endeavor to improve corporate
+practices, methodologies, and procedures to ensure that long term value is realized for all stakeholders of our organization. We aim
+to consistently offer our shareholders, customers, employees, vendors and the larger community mutually beneficial value through
+transparency in our associations, quality in our products and services, and integrity in our relationships. At Alchemist, we believe in
+maximizing stakeholder’s value, profitability and growth including interaction with employees, shareholders, institutions, banks and all
+its business associates. The Company has implemented all mandatory requirements.
+2.
+BOARD OF DIRECTORS
+(a) Composition of Board
+The Board of Directors of the Company comprises of 4 (Four) Directors as on 31-03-2020.
+During the Financial Year 2019-2020, 7 (Seven) Board Meetings were held viz.
+(i) 27th May, 2019
+(ii) 11th July, 2019
+(iii) 12th August, 2019
+(iv) 30th August, 2019
+(v) 30th September, 2019
+(vi) 11th November, 2019, and
+(vii) 12th February, 2020.
+The Composition of the Board of Directors as on March 31, 2020 with their attendance at the Board Meetings held during the year
+2019-20 and at the last Annual General Meeting is given below:
+Name of the
+Director
+Office/
+Designation
+Executive/
+Non-
+Executive
+Independent/
+Non-
+Independent
+No. of
+Board
+Meetings
+attended
+Attendance
+at the Last
+AGM
+No. of Other
+Director-ships
+Mr. Bikram
+Bhattacharya
+Whole Time
+Director
+Executive
+Non
+Independent
+Director
+6 meetings
+attended
+out of 7
+Yes
+Ms. Maria
+Fernandes
+Director
+Non-
+Executive
+Independent
+Director
+6 meetings
+attended
+out of 7
+Yes
+Ms. Ambika
+Chowdhary
+Director
+Non-
+Executive
+Independent
+Director
+Yes
+Mr. Charandeep
+Singh Jolly**
+Director
+Non-
+Executive
+Non
+Independent
+Director
+4 meetings
+attended
+out of 7
+NA
+Notes:
+**Mr. Charandeep Singh Jolly has been appointed w.e.f. July 11, 2019.
+(b) Details of Director Seeking Appointment/Re-appointment in the ensuing Annual General Meeting
+The brief background and functional experience of the Directors proposed for appointment/re-appointment or Director retire by
+rotation and offer himself for re-appointment are given below along with the details of the Companies in which they are directors
+and committees of which they are members.
+(I) Ms. Maria Fernandes has rich experiences in the field of management. She has served as Principal of Holy Cross Mission
+College; Coordinator, Regional Study Centre Kakatiya University; Director, St. Frencis College, Mumbai; Program Officer,
+Calicut University Centre Mumbai and Gen. Secretary, TFM Educational Society. Presently serving as Vice-Chairperson West
+Bengal Minorities Commission.
+Ms. Maria Fernandes is also a Chairperson and Member of the committees of other Companies (including this listed entity).
+(II) Mr. Charandeep Singh Jolly is having about 39 years of technical experience in the field of Sales, Marketing and Distribution
+of Pharmaceutical products in Companies including MNC’s.
+He is graduate in B.Sc. and diploma holder in Public Relations &amp; Advertising.
+Mr. Charandeep Singh jolly is not a Chairman but he is a Member of the Nomination and Remuneration Committee of the
+Company w.e.f July 11,2020.
+(c) Separate Meeting of Independent Directors
+(i)
+As stipulated by the Code of Independent Directors under the Companies Act, 2013 and SEBI (Listing Obligations and Disclosures
+Requirement) Regulations, 2015, a separate meeting of the Independent Directors of the Company was held on February 12, 2020,
+to review the performance of Non-independent Directors (including the Chairman) and the Board as whole. The Independent
+Directors also reviewed the quality, content and timeliness of the flow of information between the Management and the Board
+and it’s Committees which is necessary to effectively and reasonably perform and discharge their duties.
+(d) Remuneration of Directors
+(Rs. in Lakhs)
+Name of the director
+Salary inclusive of Perquisites and allowances
+Sitting fees
+Total
+Executive Directors
+Mr. Bikram Bhattacharya
+27.79
+Nil
+27.79
+Non-Executive Directors
+Ms. Maria Fernandes
+Nil
+0.60
+0.60
+Ms. Ambika Chowdhary
+Nil
+0.65
+0.65
+Mr. Vinay Kumar Mittal
+Nil
+Nil
+Nil
+Total
+27.79
+1.25
+29.04
+3.
+CODE OF CONDUCT
+As required by Regulations 26(3) of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015, the Company has
+adopted a Code of Conduct for its Directors and Senior Executives. The CEO and Whole Time Director have given a declaration that all
+the Directors and Senior Executives have affirmed the compliance with the Code of Conduct. A declaration to this effect signed by Mr.
+Charandeep Singh Jolly, Director and Mr. Anop Singh Negi, Chief Financial Officer of the Company is annexed as Annexure A to this
+report.
+4.
+AUDIT COMMITTEE
+MEETING AND ATTENDANCE
+During the year 2019-20 the Audit Committee of the Company was duly constituted and there are no changes in the composition of
+the Committee having the following member’s viz Ms. Maria Fernandes, Ms. Ambika Chowdhary and Mr. Bikram Bhattacharya.
+The Audit Committee met 5 (Five) times during the year on 27th May 2019, 11th July 2019, 12th August, 2019, 11th November, 2019 and
+12th February, 2020 was attended by members as under:
+Name of members
+Designation in the
+Committee
+No. of meetings held
+No. of meetings attended
+Ms. Maria Fernandes
+Chairperson
+Ms. Ambika Chowdhary
+Member
+Mr. Bikram Bhattacharya
+Member
+The Committee reviewed the Financial Results of the Company and recommended the same to the Board of Directors for their approval.
+The Company Secretary acts as Secretary of the Audit Committee.
+The role and terms of reference of the Audit Committee covers the area as mentioned in the Listing Agreement and the Companies Act,
+2013 are as under:-
+Oversight of the company’s financial reporting process and the disclosure of its financial information to ensure that the financial
+statement is correct, sufficient and credible;
+Recommendation for appointment, remuneration and terms of appointment of auditors of the company;
+Approval of payment to statutory auditors for any other services rendered by the statutory auditors.
+Reviewing, with the management, the annual Financial Statements and auditor’s report thereon before submission to the board
+for approval, with particular reference to:
+a.
+Matters required to be included in the Director’s Responsibility Statement to be included in the Board’s report in terms of
+clause (c) of sub-section 3 of section 134 of the Companies Act, 2013
+b.
+Changes, if any, in accounting policies and practices and reasons for the same
+c.
+Major accounting entries involving estimates based on the exercise of judgment by management
+d.
+Significant adjustments made in the Financial Statements arising out of audit findings
+e.
+Compliance with listing and other legal requirements relating to Financial Statements
+f.
+Disclosure of any related party transactions
+g.
+Qualifications in the draft audit report
+Reviewing, with the management, the quarterly financial statements before submission to the board for approval;
+Reviewing, with the management, the statement of uses / application of funds raised through an issue (public issue,
+rights issue, preferential issue, etc.), the statement of funds utilized for purposes other than those stated in the offer
+document / prospectus / notice and the report submitted by the monitoring agency monitoring the utilization of
+proceeds of a public or rights issue, and making appropriate recommendations to the Board to take up steps in this
+matter;
+Review and monitor the auditor’s independence and performance, and effectiveness of audit process;
+Approval or any subsequent modification of transactions of the company with related parties;
+Scrutiny of inter-corporate loans and investments;
+Valuation of undertakings or assets of the company, wherever it is necessary;
+Evaluation of internal financial controls and risk management systems;
+Reviewing, with the management, performance of statutory and internal auditors, adequacy of the internal control
+systems;
+Reviewing the adequacy of internal audit function, if any, including the structure of the internal audit department,
+staffing and seniority of the official heading the department, reporting structure coverage and frequency of internal
+audit;
+Discussion with internal auditors of any significant findings and follow up there on;
+Reviewing the findings of any internal investigations by the internal auditors into matters where there is suspected fraud
+or irregularity or a failure of internal control systems of a material nature and reporting the matter to the board;
+Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as post-
+audit discussion to ascertain any area of concern;
+To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders (in
+case of non-payment of declared dividends) and creditors;
+To review the functioning of the Whistle Blower mechanism;
+Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance function
+or discharging that function) after assessing the qualifications, experience and background, etc. of the candidate;
+Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
+5.
+NOMINATION &amp; REMUNERATION COMMITTEE
+The Nomination and Remuneration Committee constituted with terms of reference as per provisions of the Companies Act, 2013 and
+SEBI (Listing Obligations and Disclosure Requirement) Regulations, 2015.
+During the year 2019-20 there was a change in the composition of Nomination and Remuneration Committee of the Company due
+to appointment of Mr. Charandeep Singh Jolly as Non-Executive Director of the Company w.e.f. 11th July, 2019 and the Company re-
+constitute the Committee and appoint as a member of the Nomination and Remuneration Committee in its meeting held on 11th July,
+2019.
+MEETING AND ATTENDANCE
+The Committee met 3 (Three) times during the year on 27th May 2019, 11th July 2019, and 12th February, 2020 and was attended by
+members as under:
+Name of members
+Designation in the
+Committee
+No. of Meetings held
+No. of Meetings attended
+Ms. Maria Fernandes
+Chairperson
+Ms. Ambika Chowdhary
+Member
+Mr. Bikram Bhattacharya*
+Member
+Mr. Charandeep Singh Jolly**
+Member
+Notes:
+*Mr. Bikram Bhattacharya has been designated as Member of</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>25113</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8166772756206238</t>
+          <t>0.7769338759032949</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['risk management', 'segment performance']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1434,17 +1580,244 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>PRIMED
+TO UNLOCK VALUE
+28th Annual Report | 1st October, 2013 to 31st March, 2015
+with the Stock Exchanges. Accordingly resolutions will be
+placed at the ensuing Annual General meeting (AGM) for their
+appointment as Independent Directors for a period of five
+consecutive years from the date of ensuing AGM not liable to
+retire by rotation.
+Further, the required resolutions for confirmation/appointment/
+re-appointment of the above Directors at the forthcoming
+Annual General Meeting are included in the Notice convening
+28th Annual General Meeting.
+Directors’ Responsibility Statement
+Your Directors state that:
+i.
+in the preparation of the annual accounts for the 18
+months period ended 31st March, 2015, the applicable
+Accounting Standards have been followed and there has
+been no material departure from the same;
+ii.
+the Directors have selected such accounting policies,
+consulted and applied them consistently and made
+judgments and estimates that are reasonable and prudent
+so as to give a true and fair view of the state of affairs of
+your Company as at 31st March, 2015 and of the profit of
+your Company for the period ended on that date;
+iii.
+the Directors have taken proper and sufficient care for
+the maintenance of adequate accounting records in
+accordance with the provisions of the Companies Act
+for safeguarding the assets of your Company and for
+preventing and detecting fraud and other irregularities;
+iv.
+they have prepared the annual accounts for the 18
+months period ended 31st March, 2015 on a ‘going
+concern’ basis and
+v.
+the Company has adequate internal systems and controls
+in place to ensure compliance of laws applicable to the
+Company.
+vi.
+the Directors have devised proper systems to ensure
+compliance with the provisions of all applicable laws and
+that such systems are adequate and operating effectively.
+Consolidated financial statements
+Your
+Company
+has
+prepared
+Consolidated
+Financial
+Statements in accordance with Accounting Standards AS-
+21, AS-23 and AS-27 issued by the Institute of Chartered
+Accountants of India. The Consolidated Statements reflect
+the results of the Company and that of its Subsidiaries, Joint
+Ventures and Associates.
+As required by clause 32 of the Listing Agreement with
+the Stock Exchanges, the Audited Consolidated Financial
+Statements together with the Auditors Report thereon are
+annexed and form part of this Annual Report.
+The Consolidated Financial Statements of the Company
+prepared as per the Accounting Standard AS-21 and
+Accounting Standard AS-23, consolidating the Company’s
+accounts with its subsidiaries and an associate have also been
+included as part of this Annual Report.
+Auditors
+Messrs Deloitte Haskins &amp; Sells LLP, Chartered Accountants
+(Firm Registration No.117366W/ W-100018), Statutory Auditors
+of the Company, hold office till the conclusion of the ensuing
+Annual General Meeting and are eligible for re-appointment.
+The Company has received a confirmation from Messrs Deloitte
+Haskins &amp; Sells LLP to the effect that their appointment, if
+made, at the ensuing AGM would be in terms of Sections 139
+and 141 of the Companies Act, 2013 and rules made there
+under and that they are not disqualified for re-appointment.
+Cost Auditor
+Pursuant to the directives of the Central Government under the
+provisions of the Companies Act, 2013, the Board of Directors
+at their meeting held on 28th May 2015 has appointed M/s
+B. J. D. Nanabhoy &amp; Co., Cost Accountants as Cost Auditors
+to conduct audit of cost records relating to the products
+manufactured by your Company for the Financial Year
+2015-16.
+Secretarial Audit
+Pursuant to provisions of Section 204 of the Companies Act,
+2013, the Board appointed Mr. Virendra G Bhatt, Practising
+Company Secretary, as Secretarial Auditor to carry out the
+secretarial audit for the financial year 2015-2016. Since the
+provisions relating to the disclosures are not applicable for the
+year under review, the secretarial audit report is not enclosed
+to the Boards’ report for the year ended 31st March, 2015.
+Particulars of Employees
+Your Directors appreciate the significant contribution made by
+the employees to the operations of your Company during the
+period.
+The information required on particulars of employees as
+per Section 217(2A) of the Companies Act, 1956, read with
+Companies (Particulars of Employees) Rules, 1975 is given in
+a separate Annexure to this Report. As per the provisions of
+Section 219(1) (b) (iv) of the Companies Act, 1956, the Report
+and Accounts are being sent to all shareholders of your
+Company excluding the Statement of Particulars of Employees
+(Annexure). Any shareholder interested in obtaining a copy of
+the said Annexure may write to your Company Secretary at the
+Corporate Office of your Company.
+More details on the Human Resources function of your
+Company and its various activities are given in the ‘Human
+Resources’ and ‘Sustainability’ sections of the attached
+Management Discussion &amp; Analysis.
+Vigil mechanism/ Whistle Blower Policy:
+The Company has formulated a vigil mechanism (whistle
+blower policy) for its directors and employees of the Company
+for reporting genuine concerns about unethical practices and
+suspected or actual fraud or violation of the code of conduct
+of the Company as prescribed under the Companies Act, 2013
+and Clause 49 of the Listing Agreement. This vigil mechanism
+Statutory Section
+Directors’ Report to the Members
+Innovative Textile Solutions 45
+shall provide a channel to the employees and Directors to
+report to the management concerns about unethical behavior,
+and also provide for adequate safeguards against victimization
+of persons who use the mechanism and also make provision
+for direct access to the chairperson of the Audit Committee in
+appropriate or exceptional cases.
+Conservation of Energy, Technology Absorption,
+Foreign Exchange Earnings and Outgo
+The information under Section 134 (3) (m) of the Companies
+Act, 2013 read with Rule 8(3) of the Companies (Accounts)
+Rules, 2014 for the year ended March 31, 2015 are annexed
+hereto and forms part of this report.
+Green Initiative by The Ministry Of Corporate
+Affairs
+The Ministry of Corporate Affairs (“MCA”) has taken a Green
+Initiative in Corporate Governance by permitting electronic
+mode for service of documents to Members (shareholders) as
+per relevant provisions of the Companies Act, 2013 (“the Act”).
+Pursuant to provisions of the Act, and rules made thereunder,
+service of documents to Members can be now made by
+electronic mode on the email address provided for the
+purpose of communication. If a Member has not provided an
+email address, other permitted modes of service would to be
+applicable.
+Your Company sincerely appreciates shareholders who have
+contributed towards furtherance of Green Initiative. We further
+appeal to other shareholders to contribute towards furtherance
+of Green Initiative by opting for electronic communication.
+The shareholders may also reach out to the Company/RTA
+by sending a request letter alongwith a self attested PAN
+copy. The request can also be made online on Alok website
+(www.alokind.com), post which the RTA would contact the
+concerned shareholder for the requisite documentation.
+This initiative will ease the burden on corporates (and the
+environment) of sending physical documents such as
+notices, annual reports etc. Those who have not provided
+their email address will continue to receive communications,
+dissemination, notice(s), documents etc. via permitted mode
+of service of documents. Further the shareholders, who
+request for physical copies, will be provided the same at no
+additional cost to them.
+The Company is providing e-voting facility for all Members to
+enable them to cast their votes electronically on all resolutions
+set forth in the 28th AGM Notice. This is pursuant, interalia,
+to Section 108 of the Companies Act, 2013 and Rule 20 of
+the Companies (Management and Administration) Rules 2014.
+The detailed instructions for e-voting are provided in the AGM
+Notice which is being sent separately as per prescribed mode
+of dispatch.
+Companies Act, 2013
+The Companies Act, 2013 was notified in the Official Gazette
+of the Government of India on August 29, 2013. On September
+12, 2013, the Ministry of Corporate Affairs (MCA) notified 98
+sections and on March 27, 2014, the MCA notified another 198
+sections, which were deemed to come into force with effect
+from April 1, 2014.
+The MCA vide Circular No. 08/2014 dated April 4, 2014 clarified
+that the financial statements and the documents required
+to be attached thereto, the auditors’ and directors’ report in
+respect of the financial year under reference shall continue to
+be governed by the relevant provisions of the Companies Act,
+1956, schedules and rules made there under.
+The Company has accordingly prepared this balance sheet,
+statement of profit &amp; loss, the schedules and notes thereto
+and the Directors’ Report in accordance with the relevant
+provisions of the Companies Act, 1956, schedules and rules
+made there under. The Company has taken cognisance of the
+new legislation and shall comply with the provisions of the
+Companies Act, 2013, as applicable.
+GENERAL
+Your Directors state that no disclosure or reporting is required
+in respect of the following items as there were no transactions
+on these items during the period under review:
+1.
+Details relating to deposits covered under Chapter V of
+the Act.
+2.
+Issue of equity shares with differential rights as to
+dividend, voting or otherwise.
+3.
+Issue of shares (including sweat equity shares) to
+employees of the Company under any scheme save and
+except ESOS referred to in this Report.
+4.
+Neither the Managing Director nor the Whole-time
+Directors of the Company receive any remuneration or
+commission from any of its subsidiaries.
+5.
+No significant or material orders were passed by the
+Regulators or Courts or Tribunals which impact the going
+concern status and Company’s operations in future.
+Your Directors further state that during the year under review,
+there were no cases filed pursuant to the Sexual Harassment of
+Women at Workplace (Prevention, Prohibition and Redressal)
+Act, 2013.
+Acknowledgements
+The Board of Directors wish to place on record its sincere
+appreciation for the support received from its stakeholders
+including shareholders, bankers, distributors, suppliers
+and business associates. The Directors recognize and
+appreciate the sincere, hard work, loyalty, dedicated efforts
+and contribution of all the employees that ensured sustained
+performance in a challenging business environment.
+For and on behalf of the Board
+Dilip B. Jiwrajka
+Managing Director
+Place: Mumbai
+Dated: 28th May 2015
+PRIMED
 TO UNLOCK VALUE
 28th Annual Report | 1st October, 2013 to 31st March, 2015
 ANNEXURE I
@@ -2207,365 +2580,17 @@
 regions compared to production centres, there is a flourishing
 world trade that supports the global apparel industry. In fact,
 world trade in textile and apparel grew in 2014 and is estimated
-to be US$821 Bn. The overall trade is expected to grow at a
-CAGR of 6.6% up to 2020 and reach US$1,180 by the end of
-this decade.
-Source: UN Comtrade, WTO, Wisedge Analysis
-In terms of categories, apparels continue to be the largest
-segment in global textiles and apparel trade with a share of
-56%; while fabric accounts for 17%;yarn and fibre is 7%
-and 6% respectively; while made-ups ins 4% (see chart H).
-However, in terms of growth in the period between 2005 and
-2013, the fastest category was fibre with a CAGR of 9.4%,
-followed by apparel (CAGR: 6.8%); made-ups (CAGR: 6.4%);
-yarn (CAGR: 5.1%); and fabric (CAGR: 4.1%).
-Chart H: Sector-wise break up of Global Textile
-and Apparel Trade (2013)
-Source: UN Comtrade, CII Knowledge Report
-Imports of Textiles and Apparel
-Import demand for textiles and apparel at the global level
-continues to be driven by the advance economies of USA
-and EU. Together, they continued to account for 52% of
-global imports. Japan, also has a high share of 7% and
-imports grew at a fast pace of 9% during 2005-2013.
-Table 2 lists textiles and apparel imports for various countries
-over the last eight years.
-Table 2: Textiles and Apparel Imports (US$ billion)
-Country
-USA
-4%
-China &amp; Hong Kong
-3%
-Germany
-7%
-Japan
-9%
-The United Kingdom
-3%
-France
-3%
-Italy
-4%
-Spain
-5%
-The Netherlands
-8%
-Russian Federation
-25%
-Rest
-9%
-Total
-6%
-* EU27
-4%
-Source: UN Comtrade
-2014 (E)
-Chart G: Global Textile and Apparel Trade
-(US$ billion)
-Made Ups
-4%
-Others
-10%
-Fabric
-17%
-Yarn
-7%
-Apparel
-56%
-Previous Year
-Fiber
-6%
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-US Imports: After a slight drop in 2012, US apparel and textile
-imports have been growing steadily every year. In calendar
-year (CY) 2014 the total US textile and apparel imports grew
-by 2.6% over the previous year. The domestic US market for
-textiles and Apparel was healthy during 2014. Domestic mill
-production grew around 3.5% in 2014, which was higher than
-import growth. There has been a trend towards promoting
-domestic production and import growth has been affected.
-The market demand is expected to continue growing steadily
-in 2015, but there will be greater impediments to imports
-some easing out of cost arbitrage opportunities with domestic
-players improving operational cost. So while opportunity
-for exports to USA persists, competition continues to get
-cut throat not only amongst exporting countries but from a
-stronger domestic production base.
-Source: OTEXA
-Table 3 illustrates that even though China is the largest
-import partner for US, due to a variety of reasons including
-increased domestic costs, the exchange rate appreciation
-of the Yuan compared to the dollar, and environment related
-cost increments, China’s import growth to USA has reduced in
-2014. In fact, Vietnam and India are growing much faster. They
-are also looking to diversify from Bangladesh in recent times
-due to social compliance issues. Hence, going forward the
-opportunity for India and Vietnam should increase to further
-penetrate US markets.
-Table 3: US Textiles and Apparel Imports
-(Leading countries)
-SN
-Export Country
-%
-Growth
-%
-Share
-China
-41,675
-41,820
-0%
-39%
-Vietnam
-8,772
-9,955
-13%
-9%
-India
-6,299
-6,717
-7%
-6%
-B’Desh
-5,105
-5,005
--2%
-5%
-Indonesia
-5,230
-5,065
--3%
-5%
-Mexico
-4,650
-4,775
-3%
-4%
-Total
-3%
-68%
-Source: OTEXA
-EU Imports: EU is also a major import market constituting 35%
-of global textile and apparel trade. EU imports had declined in
-2011 and 2012, which was the major reason for the contraction
-in global trade. Of the 2% total growth in textiles and apparel
-imports of EU28 countries, 3.3% was on account of textiles,
-while 1.6% was driven by apparel.
-Source: Eurostat, (data for EU 28)
-Indian Textile and Apparel Market Overview
-The size of the Indian textile and apparel industry is estimated
-to reach US$ 200 Bn by 2020 from an estimated size of US$
-111 Bn in 2014. It is expected to grow at a CAGR of 10.3%
-from 2014 to 2020 to reach US$ 200 Bn, on account of growth
-emanating from both the domestic and export markets. The
-size of the export market is expected to reach US$ 80 Bn from
-estimated US$ 44 Bn in the corresponding period. Whereas,
-the size of the domestic market is estimated to reach US$ 120
-Bn by 2020 from US$ 67 Bn (E) in 2014.
-Source: Ministry of Textiles, secondary sources &amp; Wisedge Analysis
-India Textile and Apparel Export Market
-With a 5% share of global textile and apparel trade, India has
-emerged as the second largest exporter of textile and apparel
-in 2013. The Indian export market is expected to grow at a
-CAGR of 10.5% between 2014 and 2020 to reach US$ 80
-Bn. Chinese and other major countries exports are facing
-challenges in terms of higher wages, political instability, high
-inflation, currency appreciation and concerns over workplace
-conditions, India is likely to attract more business in years to
-come.
-100.9
-104.7
-107.5
-Chart I: US Textiles and Apparel Import
-Chart J: EU T&amp;A Imports- (EURO bn)
-Textiles
-Apparel
-24.52
-5.3
-65.9
-2020 (E)
-Chart K: Indian Textile and Apparel Industry
-Size &amp; Projections (US$ bn)
-Exports
-Domestic
-Total
-Statutory Section
-Management Discussion and Analysis
-Innovative Textile Solutions 57
-Source: Ministry of Textiles, UN Comtrade &amp; Wisedge Analysis
-Chart M: Category wise Exports
-Source: DGFT, Ministry of Commerce, Wisedge Analysis
-Apparel and yarn are the largest export categories for India. Apparel contributes about 40% of India’s textile exports, followed
-by yarn at 18%. Fibre, Fabric and made-ups contributed to 12% of the exports each. With more focus on “Make in India” and
-export of value added finished products, overall exports are expected to increase further for apparel and home textiles etc.
-Table 4: Category wise Growth of India’s T&amp;A Exports (USD Mn)
-SN
-Categories
-2012-2013
-2013-2014
-2014-15 (E)
-Growth in last
-1 Yr
-Growth in last
-2 Years
-Apparel
-12,962
-15,001
-16,663
-11%
-29%
-Made Ups
-4,039
-4,457
-4,661
-5%
-15%
-Fabric
-1,041
-17%
-50%
-Yarn
-4,169
-4,654
-4,588
--1%
-10%
-Fiber
-9,590
-10,570
-8,326
--21%
--13%
-Others
-1,738
-1,903
-2,168
-14%
-25%
-Total
-33,195
-37,475
-37,447
-0%
-13%
-Source: DGFT, Ministry of Commerce, Wisedge Analysis
-Category wise break up of India’s export in textile and apparel
-shows that overall exports has increased by 13% in last 2
-years. Overall Exports in 2014-15 are almost same as previous
-year mainly due to decreasing trend of cotton fiber exports
-out of India. Apparel exports in 2014-15 have increased by
-11% over 2013-14 and by 29% over 2012-13. This is mainly
-due to increased focus on value added exports and change
-in exchange rates. Made up exports have grown by 15% in
-last 2 years. Fabric exports have also increased by 50% over
-last 2 years and this is mainly due to increased exports of
-fabric to countries like Bangladesh and Vietnam for converting
-into apparel. As can be observed there is a good demand
-for finished products and the Company is also focussing on
-exports of value added items.
-Domestic market scenario in Textile and
-Apparel:
-Chart N: Textiles and Apparel Domestic Market
-(US$ bn)
-Source: Ministry of Textiles, UN Comtrade &amp; Wisedge Analysis
-The Indian domestic market is expected to reach US$ 120 Bn
-by 2020 from US$ 61 Bn in 2013. As per Images yearbook report
-2015, the market size for Apparel In India in 2014 was around
-` 2,49,000 crores. As the USD exchange rate has changed a
-Technical
-Textiles
-Home
-Textiles
-Apparel
-Total
-Textiles
-Apparel
-Total
-Chart L: Textile and Apparel Exports of India
-(US$ bn)
-Break-up of India’s Textiles &amp;
-Apparel exports 2013-14(%)
-Apparel
-40%
-Yarn
-18%
-Fabric
-12%
-Fibre
-12%
-Made ups
-12%
-Others
-6%
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-lot over last 1 year the market size at current exchange rate of
-1 USD = ` 63 is lower in terms of USD but in terms of ` it has
-grown in 2014 by around 10. Increasing demand for apparels
-is due to increase in per capita consumption, rising disposable
-incomes, rising fashion consciousness, internet and smart
-phone growth in smaller cities, growth of organized retail and
-e-commerce etc.
-Outlook
-The Indian textile industry has the potential to double itself
-in size over the next 6-7 years. Among the major competing
-nations, China is losing its competitive advantage in textile
-mainly on account of increasing labor costs, appreciating
-Yuan, rising power costs, focus on domestic market and
-also due to conscious strategy to move towards higher value
-additions industries.
-Other major exporting countries like Pakistan and Bangladesh
-are facing geo-political issues. In this scenario all major
-export markets like USA, Europe, Japan and Australia are
-increasingly looking to shift a large portion of their sourcing
-pie. India is well placed to fill this gap since its entire major
-costs like cotton, yarn, power, wages, dyes and chemicals are
-today globally competitive. In addition, the government also
-has been supportive for the industry and in order to unlock the
-complete potential of India, more efforts are needed from the
-industry as well as the government.
-A ‘Make in India’ campaign covering 25 sectors, including the
-textile and garment industry, has been unveiled by the Prime
-Minister in the presence of big names from the corporate world
-of India and abroad at a ceremony in New Delhi.
-The ‘Make in India’ scheme also puts in place the logistics
-and systems to address in a timely manner queries of potential
-investors. At present, the Government of India allows 100%
-foreign direct investment (FDI) under the automatic route in
-the textile sector, subject to all applicable regulations and
-laws, which effectively backs the make in India program for
-the textile and garment industry.
-Under the ‘Make in India’ initiative, investment opportunities
-for foreign companies and entrepreneurs are available across
-the entire value chain of synthetics, value-added and specialty
-fabrics, fabric processing set-ups for all kinds of natural and
-synthetic textiles, technical textiles, garments, and retail
-brands.
-Technology Up-gradation Fund Scheme (TUFS): This
-scheme, which was launched by the Ministry of Textiles on
-April 1, 1999 has given major thrust for the sector. SIDBI is
-the nodal agency for the SSI in the textile and cotton ginning
-and pressing sector. This Scheme aims at making available
-funds at competitive rates to the domestic textile industry for
-technology up-gradation of existing units as well as to set up
-new units with state-of-the-art technology so that its viability
-and competitiveness in the domestic as well as international
-markets may enhance.
-The Cabinet Committee on Economic Affairs late in August
-2014 gave its approval for continuing the TUFS during the 12th
-Plan period wit</t>
+to be US$821 Bn. The overall trade is expected</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16737</t>
+          <t>17599</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.7509858872985687</t>
+          <t>0.7601681179087036</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2602,7 +2627,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2612,151 +2637,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Innovative Textile Solutions 43
-Form No. MR-3
-SECRETARIAL AUDIT REPORT
-FOR THE FINANCIAL YEAR ENDED MARCH 31, 2016
-[Pursuant to section 204(1) of the companies Act, 2013 and rule No. 9 of the Companies (Appointment and Remuneration of Managerial
-Personnel) Rules, 2014]
-To,
-The Members,
-ALOK INDUSTRIES LIMITED
-I have conducted the Secretarial audit of the compliance of applicable statutory provisions and the adherence to good corporate practices by
-ALOK INDUSTRIES LIMITED (Herein after referred to as “the Company”). Secretarial Audit was conducted in a manner that provides me a
-reasonable basis for evaluating the corporate conducts/statutory compliances and expressing my opinion thereon.
-Based on our veriﬁ cation of the Company books, papers, minute books, forms and returns ﬁ led and other records maintained by the company
-and also the information provided by the Company, its ofﬁ cers, agents and authorized representatives during the conduct of secretarial audit, I
-hereby report that in my opinion, the Company has, during the audit period covering the ﬁ nancial year ended on March 31,2016 has prima facie
-complied with the statutory provisions listed hereunder:
-I have examined the books, papers, minutes’ books, forms and returns ﬁ led and other records maintained by the Company for the ﬁ nancial year
-ended on March 31, 2016 according to the provisions of:
-(i)
-The Companies Act, 2013 (the Act) and the rules made there under;
-(ii)
-The Securities Contracts (Regulation) Act, 1956 (‘SCRA’) and the rules made there under;
-(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
-(iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign Direct Investment,
-Overseas Direct Investment and External Commercial Borrowings - Not Applicable during the audit period;
-(v)
-The following Regulations and Guidelines prescribed under Securities and Exchange Board of India Act, 1992 (SEBI Act):-
-(a) The Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) Regulations, 2011;
-(b) The Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015;
-Though the following laws are prescribed in the format of Secretarial Audit Report by the Government, the same were not applicable
-to the Company for the ﬁ nancial year ended 31st March, 2016:-
-(a) The Securities And Exchange Board of India (Issue of Capital and Disclosure Requirements) Regulations,2009;
-(b) The Securities and Exchange Board of India (Employee Stock Option Scheme and Employee Stock Purchase Scheme) Guidelines,
-1999;
-(c)
-The Securities and Exchange Board of India (Issue and listing of Debt securities) Regulations,2008;
-(d) The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993 regarding the
-Companies Act and dealing with client;
-(e) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009;
-(f)
-The Securities and Exchange Board of India (Buyback of Securities) Regulations,1998;
-(vi) The following laws applicable to the company :-
-(a) The Payment of Wages Act, 1936
-(b) The Minimum Wages Act, 1948
-(c)
-The Employees State Insurance Act, 1948
-(d) The Employees Provident Fund and Miscellaneous Provisions Act, 1952
-(e) The Payment Of Bonus Act, 1965
-(f)
-The Payment of Gratuity Act, 1972
-(g) The Maternity Beneﬁ t Act, 1961
-(h) The Maharashtra Shop and Establishments Act, 1948
-(i)
-The Industrial Employment (Standing Orders) Act, 1946
-(j)
-The Apprentices Act, 1961
-STATUTORY SECTION
-Directors’ Report
-FAITH FOCUS COMMITMENT
-29th Annual Report | 1st April, 2015 to 31st March, 2016
-(k)
-The Employees’ Compensation Act, 1923
-(l)
-The Maharashtra Industrial Relations Act
-(m) The Factories Act, 1948
-(n) The Contract Labour (Regulation and Abolition) Act, 1970
-(o) The Maharashtra Mathadi, Hamal and Other Manual Workers (Regulation of Employment and Welfare) Act, 1969
-(p) The Child Labour (Prohibition and Regulation) Act, 1986
-(q) The Industrial Disputes Act, 1947
-(r)
-The Maharashtra Workmen’s Minimum House-Rent Allowance Act, 1983
-(s)
-The Sexual Harassment of Women at Workplace (Prevention, Prohibition and Redressal) Act, 2013
-(vii) I have also examined compliance with the applicable clauses of the following:
-(a) The Listing Agreements &amp; SEBI (Listing Obligations &amp; Disclosure Requirements) Regulations, 2015 entered into by the Company with
-the stock exchanges viz., BSE Limited and National Stock Exchange Limited;
-(b)
-The company has prima facie complied with Secretarial Standards 1 &amp; 2 issued by the Institute of Company Secretaries of India.
-During the period under review the Company has prima facie complied with the provisions of the Act, Rules, Regulations, Guidelines,
-Standards, etc.
-I further report that:
-(a)
-The Company is yet to appoint a women director after vacancy created on 17th December, 2015 as per section 149 of the Companies Act,
-(b)
-The Boards constitutions is yet not in compliance with the provision of SEBI (Listing Obligations and Disclosure Requirements), Regulations,
-2015.
-(c)
-The Company is yet to pay the debenture interest payment due for a period beyond one year as at the Balance sheet date. This attracts the
-provisions of Section 164 (2) and 167 of the Companies Act, 2013. The company has taken legal opinion for Section 167 of the said Act as
-the same appears ambiguous regarding the vacation of the Board, if and when such a contravention continues. The Company is informed
-that the Company Law Committee appointed by the Government of India has already recommended appropriate amendments to Section
-167 to remove the apparent ambiguity. The Company is further informed the recommendation has been incorporated in the Companies
-(Amendment) Bill, 2016 which has been introduced in the Lok Sabha for discussion and is pending for conﬁ rmation.
-(d)
-During the year the Company was required to amend the Authorized Share Capital of the Company to Rs. 4,000 crore from Rs. 1,500
-crore through an Extra Ordinary General Meeting (EOGM) in order to accommodate the conversion of debt into equity under the SDR
-provisions. A Singapore based bank led consortium through their security trustee, Hong Kong and Shanghai Banking Corporation (HSBC)
-ﬁ led a petition in the Bombay High Court for winding up the company and further prayed for stalling the EOGM to protect their interest. The
-Court, however, allowed the the EOGM to be conducted on submission of an afﬁ davit by the Company that the resolutions passed at the
-EOGM for change in capital structure will not be implemented without obtaining prior written approval from HSBC. The Company has since
-written a letter to the Registrar of Companies, Ahmedabad citing the circumstances due to which the change in capital structure cannot be
-implemented.
-I further report that:
-(a) I rely on statutory auditors’ reports in relation to the ﬁ nancial statements, qualiﬁ cations and accuracy of ﬁ nancial ﬁ gures for, Sales Tax,
-Wealth Tax, Value Added Tax, Related Party Transactions, Provident Fund, ESIC, FERA etc. as disclosed under ﬁ nancial statements and
-I have not veriﬁ ed the correctness and appropriateness of the books of accounts of the Company including loans &amp; guarantees to the
-domestic and overseas subsidiaries and the Consultants report in relation to the other applicable Laws.
-(b) As per the information provided the company has prima facie given adequate notice to all directors to schedule the Board Meetings,
-agenda and detailed notes on agenda were sent at least seven days in advance, and a system exists for seeking and obtaining further
-information and clariﬁ cations on agenda items before the meeting and for meaningful participation at the meeting.
-(c)
-As per the information provided majority decision is carried through while the dissenting members’ views are captured and recorded as part
-of the minutes.
-(d) There are prima facie adequate systems and processes in the company commensurate with the size and operations of the company to
-monitor and ensure compliance with applicable laws, rules, regulations and guidelines.
-(e) The management is responsible for compliances of all business laws. This responsibility includes maintenance of statutory registers/ﬁ les
-required by the concerned authorities and internal control of the concerned department.
-(f)
-During the audit period the company has no speciﬁ c events like Public Issue/ Right/ Preferential issue of shares/Debentures/ sweat equity, etc
-Innovative Textile Solutions 45
-I further report that:
-1.
-Maintenance of Secretarial record is the responsibility of the Management of the Company. Our responsibility is to express an opinion on
-these Secretarial Records based on our audit.
-2.
-I have followed the audit practices and processes as were appropriate to obtain reasonable assurance about the correctness of the
-contents of the Secretarial records. The veriﬁ cation was done on test basis to ensure that correct facts are reﬂ ected in the Secretarial
-records. I believe that the processes and practices, I followed provide a reasonable basis for my opinion.
-3.
-Wherever required, I have obtained the Management representation about the compliance of Laws, Rules and Regulations and happening
-of events etc.
-4.
-The compliance of the provisions of Corporate and other applicable Laws, Rules, Regulations, Standards is the responsibility of the
-Management. My examination was limited to the veriﬁ cation of procedures on test basis.
-5.
-The Secretarial Audit report is neither an assurance as to the future viability of the company nor the efﬁ cacy or effectiveness with which the
-Management has conducted the affairs of the company.
-Virendra Bhatt
-ACS No – 1157
-COP No – 124
-Place: Mumbai
-Date: 30th May, 2016
-STATUTORY SECTION
-Directors’ Report
-FAITH FOCUS COMMITMENT
+          <t>FAITH FOCUS COMMITMENT
 29th Annual Report | 1st April, 2015 to 31st March, 2016
 Management Discussion
 and Analysis
@@ -3265,17 +3146,249 @@
 reach around US$ 185 bn by 2025 (see chart-I). Apparel exports are
 expected to grow faster at 17% CAGR and reach US$ 95 bn from
 the existing US$ 17 bn, while textile exports are expected to reach
-US$ 90 bn from the existing US$ 25 bn growing at</t>
+US$ 90 bn from the existing US$ 25 bn growing at the rate of 12.35%
+CAGR by 2025.
+Chart I: Projected Textile and Apparel Exports of India (US$ bn)
+Source: Ministry of Textiles, UN Comtrade &amp; Wazir Analysis
+Growing market will fuel production requirement in future
+Production across all sectors will be required to more than double
+by 2025 in order to cater to the increasing market demand.
+Correspondingly additional investments in manufacturing across all
+sectors are expected to come in near future as shown in Table 6.
+FAITH FOCUS COMMITMENT
+29th Annual Report | 1st April, 2015 to 31st March, 2016
+Table 6: India’s future textile production requirement
+Segment
+Production
+Demand
+Additional
+Manufacturing
+Unit
+Annual
+Growth
+Required
+Spun Yarn
+5,485
+19000
+13,515
+Mn Kg
+12%
+Filament Yarn
++ Man made
+staple ﬁ bre
+1,246
+19000
+17,754
+Mn Kg
+28%
+Woven Fabric
+48,136
+103450
+55,314
+Mn Sq.
+Mtrs
+7%
+Knitted Fabric
+16,960
+58960
+42,000
+Mn Sq.
+Mtrs
+12%
+Processing
+65,096
+162435
+97,339
+Mn Sq.
+Mtrs
+9%
+Sewing
+20,255
+43740
+7%
+Source: Ministry of Textiles, Wazir Analysis
+Domestic market scenario in Textile and Apparel
+The domestic textile and apparel industry in India is estimated to
+reach US$ 285 billion by 2025 at a CAGR of 12.77% (see chart J).
+Presently, apparel market dominates with a market share of 74%
+of the market, 19% technical textiles and 7% home textiles. Fastest
+growth is expected in technical textiles, which is expected to grow at
+a 16.44% CAGR and reach US$ 87 bn in 2025. Apparel is expected
+to grow by 11.2% CAGR while home textile is expected to grow by
+12.35% CAGR on a small base. Increased penetration of organised
+retail, favourable demographics, and rising income levels are likely to
+drive demand for textiles.
+Chart J: Textiles and Apparel Domestic Market (US$ bn)
+Source: Ministry of Textiles, UN Comtrade &amp; Wazir Analysis
+Large investments in the sector are required to cater to future
+production requirement &amp; market demand
+The Indian domestic market is expected to reach US$ 285 Bn by 2025
+from US$ 76 Bn in 2014 and export market is expected to reach US$
+185 Bn by 2025 from US$ 42 Bn in 2014 (see Table 7). Increasing
+demand or apparels is due to increase in per capita consumption,
+rising disposable incomes, rising fashion consciousness, internet and
+smart phone growth in smaller cities, growth of organized retail and
+e-commerce etc.
+Table 7: Market Size
+Particulars
+CAGR
+Domestic
+US$ 76 Bn
+US$ 285 Bn
+13%
+Exports
+US$ 42 Bn
+US$ 185 Bn
+14%
+Total
+US$ 118 Bn
+US$ 470 Bn
+13%
+India in order to achieve the above growth has to invest an estimated
+amount of USD 320 bn across the Textile value chain (see Table 8).
+Table 8: Investments required
+Segment
+Investment
+Required
+by 2025 (US$ Bn)*
+Yarn Manufacturing (Spun + Filament)
+Weaving
+Knitting
+Processing
+Sewing
+Technical Textiles
+Total
+*includes investment in replacement of some of the old existing machinery
+It can be summarised that Indian Textile industry is poised for a growth
+as under:
+Global textile and apparel textile industry market &amp; trade is
+growing and will continue to do so in future
+India’s growing domestic market will also provide major boost to
+the textile &amp; apparel industry
+Global trade trends will favour India as a promising textile and
+apparel base
+Fundamentals of Indian textile manufacturing are strong and
+makes India globally competitive
+High investments are required across the value chain to cater to
+the future demand potential
+Indian government is also providing good support to textile
+industry
+India has huge potential to increase its product basket especially
+in MMF textiles
+Indian textile companies are also growing in size and scale and
+becoming globally competitive
+Overall India’s Textile and Apparel sector is well placed to tap the
+huge market opportunity and consolidate its global position.
+Business Strategy
+Being one of India’s leading textiles manufacturers, Alok Industries has
+the global scale of operations and has presence in global markets. It is
+ready for the opportunities available in the growing global apparel and
+textiles market for Indian Textile Industry. The strategy followed was
+to create globally competitive capabilities across the value chain –
+from yarn to weaving to specialised products. Alok uniquely positioned
+itself in both apparel and home textiles segments and covered both
+the cotton and polyester product streams.
+While each of these business divisions are like independent value
+generating entities, the focus was on offering product basket to cater
+to our ever demanding customers and for the stake holders. We
+built up global scale of operations, which are essential to compete
+in the global market place and focus on diversiﬁ cation in product and
+markets.
+Innovative Textile Solutions 53
+STATUTORY SECTION
+Management Discussion and Analysis
+In a bid to further diversify the business risks and leverage market
+opportunities, the Company had also invested into certain new
+initiatives that were in addition to its core textiles manufacturing
+operations out of India. This included acquisition of Mileta, a Czech
+Republic based integrated textiles player; UK based retail venture
+called ‘Store Twenty One’ through its step down subsidiary Grabal Alok
+(UK) Limited and real estate investments through Alok Infrastructure
+Limited, its 100% subsidiary. Across all these businesses, the focus
+was on enhancing value. However, most of these initiatives on one
+hand have not yielded the desired results and increased the leverage
+of the Company on the other hand. Now, the Company is exploring the
+possibility to monetise these assets to deleverage the balance sheet.
+This entire endeavour at expanding for global positioning warranted
+large scale investments, which was largely debt ﬁ nanced. In addition,
+the diversiﬁ ed operations also required large ﬁ nancing support not
+only to create but also for the gestation period till a self-sustaining
+level is realised.
+Consequently, while the Company has created and developed
+the requisite infrastructure to take advantage of global market
+opportunities, it has also to deal with a highly ﬁ nancially leveraged
+balance sheet. Over the last few years, as the Company developed
+its higher capacities and diversiﬁ ed into other business, external
+environment became subdued. India as well as global markets went
+through a phase of economic slowdown and uncertainties. As a
+result, the Company could not exit some of its overseas and domestic
+real estate business and the burden of servicing debt has grown
+signiﬁ cantly on its Textile business operations.
+The Company has already initiated steps to exit from its non-core
+businesses. In this context, the Company has already closed its
+domestic retail (H &amp; A) business by shutting down the stores set
+up across India. It has also got traction in selling material portions
+of its commercial real estate units, which were located in Mumbai.
+The Company is continuing its efforts to sell majority of it non-core
+assets in the next ﬁ nancial year and use the proceeds to reduce debt.
+However, market conditions, today are not very conducive to make
+such asset sales in a reasonable span of time. Towards this end, the
+company has entered into an MOU to sell its Czech based unit “Mileta
+International’. If all the requirements of the MOU are satisfactorily met,
+the trade is expected to get concluded by March 2017/ June 2017.
+The proceeds of the same would be used to repay the acquisition debt
+ﬁ nanced by the banks.
+The reasons for the Company’s present tight liquidity situation can be
+summarised as under:
+Temporary miss-match of funds caused due to bunching of
+repayments of core and non-core loans.
+Substantial amount from operations was used to service debt
+resulting in tight working capital situation impacting operations.
+This was further aggravated by the higher receivables &amp; Inventory
+in the domestic market for woven fabric due to tight liquidity.
+Increase in average interest cost from about 7% per annum in FY
+Delay in monetization of non-core assets due to depressed
+economic conditions which resulted in additional burden of
+interest of non core business loans on core textile business.
+Delay in sanction/ release of credit facilities and delay in
+receiving export advances against the Export Performance Bank
+Guarantee.
+Consequently, the Company is going through a very tight phase in
+terms of liquidity in the system, which is preventing it from growing
+revenues and generating cash. In November 2015 (reference date
+27.11.2015), banks invoked the SDR (Strategic Debt Restructuring)
+to work out a viable solution for the Company. Under SDR, Banks
+agreed in principle to convert debt of Rs. 2557.88 crore into equity
+i.e. 2,55,78,76,091 equity shares of Rs. 10 each to take a controlling
+stake of 65% in the company.
+Alok has passed necessary enabling resolution in its Board meeting
+held on 30.01.2016 as well as obtained shareholders’ approval in the
+Extraordinary General Meeting (EGM) held on 14.03.2016 to increase
+authorized share capital and allow conversion of debt to equity under
+the SDR Scheme by way of fresh issue of equity shares. So far banks
+have not asked the company to issue shares under SDR. There was
+also a case ﬁ led by a Singapore based bank led consortium of banks
+for winding up of the Company for non-payment of their dues and they
+have also restricted the further issue of shares without their approval.
+There are some other cases ﬁ led on the company by banks/ institutions
+&amp; suppliers for recovering their dues. Most of these cases are being
+pursued due to uncertainty about the way forward for the Company.
+We believe, once the deﬁ nite course of action about the revival of the
+Company is known, most of the legal cases ﬁ led on the Company
+would also get addressed.
+The Company is working with all ﬁ nancial stake holders to evolve an
+effective debt recasting programme and exploring various avenues
+to</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11815</t>
+          <t>10263</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.755314143963047</t>
+          <t>0.7507173303700264</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3415,889 +3528,75 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(vi)
-The following laws are applicable to the Company :-
-(a)
-The Payment of Wages Act, 1936
-(b)
-The Minimum Wages Act, 1948
-(c)
-The Employees State Insurance Act, 1948
-(d)
-The Employees Provident Fund and Miscellaneous Provisions Act, 1952
-(e)
-The Payment Of Bonus Act, 1965
-(f)
-The Payment of Gratuity Act, 1972
-(g)
-The Maternity Benefit Act, 1961
-(h)
-The Maharashtra Shop and Establishments Act, 1948
-(i)
-The Industrial Employment (Standing Orders) Act, 1946
-(j)
-The Apprentices Act, 1961
-(k)
-The Employees’ Compensation Act, 1923
-(l)
-The Maharashtra Industrial Relations Act, 1946
-(m) The Factories Act, 1948
-(n)
-The Contract Labour (Regulation and Abolition) Act, 1970
-(o)
-The Maharashtra Mathadi, Hamal and Other Manual Workers (Regulation of Employment and Welfare)
-Act, 1969
-(p)
-The Child Labour (Prohibition and Regulation) Act, 1986
-(q)
-The Industrial Disputes Act, 1947
-(r)
-The Maharashtra Workmen’s Minimum House-Rent Allowance Act, 1983
-(s)
-The Sexual Harassment of Women at Workplace (Prevention, Prohibition and Redressal) Act, 2013
-(vii) I have also examined compliance with the applicable clauses of the following:
-(a)
-The Listing agreements entered into by the Company with Stock Exchanges read with Securities and
-Exchange Board of India (Listing obligations and Disclosure Requirements) Regulations, 2015 (SEBI LODR
-Regulation)
-(b)
-Secretarial Standards 1 and 2 issued by the Institute of Company Secretaries of India.
-During the period under review the Company has prima facie complied with the provisions of the Act, Rules,
-Regulations, Guidelines, Standards, etc. except (i) non-compliance with respect to submission of quarterly
-financial results to the stock exchanges under Clause 41 of the Listing Agreement / Regulation 33 of the SEBI
-LODR Regulations and (ii) non-compliance with respect to the disclosures and filings required to be submitted
-by the Company, with respect to non-convertible debentures issued by the Company, with the Stock Exchanges
-under the SEBI LODR Regulations.
-I further report that:
-(a)
-Pursuant to an application made by State Bank of India, the Hon’ble National Company Law Tribunal,
-Ahmedabad bench, vide its order dated 18 July 2017 had ordered the commencement of the corporate
-insolvency resolution process in respect of the company under the provisions of the Insolvency and
-Bankruptcy Code, 2016 (the “Code”). Thereafter, in accordance with Section 17 of the Code, the powers
-of the Board of Directors stood suspended and Mr. Ajay Joshi was appointed as interim resolution
-professional of the Company who was later confirmed as Resolution Professional of the Company on 16
-August, 2017 for the management of the affairs of the Company.
-31st Annual Report - 1st April 2017 to 31st March 2018
-(b)
-the Company was required to amend the Authorized Share Capital of the Company to Rs. 4,000 crore
-from Rs. 1,500 crore through an Extra Ordinary General Meeting (EOGM) in order to accommodate
-the conversion of debt into equity under the SDR provisions. A Singapore based bank led consortium
-through their security trustee, Hong Kong and Shanghai Banking Corporation (HSBC) filed a petition
-in the Bombay High Court for winding up the Company and further prayed for stalling the EOGM to
-protect their interest. The Court, however, allowed the EOGM to be conducted on submission of an
-affidavit by the Company that the resolutions passed at the EOGM for change in capital structure will
-not be implemented without obtaining prior written approval from HSBC. The Company filed a letter
-with the Registrar of Companies, Ahmedabad citing the circumstances due to which the change in
-capital structure could not be implemented. The petition filed by HSBC has since been withdrawn by
-the Bombay High Court. Accordingly, the company has given effect to the enhanced Authorized Share
-Capital in FY 2017-18.
-(c)
-During the period under review only one Board meeting was conducted on 30th May, 2017 as The
-Hon’ble National Company Law Tribunal, Ahmedabad Bench (NCLT) has admitted the application filed
-by the Lenders and commenced Corporate Insolvency Resolution Process against the Company under
-the Insolvency and Bankruptcy Code, 2016 on 18th July 2017 and, therefore, the powers of Board of
-Directors of the Company stand suspended and the said powers are being exercised by the RP. As a
-result thereof, Committee of creditors was formed and 11 meetings were held during the period under
-review
-(d)
-During the period under review, there have been late filings to the stock exchanges in certain instances
-- Regulation 30(6) LODR, 2015, Regulation 44(3) LODR, 2015 ,
-As per the Statutory Auditors’ Report and information provided by the Company, the Company has granted
-unsecured loans to its wholly owned subsidiaries without any interest.
-Annual Listing Fees to National Stock Exchange of India Limited have been paid up to 31st March, 2017 and in
-respect of Bombay Stock Exchange Limited, the same has been paid up to 31st March, 2017.
-For the compliance with the other applicable laws, we are relying on the certificate given by Advocate Mr. Mohit
-Kapoor from K.N. Kapoor &amp; Co.
-I further Report that:
-(a)
-I rely on Statutory Auditors’ Report in relation to the financial statements, qualifications and accuracy of
-financial figures for, Sales Tax, Value Added Tax, Related Party Transactions, Provident Fund, ESIC, FERA
-etc. as disclosed under financial statements.
-(b)
-In terms of SEBI (Listing Obligations and Disclosure Requirements) (Third Amendment) Regulations, 2018,
-a company undergoing the corporate insolvency resolution process is not required to comply with relevant
-Regulations of the SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 dealing with
-the requirements of, amongst others, composition of board of directors including that of independent
-director, constitution, meetings and terms of reference of the audit committee, constitution, meetings
-and terms of reference of the nomination and remuneration committee, constitution, meetings and terms
-of reference of the stakeholders’ relationship committee.
-(c)
-As per the information provided, the Company has prima facie given adequate notice to all directors to
-schedule the Board Meetings, agenda and detailed notes on agenda were prima facie sent at least seven
-days in advance, and a system exists for seeking and obtaining further information and clarifications on
-the agenda items before the meeting and for meaningful participation at the meeting.
-(d)
-As per the information provided, majority decision is carried through, while the dissenting members’
-views are prima facie captured and recorded as part of the minutes.
-(e)
-The management is responsible for compliances of all applicable laws including business laws. This
-responsibility includes maintenance of statutory registers/records/ fillings and statements required by
-the concerned authorities and internal control of the concerned department.
-(f)
-I report that there are prima facie adequate systems and processes in the Company commensurate with
-the size and operations of the Company to monitor and ensure compliance with applicable laws, rules,
-regulations and guidelines subject to observations and qualifications, if any made by Statutory Auditors
-in their report.
-(g)
-During the audit period the Company has no specific events like Public/Right/Preferential issue of shares/
-debentures/sweat equity/ ESOP etc.
-I further report that:
-1.
-Maintenance of Secretarial record is the responsibility of the Management of the Company. My
-responsibility is to express an opinion on these Secretarial Records based on my audit.
+          <t>1.
+General Information
 2.
-I have followed the audit practices and processes as were appropriate to obtain reasonable assurance
-about the correctness of the contents of the Secretarial records. The verification was done on test basis to
-ensure that correct facts are reflected in the Secretarial records. I believe that the processes and practices,
-I followed provide a reasonable basis for my opinion.
+Board of Directors
 3.
-Wherever required, I have obtained the Management representation about the compliance of Laws, Rules
-and Regulations and happening of events etc.
+Notice
 4.
-I have not verified the correctness and appropriateness of the books of accounts of the Company including
-loans and guarantees to the domestic and overseas subsidiaries and the Compliance certificate issued by
-Advocate Mr. Mohit Kapoor in relation to the other applicable Laws.
+Directors’ Report
 5.
-The compliance of the provisions of Corporate and other applicable Laws, Rules, Regulations, Standards
-is the responsibility of the Management. My examination was limited to the verification of procedures on
-test basis.
+Management Discussion &amp; Analysis
 6.
-The Secretarial Audit report is neither an assurance as to the future viability of the Company nor the
-efficacy or effectiveness with which the Management has conducted the affairs of the Company.
-Virendra Bhatt
-Mumbai, 10th August, 2018
-ACS No – 1157
-COP No – 124
-31st Annual Report - 1st April 2017 to 31st March 2018
-MANAGEMENT DISCUSSION AND ANALYSIS
-Alok Industries (‘Alok’ or ‘the Company’) is one of India’s
-leading textiles Company with a presence across the
-value chain of both cotton and polyester products. The
-Company has been servicing a wide customer base
-spread across the world including major global brands
-and also has certain international operations.
-The Company had been facing significant challenges in
-servicing its debt obligations over the years and debt
-restructuring efforts could not bear fruit.
-The Honorable National Company Law Tribunal,
-Ahmedabad bench, (“Adjudicating Authority”) vide
-its order dated 17 July 2017, initiated corporate
-insolvency resolution (“CIR”) process of the Company
-in accordance with the provisions of the Insolvency and
-Bankruptcy Code, 2016 (“Code”). In terms of Section
-23 of the Code read with Section 25 of the Code, the
-powers of the Board of Directors stand suspended and
-the management of the affairs of the Company vests in
-the resolution professional of the Company i.e. Mr. Ajay
-Joshi. Please refer to the discussion on revival plan of
-the Company for further details.
-Economic Overview
-1.2
-Global Economy Overview
-Global economy strengthened in 2017. Global GDP
-growth, which in 2016 was the weakest since the
-global financial crisis at 3.2%, rose to 3.8% in 2017.
-Major economic indicators continue to improve in
-a majority of the countries, and approximately
-2/3rd of countries globally witnessed stronger
-growth in 2017 as compared to previous year.
-At the global level, growth is expected to remain
-stable at 3% in 2018 and 2019.
-ϯ͘ϱй
-Ϯ͘ϯй
-ϰ͘ϯй
-ϯ͘Ϯй
-ϭ͘ϳй
-ϰ͘ϰй
-ϯ͘ϴй
-Ϯ͘ϯй
-ϰ͘ϴй
-tŽƌůĚ
-ĚǀĂŶĐĞĚ
-ĐŽŶŽŵŝĞƐ
-ŵĞƌŐŝŶŐ
-ĐŽŶŽŵŝĞƐ
-ϮϬϭϱ
-ϮϬϭϲ
-ϮϬϭϳ
-Chart 1: Real GDP Growth of World Economies for
-Source: World Economic Outlook 2017, International Monetary
-Fund
-Chart 1 illustrates the growth in the overall global
-economy along with advanced and emerging
-economies. Advanced economies grew by 0.6
-percentage points in 2017 to reach 2.3%, while
-emerging markets and developing economies saw
-growth of 0.4 percentage points in 2017 to reach
-4.8%, as compared to 2016.
-Global inflation remained stable in 2017 at a
-rate of 3%1, increasing by 0.2 percentage points
-from 2016. Despite low unemployment in many
-developed economies, wage pressures generally
-remained weak. This could be a result of rising
-inequality and limited bargaining power of people
-belonging to lower income scales.
-Global productivity saw a cheerful uplift in 2017.
-After growing by a rate of only 1.3% in 2015 and
-2016, global labour productivity increased by
-approximately 1.9% in 2017. Revival in global
-investments has played an important role in
-improving the global productivity levels. Growth
-in labour productivity was observed in countries
-across the globe. Among developed economies,
-Japan, U.S. and Western Europe have witnessed
-productivity growth strengthening over the
-past year, albeit from low levels. Average labour
-productivity growth in developed economies is
-estimated to have increased from 0.5% in 2016 to
-The U.S. economy performed well in 2017,
-according to the key  economic indicators.
-U.S.’s  GDP growth rate  improved from 1.5%
-in 2016 to 2.3% in 2017, and it is expected to
-remain between 2%-3%  range in near future.
-Unemployment rate stood at 4.4% in 2017,
-declining marginally by 0.5 percentage points as
-compared to previous year. Inflation/average
-consumer price index stood at 245 in 2017,
-increasing at 2% y-o-y as compared to 2016.1 This
-is a positive sign for the US economy as inflation
-is returning to target i.e. 2%. Labour productivity
-saw an average annual growth of ~0.8% during
-the last decade (2008-2017), however much lower
-than the 1997-2007 annual growth of 2%3.
-1 World Economic Outlook, April 2018, International Monetary Fund
-2 World Economic Situation and Prospects, 2018, United Nations
-3 Economic Survey of the United States, 2018, Organization for Economic Co-operation and Development (OECD)
-After years of crisis, European Union economy is
-gaining momentum. European Union’s economy
-witnessed y-o-y growth of 0.6 percentage points
-in 2017 to reach at a level of 2.6% while inflation
-increased to 1.7% as compared to 0.2% in 2016.
-Rise in inflation was primarily because of increase
-in prices of oil and fruit &amp; vegetables as a result
-of bad weather conditions. Unemployment rate in
-EU saw a downward trend last year, declining from
-7.6% in 2016 to 7.4% in 2017.1 As of now, UK’s
-vote to exit the European Union, low potential
-growth, and an ageing population are all important
-challenges for EU’s economy. For strengthening of
-economic condition, the European Union would
-need to focus on development of policies that
-support a stronger and more inclusive growth.
-Japan’s economy, world’s third largest, grew at
-1.7% in 2017. Unemployment rate has declined
-from 3.1% in 2016 to 2.9% in 2017. Inflation
-remains low, i.e. 0.5% y-o-y growth in 2017.1 After
-two decades of economic stagnation, Japan’s
-return to growth may be hampered by the twin
-challenges of an ageing population and the
-mountain of public debt built up.
-China’s GDP has been declining since 2010. Its
-growth in 2017 remained high, pegged at 6.9% but
-is expected to gradually decline as the population
-is ageing and economy witnessing a shift from
-investment to consumption focused. Total
-investment, as percent of GDP has declined over
-the past 5 years (47.2% in 2012 to 44.4 in 2017)
-and is expected to decrease further.1
-At an overall level, trade is anticipated to rise as
-a result of the stronger domestic demand in the
-US. In Europe too, economic activity in 2018 and
-2019 is projected to remain stronger. Moreover,
-the advanced economies in Asia are expected to
-deliver stronger growth, while the emerging and
-developing ones are expected to grow at around
-6.5% over 2018-19, broadly the same as in 2017.
-1.2
-Indian Economy Overview
-Indian economy is showing signs of recovery
-after a continuous decline since 2015. Indian
-economy is gradually recovering from the impact
-of demonetization in late 2016 and GST rollout
-around second quarter of 2017. Moreover, it is
-anticipated that India will recover fast with time in
-near future, bringing the major economic reforms
-to action. Tax reforms can make growth more
-inclusive in India and boost productivity.
-ϱ͘ϱ
-ϲ͘ϰ
-ϳ͘ϰ
-ϴ͘Ϯ
-ϳ͘ϭ
-ϲ͘ϳ
-ϮϬϭϮ
-ϮϬϭϯ
-ϮϬϭϰ
-ϮϬϭϱ
-ϮϬϭϲ
-ϮϬϭϳ
-Chart 2: GDP Growth rate in India (%)
-Source: World Bank
-Major policy changes like demonetization and GST
-rollout may have dampened GDP growth in the
-short-term, but it could also prove to have long-
-term benefits. It enhanced digital transactions to a
-large extent, which are now easier to track.
-It is worth mentioning that, key financial
-indicators like inflation and fiscal deficit improved
-significantly in 2017. Inflation rate in 2017 saw
-the largest decline since past four years. Average
-inflation rate in India declined to 3.6 % in 2017 as
-compared to 4.5 % in 2016.1 The decline in inflation
-was broad-based across major commodity groups,
-except housing, fuel and light. This decline in
-inflation rate is attributed to weaker domestic
-demand, combined with structural factors such
-as better food management by the current
-government. Fiscal deficit of the country has
-reduced from a level of 4.5% of GDP in 2013-14
-to 3.24% of GDP in 2017-184. Unemployment has
-remained stagnant from last three years (2015-
-17), at 3.5%.1 Moreover, it is encouraging to note
-that, India got 100 rank in Ease of doing business
-index, as per World Bank’s ‘Doing Business 2018:
-Reforming to Create Jobs’ report climbing 30 ranks
-over previous year.
-During 2017, Government of India took several
-steps towards strengthening of its workforce. For
-instance, increased maternity benefits to 26 weeks
-paid leaves from existing 12 weeks, increased
-coverage for mandatory employee insurance i.e.
-coverage increased from Rs 15,000 per month
-to Rs 21,000 per month etc. Government also
-has plans to make major labour law reforms at
-the central and state levels and to introduce a
-National Employment policy in order to promote
-job creation and make growth more inclusive.
-4 Public Information Bureau, Government of India
-31st Annual Report - 1st April 2017 to 31st March 2018
-Overview of Textile and Apparel Industry
-2.1
-Global Textile &amp; Apparel Market Overview
-Global apparel consumption stood at US$ 1.8
-trillion in 2017, which is expected to grow at
-a CAGR of 4% to reach about US$ 2.6 trillion by
-2025. Europe and USA continue to be the largest
-apparel markets with ~42% share in 2017.
-Table 1: Current and future global apparel market
-size (US$ bn.)
-S.No. Region
-2025 (P)
-CAGR
-EU-28
-1%
-USA
-2%
-China
-10%
-Japan
-1%
-India
-11%
-Brazil
-5%
-Russia
-2%
-Canada
-5%
-RoW
-6%
-Total
-1,816
-2,557
-4%
-Source: Wazir Analysis
-China and India will be the fastest growing apparel
-market in the coming years due to their growing
-domestic demand. China is expected to overtake
-EU and USA to become the largest apparel market
-by 2025 with a share of 19% globally. EU and USA
-will still remain the key global markets, however
-their growth will be slow. India which currently
-has ~4% share of the global apparel market, is
-expected to grow its share to 6% by 2025.
-Chart 3: Projected Apparel Market Share-2025
-ŚŝŶĂ͕ϭϵй
-hͲϮϴ͕ϭϳй
-h^͕ϭϱй
-/ŶĚŝĂ͕ϲй
-:ĂƉĂŶ͕ϰй
-ƌĂǌŝů͕ϰй
-ZƵƐƐŝĂ͕Ϯй
-ĂŶĂĚĂ͕ϭй
-ZŽt͕ϯϭй
-Source: Wazir Analysis
-Global Textile &amp; Apparel Trade Overview -
-Global textile and apparel trade in 2017 stood
-at US$ 750 bn. The same has grown at a CAGR
-of 2% during last ten years. Global apparel trade
-constitutes the majority share of 57% in the
-overall trade of textile and apparel. Global textile
-and apparel trade had witnessed a declining trend
-since 2014, however, in 2017 trade grew by 1%
-(y-o-y) indicating a resurgence in demand.
-Chart 4: Global Textile &amp; Apparel Trade (US$ Bn.)
-Ϯϴϳ
-Ϯϰϭ
-Ϯϵϰ
-ϯϰϴ
-ϯϯϮ
-ϯϱϯ
-ϯϲϭ
-ϯϯϮ
-ϯϭϰ
-ϯϮϮ
-ϯϱϲ
-ϯϭϱ
-ϯϰϳ
-ϰϬϰ
-ϯϵϲ
-ϰϯϱ
-ϰϲϲ
-ϰϰϰ
-ϰϮϵ
-ϰϮϵ
-ϲϰϯ
-ϱϱϲ
-ϲϰϭ
-ϳϱϮ
-ϳϮϴ
-ϳϴϴ
-ϴϮϳ
-ϳϳϲ
-ϳϰϯ
-ϳϱϬ
-ϮϬϬϴ
-ϮϬϬϵ
-ϮϬϭϬ
-ϮϬϭϭ
-ϮϬϭϮ
-ϮϬϭϯ
-ϮϬϭϰ
-ϮϬϭϱ
-ϮϬϭϲ
-ϮϬϭϳ
-dĞǆƟůĞƐ
-ƉƉĂƌĞů
-Source: UN Comtrade
-China is the largest exporter with 37% share
-in global textile and apparel exports in 2017,
-followed by India with 5% share. Other major
-exporters include Bangladesh, Germany, Italy and
-Vietnam.
-Chart 5: Top Textile &amp; Apparel Exporters-2017
-ŚŝŶĂ
-ϯϳй
-/ŶĚŝĂ
-ϱй
-ĂŶŐůĂĚ
-ĞƐŚ
-ϱй
-'ĞƌŵĂŶ
-Ǉ
-ϱй
-/ƚĂůǇ
-ϰй
-sŝĞƚ
-EĂŵ
-ϰй
-Z͘Ž͘t
-ϰϬй
-Source: UN Comtrade
-Import Scenario of Major Textile and Apparel
-Markets
-European Union
-Data from European Textile and Apparel
-Confederation (EURATEX) suggests that overall
-import of textiles and apparel into Europe across
-all product types increased from US$ 121 Bn. in
-2016 to US$ 127 bn. in 2017, with textile imports
-up 6% to reach US$ 34 bn while apparel imports
-increased by 4%.
-In apparel category, women’s-wear was the largest
-category with 36% share followed by men’s wear
-25% and babies wear 3%. China, Turkey, India,
-Bangladesh, USA, Cambodia and Pakistan were
-the major suppliers of textile and apparel products
-to EU.
-ϭϮϭ͘ϭ
-ϭϮϲ͘ϲ
-ϭϭϯ͘ϱ
-ϭϭϰ͘ϭ
-ϮϬϭϲ
-ϮϬϭϳ
-h 
-h^
-Chart 6: Textile &amp; Apparel Imports (US$ Bn.)
-Source: OTEXA, Euratex (Imports include Extra EU imports only)
-United States
-US imported textile and apparel products
-worth US$ 114 bn. in 2017, increasing by 0.5%
-as compared to previous year. Apparel was
-the largest imported category with 73% share
-followed by home-textiles (11%) and fabrics (6%).
-In apparel category, womenswear had the largest
-share of 38% followed by menswear (27%) and
-kidswear (3%). China was the largest supplier to US
-accounting for 36% share. Other major suppliers
-include Vietnam (11%), India (7%), Mexico (5%)
-and Bangladesh (5%).
-2.2
-Indian Textile and Apparel Market Overview
-Textile plays an important role in the Indian
-economy. It contributes to ~14% to industrial
-production and 4% to GDP. With over 45
-million people, the industry is one of the largest
-employers of the country. The size of India’s
-textile and apparel market, was around US$ 127
-bn. in 2017. It is expected to touch US$ 300 bn. by
-the year 2025, growing at a CAGR of 11% between
-2017-20255.
-dΘDĂƌŬĞƚ^ŝǌĞ
-h^ΨϭϮϳďŶ͘
-ŽŵĞƐƟĐŽŶƐƵŵƉƟŽŶ
-h^ΨϵϬďŶ͘
-ƉƉĂƌĞů
-h^ΨϲϳďŶ͘
-dĞĐŚŶŝĐĂů
-dĞǆƟůĞƐ
-h^ΨϭϳďŶ͘
-,ŽŵĞ
-dĞǆƟůĞƐ
-h^ΨϲďŶ͘
-dĞǆƟůĞƐ
-h^ΨϮϬďŶ͘
-ƉƉĂƌĞů
-h^ΨϭϳďŶ͘
-ǆƉŽƌƚƐ
-h^ΨϯϳďŶ͘
-Chart 7: Indian Textile &amp; Apparel Market 2017
-Source: UN Comtrade and Wazir Analysis
-Category wise Exports of India
-Globally, India is ranked 2nd in textile export with
-6% share and 5th in apparel export with 4% share.
-Overall, India holds second position with 5% share
-of global textile &amp; apparel exports. India’s textile
-and apparel exports stood at US$ 37 bn. in 2017
-and have grown at 6% CAGR over the last decade.
-Availability of raw material, skilled manpower
-and favorable central &amp; state govt. schemes
-would further help Indian exporters increase their
-market share and global competitiveness.
-Apparel is the largest category exported from
-India having a share of 47% in the total textile and
-apparel exports during 2017. Home textiles is the
-second largest category exported from India with
-a share of 14%, followed by fabric exports (12%).
-Share of fabric in textile and apparel exports from
-India has seen a decline over the last decade with
-16% share in 2008 to 12% in 2017. On the other
-hand, share of apparel grew by 2% during the
-last decade. Home-textiles share has remained
-stagnant at 14% during the same period. India
-is focusing toward export of apparel and home-
-textile categories in order to capitalize on value
-addition.
-Chart 8: Indian Textile &amp; Apparel Trade (US$ bn.)
-ϭϬ͘Ϯ
-ϭϬ͘ϲ
-ϭϳ͘ϭ
-ϭϳ͘ϯ
-ϯ͘ϳ
-ϰ͘Ϭ
-ϰ͘ϵ
-ϰ͘ϲ
-Ϯ͘ϱ
-ϰ͘ϰ
-ϯ͘ϴ
-ϯ͘ϵ
-ϯ͘Ϭ
-ϯ͘ϲ
-ϱ͘ϭ
-ϱ͘Ϯ
-Ϯ͘ϱ
-ϯ͘ϲ
-ϰ͘ϱ
-ϰ͘ϯ
-Ϭ͘ϳ
-Ϭ͘ϵ
-ϭ͘ϳ
-ϭ͘ϵ
-Ϯϯ
-Ϯϳ
-ϯϳ
-ϯϳ
-ϮϬϬϴ
-ϮϬϭϬ
-ϮϬϭϱ
-ϮϬϭϳ
-ƉƉĂƌĞů
-&amp;ĂďƌŝĐ
-&amp;ŝďƌĞΘ&amp;ŝůĂŵĞŶƚ
-,ŽŵĞdĞǆƟůĞƐ
-zĂƌŶ
-KƚŚĞƌƐ
-dŽƚĂů
-Source: UN Comtrade
-India’s Manufacturing Scenario
-The Indian textile industry is one of the largest
-in the world with a large raw material base and
-manufacturing strength across the value chain.
-Presence of mill sector and handloom both
-makes India’s textile industry unique as compared
-to other textile industries of the world. With
-an installed capacity of more than 50 million
-spindles and more than 8 Lakh rotors, India’s
-textile industry is the second largest in the world.7
-Traditional sectors like handloom, handicrafts
-and power-loom units are the biggest source of
-employment for millions of people based in rural
-and semi urban parts of India.
-5 Wazir Estimates
-31st Annual Report - 1st April 2017 to 31st March 2018
-Total fiber production in India decreased from
-18, witnessing a decline of 3%. Production of
-yarn remained almost stagnant as compared to
-previous year, pegged at 5,676 Mn. Kg. in 2017-18.
-However, fabric production registered a growth of
-Growth Drivers for the Indian Textile &amp; Apparel
-Industry
-Rising disposable income of the country:
-India has a large population base with
-more than 1.25 billion people. About half
-of India’s population is under 25 years.
-Young population of India will soon turn into
-working population, resulting in increased
-disposable income of the country. As a
-result of the increased purchasing power,
-major lifestyle categories would witness a
-boost in demand. Apparel would be one of
-the most important categories among other
-lifestyle products.
-Women’s lifestyle shifting from home-
-oriented to career oriented: Driven by
-pressures of urban living, roles that an Indian
-women have to play are getting redefined.
-Along with household activities, women
-have started contributing to household
-income as well. India could boost its growth
-by 1.5 percentage points to 9% per year if
-around 50% of women join the work force.
-Currently, rate of women’s participation in
-workforce stands at 27% in India.7 Number
-of working women in urban area is expected
-to get doubled from 3 crore in 2016 to 6
-crore in 20258. Increasing number of women
-in the workforce will boost the demand for
-women’s work-wear segment.
-Shift from need based buying to aspiration
-based buying: About a decade ago, people
-in India purchased products as per their
-requirements. But now, scenario has
-changed completely. Consumers of India
-have become more focused towards
-improving
-their
-lifestyle
-and
-buying
-aspiration based products more.
-Increased urbanization: India has witnessed
-a drastic increase in urban population
-as a result of rising industrialization and
-expansion of cities. Growing urban culture
-is also affecting rural areas on a large
-scale. Increased urbanization has caused
-population of India to indulge more into the
-purchase of fashion and lifestyle products.
-This is going to have a major impact on
-growth of apparel consumption in India.
-Increased retail penetration: Growing
-digitalization in India and increasing number
-of internet users have resulted in surge
-in online shopping. People find online
-shopping more convenient and versatile in
-terms of discounts, payment methods and
-return/exchange. Growth in online retail will
-also boost apparel sales in India.
-Business Strategy
-Alok Industries has created global scale of operations
-across its value chain and has enjoyed significant
-presence in domestic polyester filament yarn industry
-and global textile markets in the earlier years. The
-objective was to be prepared for the growing global
-apparel and textiles market for Indian Textile Industry.
-The strategy, accordingly was to create globally
-competitive capabilities across the value chain in cotton
-and polyester - to provide cotton yarn, finished fabrics
-including embroidery fabrics, bed linen, terry towels and
-polyester yarn. At peak level of operations, the Company
-was exporting its products to over 90 countries.
-Alok has uniquely positioned itself in the cotton and
-polyester product streams. While in polyester there
-is manufacturing of partially oriented yarn (POY),
-texturised yarn (DTY), fully drawn yarn (FDY) and
-polyester staple fiber (PSF), on the cotton side there is
-complete vertical integration from cotton spinning to
-manufacturing of apparel fabrics, home textiles and
-garments. While each of these business divisions are like
-independent value generating entities, the focus is on
-offering a comprehensive product suite to cater to the
-ever demanding needs of customers .
-Revival Plans for the Company and admission under
-the corporate insolvency resolution process defined
-under Insolvency and Bankruptcy Code, 2016
-The Company was admitted under the CIR process
-in terms of the Code vide an order of Adjudicating
-Authority dated 18 July, 2017 (“Order”). Pursuant to
-the Order, Mr. Ajay Joshi was appointed as the interim
-resolution professional for the Company and was
-6 Office of the Textile Commissioner, Ministry of Textile
-7 World Bank, ILOSTAT Database
-subsequently confirmed as the resolution professional
-(“RP”) of the Company. During the CIR process, only one
-resolution plan dated 12 April, 2018 (“Resolution Plan”)
-was received from JM Financial Asset Reconstruction
-Company Limited, JM Finance ARC – March 18 Trust
-and Reliance Industries Limited jointly (“Resolution
-Applicants”).
-Pursuant to promulgation of the Insolvency and
-Bankruptcy (Amendment) Ordinance dated 6 June
-2018 (“Ordinance”), the voting threshold for approval
-of Resolution Plan was reduced from 75% to 66%
-of the voting share of the financial creditors. The
-Adjudicating Authority in an application filed by Alok
-Employees Benefit &amp; Welfare Trust, vide its order dated
-11 June 2018 directed the committee of creditors of
-Company (“COC”) to re-look and proper consideration
-of the Resolution Plan. Accordingly, in compliance
-with the Order, the Resolution Plan submitted by the
-Resolution Applicants was again placed before the COC
-for consideration by the RP under Section 30 (4) of the
-Code (as amended by the Ordinance). The Resolution
-Plan was approved by the COC with 72.192% assenting
-voting share. Subsequently, vide its order dated 25 June,
-2018, the Adjudicating Authority granted liberty to the
-RP to file the Resolution Plan for the approval of the
-Adjudicating Authority under Section 31 of the Code.
-The application filed by the RP for approval of Resolution
-Plan on 11 July, 2018 is currently pending adjudication
-before the Adjudicating Authority.
-In terms of Section 25 of the Code, the Company is
-continuing to operate as a going concern. Further, since
-the application for approval of the Resolution Plan is
-pending with the Adjudicating Authority, therefore
-the financial statements of the Company are being
-presented on a going concern basis.
-It is pertinent to note that certain financial creditors
-of the Company have filed applications before the
-Adjudicating Authority as well as the Hon’ble National
-Company Law Appellate Tribunal, New Delhi (“Appellate
-Tribunal”), inter alia, challenging the Resolution Plan
-of the Company. These applications are pending
-adjudication before the respective tribunals. In the
-event, the Adjudicating Authority and/or the Appellate
-Tribunal (or any subsequent appeals) result in the
-rejection of the Resolution Plan, the Company may be
-liquidated upon the order of the Adjudicating Authority
-/Appellate Tribunal/subsequent appellate authority.
-Financial Performance (Stand Alone)
-During the current financial year also Company’s sales
-continued to decline and it made losses. The main
-reason for losses were provisions / write off of debtors,
-provisions for impairment in investment and loans
-given to wholly owned subsidiaries of the Company and
-finance cost.
-The reason for provisioning and write off of debtors is
-that over the last 4-5 years, manufacturing operations of
-the Company started coming down and reached about
-30% capacity utilisation level. As a measure to counter
-the drop in sales, the Company increased the trading
-business in the domestic un-organised market. But due
-to the tight market situation, this market got affected
-adversely leading to defaults in payments, a build-up
-of debtors and elongation of the receivables cycle. The
-rotational cycle in the market started to disrupt and
-payments stopped against even the fresh supplies. Many
-of these parties from the un-organised market were
-small and fragmented traders who could not withstand
-the tight market conditions and closed their operations.
-The Company, in accordance with the Generally Accepted
-Accounting Policies and Standards, made a complete
-provision for doubtful debts and wrote off debtors
-where required. Looking at the deteriorating situation
-in the un-organised market and recovery issues, the
-trading business was discontinued from July 2017.
-The stand-alone results give the analysis of the textile
-business of the Company. Table 2 gives the summarised
-profit and loss statement of the Company in the current
-year compared to the previous year.
-Table 2: Summarised Profit and Loss Account
-(Rs. Crore)
-PROFIT &amp; LOSS ACCOUNT
-FY 2018
-(12 Months Ended 31 March 2018)
-FY 2017
-(12 Months Ended 31 March 2017)
-% to Sales
-% to Sales
-Domestic Sales
-4,459.13
-7,243.08
-Export Sales
-922.82
-1,082.98
-Net Sales
-5,381.95
-8,326.07
-Other Income
-236.31
-165.69
-Total Income
-5,618.26
-8,491.76
-8 Wazir Estimates
-31st Annual Report - 1st April 2017 to 31st March 2018
-Profit and Loss Analysis
-Net Sales for the year was Rs.5,381.95 crore
-comprising of domestic sales of Rs. 4,459.13
-crore and export sales of Rs. 922.82 crore. In the
-previous year, the total sales were Rs. 8,326.06
-crore comprising of domestic sales of Rs. 7,243.08
-crores and export sales of Rs. 1,082.98 crore. The
-Company continued to witnessed lower level of
-operations due to working capital constraints.
-During the year Company exited the trading
-business due to losses and recovery issues on
-account of depressed market conditions, which
-has resulted into lower sales.
-Other Income for the year was Rs. 236.31 crore
-(previous</t>
+Corporate Governance Report &amp; Annexures
+7.
+Certifications
+8.
+Independent Auditors’ Report on Standalone
+Financial Statement
+9.
+Balance Sheet
+10.
+Statement of Profit &amp; Loss Account
+11.
+Statement of Changes in Equity
+12.
+Cash Flow Statement
+13.
+Notes to the Standalone Financial Statement
+14.
+Independent Auditors’ Report on Consolidated
+Financial Statement
+15.
+Consolidated Balance Sheet
+16.
+Consolidated Statement of Profit &amp; Loss
+Account
+17.
+Consolidated Statement of Changes in Equity
+18.
+Consolidated Cash Flow Statement
+19.
+Notes to the Consolidated Financial Statement .................................................................................
+20.
+Attendance Slip and Proxy Form
+CONTENTS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9254</t>
+          <t>102</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.7307276690049268</t>
+          <t>0.699017199017199</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['risk management', 'global economy']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -4329,219 +3628,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DIRECTORS’ REPORT
-Your Directors have great pleasure in presenting the 23rd Annual Report together with Audited Statements of Accounts of the Company for
-the year ended March 31, 2015.
-Financial Results
-(` in Lakhs)
-2014-2015
-2013-2014
-Net Sales (Turnover)
-3205.52
-2,638.57
-Other Income
-4.06
-8.95
-Financial Charges
-347.29
-396.52
-Depreciation
-343.59
-410.33
-Misc. Expenses written off
-Profit/(Loss) before tax (PBT)
-(1533.46)
-(962.02)
-Deferred Tax
-878.25
-Net Profit/(Loss)
-(2411.71)
-(962.02)
-FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
-During the fiscal 2014-15, the turnover of the Company increased to Rs. 3,205.52 Lakhs as compared to Rs. 2,638.57 Lakhs in the previous
-year. However due to sluggish market, increase in labour, power and other operational costs , and financial constraints , Company could not
-optimally utilize its capacities and its lossess increased to Rs. 2,411.71 Lakhs as compared to Rs. 962.02 Lakhs in the previous year.
-Further, over the period the company has eroded its net worth completely and it has been declared as a Sick Company under Sick Industrial
-Companies (Special Provisions) Act'1985 by the Board for industrial and financial restructuring (BIFR) vide its order dated 18th July'2012.
-Management Discussion and Analysis
-Indian Textile Industry is one of the leading textile Industries in the world. The textile sector has always been an important part of people's
-lives in India. The textile sector is highly diverse and has hand-spun and hand woven segments at one end of the spectrum, and capital-
-intensive, sophisticated and modern mills at the other. India's Textile Industry is largely dependent on textile manufacturing and export and
-India earns about 17% of its foreign exchange through Indian textile exports. The Indian Textile Industry also contributes 5% of the GDP and
-employs more than 35 million people, the second largest employment only after agriculture, and 14% of the industrial production of the
-country.
-However, for Amit Spinning the last fiscal was very difficult and challenging mainly due to sluggish market demand and rapid &amp; significant
-increase in labour, power and other operating costs and shortage of working capital .which lead to fall in EBITDA levels.
-M/s Amit Spinning Industries Limited has already been declared as a Sick Company under SICA by BIFR and the UCO Bank has been
-appointed as the Operating Agency. However, with an attempt to safeguard the interests of the stakeholders particularly employees, unit has
-been engaged in carrying out under job work.
-Management is confident that once the rehabilitation scheme is approved by the BIFR, Company will turn around and recover from the
-current difficult phase and accordingly it is in process of reviewing its strategic plans and looking at means to find a way to increase its
-turnover, reduce its costs and achieve a higher value addition so that it could achieve positive result in the near future.
-Segment-Wise Performance
-Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of geographical
-categorization of market, ASIL identified two segments i.e. exports and domestic.
-During the year under review, Company has manufactured 1281.64 MT of yarn on its own resources and 1112.65 MT of yarn on job work
-basis.
-Subsidiary Companies
-As there are no subsidiaries/ associates / joint ventures of the Company, the provisions contained in Companies Act, 2013/Listing
-Agreements relating to subsidiaries are not applicable.
-Share Capital
-The Company's issued and paid up capital as on 31st March, 2015 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity
-shares of Rs. 5/- each. During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
-share with differential Voting Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
-The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the benefit of employees.
-Hence the details under rule 16 (4) of Companies (Share Capital and Debentures) Rules, 2014 are not required to be disclosed.
-Management Perception On Opportunities, Risks, Concern &amp; Outlook
-The potential size of the Indian textile industry is expected to reach US$220 billion by 2020. Government has allowed 100% FDI in the Indian
-textiles sector under the automatic route. Further, the Government has proposed the establishment of Centres of Excellence for training the
-workforce in the textile sector and also to establish institutes under the public-private partnership (PPP) model to encourage private sector
-participation in the development of the industry. However due to change in China policy, Indian exports have been affected and showed
-down by 50% in the graph of financial year 2014-15, but could recover partially in the year 2015-16 to 1.2 million tones.
-Further, Government has approved a debt restructuring package to help loss making textile mills to be administered on case by case basis
-by the banks within the prudential norms of the Reserve Bank of India. Also, BIFR has decided on reliefs / concessions etc. to be given to
-units / companies on the revival packages which will prove to be beneficial for Amit Spinning Industries Limited, as well.
-Further, with focus on Make in India, the Indian Textile industry is expected to become resilient and robust through various support measures
-likely to be announced by the government. The future outlook for the Indian Textile Industry looks promising, buoyed by both strong domestic
-consumption and increase in export turnover.
-Slow but potentially promising increase in demand of cotton yarn in domestic market and talk of economic reforms by the new government
-as well as encouraging export promotion policy for textile sector have already improved market sentiments to some extent. With the awaited
-approval of rehabilitation scheme by BIFR and with the continued support and co-operation of company's bankers, management believes
-that your Company would again initiate its own production, optimally utilize capacities, increase sales volumes, and consequently margins
-are also expected to be strengthened in due course.
-Directors
-(a) Change in Directors or Key Managerial Personnel
-In terms of provisions of the Companies Act, 2013 read with Clause 49 of Listing Agreement, during the year, Ms. Priya Lohani has been
-appointed as Additional Director in the position of Woman Director on the Board of the Company w.e.f. 31st March, 2015 and holds
-office upto ensuing Annual General Meeting. She however being eligible for reappointment, company has received an application from
-the member for consideration of her appointment as women director on the board in the ensuing Annual General Meeting itself.
-During the period under review, Mr. Shreyas S Alatkar, Manager Accounts has been entrusted with responsibility to discharge the
-functions of CFO (Chief Financial Officer) along with other functions of the Company w.e.f 13th February, 2015 in place of Mr. Mahesh
-Anand Raut, who was appointed as CFO on 11th August, 2014.
-Mr. K Sankaramani is retiring by rotation in the forthcoming Annual General Meeting and being eligible, offer himself for re-appointment.
-Brief resume of the Directors proposed to be appointed/re-appointed, nature of their expertise in specific functional areas and names of
-the companies in which they hold directorship and membership/chairmanships of the Board or its Committees, as stipulated under
-Clause 49 of the listing agreement entered by the Company with stock exchanges in India, is provided in the Report of Corporate
-Governance forming part of the Annual Report.
-(b) Number of Meetings of the Board
-Four meetings of the Board were held during the year. The detailed information regarding meetings of the Board held during the year is
-mentioned in the Corporate Governance Report which forms part to this report.
-(c) Declaration by Independent Directors
-All Independent Directors have given declarations that they meet the criteria of independence as laid down under Section 149(6) of the
-Companies Act, 2013 and Clause 49 of the Listing Agreement.
-(d) Annual Evaluation by the Board
-Pursuant to the provisions of the Companies Act, 2013 and Clause 49 of the Listing Agreement, the Board has carried out an annual
-performance evaluation of its own performance, the directors individually as well as its Committees. The manner in which the evaluation
-has been carried out has been explained in the Corporate Governance Report.
-(e) Remuneration Policy
-The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection and appointment of
-Directors, Senior Management and their remuneration. The Remuneration Policy is stated in the Corporate Governance Report. During
-the year, neither the Managing Director nor the Whole-time Directors of the Company received any remuneration or commission from
-any of its subsidiaries.
-Directors' Responsibility Statement
-Pursuant to the requirement of Section 134(3)(c) of the Companies Act, 2013, with respect to Directors' Responsibility Statement, it is
-hereby confirmed that:
-(a) in the preparation of the annual accounts for the financial year ended 31st March, 2015, the applicable accounting standards had been
-followed along with proper explanation relating to material departures;
-(b) the directors had selected such accounting policies and applied them consistently and made judgments and estimates that are
-reasonable and prudent so as to give a true and fair view of the state of affairs of the company as at March 31, 2015 and of the profit and
-loss of the company for that period;
-(c) the directors had taken proper and sufficient care for the maintenance of adequate accounting records in accordance with the
-provisions of the Companies Act, 2013 for safeguarding the assets of the company and for preventing and detecting fraud and other
-irregularities;
-(d) the directors had prepared the annual accounts on a going concern basis; and
-(e) the directors had laid down internal financial controls to be followed by the company and that such internal financial controls are
-adequate and were operating effectively.
-(f)
-the directors had devised proper systems to ensure compliance with the provisions of all applicable laws and that such systems were
-adequate and operating effectively.
-Related Party Transactions
-All related party transactions that were entered into during the financial year were on an arm's length basis and were in the ordinary course of
-business. Company has entered into a material transaction with one related party i.e. its holding Company M/s Spentex Industries Limited
-according to the policy framed for the related party transactions and the same has been disclosed in the note to financial statements.
-However there were no other materially significant related party transactions entered into by the Company with Promoters, Directors, Key
-Managerial Personnel or other designated persons which may have a potential conflict with the interest of the Company at large.
-Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for a period upto 31st March, 2015 and for the
-financial year 2015-16. The transactions entered into pursuant to the omnibus approval so granted were audited and a statement giving
-details of all related party transactions were placed before the Audit Committee for its review on a quarterly basis.
-The Company has framed a Related Party Transactions Policy for purpose of identification and monitoring of such transactions. The policy
-on Related Party Transactions as approved by the Board has been uploaded on the Company's website.
-None of the Directors has any pecuniary relationships or transactions vis-a-vis the Company. All related party transactions entered into by
-the Company were in ordinary course of business and were on an arm's length basis, however for the transaction entered with its holding
-company fall under material transaction and details of the same is mentioned in form AOC - 2 attached herewith as Annexure-1.
-Significant and Material Orders passed by the Regulators or Courts
-There are no significant or material orders passed by the Regulators / Courts which would impact the going concern status of the Company
-and its future operations.
-Auditors
-(a) Statutory Auditors
-M/s. Sunil Jain &amp; Co., Chartered Accountants, (Registration No. 003855N) have been appointed as Statutory Auditors of the Company
-at 22nd Annual General Meeting held on 11th September, 2014 to hold office until conclusion of 26th Annual General Meeting for a
-period of four years, as provided in Section 139 of the Companies Act, 2013, the said appointment is being placed for ratification at the
-forthcoming Annual General Meeting.
-The Company has received a confirmation from M/s. Sunil Jain &amp; Co., Chartered Accountants to the effect that their appointment, if
-made, at the ensuing AGM would be in terms of Sections 139 and 141 of the Companies Act, 2013 and rules made there under and that
-they are not disqualified for re-appointment.
-Auditors Report
-The Auditors' Report read with the Notes to Accounts is self-explanatory and do not call for any further explanation under Section 134 of the
-Companies Act, 2013, except for the responses in respect of some observations as mentioned here in below.
-Directors' view on Auditor's Observations
-Directors' response to the various observations of the auditors made in their report, has been explained wherever necessary through
-appropriate notes to accounts, however pertinent notes are reproduced hereunder in compliance with the relevant legal requirements and
-wherever required further explanation is furnished:
-Note No. 30 of the Financial Statement qualified by Auditors
-“The Loans and Advances of the Company include a sum of Rs.1,93,46,572, being an amount receivable from Customs Department as
-drawbacks against the export sale pertaining to the period 1993 to September, 2004 when the unit was 100% Export Oriented Unit (EOU).
-The company has earlier filed an application with the office of DGFT for the claim and made significant efforts for receiving the claim. The
-Company has also filed claim against Jak Traders Private Ltd. for recovery of the claims.”
-Note No. 31 of the Financial Statement without qualifying, Auditors have drawn attention
-“As on March 31, 2015, the accumulated losses of the Company have far exceeded its net worth. In the opinion of the management, the
-Company's operations are affected by global business downturn which has resulted in reduction in demand, increase in input costs and
-shortage of working capital. The Company has also filed a reference with Board for Industrial and Financial Restructuring (BIFR) under
-Section 15 of Sick Industrial Companies (Special Provisions) Act, 1985 for determination of sickness and measures to be adopted for
-rehabilitation. The BIFR, vide its order, dated 18.07.2012 declared the Company as sick under section 3(1)(o) of SICA, 1985 and appointed
-UCO Bank as Operating Agency (OA) under section 17(3) to prepare Rehabilitation Scheme for the Company. However, on the strength of
-management's plan of revival including reorganization of business, these financial statements are prepared on a going concern basis.”
-(b) Cost Auditor
-Pursuant to recent amendment to the Companies (Cost Records and Audit) Rules, 2014, the provision relating to carry out cost audit is
-not applicable to the Company for financial year 2015-16.
-(c) Secretarial Auditor &amp; Audit Report
-Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa &amp; Associates,
-Practicing Company Secretary (having CP No. 10753 &amp; Membership No. 25973) as Secretarial Auditor to carry out the secretarial audit
-for the financial year 2014-2015.
-The Secretarial Audit Report for the financial year ended March 31, 2015 is annexed herewith marked as Annexure 2 to this Report.
-There are no qualifications or observations or remarks made by the Secretarial Auditors in their Report.
-(d) Internal Auditors
-Pursuant to section 138 of the Companies Act, 2013 read with The Companies (Accounts) Rules, 2014, the Company has appointed Dr.
-Sunil Kumar Gupta as the Internal Auditor of the Company.
-Internal Control Systems and Adequacy
-The Company has established adequate internal control systems, commensurate with its size and nature of business and such systems are
-periodically audited, verified and reviewed for their validity, considering the changing business scenario from time to time, the Audit
-Committee of the Board of Directors reviews the adequacy and effectiveness of internal control systems and suggests improvement for
-strengthening them from time to time.
-Extract of the Annual Return
-The details forming part of the extract of the Annual Return in form MGT 9 is annexed herewith as Annexure-3 to this Report.
-Conservation of Energy, Technology absorption and Foreign Exchange Earnings and Outgo
-Company has implemented energy conservation methods and such action has resulted into major savings in energy consumption as well as
-in cost control. The information as required to be disclosed under Section 134(3)(m) of the Companies Act, 2013 read with Rule, 8 of the
-Companies (Accounts) Rules, 2014 is set out in the Annexure – 4 to this Report.
-Particulars of Employees
-None of the employee has received remuneration exceeding the limit as stated in rule 5(2) of the Companies (Appointment and
-Remuneration of Managerial Personnel) Rules, 2014 read with the Companies(Particulars of Employees) Rules, 1975, as amended, hence
-no particulars are required to be given herein.
-Deposits
-The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue deposits as at 31st
-March, 2015.
-Place New Delhi
+          <t>Place New Delhi
 Date : August 11, 2015
 On behalf of the BOARD OF DIRECTORS
 Sd/-
@@ -4663,6 +3760,7 @@
 Companies Act and dealing with client;
 (g) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009: and
 (h) The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998.
+AMIT SPINNING INDUSTRIES LIMITED
 (vi) OTHER APPLICABLE ACTS
 (a) Factories Act, 1948
 (b) Payment Of Wages Act, 1936, and rules made there under,
@@ -4743,22 +3841,91 @@
 Statutory Registers maintained by the Company i.e, Register of Members/ Register of Charges/ Register of Directors Shareholding/
 Register of Contract/ Register of Investment, Register of Director Shareholdings, Register of Contracts of the Co. and firms in which
 directors etc are interested, Common Seal Register etc.
-(g) Minutes of the Board meetings, Annu</t>
+(g) Minutes of the Board meetings, Annual General Meeting, Investor Grievances Committee, and Audit Committee Meeting.
+(h) As per provisions of Companies Act, 2013 and Company rules 2014 read with various clauses of Listing Agreement, the Company has
+constituted the Risk Management Committee, Stakeholders Relationship Committee, Audit Committee, Nomination &amp; Remuneration
+Committee and uploaded applicable policies at Company's website.
+(i)
+Notice of calling Annual General Meeting along with the explanatory statement.
+(j)
+Copy of documents related to the appointment/Resignation of Statutory Auditor of the company
+(k) Copy of Internal Audit Report given by Internal Auditor appointed u/s 138 of Companies Act, 2013.
+AMIT SPINNING INDUSTRIES LIMITED
+I.
+REGISTRATION AND OTHER DETAILS:
+FORM NO. MGT 9
+EXTRACT OF ANNUAL RETURN
+as on financial year ended on 31.03.2015
+Pursuant to Section 92 (3) of the Companies Act, 2013 and rule 12(1) of the Company
+(Management &amp; Administration ) Rules, 2014.
+Annexure - 3 to the Director's Report
+i)
+CIN
+ii)
+Registration Date
+18.11.1991
+iii)
+Name of the Company
+Amit Spinning Industries Limited
+iv)
+Category/Sub-category of the Company
+Public Limited Company
+v)
+Address of the Registered office &amp; contact details
+A - 60, Okhla Industrial Area, Phase - II, New Delhi - 110020;
+vi)
+Whether listed company
+Yes
+vii)
+Name, Address &amp; contact details of
+RCMC Share Registry Pvt. Ltd., B-25/1, Okhla Industrial Area,
+the Registrar &amp; Transfer Agent, if any
+II.
+PRINCIPAL BUSINESS ACTIVITIES OF THE COMPANY
+All the business activities contributing 10 % or more of the total turnover of the company shall be stated:-
+Sr. No.
+Name &amp; Description of main products/services
+NIC Code of the
+% to total turnover
+Product /service
+of the company
+Yarn
+III.
+PARTICULARS OF HOLDING , SUBSIDIARY &amp; ASSOCIATE COMPANIES
+Sr.
+NAME AND ADDRESS OF
+CIN/GLN
+HOLDING/
+% OF
+APPLICABLE
+No.
+THE COMPANY
+SUBSIDIARY/
+SHARES
+SECTION
+ASSOCIATE
+HELD
+Spentex Industries Limited
+Holding
+50.96%
+2 (46)
+A - 60, Okhla Industrial Area,
+Phase - II, New Delhi - 110020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.7747705665769082</t>
+          <t>0.7878787878787878</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['risk management', 'future outlook']</t>
+          <t>['risk management']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -4790,202 +3957,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N O T I C E
-Notice is hereby given that the 24th Annual General Meeting of the Members of Amit Spinning Industries Limited will be held
-on Tuesday the 27th day of September, 2016 at 12:00 Noon at Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan
-Park, New Delhi 110019 to transact the following business:
-ORDINARY BUSINESS :
-1.
-To consider and adopt the Audited Financial Statements of the Company for the financial year ended 31st March, 2016,
-and the reports of the Board of Directors and Auditors thereon.
-2.
-To appoint a Director in place of Mr. Ranjan Mangtani (DIN: 00678341) who retires by rotation and being eligible, offers
-himself for re-appointment.
-3.
-To ratify the appointment of the Statutory Auditors of the Company for the year financial year 2016-17 and to fix their
-remuneration.
-SPECIAL BUSINESS:
-4. To consider and, if thought fit, to pass, with or without modifications the following resolution as an Ordinary Resolution:
-“RESOLVED THAT pursuant to the provisions of sections 149, 150, 152 and other applicable provisions and Schedule IV,
-of the Companies Act, 2013 read with the Companies (Appointment and Qualification of Directors) Rules, 2014, as may be
-amended from time to time, and SEBI (Listing Obligations and Disclosure Requirements) Regulations 2015, as may be
-amended, superseded or replaced from time to time, Mrs. Shivani Gupta (DIN 07547509), who was appointed as an
-Additional Director by the Board of Directors of the Company pursuant to section 161(1) of the Companies Act, 2013 and
-Article 85 of the Articles of Association and who holds office only upto the date of this Annual General Meeting and has
-submitted a declaration that she meets the criteria for independence as provided in section 149(6) of the Act and is eligible
-for appointment and in respect of whom the Company has received a notice in writing from a Member proposing her
-candidature for the office of Director, be and is hereby appointed as an Independent Non Executive Woman Director of the
-Company, for five consecutive years with effect from 30th June 2016 and whose office shall not be liable to retirement by
-rotation".
-"RESOLVED FURTHER THAT the Board of Directors of the Company be and is hereby authorized to do all such acts,
-matters, deeds and things as may be necessary, proper or expedient to give effect to the above resolution.”
-5.
-To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
-“RESOLVED THAT pursuant to the provisions of Sections 196, 197, 203 and other applicable provisions of the
-Companies Act, 2013 and the Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014, read
-with Schedule V of the Companies Act, 2013, including any statutory modification(s) or re-enactment(s) thereof, and other
-requisite approvals as may be necessitated from time to time, the consent of the Company be and is hereby accorded for
-seeking Shareholders approval for appointment and fixation of remuneration to Mr. I D Desai as Manager to the Company
-for a period of three years w.e.f. 1st September, 2016, as per the terms and conditions set out in the explanatory statement
-annexed to the Notice convening this meeting with liberty to alter and vary the same upto 15% increase per annum on his
-remuneration, subject to maximum limits specified under Schedule V of the Companies Act, 2013 or any other statutory
-modification(s) or re-enactment thereof or in accordance with the approval of Shareholders of the Company.”
-"RESOLVED FURTHER THAT the Board of Directors of the Company be and is hereby authorized to do all such acts,
-matters, deeds and things as may be necessary, proper or expedient to give effect to the above resolution.”
-6.
-To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
-“RESOLVED THAT pursuant to section 20 and other applicable provisions, if any, of the Companies Act, 2013 and
-relevant Rules prescribed thereunder, upon receipt of a request from a member for delivery of any document through a
-particular mode an amount of Rs.50/- (Rupees Fifty Only) for each such document, over and above reimbursement of
-actual expenses incurred by the Company, be levied as and by way of fees for sending the document to him in the desired
-particular mode.
-FURTHER RESOLVED THAT the estimated fees for delivery of the document shall be paid by the member in advance to
-the Company, before dispatch of such document.
-RESOLVED FURTHER THAT for the purpose of giving effect to this resolution, the Compliance Officer of the Company be
-and is hereby authorized to do all such acts, deeds, matters and things as he may in his absolute discretion deem
-necessary, proper, desirable or expedient and to settle any question, difficulty, or doubt that may arise in respect of the
-matter aforesaid, including determination of the estimated fees for delivery of the document to be paid in advance.”
-By Order of the Board
-For AMIT SPINNING INDUSTRIES LIMITED
-Place: New Delhi
-Sd/-
-Date : August 09, 2016
-Director
-NOTES:
-A.
-Explanatory Statement setting out all material facts regarding Special Business contained in Item Nos. 4 to 6 as required
-under Section 102 (1) of the Companies Act, 2013, is annexed hereto.
-B.
-A MEMBER ENTITLED TO ATTEND AND VOTE IS ENTITLED TO APPOINT A PROXY TO ATTEND AND VOTE
-INSTEAD OF HIMSELF/HERSELF AND THE PROXY NEED NOT BE A MEMBER OF THE COMPANY. PROXY
-SHOULD BE DEPOSITED AT THE REGISTERED OFFICE OF THE COMPANY ATLEAST 48 HOURS BEFORE THE
-COMMENCEMENT OF THE MEETING.
-C.
-A person can act as a proxy on behalf of members not exceeding fifty and holding in the aggregate not more than ten
-percent of the total share capital of the Company carrying voting rights. A member holding more than ten percent of the
-total share capital of the Company carrying voting rights may appoint a single person as proxy and such person shall not
-act as proxy for any other person or shareholder.
-D.
-The Register of Members and Share Transfer Books of the Company will be closed from Friday, the 23th day of
-September, 2016 to Tuesday the 27th day of September, 2016 (both days inclusive) for the purpose of this Annual
-General Meeting.
-E.
-All documents referred to in the Notice and accompanying explanatory statement are open for inspection at the
-Registered Office of the Company on all the working days of the Company between 10.00 A.M. to 1.00 P.M. upto the date
-of Annual General Meeting and also at the meeting.
-F.
-Members are requested to intimate the change, if any, in their registered address immediately.
-G. Members/Proxies should bring the attendance slips duly filled in and signed for attending the meeting.
-H.
-It will be appreciated that queries, if any, on accounts and operations of the Company are sent to the Registered Office of
-the company ten days in advance of the meeting so that the information may be made readily available.
-I.
-As per provisions of the Companies Act, facility of nomination is available to the members in respect of the shares held by
-them.
-J.
-For any query on the Depository System, members may contact any depository participant or the Share Department at the
-Registered Office of the Company.
-K.
-In terms of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015, a brief resume of directors who
-are proposed to be appointed/re-appointed at this meeting is provided in Corporate Governance Report, forming part of
-the Annual Report.
-L.
-Securities and Exchange Board of India (SEBI) has made it mandatory for the transferees to furnish copy of PAN card to
-the Company/RTA for registration of shares held in Physical Form.
-M. Members are requested to send queries, if any, at E-mail ID secretarial@clcindia.com which is being used exclusively for
-the purpose of redressing the complaint(s) of the investors.
-N.
-VOTING THROUGH ELECTRONIC MEANS
-In accordance with provisions of section 108 of the Companies Act, 2013 read with Rule 20 of the Companies
-(Management and Administration) Rules, 2014 the business may be transacted through electronic voting system and the
-Company intends to provide facility for voting by electronic means ("e-voting") to its members. The Company has engaged
-the services of Central Depository Services (India) Limited (CDSL) to provide e-voting facilities and for security and
-enabling the members to cast their Vote in a secure manner. However, the Company has not paid the Annual Custodian
-Fee to the CDSL due the financial difficulties, the CDSL has blocked the benpos and not provided the shareholders list,
-and the Company is not in a position to conduct the e-voting process for the said meeting. Company has requested and
-assured the CDSL that the dues will be cleared once the rehabilitation scheme approved by the concerned authority
-inspite of our request, CDSL has not provided the benpos.
-ANNEXURE TO THE NOTICE
-EXPLANATORY STATEMENT PURSUANT TO SECTION 102(1) OF THE COMPANIES ACT, 2013
-ITEM NO. 4
-The Board of Directors had appointed Mrs. Shivani Gupta as an Additional Director of the Company on 30th June, 2016 under
-category of Independent Women Director.
-In terms of Section 161(1) of the Companies Act, 2013, Mrs. Shivani Gupta holds office upto the date of the ensuing Annual
-General Meeting. In this regard, the Company has received a notice in writing from a member alongwith deposit of requisite
-amount required under Section 160 of the Companies Act, 2013, proposing her candidature for the office of Independent
-Woman Director of the Company.
-In terms of the provisions of Section 149 of the Companies Act, 2013, an Independent Director shall hold office for a term up to
-five consecutive years on the Board of a company and is not liable to retire by rotation. Mrs. Shivani Gupta has given a
-declaration to the Board that she meets the criteria of independence as provided under Section 149 (6) of the Act.
-In compliance with the provisions of Section 149 read with Schedule IV of the Act, the appointment of Mrs. Shivani Gupta as
-Independent Women Director is now being placed before the Members in General Meeting for their approval.
-None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mrs. Shivani Gupta is
-concerned or interested in the resolution set out in Item No. 4.
-Your Directors recommend the ordinary resolution set out at Item No. 4 of the Notice for your approval.
-ITEM NO. 5:
-Since the Managing Director Mr. I B Maner's term is expiring on 31st August, 2016 and keeping in view of financial difficulties,
-the Company cannot afford the remuneration payable to Managing Director and the Nomination and Remuneration
-Committee and Board of Directors at their meeting held on 9th August, 2016 have proposed to appoint Mr. Ishwar Dhondiba
-Desai as Manager to the Company w.e.f 1st September, 2016 as per the remuneration mutually agreed upon the Board and
-Mr. Desai.
-Mr. Desai aged about 58 years is a Post Graduate and having 30 years of rich experience in Human Resources and related
-matters and has been working with the Company for the past many years.
-As per the applicable provision read with Schedule V of the Companies Act, 2013, Company is not required to obtain the
-Central Government approval as the remuneration payable to Mr. I.D. Desai is within the limits prescribed under the said Act.
-OVERALL REMUNERATION
-Subject to the provisions of Section 196, 197 &amp; 203 read with Schedule V and other applicable provisions, if any, of the
-Companies Act, 2013 and the Companies (Appointment and Remuneration of Managerial Personnel) Rules 2014, the
-remuneration payable to a Manager in a financial year shall not exceed 5% of the net profit of the company computed in the
-manner laid down in section 198 except that the remuneration of the Directors shall not be deducted from the gross profits.
-Within the aforesaid ceiling, remuneration payable to Mr. I.D. Desai shall be as follows:
-I.
-Tenure of Remuneration
-1st September, 2016 to 31st August, 2019
-II.
-Remuneration
-Rs. 54,256/- including perquisites for aforesaid period subject to overall increase in
-remuneration shall be decided by the Chairman of the Company as per the relevant
-provisions on yearly basis and excluding the EPF, Gratuity/Superannuation fund and
-applicable incentives as mentioned in the Section 197 read with Schedule V of the
-Companies Act, 2013.
-III. Other terms of Appointment :
-a)
-No sitting fees shall be paid to them for attending meetings of Board of Directors/ Committee of the Board.
-b)
-Reimbursement of all entertainment, travelling, hotel and other expenses actually incurred by them in connection with
-the business of the Company.
-c)
-Normal annual Increment if any shall be decided by the Chairman of the Company as per the relevant provisions on
-yearly basis.
-The draft of Agreement to be entered into between the Company and Mr. I.D. Desai for appointment and remuneration is
-available for inspection by the members at the Registered Office of the Company during the business hours on any working
-day. The explanatory statement may also be regarded as a disclosure under SEBI (LODR) Regulations.
-None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mr. I D Desai is
-concerned or interested in the resolution set out in Item No. 5.
-Your Directors recommend the ordinary resolutions set out at Item No. 5 of the Notice for your approval.
-ITEM NO. 6
-This is to inform to the members that pursuant to Section 20 of the Companies Act, 2013 and applicable provisions of the said Act,
-the company is required to serve a document to any member by sending it by Post or by Registered post or by Speed post or by
-Courier or by delivering at his office or address or by such electronic or other mode as may be prescribed by him from time to time.
-It is further informed that a member can request for delivery of any document to him through a particular mode for which he shall pay
-such fees as may be determined by the company in its Annual General Meeting. Therefore, to enable the members to avail of this
-facility, it is necessary for the Company to determine the fees to be charged for delivery of a document in a particular mode, as
-mentioned in the resolution. Since the Companies Act, 2013 requires the fees to be determined in the Annual General Meeting,
-None of the Directors and/or Key Managerial Personnel of the Company and their relatives is concerned or interested, financially or
-otherwise, in the resolution set out at Item No.6 of the accompanying Notice.
-Your Directors, accordingly, recommend this Ordinary Resolution at item no. 6 of the accompanying notice, for the approval of the
-members of the Company.
-BOARD'S REPORT
+          <t>BOARD'S REPORT
 Dear Members,
 Your Directors have great pleasure in presenting the 24th Annual Report together with Audited Statements of Accounts of the Company
 for the year ended March 31, 2016.
@@ -5199,17 +4181,223 @@
 8 of the Companies (Accounts) Rules, 2014 is set out in the Annexure – 4 to this Report.
 PARTICULARS OF EMPLOYEES
 The statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) &amp; 5(3) of the
-Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014</t>
+Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014 as amended, shall be made available to any
+shareholder on a specific request made by him in writing on or before 27th September, 2016.
+DEPOSITS
+The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue deposits as at
+31st March, 2016.
+PARTICULARS OF LOANS, GUARANTEES OR INVESTMENTS
+Details of loans, Guarantees and Investments covered under the provision of Section 186 of the Companies Act, 2013 are given in the
+notes to the Financial Statements.
+RISK MANAGEMENT
+A Risk Management Committee has been constituted to oversee the risk management process in the Company as required under the
+Companies Act, 2013 and SEBI (LODR) Regulations. The details of the Committee and its terms of reference are set out in the
+Corporate Governance Report forming part of the Board's Report. The Risk Management Policy has also been hosted on the website
+of the company
+VIGIL MECHANISM
+The Company has framed and implemented a vigil mechanism named as Whistle Blower Policy to deal with instances of fraud and
+mismanagement, if any. The details of the Whistle Blower Policy are provided in the Corporate Governance Report and also hosted on
+the website of the Company.
+During the year under review, there were no cases filed pursuant to the Sexual Harassment of Women at Workplace (Prevention,
+Prohibition and Redressal) Act, 2013.
+HUMAN RESOURCES/INDUSTRIAL RELATIONS
+A Fundamental concept embodied in the company's code of conduct is to provide working environment that motivate employees to be
+productive and innovative and provide opportunities for employee training and development to maximize personal potential and
+develop careers within the Group. The Company values the involvement of its employees and keep them informed on matters affecting
+them as employees and factors relevant to the company's performance and other employee related issues on a non discriminatory
+basis.
+The Board of Directors place on record the active, dedicated and valuable contribution made by employees of the Company at all levels
+with regard to the affairs of the Company. The Industrial relations remained cordial within the Company.
+FRAUD REPORTING
+During the year no fraud has been reported to the Audit Committee / Board.
+INFORMATION TECHNOLOGY
+Information Technology continues to be an integral part of your company's business strategy. The Company is working on SAP
+platform integrating its business processes, financial parameters, customer transactions and people, effectively on real time basis.
+CHANGE IN THE NATURE OF BUSINESS
+There is no change in the nature of the business of the company.
+CORPORATE GOVERNANCE AND MANAGEMENT DISCUSSION AND ANALYSIS
+As stipulated under SEBI (LODR) Regulations, 2015, a report on Corporate Governance is attached separately as a part of the Annual
+Report and the Management Discussion and Analysis (MD &amp; A) is included in this report so that duplication and overlap between
+Boards' Report and a separate MD &amp; A is avoided and the entire information is provided in a composite and comprehensive manner.
+LISTING OF SHARES
+Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of India, Mumbai
+(NSE). Due to closure of operations of manufacturing unit and non approval of Rehabilitation Scheme by concerned authority the
+company has not paid the Annual Listing Fee for the financial year 2015-16 and 2016-17 to BSE &amp; NSE and Company would be in a
+position to pay the same only after infusion of funds pursuant and subsequent to the approval of Rehabilitation Scheme.
+CONCLUSION
+Your company is presently going through challenging and difficult period due to market and financial constraints. It has already been
+declared as a Sick Company under Sick Industrial Companies (Special Provisions) Act, 1985 by BIFR vide its order dated 18th
+July'2012, and UCO Bank has been appointed as an Operating Agency to work out DRS for the Company in consultation with lenders.
+It is however expected, on Company receiving BIFR approval for its DRS, it would be in a better position to augment its production and
+sales, by utilizing its capacities optimally. UCO Bank has assigned its debt to JM Financial Asset Reconstruction Company Pvt. Ltd.
+Acknowledgments
+Your Directors place on record their sincere thanks to bankers, financial institutions business associates, consultants, customers,
+suppliers, contractors and various Government Authorities for their continued support extended to your Company's activities during
+the year under review. Your Directors also gratefully acknowledge the continuing support of the shareholders and the confidence
+reposed by them in the company
+Place New Delhi
+Date : August 9, 2016
+On behalf of the BOARD OF DIRECTORS
+Sd/-
+S P SETIA
+CHAIRMAN
+Annexure - 1 to the Director's Report
+Form for Disclosure of particulars of contracts/arrangements entered into by the company with related parties referred to in sub section
+(1) of section 188 of the Companies Act, 2013 including certain arms length transaction under third proviso thereto.
+1. Details of contracts or arrangements or transactions not at Arm's length basis – N.A.
+2. Details of material contracts or arrangements or transactions at Arm's length basis.
+FORM NO. AOC -2
+(Pursuant to clause (h) of sub-section (3) of section 134 of the Act and
+Rule 8(2) of the Companies (Accounts) Rules, 2014)
+SL. No.
+Particulars
+Details
+Name (s) of the related party &amp; nature of relationship
+Spentex Industries Ltd. (Holding Company)
+Nature of contracts/arrangements/transaction
+Sale/Purchase of godds/services
+Duration of the contracts/arrangements/transaction
+Salient terms of the contracts or arrangements or
+Ongoing transactions on normal business terms.
+transaction including the value, if any
+Value of all transactions is Rs. 50,71,101/-
+Date of approval by the Board
+25.05.2016
+Amount paid as advances, if any
+Annexure-2 to the Director's Report
+Form No. MR-3
+SECRETARIAL AUDIT REPORT
+FOR THE FINANCIAL YEAR ENDED ON 31ST MARCH, 2016
+(Pursuant to section 204(1) of the Companies Act, 2013 and Rule No. 9
+of the Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014)
+To,
+The Members,
+Amit Spinning Industries Limited
+We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good corporate
+practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was conducted in a manner
+that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances and expressing our opinion thereon.
+Based on our verification of the Company's books, papers, minute books, forms and returns filed and other records maintained by the
+Company and also information provided by the Company, its officers, agents and authorized representatives during the conduct of
+secretarial audit, We hereby report that in our opinion, the company has, during the audit period covering the financial year ended on
+31st March, 2016, complied with the statutory provisions listed hereunder and also that the Company has proper Board-processes and
+compliance-mechanism in place to the extent, in the manner and subject to the reporting made hereinafter:
+We have examined the books, papers, minute books, forms and returns filed and other records maintained by M/s. Amit Spinning
+Industries Limited as given in Annexure I for the financial year ended on 31st March, 2016 according to the provisions of:
+(i)
+The Companies Act, 2013 (the Act) and the rules made there under;
+(ii)
+The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
+(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
+(iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign Direct
+Investment, Overseas Direct Investment and External Commercial Borrowings;
+(v) The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act') viz.:
+(a) The Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) Regulations, 2011;
+(b) The Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015;
+(c) The Securities and Exchange Board of India (Issue of Capital and Disclosure Requirements) Regulations, 2009;
+(d) The Securities and Exchange Board of India (Employee Stock Option Scheme and Employee Stock Purchase Scheme)
+Guidelines, 1999; (N.A.)
+(e) The Securities and Exchange Board of India (Issue and Listing of Debt Securities) Regulations. 2008; (N.A.)
+(f)
+The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993 regarding
+the Companies Act and dealing with client;
+(g) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009; (N.A.) and
+(h) The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
+(vi) OTHER APPLICABLE ACTS
+(a) Factories Act, 1948
+(b) Payment Of Wages Act, 1936, and rules made there under,
+(c) The Minimum Wages Act, 1948, and rules made there under,
+(d) Employees' State Insurance Act, 1948, and rules made there under,
+(e) The Employees' Provident Fund and Miscellaneous Provisions Act, 1952, and rules made there under,
+(f)
+The Payment of Bonus Act, 1965, and rules made there under,
+(g) Payment of Gratuity Act, 1972, and rules made there under.
+(h) The Water (Prevention &amp; Control of Pollution) Act, 1974, read with Water (Prevention &amp; Control of Pollution) Rules, 1975,
+(i)
+Food Safety and Standards Act, 2006, and rules made there under.
+(j)
+Environment (Protection) Act, 1986
+We have also examined compliance with the applicable clauses of the following:
+1.
+Secretarial Standards issued by The Institute of Company Secretaries of India.
+2.
+The Listing Agreements entered into by the Company with Bombay Stock Exchange and National Stock Exchange.
+3.
+Securities and Exchange Board of India (Listing Obligations and Disclosure Requirements) Regulations, 2015
+During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines, Standards,
+etc. mentioned above.
+We further report that:
+1.
+The Board of Directors of the Company was not constituted with proper balance of Executive Directors, Non-Executive/
+Independent Directors as on March 31, 2016. However, as on June 30, 2016, the composition of the Board of Directors of the
+Company is in conformity with the requirements as stipulated under SEBI (LODR) Regulations, 2015 and the Companies Act,
+2013 and rules framed there under.
+2.
+Adequate notice is given to all directors to schedule the Board Meetings, agenda and detailed notes on agenda were sent at least
+seven days in advance and a system exists for seeking and obtaining further information and clarifications on the agenda items
+before the meeting and for meaningful participation at the meeting.
+3.
+Majority decision is carried through while the dissenting members' views are captured and recorded as part of the minutes.
+4.
+There are adequate systems and processes in the company commensurate with the size and operations of the company to
+monitor and ensure compliance with applicable laws, rules, regulations and guidelines.
+5.
+The Company has well maintained all the Statutory Registers i.e. Register of Members, Register of Charges, Register of Directors
+Shareholding etc. mandatory to be maintained under Companies Act, 2013.
+6.
+The Company was unable to pay off listing fees to stock exchanges; NSE &amp; BSE, for the financial year 2015-16 &amp; 2016-17. The
+Rehabilitation Scheme filed by the company with BIFR is yet to be considered and approved. The management has no option but
+continue to keep the manufacturing unit situated at Kolhapur, Maharashtra, inoperative, as before for the time being, due to
+financial constraints and non-availability of working capital.
+7.
+The Company has paid all the statutory dues except dues related to EPF (Employee Provident Fund) and Service Tax for the
+financial year 2015-2016 due to financial constraints.
+8.
+The Company has complied with all the provisions of SEBI (Listing obligations and Disclosure Requirements) regulation, 2015
+and SEBI (Insider Trading) Regulations, 2015 in respect to opening trading window, Company intimated 24 hours instead of 48
+hours.
+9.
+On July 18, 2012 Board for Industrial &amp; Financial Reconstruction declared the company as Sick Industrial Company under Section
+3(1)(o) of SICA, 1985 &amp; has also appointed Operating Agency to prepare a rehabilitation scheme.
+10. As per provisions of Companies Act, 2013 and Company rules 2014 read with various clauses of Listing Agreement/SEBI (Listing
+Obligation and Disclosure Requirements) Regulations, 2015, the Company has constituted the Risk Management Committee,
+Stakeholders Relationship Committee, Audit Committee, Nomination &amp; Remuneration Committee and uploaded applicable
+policies at Company's website.
+11. The Company has appointed Mr. Malpeddi Nagnath S as Chief Financial Officer of the Company in the Board Meeting held on 08-
+02-2016 and filed all necessary documents with Registrar of Companies except MR-1 till today. At the time of appointment of CFO,
+Form MR-1 is applicable, however, the same have now been dispensed by Ministry of Corporate Affairs.
+During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines, Standards,
+etc. mentioned above and there were no specific events / actions having a major bearing on the company's affairs
+For Loveneet Handa &amp; Associates
+(Practicing Company Secretary)
+Sd/-
+Place: New Delhi
+Loveneet Handa
+Dated: August 03, 2016
+Annexure - I
+Documents examined/verified while conducting secretarial audit:
+(a) Books ,Papers, as per Section 2 (12) of Companies Act, 2013,“book and paper” and “book or paper” include books of account,
+deeds, vouchers, writings, documents, minutes and registers maintained on paper or in electronic form. (Registers Maintained by
+RTA)
+(b) Memorandum of association
+(c) Articles of association
+(d) Certificate of Incorporation
+(e) Audited balance sheet(s)
+(f)
+Statutory Registers maintained by the Company i.e. Register of Members/ Register of Charges/ Register of Directors
+Shareholding/ Register of Contract/ Register of Investment, Register of Director Shareholdings, Register of Contracts of the Co.
+and firms in which directors etc are interested, Common Seal Register etc.
+(g) Minutes of the Board meetings, Annual General Meeting, Stakeholders Relationship Committee Meeting, and Audit Committee
+Meeting, Nomination &amp; Remuneration Committee Meetin</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8922</t>
+          <t>7541</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.7677311237314961</t>
+          <t>0.7503711746847785</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5752,68 +4940,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AMIT SPINNING INDUSTRIES LTD.
-CLC
-(Manufacturer onarns &amp; Govt. Recognised Trading House)
-September 27, 2018
-ESE Limited
-Stock Code. 521076
-Corporate Realationship Deptt.
-1“ Floor, New Trading Ring, Rotunda Bldg.
-PJ Towers, Dalal Street
-National Stock Exchange of India Ltd.
-Stock Code: ASIL
-Exchange Plaza
-Bandra Kurla Complex
-Bandar (E), Mumbai-400051
-Dear Sir/Madam,
-Sub:
-Submission of Annual Report for the financial year 2017-2018
-Ref:
-Regulation 34 (1) of SEBI (Listing Obligations and Disclosure Requirements) Regulations,
-Pursuant
-to
-Regulation
-(1)
-of
-SEBI
-(Listing Obligations
-and
-Disclosure Requirements)
-Regulations,
-2015,
-please find
-enclosed
-herewith Annual
-Report of the Company for the
-financial year 2017-18 duly approved and adopted by the members at the 26'h Annual General
-Meeting held on 27th September, 2018 as per the applicable provisions of the Companies Act,
-2013.
-Please take the above on record.
-Thanking you,
-Yours truly,
-For AMIT SPINNING INDUSTRIES LIMITED
-a? w.
-r \ I
-COMPLIANCE OFFICER
-W".
-Encl:
-as above.
-Regd. &amp; Corporate Office :A»60, Okhla Industrial Area, Phase-II, New Delhi 110 020 (INDIA)
-: +91—11-26385181,Emai1 :inIo@clcindia.com. www.5pemexinduslries.com
-Factory Address : Gate No. 47 &amp; 48, Sangawade Village, Kolhapur—Hupari Road, Taluka-Karveer, Distt. Kolhapur-4 l 6 202 (INDIA)
-Tel.
-BOARD OF DIRECTORS
+          <t>BOARD OF DIRECTORS
 REGISTERED &amp; CORPORATE OFFICE
 S P Setia
 (Non-Executive / Independent Chairman)
@@ -6257,17 +5394,31 @@
 in consequence.
 8.
 The intimation of the Board Meeting of the Company held on 14th December, 2017 for the consideration and approval
-of unaudited Financial Results of the Company for the quarter ended on 30th September,</t>
+of unaudited Financial Results of the Company for the quarter ended on 30th September, 2017, was given to the stock
+exchanges on 12th December, 2017, however, as per regulation 29 of the SEBI Listing Regulations, the intimation
+shall be given atleast five days in advance (excluding the date of the intimation and the date of the meeting), therefore,
+the said regulation 29 of SEBI Listing Regulation was not being complied with. As per Company's representation, the
+Board Meeting was called by giving short notice with the consent of all concerned.
+9.
+The Notice of the Board Meeting of the Company held on 17th August, 2017 has not been published in the newspapers
+as specified in the regulation 47 of the SEBI Listing Regulations.
+10. The Company has not paid the Statutory Dues such as Employees Provident Fund (EPF) dues, Employee State
+Insurance (ESI) dues, Tax Deducted at Source (TDS) for the Financial Year 2016-2017 and 2017-18 and Statutory
+Returns in respect of dues has also not been filed.
+11. The Company didn't provide intimation to the BSE Ltd. and the National Stock Exchange Ltd., in accordance with
+SEBI (Prohibition of Insider Trading) Regulations, 2015, for the extension of trading window closure time period due to
+the adjournment of the Board Meeting to be held on 26th May, 2017 to 27th May, 2017.
+12. The Consent of the Secretarial Auditor of the Company to act as Secretarial Auditor of t</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12828</t>
+          <t>14038</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.7833737788563251</t>
+          <t>0.7866940703563237</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -6304,7 +5455,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -6314,477 +5465,878 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62 | AMTEK AUTO LIMITED
-AUDITORS’ REPORT ON COMPLIANCE OF CONDITIONS OF CORPORATE GOVERNANCE
-To
-The Shareholders
+          <t>ANNUAL REPORT 2015-16 | 37
+c.
+The number of permanent employees on the rolls of Company: 1415
+d.
+Average percentile increase already made in the salaries of employees other than the managerial personnel
+in the last financial year and its comparison with the percentile increase in the managerial remuneration and
+rustication thereof and point out if there are any exceptional circumstances for increase in the managerial
+remuneration: NIL
+e.
+Affirmation that the remuneration is as per the remuneration policy of the Company:
+The Company affirms remuneration is as per the remuneration policy of the Company.
+Annexure V(b)
+The Statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) of the
+Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014.
+Name of employee
+Mr. John Ernest Flintham
+Designation of the employee
+Vice Chairman &amp; Managing Director
+Remuneration received
+Rs. 119.98 Lakhs
+Nature of employment, whether contractual or otherwise
+Contractual
+Qualifications and experience of the employee
+More than 30 years of experience in the field of
+large-scale automotive component manufacturing
+operations and Commercial Sales
+Date of commencement of employment
+31.07.2007
+The age of employee
+The last employment held by such employee
+before joining the Company
+Sigmacast Ltd.
+The percentage of equity shares held by
+the employee in the Company
+NIL
+Whether any such employee is a relative of
+any director or manager of the Company and if so,
+name of such director or manager
+N.A.
+38 | AMTEK AUTO LIMITED
+Annexure VI
+Information as per Section 134 (3) (m) of the Companies Act, 2013, read with Rule 8 of the Companies (Accounts)
+Rules, 2014 and forming Part of the Directors’ Report for the period ended 31st March, 2016.
+CONSERVATION OF ENERGY
+The Company continues to take measures towards conservation of energy through optimum utilization of energy and other
+resources. Utilization of energy intensive machines, procurement of energy efficient technologies etc is done as part of
+energy conservation measures. Company has been consistent in its efforts to conserve energy and natural resources and
+reduce consumption of Power, Fuel, Oil, Water and other energy sources by following strict adherence to:
 1.
-We have examined the compliance of conditions of Corporate Governance by AMTEK AUTO LIMITED (“the
-Company”)for the Financial year ended on March 31, 2016 as stipulated in:
-●
-Clause 49 of the Listing Agreement of the said Company with Stock Exchanges for period October 1,
-●
-Regulation 17 to 27 of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 (SEBI
-Listing Regulations) for the period 1st December, 2015 to 31st March, 2016.
+Power saving processes and methods
 2.
-The compliance of conditions of Corporate Governance is the responsibility of the management. Our examination
-was limited to procedures and implementation thereof, adopted by the Company for ensuring the compliance
-of the conditions of Corporate Governance. It is neither an audit nor an expression of opinion on the financial
-statements of the Company.
+Innovation and up-gradation of technology.
 3.
-We have examined the relevant records of the Company in accordance with the Generally Accepted Auditing
-Standards in India, to the extent relevant, and as per the Guidance Note on Certification of Corporate
-Governance issued by the Institute of Chartered Accountants of India.
+Installation of Auto Power Cut-Off for electrical energy consumption.
 4.
-In our opinion and to the best of our information and according to the explanations given to us, we certify
-that the Company has complied in all material respects with the conditions of Corporate Governance as
-stipulated in the above-mentioned Listing Agreement and SEBI Listing Regulations.
+Energy saving in utility by proper machine planning.
 5.
-As required by the Guidance Note issued by the Institute of Chartered Accountants of India, we state that the
-Stakeholders Relationship Committee has maintain records to show the Investors Grievance and certify that
-as at March 31, 2016, there were no investors grievance remaining unattended/pending for more than 30
-days.
+Emphasis on non-conventional energy sources.
 6.
-We state that such compliances are neither an assurance as to the future viability of the Company nor to the
-efficiency or effectiveness with which the management has conducted the affairs of the Company.
-For Manoj Mohan &amp; Associates
-Chartered Accountants
-Firm Regn. No. 009195C
+Proper training to the employees and workforce to ensure minimum wastage of energy and natural resources.
+I.
+Research and Development
+a)
+Specific area in which (R&amp;D)
+1.
+Product design and development
+carried out by the Company
+2.
+Process design &amp; improvement for various products
+b)
+Benefits derived as result
+1.
+Reduction in process time
+2.
+Increase in productivity
+3.
+Cost reduction and high precision of product
+c)
+Future Plan of action in
+To achieve better yield by way of cost reduction through higher
+Manufacturing Process &amp;
+level of automation
+operation
+d)
+Expenditure on R &amp; D
+a.
+Capital
+b.
+Recurring
+c.
+Total
+d.
+Total R&amp;D Expenditure as a
+percentage of total turnover
+II.
+Technology, Absorption, Adaptation and Innovation
+a)
+Efforts in brief made towards
+The Company has indigenized and absorbed technological changes as
+Technology Absorption,
+advised by collaboration in the past. Amtek Auto continuously strives to
+Adaptation and Innovation
+meet international standards of precision through improvisation of existing
+processes, innovation and adaptation of new technologies and methods.
+The product quality has improved significantly due to better utilization of
+machines, improvised processes and enhanced precision
+b)
+Benefits derived as a result
+Cost reduction to saving in raw material, dies &amp; moulds &amp; power and fuel.
+of the above efforts
+Operational efficiency has increased leading to reduced time-loss and
+rejections
+c)
+In case of imported technology
+(Import) during the last 6 years
+reckoned from the beginning of
+the financial year
+Nil
+The development work is
+carried on by the concerned
+department continuously. No
+separate
+record
+of
+the
+expenditure incurred on R&amp;D
+ANNUAL REPORT 2015-16 | 39
+III.
+FOREIGN EXCHANGE EARNINGS AND OUTGO
+1.
+Activities relating to Exports, initiatives to increase exports, Development of new Export Markets for Products
+and Services and Export plans:
+The Company has strategic alliance with its group Companies in U.K, Asia, Europe and America, to increase
+its share of business in the international market, which has access to all automobile majors in the U.S and
+European market and existing supplier, business relationship
+2.
+Total Foreign Exchange used and earned:
+(` In Lakhs)
+Particulars
+Current Year
+Previous Year
+Foreign Exchange Used
+2585.18
+16,504.78
+Foreign Exchange Earned
+17514.36
+28,816.52
+For and on behalf of the board of directors
+For AMTEK AUTO LIMITED
+(Arvind Dham)
 Place :
 New Delhi
-M.K Agarwal
+Chairman
 Date
 30.08.2016
-Partner
-(Membership No. 76980)
-ANNUAL REPORT 2015-16 | 63
-MANAGEMENT DISCUSSION AND ANALYSIS REPORT
+40 | AMTEK AUTO LIMITED
+CORPORATE GOVERNANCE REPORT FOR THE YEAR 2015 - 2016
+The Company has been following high standards of Corporate Governance Principles, Policies and Practices over the
+period.
+I.
+AMTEK’S GOVERNANCE POLICY:
+Amtek believes that effective corporate governance practices constitute the robust foundation on which successful commercial
+enterprises are built to last. The Company’s philosophy on corporate governance oversees business strategies and ensures
+fiscal accountability, ethical corporate behavior and fairness to all stakeholders comprising regulators, employees, customers,
+vendors, investors and the society at large.
+Amtek views corporate governance in its widest sense almost like a trusteeship, a philosophy to be progressed, a value
+to be imbibed and an ideology to be ingrained into the corporate culture.
+The Company has adopted a Code of Conduct for its non-executive directors which includes Code of Conduct for
+Independent Directors which suitably incorporates the duties of independent directors as laid down in the Companies Act,
+2013 (‘the Act’).
+Pursuant to Securities and Exchange Board of India (Listing Obligations and Disclosure Requirements) Regulations, 2015
+(“SEBI Listing Regulations”) the Company has executed fresh Listing Agreements with the Stock Exchanges.
+The Company is in compliance with the requirements stipulated under Clause 49 of the Listing Agreements and Regulation
+17 to 27 read with Schedule V and clauses (b) to (i) of sub-regulation (2) of Regulation 46 of SEBI Listing Regulations, as
+applicable, with regard to corporate governance.
+II.
+CORPORATE GOVERNANCE FRAMEWORK
+The driving principles of our corporate governance framework are encapsulated in the following diagram:
+In view of the SEBI Listing Regulation 2015, the Company continuously follows the procedure of Corporate Governance for
+ensuring and protecting the rights of its shareholders by means of transparency, integrity, accountability, trusteeship and
+checks at the different levels of the management of the Company.
+CORPORATE
+GOVERNANCE
+FRAMEWORK
+RISK
+MANAGEMENT
+REPORTING
+DISCLOSURE
+INTERNAL
+CONTROL
+TRANSPARENCY
+COMPLIANCE AS
+PER ABSOLUTE
+MEANING OF
+LAW
+ANNUAL REPORT 2015-16 | 41
+III.
+BOARD OF DIRECTORS
+At Amtek, the Board along with its Committees provides leadership and guidance to the Company’s management as also
+direct, supervise and control the performance of the Company. We believe an active, well-informed board is vital to attain
+the highest standards of Corporate Governance. An independent and strong board is the utmost requirement of the
+Company so as to ensure that the best practices are adopted by the Company. At Amtek, we have a proper blend of
+executive, non-executive and independent directors, who have rich knowledge and experience in the industry for providing
+strategic guidance and direction to the Company.
+BOARD PROCEDURES
+The members of the Board have been provided with the requisite information in the Listing Agreement and SEBI Listing
+Regulations, as applicable well before the Board Meeting and the same was dealt with appropriately.
+All the Directors who are in various committees are within the permissible limit of the SEBI listing regulations and none
+of the Directors are disqualified for appointment as director under any of the provisions of the Companies Act, 2013.
+POST MEETING FOLLOW-UP MECHANISM
+All the important decision taken at the Board/Committee Meetings are promptly communicated to the concerned departments.
+Action Taken Report on decision/minutes of previous meeting is placed at the succeeding meeting of the Board/Committee
+for noting.
+(A)
+COMPOSITION AND CATEGORY OF DIRECTORS
+The Company’s policy is to maintain an optimum combination of Executive &amp; Non-executive directors and in conformity
+with Regulation 17 of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015.
+As on March 31, 2016, the Company has Eleven Directors. Out of the Eleven directors, Eight (i.e. 72.7 %) are non- executive
+directors, Six (i.e. 54.5 %) are independent directors and One is Nominee director. The composition of the board is in
+conformity with Regulation 17 of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 read with Section
+149 of the Act.
+The Composition of the Board as on March 31, 2016 was as under:
+S.No. Name
+Promoter &amp;
+Executive
+Non-
+Independent
+Nominee
+Chairman
+Executive
+Mr. Arvind Dham
+✓
+–
+✓
+–
+–
+Mr. John Ernest Flintham
+–
+✓
+–
+–
+–
+Mr. Deshpal Singh Malik
+–
+✓
+–
+–
+–
+Mr. Gautam Malhotra
+–
+–
+✓
+–
+–
+Mr. Mukesh Gupta*
+–
+–
+–
+–
+✓
+Mr. Sanjay Chhabra
+–
+–
+✓
+✓
+–
+Mr. Raj Narain Bhardwaj
+–
+–
+✓
+✓
+–
+Mr. Bahushrut Lugani
+–
+–
+✓
+✓
+–
+Mr. Rajeev Kumar Thakur
+–
+–
+✓
+✓
+–
+Mrs. Madhu Vij
+–
+–
+✓
+✓
+–
+Mr. Sanjiv Bhasin
+–
+–
+✓
+✓
+–
+* Mr. Mukesh Gupta is Nominee Director of Life Insurance Corporations of India [“referred as LIC”] to represent LIC on the
+Board of the Company.
+42 | AMTEK AUTO LIMITED
+(B)
+THE DETAILS OF THE DIRECTORS WITH REGARD TO THEIR DIRECTORSHIP IN OTHER COMPANIES, COMMITTEE
+POSITION AS WELL AS ATTENDANCE AT LAST ANNUAL GENERAL MEETING AND BOARD MEETING DURING THE
+FINANCIAL YEAR ARE AS FOLLOWS:
+Name of Director
+Attendance at the last
+No. of Board Meetings held and attended
+AGM
+during tenure
+Mr. Arvind Dham
+Mr. John Ernest Flintham
+Mr. Deshpal Singh Malik
+Mr. Gautam Malhotra
+Mr. Mukesh Gupta
+Mr. Sanjay Chhabra
+Mr. Raj Narain Bhardwaj
+Mr. Bahushrut Lugani
+Mr. Rajeev Kumar Thakur
+Mrs. Madhu Vij
+Mr. Sanjiv Bhasin
+Note:
+– Present
+– Absent
+Executive Directors
 1.
-GLOBAL ECONOMIC OVERVIEW
-The global economic recovery continued to be weighed down in FY2016 by weak aggregate demand, falling commodity
-prices (in particular crude oil), sharper than expected slowdown in the Chinese economy and increasing financial market
-volatility in some of the major economies. These developments, coupled with sluggishness in many of the emerging and
-developing markets, which constitute more than 70% of the global economy, offset the slight recovery in the developed
-economies. World GDP growth slowed to 2.4% in CY2015. Emerging Market and Developing Economies grew at 3.4%, while
-the US and the Euro Area grew at 2.4% and 1.6%, respectively. Japan grew at 0.6%.
-According to the World Bank, Emerging Market and Developing Economies (EMDEs) are facing stronger headwinds,
-including weaker growth among advanced economies and low commodity prices. Significant divergences persist between
-commodity exporters struggling to adjust to depressed prices and commodity importers showing continued resilience. In
-addition, UK’s impending exit from the European Union, as a consequence of the Brexit referendum, has also presented
-a cause of concern for the global economy. The World Bank revised its world GDP growth forecast for 2016 down to 2.4%,
-0.5 percentage points below the January 2016 forecast. The 2017 GDP forecast stands at 2.8%.
-Global growth is projected to pick up to 3% by 2018, as stabilizing commodity prices provide support to commodity exporting
-EMDEs. Downside risks have become more pronounced. These include deteriorating conditions among key commodity
-exporters, softer-than-expected activity in advanced economies, rising private sector debt in some large emerging markets,
-and heightened policy and geopolitical uncertainties.
+John Ernest Flintham
 2.
-INDIAN ECONOMIC OVERVIEW
-Amidst a challenging global growth scenario and after a prolonged slowdown, the Indian economy recovered slightly and
-grew 7.6% in FY2016, compared to 7.2% in FY2015. This was led by strong domestic demand and supported by several
-policy initiatives of the Government of India, a low current account deficit, low inflation levels and adherence to fiscal
-prudence. Furthermore, the current account deficit declined and foreign exchange reserves rose to US$351.5 billion in early
-February 2016, and are well above standard norms for reserve adequacy. FDI to India has surged 37% since the launch
-of the ‘Make in India’ campaign in October 2014 to February 2016.
-However, the economy is still suffering from sluggishness in rural demand, caused by deficient monsoons for two years.
-Moreover, despite five interest rate cuts since 2015, credit growth to the corporate sector remains subdued because of
-stressed asset quality in the banking sector. Weak exports also weigh on growth: February marked the 15th consecutive
-month of decline. World Bank has forecasted the GDP growth of India at 7.6% for 2016 and 7.7% for 2017.
-According to one of India’s leading research and credit rating firms, the medium-term outlook will be shaped by progress
-on initiatives such as reforms in banking and successful implementation of the Goods and Services Tax (GST). Other key
-factors crucial to sustaining growth include physical infrastructure issues such as seamless availability of electricity, creation
-of road network and social aspects like health and education.
-Source: MOSPI
-64 | AMTEK AUTO LIMITED
+Deshpal Singh Malik
+Non-Executive Independent Directors
+1.
+Sanjay Chhabra
+2.
+Raj Narain Bhardwaj
 3.
-AUTOMOBILE INDUSTRY
-3.1 Global Automobile Industry
-During FY2016, the performance of the global automotive industry remained region specific. Passenger car registrations
-in Europe marked their 31st consecutive month of growth in March 2016 indicating continued strength of the consumer
-sentiment in Europe. In the month of March, new car registrations in the EU reached more than 1.7 million units, which
-is close to March 2007 levels, just before the economic crisis started to impact the automotive industry. However, pressures
-over regulation and uncertainty over outlook still weigh on the industry.
-In the United States, favourable economic conditions continued to provide support to the automotive industry. Total light
-vehicle production grew 3.7% y-o-y over the six months ended March 2016. However, rising discounts and increasingly
-favourable loan terms have started to raise concerns that automobile sales may have peaked.
-Brazil’s domestic passenger car sales remained subdued owing to high inflation, credit constraints and low consumer
-confidence. However, exports of Brazil made cars remain strong.
-In Japan, continued erosion of purchasing power has hampered domestic automotive demand. Production has also been
-affected due to lower demand from Indonesia. However, exports to US and Europe remain relatively strong, despite the
-recent appreciation in Yen.
-Thailand’s automotive industry is primarily export oriented. Despite a slow global recovery, export demand for Thailand
-made automobiles remained strong.
-Source: Scotia Bank
-3.2
-Indian Automobile Industry
-The Indian automotive industry is one of the most attractive in the world and has witnessed growing interest from
-international OEMs over the last many years. The industry had been impacted by a slowdown for a couple of years before
-signs of a recovery in some of the automotive segments started to emerge in FY2016. However, this recovery has been
-slow and fragmented.
-Concerns around the new infrastructure ‘cess’ (tax) on automobiles and slowness in the rural economy continued to hamper
-growth of the Passenger Vehicle segment in India. SIAM has cut its FY2017 growth outlook for the PV segment to 6-8%
-from 11-12% earlier.
-Medium and Heavy Commercial Vehicles (M&amp;HCV) production has grown in FY2016 in anticipation of stronger economic
-activity, although off the low base of last year. Light Commercial Vehicle production rose on the back of greater availability
-of load from the consumer goods industry and expectations of good monsoons. SIAM has forecasted a 12-15% growth for
-the M&amp;HCV segment in FY2017.
-Demand from the rural market has remained low for the 2-Wheelers segment. However, higher sales to customers in the
-urban markets has offset some of the negative sentiment in the rural market. SIAM has a positive outlook on the sector
-for FY2017 and expects a 0-3% and 17-19% growth in Motorcycle and Scooter segments, respectively.
-ANNUAL REPORT 2015-16 | 65
-Note: Fiscal Year ending March
+Bahushrut Lugani
 4.
-AUTOMOTIVE COMPONENTS INDUSTRY
-Over the last decade, the Indian automotive components industry has grown tremendously. This has been especially due
-to increasing investments by automotive OEMs in India in turn leading to demand for technologically advanced components.
-The growing scale has enabled manufacturers to keep costs low, further increasing the attractiveness of sourcing automotive
-parts from India.
-After witnessing a slowdown in the last few years, the Indian auto component industry registered better growth in FY2016.
-The industry turnover for FY2016 stood at Rs. 2,556 billion compared to Rs. 2,348 billion in FY2015, a growth of 8.8%.
-However, given the fragmented performance of the global automotive industry, Indian automotive component exports grew
-by only 3.5%.
-A key challenge faced by the Indian automotive components industry is the current duty structure that makes the cost of
-raw materials higher in India than anywhere else. Necessary reforms in this regard will further support the government’s
-‘Make in India’ campaign.
-Given the dependence of the Indian automotive components industry on the performance of international automotive
-markets, a more meaningful and broad based recovery in the global demand for automobiles would be needed to support
-the Indian automotive components industry.
-2.70
-2.50
-2.60
-2.79
-0.80
-0.60
-0.60
-0.70
-14.30
-15.30
-16.50
-16.99
-0.00
-5.00
-10.00
-15.00
-20.00
-FY2013
-FY2014
-FY2015
-FY2016
-No. of Vehicles
-(million)
-Domestic Sales Trends
-Passenger Vehicles
-Commercial Vehicles
-2/3 Wheelers
-0.56
-0.59
-0.62
-0.65
-0.08
-0.08
-0.09
-0.10
-2.26
-2.44
-2.86
-2.89
-0.00
-1.00
-2.00
-3.00
-4.00
-FY2013
-FY2014
-FY2015
-FY2016
-No. of Vehicles
-(million)
-Export Trends
-Passenger Vehicles
-Commercial Vehicles
-2/3 Wheelers
-66 | AMTEK AUTO LIMITED
-Indian Automotive Components Industry: Turnover and Exports
-Indian Automotive Component Exports by Geography
-Indian Automotive Components Supply to OEMs by End Market 1,2
-Source: ACMA
-Notes:
+Rajeev Kumar Thakur
+5.
+Madhu Vij
+6.
+Sanjiv Bhasin
+Non-Executive/Non Independent Directors
 1.
-SCV (Small Commerical Vehicle): &lt; 2T; LCV (Light Commercial Vehicle): 2-7.5T; MCV (Medium Commercial Vehicle:
-7.5-16T; HCV (Heavy Commercial Vehicle): &gt; 16T
+Mr. Arvind Dham
 2.
-OEMs consumption includes locally produced components and imports
-2,160
-2,117
-2,348
-2,556
-1,000
-2,000
-3,000
-FY2013
-FY2014
-FY2015
-FY2016
-INR Billion
-Turnover
-Exports
-Europe
-36%
-Asia
-25%
-Africa
-6%
-North America
-25%
-South America
-4%
-Central
-America
-3%
-Others
-1%
-PVs
-45%
-Tractors
-8%
-Others
-2%
-Backhoe Loaders
-2%
-Two Wheelers
-21%
-Three Wheelers
-4%
-HCV
-8%
-MCV
-5%
-LCV
-4%
-SCV
-1%
-ANNUAL REPORT 2015-16 | 67
-According to the Automotive Component Manufacturers Association of India (ACMA), the Indian auto-components industry
-is expected to register a turnover of US$100 billion by 2020 backed by strong exports ranging between US$80-100 billion
-by 2026, from the current US$11.2 billion. A major contributor to this growth is expected to be the government’s Automotive
-Mission Plan 2016-26, which will drive the ‘Make in India’ campaign. The plan will place a special focus on exports of
-small cars, multi-utility vehicles (MUVs), two and three wheelers and automotive components.
-The passage of the GST Bill is a significant development as it is expected to impact favourably, the economy in general
-and the demand for automobiles, in particular. The automotive sector will gain by the lowering of taxes and, therefore, the
-final consumer prices. This is likely to add to the growth momentum in the sector in the medium to long term.
+Mr. Gautam Malhotra
+Nomniee Directors
+Mr. Mukesh Gupta
+18%
+9%
+18%
+55%
+ANNUAL REPORT 2015-16 | 43
+Name of the Director
+Designation
+Total
+Committees
+Chairman of
+Directorship
+Memberships
+Committees
+(1)
+(2)
+(2)
+EXECUTIVE DIRECTOR
+Vice Chairman &amp;
+Mr. John Ernest Flintham
+Managing Director
+Nil
+Mr. Deshpal Singh Malik
+Managing Director
+Nil
+INDEPENDENT AND NON – EXECUTIVE DIRECTORS
+Mr. Sanjay Chhabra
+Independent Director
+Mr. Raj Narain Bhardwaj
+Independent Director
+Mr. Bahushrut Lugani
+Independent Director
+Mr. Rajeev Kumar Thakur
+Independent Director
+Nil
+Nil
+Nil
+Mrs. Madhu Vij
+Independent Director
+Nil
+Mr. Sanjiv Bhasin
+Independent Director
+OTHER NON – EXECUTIVE DIRECTORS
+Mr. Arvind Dham
+Chairman
+Nil
+Nil
+Mr. Gautam Malhotra
+Non – Executive Director
+Nil
+Mr. Mukesh Gupta
+Nominee Director
+Notes to above table
+1.
+These directorships exclude Private Limited Companies, Foreign Companies and Companies under section 8 of
+Companies Act, 2013.
+2.
+In accordance with Regulation 26 of the Listing Regulations, Membership(s) / Chairmanship(s) of only Audit Committees
+and Stakeholders Relationship Committees in all public limited Companies (excluding Amtek Auto Limited) have
+been considered.
+(C)
+NUMBER OF BOARD MEETING
+During the period under review (i.e. October 01, 2015 to March 31, 2016), Two (2) Board Meetings were held on 28th
+November, 2015 and 11th February, 2016. The maximum time-gap between any two consecutive meetings did not exceed
+120 days.
+(D)
+DISCLOSURE OF RELATIONSHIP BETWEEN DIRECTORS INTER SE:
+Mr. Gautam Malhotra is Nephew of Mr. Arvind Dham and none of the other directors are related to any other director on
+the Board.
+(E)
+DETAILS OF EQUITY SHARES &amp; CONVERTIBLE INSTRUMENTS HELD BY NON EXECUTIVE DIRECTORS OF THE
+COMPANY AS ON MARCH 31, 2016 ARE GIVEN BELOW:
+During the Period under review Non-Executive Director are not holding any Equity Shares or convertible instruments in the
+Company except the following:
+Name of Directors
+No. of Shares Held
+% of Total Shares
+Mr. Arvind Dham
+2390645
+1.064
+44 | AMTEK AUTO LIMITED
+(F)
+INDEPENDENT DIRECTORS
+Independent Directors are non-executive directors as defined under Regulation 16(1)(b) of the SEBI Listing Regulations read
+with Section 149(6) of the Act. The maximum tenure of independent directors is in compliance with the Act. All the
+Independent Directors have confirmed that they meet the criteria as mentioned under Regulation 16(1)(b) of the SEBI Listing
+Regulations read with Section 149(6) of the Act.
+The Familiarization Program for Independent Directors has been adopted by the Board of Directors pursuant to SEBI Listing
+Regulations; the detailed policy is available at the website of the Company (www.amtek.com)
+One Meeting of the Independent directors of the Company was held on 11th February, 2016 in which Mr. Sanjay Chhabra,
+Mr. Rajeev Kumar Thakur, Mr. Bahushrut Lugani and Mr. Raj Narain Bhardwaj , Ms. Madhu Vij were present and Mr. Sanjiv
+Bhasin was granted leave of absence.
+IV.
+COMMITTEES OF THE BOARD
+In compliance to the SEBI Listing Regulations, the Board of Directors has constituted various committees.
+None of Directors of the Company’s Board is a member of more than 10 committees and Chairman of more than 5
+Committees (Committees includes Audit Committee and Stakeholder Relationship Committee) across all Indian Public
+Companies in which he is a director. All the directors have made necessary disclosures regarding Committee positions
+held by them in other companies and do not hold the office of Director in more than twenty Companies, including ten public
+companies. None of the directors are related to each other.
+Details of such committees are as follows:
+Board and Committees Composition as on March 31, 2016
+Name
+Board
+Committee
+Audit
+CSR
+Nomination &amp;
+Risk
+Stakeholders
+Finance
+Remuneration
+Management
+Relationship
+Mr. Arvind Dham
+C
+C
+C
+Mr. Bahushrut Lugani
+M
+C
+M
+M
+M
+Mr. Rajeev Kr. Thakur
+M
+M
+C
+M
+M
+C
+Mr. Sanjay Chhabra
+M
+M
+C
+M
+Mr. John E. Flintham
+M
+M
+M
+Mr. Deshpal Singh Malik
+M
+M
+M
+Mr. Gautam Malhotra
+M
+M
+M
+M
+Mr. Mukesh Gupta
+M
+Mr. Raj N. Bhardwaj
+M
+Mrs. Madhu Vij
+M
+Mr. Sanjiv Bhasin
+M
+C - Chairman
+M – Member
+The Board determines the terms of reference of the Board Committees from time to time. The respective Committee
+Chairman convenes meetings of the Board Committees. Minutes of the Committee meetings are placed before the Board
+for perusal and noting. The quorum for meetings of all the Committees is either two members or one-third of the members
+of the Committees, whichever is higher. Each committee has the authority to engage outside experts, advisers and counsel
+to the extent it considers appropriate to assist it in its work.
+ANNUAL REPORT 2015-16 | 45
+1.
+AUDIT COMMITTEE
+The role of the Audit Committee has been strengthened and all major changes in financial policies are reviewed or
+approved by this Committee.
+QUALIFIED AND INDEPENDENT AUDIT COMMITTEE
+The Audit Committee comprises of three directors. All the members of the Committee viz. Mr. B. Lugani (Chairman), Mr.
+Rajeev Kumar Thakur and Mr. Sanjay Chhabra are independent and non executive Directors. The Company Secretary acts
+as the Secretary of the Audit Committee.
+The constitution of the Audit Committee meets the requirement of Section 139 of the Companies Act, 2013 and the
+Regulation 18 of SEBI Listing Regulations. The Term of Reference of the Audit Committee is as per the Regulations set out
+in the SEBI Listing Regulations and as prescribed under Section 177 of the Companies Act, 2013.
+MEETING OF AUDIT COMMITTEE
+During the period, the Audit Committee met 2 (two times) during the Financial Year 2015-16 and all the members were
+present in both the meetings i.e. 27th November, 2015 and 10th February, 2016.
+TERM OF REFERENCE
+The terms of reference of the audit committee are broadly as under:
+●
+Oversight of the company’s financial reporting process and the disclosure of its financial information to ensure that
+the financial statement is correct, sufficient and credible;
+●
+Recommendation for appointment, remuneration and terms of appointment of auditors of the Company;
+●
+Approval of payment to statutory auditors for any other services rendered by the statutory auditors;
+●
+Reviewing, with the management, the annual financial statements and auditor’s report thereon before submission
+to the board for approval, with particular reference to:
+Matters required to be included in the Director’s Responsibility Statement to be included in the Board’s Report
+in terms of clause (c) of sub-section 3 of section 134 of the Companies Act, 2013.
+Changes, if any, in accounting policies and practices and reasons for the same.
+Major accounting entries involving estimates based on the exercise of judgment by management.
+Significant adjustments made in the financial statements arising out of audit findings.
+Compliance with listing and other legal requirements relating to financial statements.
+Disclosure of any related party transactions.
+Qualifications in the draft audit report.
+●
+Reviewing, with the management, the quarterly financial statements before submission to the board for approval;
+●
+Reviewing, with the management, the statement of uses / application of funds raised through an issue (public issue,
+rights issue, preferential issue, etc.), the statement of funds utilized for purposes other than those stated in the offer
+document / prospectus / notice and the report submitted by the monitoring agency monitoring the utilization of
+proceeds of a public or rights issue, and making appropriate recommendations to the Board to take up steps in
+this matter;
+●
+Review and monitor the auditor’s independence and performance, and effectiveness of audit process;
+●
+Approval or any subsequent modification of transactions of the company with related parties;
+●
+Scrutiny of inter-corporate loans and investments;
+●
+Valuation of undertakings or assets of the Company, wherever it is necessary;
+●
+Evaluation of internal financial controls and risk management systems;
+46 | AMTEK AUTO LIMITED
+●
+Reviewing, with the management, performance of statutory and internal auditors, adequacy of the internal control
+systems;
+●
+Reviewing the adequacy of internal audit function, if any, including the structure of the internal audit department,
+●
+Staffing and seniority of the official heading the department, reporting structure coverage and frequency of internal
+audit;
+●
+Discussion with internal auditors of any significant findings and follow up there on;
+●
+Reviewing the findings of any internal investigations by the internal auditors into matters where there is suspected
+fraud or irregularity or a failure of internal control systems of a material nature and reporting the matter to the board;
+●
+Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as post-
+audit discussion to ascertain any area of concern;
+●
+To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders(in
+case of non-payment of declared dividends) and creditors;
+●
+To review the functioning of the Whistle Blower Mechanism;
+●
+Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance
+function or discharging that function) after assessing the qualifications, experience and background, etc. of the
+candidate;
+●
+Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
+●
+To mandatorily review the following information:
+o
+Management discussion and analysis of financial condition and results of operations;
+o
+Statement of significant related party transactions (as defined by the Audit Committee), submitted by
+management;
+o
+Management letters/letters of internal control weaknesses issued by the statutory auditors;
+o
+Internal audit reports relating to internal control weaknesses; and
+o
+The appointment, removal and terms of remuneration of the Chief internal auditor shall be subject to review
+by the Audit Committee.
+●
+The audit committee invites executives, as it considers appropriate (particularly the head of the finance function),
+representatives of the statutory auditors and representatives of the internal auditors to be present at its meetings.
+2.
+HUMAN RESOURCES, NOMINATION &amp; REMUNERATION COMMITTEE
+The Human Resources, Nomination and Remuneration Committee (HRNR Committee) of the Company is constituted in line
+with the provisions of Regulation 19 of SEBI Listing Regulations entered into with the stock exchanges read with Section
+178 of the Act, comprising three non executive and independent directors viz. Mr. Sanjay Chhabra (Chairman), Mr. Rajeev
+Kumar Thakur and Mr. B. Lugani.
+TERMS OF REFERENCE
+●
+Formulation of the criteria for determining qualifications, positive attributes and independence of a director and
+recommend to the Board a policy, relating to the remuneration of the directors, key managerial personnel and other
+employees;
+●
+Formulation of criteria for evaluation of Independent Directors and the Board;
+●
+Devising a policy on Board diversity;
+●
+Identifying persons who are qualified to become directors and who may be appointed in senior management in
+accordance with the criteria laid down, and recommend to the Board their appointment and removal. The company
+shall disclose the remuneration policy and the evaluation criteria in its Annual Report;
+ANNUAL REPORT 2015-16 | 47
+●
+Carry out evaluation of every director’s performance and support the board and independent directors in evaluation
+of the performance of the board, its committees and individual directors;
+●
+Recommend to the board the remuneration policy for directors, executive team or key managerial personnel as well
+as the rest of the employees.
+MEETINGS AND ATTENDANCE
+During the period under review, only one (1) meeting of the Remuneration Committee was held, in which all the members
+were present.
+PERFORMANCE EVALUATION CRITERIA FOR INDEPENDENT DIRECTOR
+The Independent Directors comply with the definition of Independent Directors as given under Section 149(6) of the
+Companies Act, 2013 and Regulation 16(1)(b) of the SEBI (Listing Obligations &amp; Disclosure Requirements) Regulations, 2015.
+While appointing/re-appointing any Independent Directors/Non-Executive Directors on the Board, the HRNR Committee
+considers the criteria as laid down in the Companies Act, 2013 and Regulation 16(1)(b) of the SEBI (Listing Obligations &amp;
+Disclosure Requirements) Regulations, 2015.
+All the Independent Directors give a certificate confirming that they meet the “independence criteria” as mentioned in Section
+149(6) of the Companies Act, 2013 and SEBI (Listing Obligations &amp; Disclosure Requirements) Regulations, 2015.
+2A.
+REMUNERATION OF DIRECTORS
+REMUNERATION POLICY
+The Company’s remuneration policy is directed towards rewarding performance, based on review of achievements on a
+periodical basis. The remuneration policy is in consonance with the existing industry practice. The remuneration of the Vice
+Chairman cum Managing Director, Managing Director, Key Managerial Personnel and Senior Management Personnel’s of
+the Company is reviewed and recommended by Committee, based on criteria such as industry benchmarks, the Company’s
+performance visa-vis the industry, responsibilities shouldered, performance/track record, macro-economic review on
+remuneration packages of heads of other organizations. The Company pays remuneration by way of salary, perquisites
+and allowances (fixed component), incentive remuneration. Annual increments are decided by the Remuneration Committee
+within the salary scale approved by the Members.
+The sitting fees paid/payable to the non Whole-time directors is excluded whilst calculating the limits of remuneration in
+accordance with Section 197 of the Act. The Company also reimburses out-of-pocket expenses to Directors attending
+meetings held at a city other than the one in which the Directors reside.
+Remuneration of employees largely consists of basic remuneration, perquisites, allowances and performance incentives.
+The components of the total remuneration vary for different employee grades and are governed by industry patterns,
+qualifications and experience of the employee, responsibilities handled by them, their individual performances, etc. The
+annual variable pay of senior managers is linked to the Company’s performance in general and their individual performance
+for the relevant year is measured against specific major performance areas which are closely aligned to the Company’s
+objectives.
+The Company does not have any Employee Stock Option Scheme.
+There were no other pecuniary relationships or transactions of the Non Executive Directors with the Company.
+NON – EXECUTIVE DIRECTORS COMPENSATION &amp; DISCLOSURES
+The details of the remuneration paid to the Non Executive Director provided as per accounts for the financial ended on
+March 31, 2016 are given below:-
+(Amount in `)
+S.No
+Non Executive Director
+Sitting Fee
+Commission
+Total
+Mr. B. Lugani
+1,50,000
+1,50,000
+Mr. Sanjay Chhabra
+1,50,000
+1,50,000
+48 | AMTEK AUTO LIMITED
+Mr. Sanjiv Bhasin
+1,50,000
+1,50,000
+Mr. Rajeev Kumar Thakur
+1,50,000
+1,50,000
+Mr. Raj Narain Bhardwaj
+1,50,000
+1,50,000
+Mr. Mukesh Kumar Gupta
+(LIC Nominee Director)
+1,00,000
+1,00,000
+Mrs. Madhu Vij
+1,50,000
+1,50,000
+Mr. Gautam Malhotra
+Mr. Arvind Dham
+REMUNERATION TO MANAGING DIRECTOR, WHOLE-TIME DIRECTORS AND/OR MANAGER
+(Rupees In Lacs)
+S.No
+Particulars of Remuneration
+Name of Managing Director
+Total Amount
+Mr. John Flintham
+Mr. D.S. Malik
+(a)
+Salary as per provisions
+contained in section 17(1) of the
+Income Tax Act, 1961.
+87.07
+10.92
+97.99
+(b)
+Value of perquisites u/s 17(2)
+of theIncome Tax Act, 1961
+32.91
+1.76
+34.67
+Total (A)
+119.98
+12.68
+132.66
+3.
+STAKEHOLDERS RELATIONSHIP COMMITTEE
+The Stakeholders Relationship Committee comprises of three directors under the Chairmanship of Mr. Rajeev Kumar Thakur.
+The other members in the committee being, Mr. Sanjay Chhabra and Mr. Bahushrut Lugani. The Board has constituted
+Stakeholders Relationship Committee in accordance with the provisions of the Companies Act, 2013 and Regulation 20 of
+SEBI Listing Regulations. The terms of reference of Shareholders’ / Investors’ Grievance (SIG) Committee was conferred on
+the Stakeholders Relationship Committee. The Stakeholders Relationship Committee met 1 (One time) during year under
+review, on 10th February, 2016.
+The Company has also adopted code of internal procedures and conduct for prevention of insider trading in the shares
+of the Company, pursuant to Securities &amp; Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015, as
+amended. The Board has designated Company Secretary as the Compliance Officer for this purpose and has authorized
+this committee to monitor the compliances as required under the aforesaid Regulation.
+TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
+●
+Oversee and review all matters connected with the transfer of the Company’s securities;
+●
+Monitor remedy of investors’ / shareholders’ / security holders’ grievances;
+●
+Oversee the performance of the Company’s Registrars and Transfer Agents;
+●
+Recommend methods to upgrade the standard of services to investors;
+●
+Monitor implementation of the Company’s Code of Conduct for Prohibition of Insider Trading;
+●
+Carry out any other function as is referred by the Board from time to time or enforced by any statutory notification/
+amendment or modification as may be applicable.
+ANNUAL REPORT 2015-16 | 49
+STATUS OF INVESTORS COMPLAINTS
+Details of investor complaints received and redressed during the financial year 2015- 16 are as follows:
+Complaints Received
+Investor Complaints
+Received
+Disposed
+Unresolved
+From
+pending at the
+during the
+Off during
+as at
+beginning i.e 01.10.2015
+Period Ended
+Period Ended
+31.03.2016
+SEBI
+NIL
+BSE/NSE
+NIL
+NIL
+NIL
+NIL
+Shareholders/Investors
+NIL
+NIL
+During the period, the committee met One time. All the members were present in the meeting held during the period.
+4.
+CORPORATE SOCIAL RESPONSIBILITY (CSR) COMMITTEE
+The Company proactively reviews its governance practices and standards inter alia considering best practices and
+regulatory developments
+Constitution of ‘Corporate Social Responsibility Committee’: Considering the work being done by the Company on social
+front, the Company’s Board has constituted a ‘Corporate Social Responsibility Committee’ (CSR Committee). CSR Committee
+is primarily responsible for formulating and monitoring the implementation of the framework of corporate social responsibility
+policy, other policies under Business Responsibility Policy Manual and to look into sustainability matters and matters related
+to overall governance.
+The members of Corporate Social Responsibility Committee are Mr. Rajiv Kumar Thakur, the Chairman, Mr. D.S Malik and
+Mr. Gautam Malhotra. During the period, the committee met One time. All the members were present in the meeting held
+during the period.
+TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
+●
+To formulate and recommend to the Board, a Corporate Social Responsibility (CSR) Policy indicating activities to be
+undertaken by the Company in compliance with provisions of the Companies Act, 2013 and rules made there under;
+●
+To recommend the amount of expenditure to be incurred on the CSR activities;
+●
+To monitor the implementation of the framework of the CSR Policy;
+●
+To oversee the implementation of polices.
 5.
-AMTEK AUTO: STRATEGY AND OUTLOOK
-In the last few years, several macro headwinds have obstructed the growth of the automotive components industry
-including flagging vehicle sales, increasing capital costs and slowing investments in manufacturing. This slowdown, which
-still continues to impact the Indian automobile industry, has undermined our capacity expansions and utilizations, and
-impacted profitability through FY2016. The momentum in our new order wins has also been affected, in line with the overall
-demand scenario. The recent downgrade in industry forecasts by the automobile industry association lends veracity to this
-slowdown.
-Last year, for the first time in its rich 30 year history, Amtek Auto was faced with a cash flow mis-match owing to this
-slowdown. To counter this situation, the senior management team outlined a three pronged strategy. Firstly, the Company
-embarked on a Debt Realignment Program with its lenders. Significant progress has been made on this front with the
-support of our financial institution partners. Secondly, Amtek Auto formulated a Deleveraging Plan based on monetization
-of an international asset and certain non-core assets. This strategy is based on realising the significant equity value created
-in these assets for the purpose of reducing the debt in the Indian operations. The plan is progressing in line with
-management expectations. Thirdly, the management has also taken a highly strategic decision to bring a new investor on
-board and use the investment in further reducing debt. Discussions with potential investors have been very encouraging
-and we are confident of bringing this plan to fruition in the new future. The senior management team remains fully
-committed to the overall deleveraging plan which will not only enhance our free cash flows resulting from lower interest
-payments, but will also optimise Amtek Auto’s capital structure and create significant shareholder value.
-The Amtek Business Excellence Program, which we started in 2014, has facilitated a highly successful implementation of
-lean manufacturing processes. It remains the driving force behind Amtek Auto’s cost controls and productivity initiatives,
-and is a key attribute of the Company’s business strategy. Amtek Auto has also taken up certain other strategic initiatives
-such as realigning the product mix and expanding the product range to increase the share of our value added product
-offering. Other initiatives centre around overall fiscal control, quality improvement, up-gradation in technology and research
-&amp; development. The Company also continues to focus on cost reduction and rightsizing initiatives. We are confident that
-these initiatives, in particular the new set of products that are being developed, will help make Amtek Auto much more
-competitive in the market place.
-A key driver of Amtek Auto’s growth has been the expansion of global OEMs in India. This trend has already started to
-receive a greater push from the Government’s ‘Make in India’ campaign. Global OEMs are expected to not only increase
-investments into India, leading to higher car production levels, but also consolidate their suppliers who can achieve their
-operational and quality targets. This will lead to increasingly more opportunities being presented to larger suppliers such
-as Amtek Auto. In addition, we view the passage of the GST Bill as a positive development which would not only lead
-to better affordability of automobiles for the masses and in turn translate into higher sales of automotive components, but
-also bring in operational efficiencies.
-Being ready to capitalise on the opportunities arising from these developments calls for a highly strategic way forward.
-We are working to take the integration between our Indian and international operations to the next level, which will facilitate
-not only revenue synergies, cost savings and engineering process improvements but also sharing of best practices to
-achieve overall quality targets. Furthermore, we are actively looking to acquire new customers for many of our key products
-that have already been widely accepted in the global marketplace. This will allow us to realise our objective of increasing
-utilisations of the world class capacities that we have built and increase exports out of India, which offer the biggest cost
-advantage to us.
-Amtek Auto’s global manufacturing capacities, geographic market reach and blue chip customer base have made us one
-of the world’s most dynamic companies in the engineered components sector. Our customers around the world acknowledge
-68 | AMTEK AUTO LIMITED
-the level of engineering in our manufacturing processes, the technological advancement of our products and for the highest
-standards we have set in customer service. The relationships with these OEM and Tier 1 customers, which have been
-reinforced time and again, will continue to help us compete at the highest levels in the global market place.
+FINANCE COMMITTEE
+The Board of Directors has constituted Finance Committee comprising of Mr. Arvind Dham (Chairman), Mr. John Ernest
+Flintham, Mr. D.S Malik and Mr. Gautam Malhotra and Mr. B. Lugani.
+TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
+●
+Review the Company’s financial policies, risk assessment and minimization procedures, strategies and capital
+structure, working capital and cash flow management, and make such reports and recommendations to the Board
+with respect thereto, as it may deem advisable;
+●
+Review banking arrangements and cash management;
+●
+Exercise all powers to borrow money (otherwise than by issue of debentures) within limits approved by the Board,
+and take necessary actions connected therewith, including refinancing for optimization of borrowing costs;
+●
+Give guarantees/issue letters of comfort/providing securities within the limits approved by the Board;
+●
+Borrow money by way of loan and/or issue and allot bonds/notes denominated in one or more foreign currencies
+in international markets for the purpose of refinancing the existing debt, capital expenditure, general corporate
+purposes, including working capital requirements and possible strategic investments within limits approved by the
+Board;
+50 | AMTEK AUTO LIMITED
+●
+Carry out any other function as is mandated by the Board from time to time and/or enforced by any statutory
+notification, amendment or modification as may be applicable;
+●
+Other transactions or financial issues that the Board may desire to have them reviewed by the Finance Committee;
+●
+Delegate authorities from time to time to the executives/ authorised persons to implement the Committee’s decisions;
+●
+Review regularly and make recommendations about changes to the charter of the Committee.
 6.
-OPPORTUNITIES &amp; STRENGTHS
-Positive Outlook for the Global Automotive Industry: Strong economic growth and employment levels are expected to
-help the US market to cross 18 million units over the next two years. Low European interest rates and government incentives
-are likely to help maintain the sales momentum across many of the key European markets. China’s initiative to reduce
-sales tax for passenger vehicles is expected to continue to bode well for production volumes in the near term. With a strong
-momentum in key international automotive markets and an impending recovery in the Indian automotive industry, Amtek
-Auto is in a position to ramp up utilisations and capture a significant share of this additional demand.
-Strong Growth Prospects for the Global Forging Industry: According to a recent research by Technavio, the global forging
-market during 2016-2020 is set to grow at a CAGR of around 8%. Characteristics associated with forged parts such as
-reliability, strength, and economic viability have helped increase the use of forging over the years. The industry will continue
-to witness growing demand both from automotive and non-automotive sectors.
-Inherent Strengths of Manufacturing in India: Cost efficient labour, government support and availability of skilled
-manpower have make India an attractive manufacturing destination over the years. This has resulted in increased interest
-from various global OEMs in the form of tie-ups with local suppliers. As a result, many global OEMs have also managed
-to achieve a fairly high level of localization in India. This continuing trend is expected to open significant opportunities for
-the Indian component makers to supply to these players for their Indian and international demand.
-In addition, total automotive component exports out of India are expected to continue to increase in the years to come.
-India’s proximity to emerging markets such as South East Asia and Africa is a key advantage for developing an export base.
-Furthermore, shipments to Europe from India are more cost effective as compared to those from Brazil and Thailand.
-‘Make in India’: The Indian government’s focus on improving ease of business with its ‘Make in India’ initiative is expected
-to soften regulations and reduce complex procedures. The initiative will also result in making India an even more cost
-effective manufacturing destination.
-The Government of India has taken a series of steps to support this program such as:
-●
-New Trade Policy: Export and import taxes on small volumes of goods have been abolished, and incentives
-have been introduced for export-oriented units and export processing zones.
-●
-New Labor Laws: Theses include a “single window” labor compliance process for companies, simpler
-Provident Fund (compulsory employee insurance and pension) procedures and a new inspection scheme.
-●
-Simplification of Regulatory Compliance: In an effort to enhance the ease of doing business, it has been
-made possible for companies to obtain environmental approvals and licenses online.
-The Indian Government’s Automotive Mission Plan 2016-26, the key driver of the ‘Make in India’ campaign envisages four-
-fold growth in automotive volumes by FY2026. The Indian auto sector has the potential to generate up to US$300 billion
-in annual revenues by FY2026, create around 65 million additional jobs and contribute more than 12% to India’s GDP,
-according to the plan prepared jointly by SIAM and the Government of India.
-Focus on Import Substitution to Drive Growth in the Non-automotive Sector: With the government of India’s emphasis
-on substitution of imported goods to reduce import bills, sectors such as railways and defence are expected to look to Indian
-companies for procurement. This provides manufacturing companies an opportunity to grow in the non-automotive
-business.
-7.
-RISK AND CONCERNS
-Macroeconomic Uncertainty: Amtek Auto’s operations are spread across many different regions. In the six month financial
-year 2016, international business contributed 76.9% to the revenues. Due to the global nature of Amtek Auto’s business,
-its operations are directly dependent on the general economic conditions across all key global markets. In the recent past,
-global economic growth has remained volatile and uneven with several key markets facing economic challenges. The
-Company, on a regular basis, assesses and evaluates the macroeconomic performance in its key markets and takes
-suitable remedial actions as may be necessary from time to time to mitigate such risks.
-ANNUAL REPORT 2015-16 | 69
-Changes in Tax, Tariffs or Fiscal Policies: Imposition of additional taxes and levies designed to limit the use of automobiles
-could adversely affect demand for the Company’s products. Changes in corporate and other taxation policies, as well as
-changes in export and other incentives granted by various governments, or import or tariff policies, could also adversely
-affect the Company’s financial results.
-We are in the process of evaluating thoroughly the impact of the implementation of GST on our business.
-Geopolitical and other Risks: Political instability, wars, terrorism, multinational conflicts, natural disasters, fuel shortages
-and their prices, epidemics, labour strikes all present business risks. To counter these risks, the Company continues to
-expand its geographic presence across all major automotive economies in the world.
-Country Risk through Exports: Products produced by Amtek Auto are exported to a number of different automobile markets
-globally. This exposes the Company to various risks associated with international business transactions. These include
-various geopolitical risks, currency price regulatory risks and other such concerns.
-Raw Material Prices: Prices and availability of various raw materials such as steel, non-ferrous, precious metals, rubber
-and petroleum products are dependent on various environmental factors. Even as the Company continues to pursue cost
-control measures, any unforeseen or sudden spike in cost of these items could impact the profitability of the Company
-to the extent that customer price pass through terms are not available. For Amtek Auto, increase in the price of raw
-materials, especially steel, are passed through so there is a limited impact on our profitability.
-Global Competition: With the integration of global automobile supply chains, the automobile components industry has
-become increasingly competitive with OEMs continuously scanning the market for lower prices and better terms. Even as
-the Company enjoys strong and long standing relationship with many global OEMs, it continues to invest in newer products
-and better quality control.
-Financial Risk: Any change in interest rates, foreign exchange rates and commodity prices can potentially impact the
-financial performance of the Company.
-Technological Changes: The business environment is evolving at a rapid pace. The changing technologies have led to
-a shortening of the life cycle of new vehicles. Additional challenges include supply constraints from Tier II suppliers,
-sustenance of operating cost efficiency gains and capacity expansions in the context of rapidly changing consumer demand
-preferences. The Company continues to invest in new technologies and capacities to address such risks. In addition, our
-focus on rationalization both in terms of size and functions, enables us to continue to complement the manufacturing
-excellence programs that are being developed.
-Risk Management: Strategic, operating and financial business risks are reviewed by the Risk Management Committee on
-a regular basis. In addition to the above risks, the committee monitors any potential new risks that may arise due to changes
-in the external environment. While the possibility of a negative impact due to one or more of such risks cannot be totally
-avoided, the Company proactively takes reasonable steps to pre-empt and mitigate these.
-8.
-INTERNAL CONTROL SYSTEMS AND THEIR ADEQUACY
-The Company has an elaborate internal control system which monitors compliance to internal processes. It ensures that
-all transactions are authorised, recorded and reported correctly. The systems are routinely tested and certified by Statutory
-as well as Internal Auditors and cover all offices, plant facilities and key areas of business. The Internal Auditors
-independently evaluate the adequacy of internal controls and concurrently audit the majority of the transactions in value
-terms.
-To further strengthen the internal control process, the Risk Management Committee has documented control procedures
-covering all aspects of key financial and operating functions. The Company’s internal control systems provide for:
-●
-Adherence to applicable accounting standards and policies
-●
-Accurate recording of transactions with internal checks, prompt reporting and timely action
-●
-Compliance with applicable statues, policies, listing requirements and management policies and procedures
-●
-Review of capital investments and long term business plans
-●
-Periodic review meetings to guide optimum utilization of resources
-●
-Effective use of resources and safeguarding of assets
-70 | AMTEK AUTO LIMITED
-The Audit Committee reviews the effectiveness of internal control systems, and also provides timely updates on operating
-effectiveness and controls to senior management team. A CEO and CFO Certificate, forming part of the Corporate Governance
-Report, confirms the existence and effectiveness of internal controls and reiterates their responsibilities to report deficiencies
-to the Audit Committee and rectify the same.
-Our auditors carry out periodic audits as per an agreed internal audit programme. They bring to the notice of management,
-issues which require their attention and also highlight the severity of the issue. Corrective actions are then set in place.
-The internal auditors report is reviewed by the Audit Committee and placed before the Board of Directors for their
-consideration.
-9.
-DISCUSSION ON FINANCIAL PERFORMANCE WITH RESPECT TO OPERATIONAL PERFORMANCE
-Amtek Auto’s performance in the six month period ending March 2016 is a reflection of the challenges faced by the
-automotive industry in India and in certain other regions internationally. In financial year 2016, the consolidated annualized
-revenues of the Company were Rs. 70,789 million.
-Consolidated EBITDA (before exceptional item) for the six month period stood at Rs. 7,938 million at a margin of 11.2%.
-Management remained focused on cost optimisation and value enhancement during this period.
-Consolidated loss after tax for FY2016 before minority interest and associate income was Rs. 7453 million.
-10.
-FINANCIAL CONDITION
-Amtek Auto monitors its financial position regularly and deploys a robust cash management system. The Company has
-also been able to arrange adequate liquidity at an optimum cost to meet its business and liquidity requirements. Amtek
-Auto would like to thank the financial institutions, shareholders and other stakeholders for their continuous support.
-11.
-DEBT POSITION
-As of March 31, 2016, the Company had consolidated debt of Rs. 151,944 million comprising Rs. 116810 million of long term
-debt and Rs. 35,154 million of short term borrowings. Cash and cash equivalents stood at Rs. 4510 million, translating into
-net debt of Rs. 147,434 million.
-The Company embarked on a Debt Realignment Program with its lenders last year. Significant progress has been made
-on this front with the support of our financial institution partners, as of the end of FY2016.
-12.
-HUMAN RESOURCES AND INDUSTRIAL RELATIONS
-During the year, the Company delivered value to its customers and investors. This was made possible by the relentless
-efforts of each and every employee. The Company has developed a robust and diverse talent pipeline which enhances
-Amtek Auto’s organizational capabilities for future readiness, further driving greater employee engagement. Our human
-resource program is focused on attracting the right talent, providing excellent on the job training opportunities, and finally
-giving them the growth opportunities consistent with their aspirations. In addition, the trust our employees place in us is
-evident in our ability to retain key employees and senior executives during a challenging FY2016.
-Amtek Auto has always enjoyed strong industrial relations. The company has a systematic grievance redressal system to
-further strengthen these relationships. This system encourages employees to share their views and opinion with the
-management. The Company reflects on this feedback and incorporates relevant changes into the existing policies, systems
-and processes.
-During the period under review, the Company maintained a cordial relationship with its workforce. The Directors would
-like to place on record their appreciation and recognition towards all its employees who continue to exude confidence and
-commitment toward brand ‘ONE AMTEK’.
-13.
-STATUTORY COMPLIANCE
-The company secretary, as compliance officer, ensures compliances of the Securities and Exchange Board of India (Listing
-Obligations and Disclosure Requirements) Regulations, 2015 (“Listing Regulations”). Compliance certificates are obtained
-from various departments of the Company and the Board is informed of the same at every Board Meeting.</t>
+SEXUAL HARASSMENT COMMITTEE
+As per the requirement of The Provisions of the Sexual Harassment of women at work place (Prevention, Prohibition and
+Redressal) Act, 2013 &amp; the Rules made there under Company has duly constituted Sexual Harassment Committee,
+comprising of the following members:-
+1.
+Ms. Anuradha Kapur
+–
+The Presiding Officer
+2.
+Mr. Vinod Kr. Uppal
+–
+Finance Department
+3.
+Mr. Rajesh Soni
+–
+HR Department
+4.
+Ms. Sonal Choudhary
+–
+HR Department
+The Committee met One time. All the members were present in the meeting held during the period.
+The Company is totally committed in providing an environment that is free from discrimination and harassment. We
+recognize the rights of our employees and provide forums,</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>13654</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8014434484576852</t>
+          <t>0.7906108417002482</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['risk management', 'global economy']</t>
+          <t>['opportunities and threats', 'risk management', 'global economy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -6816,58 +6368,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ANNUAL REPORT 2016-17 | 63
-CEO/CFO CERTIFICATE
-(Pursuant to Regulation 17 of SEBI LODR Regulations, 2015)
-We, Gautam Malhotra, Whole Time Director and Vinod Uppal, Chief Financial Officer, responsible for the finance
-functions certify that:
-a)
-We have reviewed the financial statements and cash flow statement for the year ended 31st March, 2017
-and to the best of our knowledge and belief :-
-I.
-These statements do not contain any materially untrue statements or omit any material fact or contain
-statements that might be misleading;
-II.
-These statements together, present a true and fair view of the Company’s affairs and are in compliance
-with existing Accounting Standards, applicable laws and regulations.
-b)
-To the best of our knowledge and belief, no transactions entered into by the Company during the year ended
-31st March, 2017 are fraudulent, illegal or violation of the Company’s code of conduct.
-c)
-We accept responsibility for establishing and maintaining internal controls for financial reporting and we have
-evaluated the effectiveness of the internal control systems of the Company pertaining to the financial
-reporting. Deficiencies in the design or operation of such internal controls, if any, of which we are aware,
-have been disclosed to the auditors and the Audit Committee and steps have been taken to rectify these
-deficiencies.
-d)
-I)
-There has not been any significant change in internal control over financial reporting during the year
-under reference;
-II)
-That there are changes in accounting policies during the year on account of INDAS adoption and the
-same have been disclosed in the notes to financial statements; and
-III)
-We are not aware of any instance during the year of significant fraud with involvement therein of the
-management or any employee having a significant role in the Company’s internal control system over
-financial reporting.
-Place : New Delhi
-Vinod Uppal
-Gautam Malhotra
-Date :
-22.07.2017
-Chief Financial Officer
-Whole Time Director
-64 | AMTEK AUTO LIMITED
+          <t>64 | AMTEK AUTO LIMITED
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 1.
 GLOBAL ECONOMIC OVERVIEW
@@ -7253,17 +6764,41 @@
 Amtek Auto has always enjoyed strong industrial relations. The Company has a systematic grievance redressal system
 to further strengthen these relationships. This system encourages employees to share their views and opinion with the
 management. The Company reflects on this feedback and incorporates relevant changes into the existing policies,
-systems and processes.</t>
+systems and processes.
+72 | AMTEK AUTO LIMITED
+11.
+STATUTORY COMPLIANCE
+The Whole Time Director makes a declaration to the Board of Directors every quarter regarding compliance with provisions
+of various statutes as applicable. The Company Secretary ensures compliance with the Companies Act, 2013, SEBI (Listing
+Obligations and Disclosure Requirements) Regulations, 2015 and compliance with the guidelines on insider trading for
+prevention of the same.
+12.
+CAUTION STATEMENT
+The above mentioned statements are only ‘forward looking statements’ based on certain assumptions and expectations.
+The Company’s actual performance could differ materially from those expressed/projected depending upon changes in
+various factors. The Company does not assume any responsibility to any change(s) in forward looking statements’, on
+the basis of subsequent developments, information or events etc.
+Important developments that could affect the Company’s operations include a downward trend in the domestic automotive
+industry, competition, rise in input costs, exchange rate fluctuations, and significant changes in the political and economic
+environment in India, environmental standards, tax laws, litigation and labour relations.
+For and on behalf of the board
+For AMTEK AUTO LIMITED
+Gautam Malhotra
+Place :
+New Delhi
+Date
+22.07.2017
+DIN No. 000472(Whole Time Director)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.802535717664869</t>
+          <t>0.8030005473101317</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -7300,59 +6835,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>64 | AMTEK AUTO LIMITED
-(Company under Corporate Insolvency Resolution Process)
-CEO/CFO CERTIFICATE
-(Pursuant to Regulation 17 of SEBI LODR Regulations, 2015)
-We, Vinod Uppal, Chief Financial Officer, Dinkar T. Venkatasubramanian Insolvancy Professional responsible
-for the finance functions certify that:
-a)
-We have reviewed the financial statements and cash flow statement for the year ended 31st March, 2018
-and to the best of our knowledge and belief :-
-I.
-These statements do not contain any materially untrue statements or omit any material fact or contain
-statements that might be misleading;
-II.
-These statements together, present a true and fair view of the Company’s affairs and are in compliance
-with existing Accounting Standards, applicable laws and regulations.
-b)
-To the best of our knowledge and belief, no transactions entered into by the Company during the year ended
-31st March, 2018 are fraudulent, illegal or violation of the Company’s code of conduct.
-c)
-We accept responsibility for establishing and maintaining internal controls for financial reporting and we have
-evaluated the effectiveness of the internal control systems of the Company pertaining to the financial
-reporting. Deficiencies in the design or operation of such internal controls, if any, of which we are aware,
-have been disclosed to the auditors and the Audit Committee and steps have been taken to rectify these
-deficiencies.
-d)
-I)
-There has not been any significant change in internal control over financial reporting during the year
-under reference;
-II)
-That there are changes in accounting policies during the year on account of INDAS adoption and the
-same have been disclosed in the notes to financial statements; and
-III)
-We are not aware of any instance during the year of significant fraud with involvement therein of the
-management or any employee having a significant role in the Company’s internal control system over
-financial reporting.
-Place : New Delhi
-Vinod Uppal
-Dinkar T. Venkatasubramanian
-Date :
-22.01.2019
-Chief Financial Officer
-Insolvency Professional
-ANNUAL REPORT 2017-18 | 65
+          <t>ANNUAL REPORT 2017-18 | 65
 (Company under Corporate Insolvency Resolution Process)
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 1.
@@ -7654,17 +7147,62 @@
 The Audit Committee reviews the effectiveness of internal control systems, and also provides timely updates on operating
 effectiveness and controls to senior management team. A CEO and CFO Certificate, forming part of the Corporate Governance
 Report, confirms the existence and effectiveness of internal controls and reiterates their responsibilities to report deficiencies
-to the Audit Committee and rectify the same.</t>
+to the Audit Committee and rectify the same.
+74 | AMTEK AUTO LIMITED
+(Company under Corporate Insolvency Resolution Process)
+Our auditors carry out periodic audits as per an agreed internal audit programme. They bring to the notice of management,
+issues which require their attention and also highlight the severity of the issue. Corrective actions are then set in place.
+The internal auditors report is reviewed by the Audit Committee and placed before the Board of Directors for their
+consideration.
+8.
+FINANCIAL OVERVIEW
+Amtek Auto’s performance in the last six months is a reflection of the challenges faced by the automotive industry in
+general and certain other regions interenationally. In the financial year 2018, the consolidated revenues of the Company
+were at Rs. 47,446 million. During the year under review, Revenue from discontinued operations is Rs. 1,836 million.
+Consolidated EBITDA of Continuing operations (before exceptional item and impairment losses) for the year stood at
+Rs. 4,357 million at a margin of 9 %. Management remained focused on cost optimization and value enhancement during
+this period.
+9.
+DEBT POSITION
+As of March 31,2018 the Company had consolidated debt (Continuing Operations) of Rs. 1,16,144 million comprising Rs.
+94,477 million of long term debt and Rs. 21,667 of short term borrowings. Cash and equivalents stood at Rs. 2,068 million,
+translating into net debt of Rs. 1,14,076 million.
+10.
+HUMAN RESOURCES AND INDUSTRIAL RELATIONS
+During the year, the Company delivered value to its customers and investors. This was made possible by the relentless
+efforts of each and every employee. The Company has developed a robust and diverse talent pipeline which enhances
+Amtek Auto’s organizational capabilities for future readiness, further driving greater employee engagement. Our human
+resource program is focused on attracting the right talent, providing excellent on the job training opportunities, and finally
+giving them the growth opportunities consistent with their aspirations.
+Amtek Auto has always enjoyed strong industrial relations. The Company has a systematic grievance redressal system
+to further strengthen these relationships. This system encourages employees to share their views and opinion with the
+management. The Company reflects on this feedback and incorporates relevant changes into the existing policies, systems
+and processes.
+11.
+STATUTORY COMPLIANCE
+The Whole Time Director before Commencement of Corporate Insolvency Resolution Process (CIRP) makes a declaration
+to the Board of Directors every quarter regarding compliance with provisions of various statutes as applicable. The Company
+Secretary ensures compliance with the Companies Act, 2013, SEBI (Listing Obligations and Disclosure Requirements)
+Regulations, 2015 and compliance with the guidelines on insider trading for prevention of the same.
+12.
+CAUTION STATEMENT
+The above mentioned statements are only ‘forward looking statements’ based on certain assumptions and expectations.
+The Company’s actual performance could differ materially from those expressed/projected depending upon changes in
+various factors. The Company does not assume any responsibility to any change(s) in forward looking statements’, on the
+basis of subsequent developments, information or events etc.
+Important developments that could affect the Company’s operations include a downward trend in the domestic automotive
+industry, competition, rise in input costs, exchange rate fluctuations, and significant changes in the political and economic
+environment in India, environmental standards, tax laws, litigation and labour relations.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.7948383526993914</t>
+          <t>0.7960415967796042</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">

--- a/mdna_extraction_project/output/mdna_extracted.xlsx
+++ b/mdna_extraction_project/output/mdna_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,40 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>start_method</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>end_method</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mdna_title_used</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>next_title_used</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>word_count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>narrative_density</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>keyword_hits</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>quality_passed</t>
         </is>
@@ -518,12 +538,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Annexure VI
+          <t>ALCHEMIST LIMITED
+23
+Annexure VI
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 Statements in the Management Discussion &amp; Analysis Report which seek to describe the Company’s objectives, projections,
 estimates, expectations or predictions may be considered to be “forward-looking statements” and are stated as required
@@ -549,7 +571,7 @@
 The Indian pharma industry has been growing at a Compounded Annual Growth rate (CAGR) of more than 15% over the
 last five years and has significant growth opportunities. The growth driven factors in the domestic market are high burden
 of disease, good economic growth leading to higher disposable incomes, improvements in healthcare infrastructure and
-improved healthcare financing, the report of PwC – CII titled “India Pharma Inc.: Gearing up for the next level of growth”.
+improved healthcare financing, the report of PwC – CII   titled “India Pharma Inc.: Gearing up for the next level of growth”.
 THE ROAD AHEAD: INDIAN PHARMA
 Spending on healthcare is expected to increase in India at 9-12 per cent CAGR between 2018-22 to US$ 26-30 billion,
 driven by increasing consumer spending, rapid urbanization, and raising healthcare insurance among others. Speedy
@@ -578,10 +600,12 @@
 Pharma division broad outlook: The Alchemist Pharma wing is known for its brands and possible outcomes in the most
 dreaded diseases like Dengue, Chikungunya, Cancer, AIDS, Hepatitis, Acid Peptic Disorders, and Gastric Ulcers etc. we
 believe we exist for society and hence we continue to serve our society through social programmes like Quit India to
+ALCHEMIST LIMITED
+24
 ensure Healthy India. The programmes involve the joint efforts of medical fraternity, Alchemist and Patients to ensure India
 is free of Anemia, Calcium Deficiency and Weak Immunity. Alchemist supports 50% free therapy to all poor patients. The
 division has been able to create a strong space in the minds of doctors through niche brands.
-Quit Anemia, Quit Calcium Deficiency and Quit Weak Immunity: Alchemist Pharma Initiative
+Quit Anemia, Quit Calcium Deficiency and Quit Weak Immunity:  Alchemist Pharma Initiative
 After Independence, India has traversed many miles of success in diverse fields but healthcare continues to be a struggling
 point for Independent India and is a stigma on one of the fastest growing economies of world. Government measures have
 been done but have not been able to reach the masses. The only healthcare camp established by the Govt. of India
@@ -596,14 +620,14 @@
 and this medicine will directly go to the doctors from where it will be distributed to patients.
 Alchemist is represented through brands Anemi-XT for Iron Deficiency, Valcal-M for Calcium Deficiency and IGTG FORTE
 for Weak Immunity. The scope of this campaign is huge as alone Govt. efforts will not be sufficient to see that India is free
-of these diseases. This campaign would endeavour Alchemist to achieve the wider aim in addition to Clean India campaign
+of these diseases.  This campaign would endeavour Alchemist to achieve the wider aim in addition to Clean India campaign
 of Govt. of India by making Healthy India. So its objectives are not only Clean India but ensuring a Healthy India. Alchemist
 effort is a NATION WIDE MOVEMENT OF IMPORTANCE.
 ALCHEMIST FLAGSHIP BRANDS:
 IGTG FORTE:Alchemist Pharma Flagship brand, “IGTG FORTE” is a possible treatment for 108 Diseases including the
 most dreaded viral diseases including Dengue, Chikungunya, Hepatitis, AIDS. Today when the world struggles to combat
 these diseases, Alchemist is the one which has defined a global strategy to fight them with the brand IGTG FORTE which
-is acknowledged as world’s most potent Anti-Viral. Alchemist is proud to make in India IGTG FORTE, the world’s most
+is acknowledged as world’s most potent Anti-Viral.  Alchemist is proud to make in India IGTG FORTE, the world’s most
 potent Anti-Viral.
 IGTG FORTE: A new revolution in treatment of Diabetes
 Alchemist Pharma brand IGTG FORTE has now been used by doctors for treatment of Type II Diabetes which is affecting
@@ -616,7 +640,7 @@
 Difficult to Treat indications. The molecule “Bovine Colostrum” has been approved by USFDA as an Orphan Drug. Alchemist
 brand IGTG FORTE has been used for treatment of difficult to treat diseases like Dengue Fever as all the recipients of this
 drug have clinically registered 5 Fold platelet rise in just 7 days which hence may reduce the chances of platelet infusion
-which is the only option in case platelets fall to abnormally low levels. IGTG FORTE is being used to treat Idiopathic
+which is the only option in case platelets fall to abnormally low levels.  IGTG FORTE is being used to treat Idiopathic
 Infertility, not only the treatment with the brand is economical but the success rates are been compared to presently used
 IVF therapy. The difference in cost is few thousands with IGTG FORTE vs Many Lacs with IVF. IGTG Forte is being used
 as a support treatment to treat Arthritis, Cancer and even the most deadliest AIDS. In other words IGTG FORTE is a
@@ -634,12 +658,14 @@
 available out of thousand brands available in India. Milk is been always considered as very important source of Calcium.
 So at Alchemist we have extracted the Best Calcium available i.e. from Milk. This is the calcium that is vegetarian source
 unlike other supplements. Also Valcal-M is a milk mineral complex which means Valcal-M is more than just Calcium; it also
+ALCHEMIST LIMITED
+25
 additionally provides Copper, Iron, Manganese, Iron, Zinc, and Phosphorus and Vitamin D3 which is also required by body
 for overall growth and other health benefits. Alchemist Valcal-M is also called as “Milk Pill of India”.Valcal-M is chosen by
 all leading Gynecologists, Orthopedicians and Physicians for replenishing Calcium levels of India. It is also a part of QUIT
 INDIA revolution started by Alchemist.
 Alchemist Brands Reach In Institutions
-Alchemist Pharma has emerged popular with the institutions where products are registered with the premier institutes of
+Alchemist Pharma has emerged popular with the institutions where products are registered   with the premier institutes of
 the country like AFMSD, DGAFMS, Alchemist pharma has product queries from reputed hospitals like Post Graduate
 Institute Chandigarh. We are also registered with Municipal Corporations of Delhi, State run govt. hospitals and also govt.
 dispensaries for the class of brands we market.
@@ -677,6 +703,7 @@
 Size, Share, Growth, Trends and Forecast, 2018-2022,” due to the slowdown in world economic growth, the Fencing industry
 has suffered a certain impact, but still maintained a relatively optimistic growth. The metal fencing market is in a commanding
 position owing to a wide range of products available under this category. The market is expected to grow at a CAGR of
+4.5% between 2017 and 2025.
 The global fencing market is largely driven by factors such as the rising consumer interest in home improvement and
 home décor and the need for security and safety. Expanding residential construction and growing economies across the
 globe are also supporting the growth of the fencing market. The increasing demand for residential fences and the growing
@@ -686,6 +713,8 @@
 wire fence. Based on material type, the market is divided into four segments, namely metal, wood, plastic &amp; composite and
 concrete fencing. The end use segments covered in this report are residential, agricultural and the industrial sector. The
 market is further segmented by geography into North America, Europe, Asia Pacific and Rest of the World regions.
+ALCHEMIST LIMITED
+26
 STRENGTHS
 1.
 Direct guidance by top Management in routine operations and functions.
@@ -732,13 +761,19 @@
 various needs governing the security and well-being of employees.
 In order to honour the aforesaid commitments, the Company has implemented systems in its operations that accord with
 the requirements of health, safety and environmental standards and strive to:
+-
 Assume its business and ethical responsibilities to exemplify its endeavour towards good corporate citizenship.
+-
 Continue to inspire innovations in methods &amp; practices and to ensure highest standards of health, safety and
 environment.
+-
 Comply with all applicable laws and regulations with regards to HSE and continually aspire to the highest standards
 in the same.
+-
 Commit to the continual reduction of waste and implement processes to ensure the reusability of natural resources.
+-
 Continually invest in the up-gradation of facilities, maintenance of machinery and welfare of our employees.
+-
 Constantly train and educate employees on contemporary best practices to ensure the highest levels of safety and
 sustainability in our operations.
 INDUSTRIAL RELATIONS &amp; HUMAN RESOURCE DEVELOPMENT
@@ -749,6 +784,8 @@
 the Company are aimed at sharpening business skills and competence needed for better employee performance and
 provides all possible opportunities and support to the employees to improve their performance and productivity. In pursuance
 of the Company’s commitment to retain and develop best available talents, several programmes are conducted at various
+ALCHEMIST LIMITED
+27
 levels on a regular basis. Employee relations continued to be cordial and harmonious at all levels and in all units of the
 Company.
 CAUTIONARY STATEMENT
@@ -758,10 +795,15 @@
 include global and domestic economic conditions affecting demand, supply, price conditions, change in Government’s
 regulations, tax regimes, the laws and other factors such as litigation and industrial relations.
 For and on behalf of the Board of Directors
+For ALCHEMIST LIMITED
 Sd/-
+Dated: 30-08-2019
 Bikram Bhattacharya
 Place: New Delhi
 (Whole Time Director)
+DIN: 03595530
+ALCHEMIST LIMITED
+28
 Annexure-VII
 REPORT ON CORPORATE GOVERNANCE
 1.
@@ -781,7 +823,9 @@
 The Board of Directors of the Company comprises of Three (3) Directors as on 31-03-2019. During the Financial
 Year 2018-2019, 6 (Six) Board Meetings were held viz.
 (i)
+02nd April, 2018
 (ii)
+21st May, 2018
 (iii) 09th August, 2018
 (iv) 13th November, 2018
 (v) 13thFebruary, 2019 and
@@ -809,21 +853,28 @@
 Whole Time Director
 Executive
 Non Independent
+6
 Yes
+19
 Ms. Maria Fernandes
 Director
 Non-Executive
 Independent
+6
 Yes
+13
 Ms. Ambika Chowdhary
 Director
 Non-Executive
 Independent
+6
 Yes
+12
 Mr. Vinay Kumar Mittal*
 Director
 Non-Executive
 Non Independent
+4
 Yes
 NA
 Notes:
@@ -846,6 +897,8 @@
 (including the Chairman) and the Board as whole. The Independent Directors also reviewed the quality,
 content and timeliness of the flow of information between the Management and the Board and its Committees
 which is necessary to effectively and reasonably perform and discharge their duties.
+ALCHEMIST LIMITED
+29
 (d) Remuneration of Directors
 (` in Lakhs)
 Name of the Director
@@ -900,18 +953,28 @@
 attended
 Ms. Maria Fernandes
 Chairperson
+4
+4
 Ms. Ambika Chowdhary
 Member
+4
+4
 Mr. Bikram Bhattacharya
 Member
+4
+4
 The Committee reviewed the Financial Results of the Company and recommended the same to the Board of Directors
 for their approval. The Company Secretary acts as Secretary of the Audit Committee.
 The role and terms of reference of the Audit Committee covers the area as mentioned in the Listing Agreement and
 the Companies Act, 2013 are as under:-
+•
 Oversight of the company’s financial reporting process and the disclosure of its financial information to ensure
 that the financial statement is correct, sufficient and credible;
+•
 Recommendation for appointment, remuneration and terms of appointment of auditors of the company;
+•
 Approval of payment to statutory auditors for any other services rendered by the statutory auditors.
+•
 Reviewing, with the management, the annual Financial Statements and auditor’s report thereon before submission
 to the board for approval, with particular reference to:
 a.
@@ -929,34 +992,52 @@
 Disclosure of any related party transactions
 g.
 Qualifications in the draft audit report
+•
 Reviewing, with the management, the quarterly financial statements before submission to the board for approval;
+•
 Reviewing, with the management, the statement of uses / application of funds raised through an issue (public
+ALCHEMIST LIMITED
+30
 issue, rights issue, preferential issue, etc.), the statement of funds utilized for purposes other than those stated in
 the offer document / prospectus / notice and the report submitted by the monitoring agency monitoring the
 utilization of proceeds of a public or rights issue, and making appropriate recommendations to the Board to take
 up steps in this matter;
+•
 Review and monitor the auditor’s independence and performance, and effectiveness of audit process;
+•
 Approval or any subsequent modification of transactions of the company with related parties;
+•
 Scrutiny of inter-corporate loans and investments;
+•
 Valuation of undertakings or assets of the company, wherever it is necessary;
+•
 Evaluation of internal financial controls and risk management systems;
+•
 Reviewing, with the management, performance of statutory and internal auditors, adequacy of the internal control
 systems;
+•
 Reviewing the adequacy of internal audit function, if any, including the structure of the internal audit department,
 staffing and seniority of the official heading the department, reporting structure coverage and frequency of internal
 audit;
+•
 Discussion with internal auditors of any significant findings and follow up there on;
+•
 Reviewing the findings of any internal investigations by the internal auditors into matters where there is suspected
 fraud or irregularity or a failure of internal control systems of a material nature and reporting the matter to the
 board;
+•
 Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as
 post-audit discussion to ascertain any area of concern;
+•
 To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders
 (in case of non-payment of declared dividends) and creditors;
+•
 To review the functioning of the Whistle Blower mechanism;
+•
 Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance
 function or discharging that function) after assessing the qualifications, experience and background, etc. of the
 candidate;
+•
 Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
 5.
 NOMINATION &amp; REMUNERATION COMMITTEE
@@ -978,10 +1059,16 @@
 attended
 Ms. Maria Fernandes
 Chairperson
+3
+3
 Ms. Ambika Chowdhary
 Member
+3
+3
 Mr. Vinay Kumar Mittal*
 Member
+3
+2
 Mr. Bikram Bhattacharya**
 Member
 NA
@@ -991,10 +1078,15 @@
 **Mr. Bikram Bhattacharya has been designated as Member of the Nomination &amp; Remuneration Committee by the
 Board of Directors in its meeting held on 27th May, 2019.
 The Nomination and Remuneration Committee is empowered-
+•
 To oversee the method, criteria and quantum of compensation for directors and senior management based on
 their performance and defined assessment criteria.
+ALCHEMIST LIMITED
+31
+•
 To identify persons qualified to become directors, and who may be appointed in senior management and
 recommend to the Board their appointment and removal.
+•
 To carry out evaluation of every Director’s performance.
 REMUNERATION POLICY
 The remuneration of the Board members is based on the Company’s size &amp; its economic &amp; financial position, industrial
@@ -1007,32 +1099,45 @@
 for attending the meetings of the Board and Committees thereof during the year are given herein above.
 6.
 STAKEHOLDERS RELATIONSHIP COMMITTEE
-The Stakeholders Relationship Committee was reconstituted by the Board of Directors consists of three Directors viz.
-(i)
-Ms. Ambika Chowdhary (Chairperson),
-(ii)
-Mr. Bikram Bhattacharya (Member) and
-(iii) Mr. Vinay Kumar Mittal (Member) {Resigned from the directorship of the Company w.e.f. 21-03-2019.}
-This Committee oversees and reviews all matters connected with redressal of Investor Grievances and complaints.
-The transfer of shares is undertaken by Link Intime India Pvt. Ltd., New Delh</t>
+The Stakeholders Relationship Committee was reconstituted by the Board of Directors</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7935</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.7799262795335066</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['risk management']</t>
+          <t>LSC, Near Savitri Market, Janakpuri, New Delhi - 110058</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Financial Statements</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>32968</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.7227276596147117</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['risk management', 'segment performance']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -1066,12 +1171,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Annexure VI
+          <t>29
+Annexure VI
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 Statements in the Management Discussion &amp; Analysis Report which seek to describe the Company’s objectives, projections, estimates,
 expectations or predictions may be considered to be “forward-looking statements” and are stated as required by applicable laws and
@@ -1123,6 +1229,7 @@
 50% free therapy to all poor patients. The division has been able to create a strong space in the minds of doctors through niche brands.
 The rampant spread of COVID-19 outbreak, across borders and geographies, has severely impacted almost the whole world and triggered
 significant downside risks to the overall global economic outlook and India is no exception. Due to the lockdown announced by the
+30
 Government of India from 25th March, 2020, entire operations of the Company came to a halt. The lockdowns and restrictions imposed on
 various activities due to the pandemic have posed challenges to the businesses of your Company.
 The moratorium on debts and interest payments have been a source of support in otherwise severely impacted liquidity and operating cash
@@ -1177,9 +1284,10 @@
 available in India. Milk is been always considered as very important source of Calcium. So at Alchemist we have extracted the Best Calcium
 available i.e. from Milk. This is the calcium that is vegetarian source unlike other supplements. Also Valcal-M is a milk mineral complex which
 means Valcal-M is more than just Calcium; it also additionally provides Copper, Iron, Manganese, Iron, Zinc, and Phosphorus and Vitamin D3
-which is also required by body for overall growth and other health benefits. Alchemist Valcal-M is also called as “Milk Pill of India”.Valcal-M
+which is also required by body for overall growth and other health benefits.  Alchemist Valcal-M is also called as “Milk Pill of India”.Valcal-M
 is chosen by all leading Gynecologists, Orthopedicians and Physicians for replenishing Calcium levels of India. It is also a part of QUIT INDIA
 revolution started by Alchemist.
+31
 Alchemist Brands Reach In Institutions
 Alchemist Pharma has emerged popular with the institutions where products are registered   with the premier institutes of the country
 like AFMSD, DGAFMS, Alchemist pharma has product queries from reputed hospitals like Post Graduate Institute Chandigarh. We are also
@@ -1239,6 +1347,7 @@
 Various business risk faced by the Pharma division.
 2.
 Time taken by executives to overcome from various new rules and regulations.
+32
 3.
 Extended credit allowed international and overseas trading causing fund blockage.
 4.
@@ -1268,11 +1377,17 @@
 of employees.
 In order to honour the aforesaid commitments, the Company has implemented systems in its operations that accord with the requirements
 of health, safety and environmental standards and strive to:
+-
 Assume its business and ethical responsibilities to exemplify its endeavour towards good corporate citizenship.
+-
 Continue to inspire innovations in methods &amp; practices and to ensure highest standards of health, safety and environment.
+-
 Comply with all applicable laws and regulations with regards to HSE and continually aspire to the highest standards in the same.
+-
 Commit to the continual reduction of waste and implement processes to ensure the reusability of natural resources.
+-
 Continually invest in the up-gradation of facilities, maintenance of machinery and welfare of our employees.
+-
 Constantly train and educate employees on contemporary best practices to ensure the highest levels of safety and sustainability in our
 operations.
 INDUSTRIAL RELATIONS &amp; HUMAN RESOURCE DEVELOPMENT
@@ -1291,271 +1406,50 @@
 affecting demand, supply, price conditions, change in Government’s regulations, tax regimes, the laws and other factors such as litigation
 and industrial relations.
 For and on behalf of Boards of Directors
-Alchemist Limited
-Place: New Delhi
+Date: 04.09.2020
+Place:  New Delhi
 Sd/-
 Bikram Bhattacharya
 (Whole-Time Director)
-Annexure-VII
-REPORT ON CORPORATE GOVERNANCE
-1.
-COMPANY’S PHILOSOPHY ON CORPORATE GOVERNANCE
-At Alchemist, the essence of Corporate Governance lies in establishing the highest standards in good Corporate Governance and
-to attain high level of transparency, integrity and accountability. Our policies and procedures exemplify our core values in utmost
-professionalism across all functions of our organization. The Company has, and will, continually endeavor to improve corporate
-practices, methodologies, and procedures to ensure that long term value is realized for all stakeholders of our organization. We aim
-to consistently offer our shareholders, customers, employees, vendors and the larger community mutually beneficial value through
-transparency in our associations, quality in our products and services, and integrity in our relationships. At Alchemist, we believe in
-maximizing stakeholder’s value, profitability and growth including interaction with employees, shareholders, institutions, banks and all
-its business associates. The Company has implemented all mandatory requirements.
-2.
-BOARD OF DIRECTORS
-(a) Composition of Board
-The Board of Directors of the Company comprises of 4 (Four) Directors as on 31-03-2020.
-During the Financial Year 2019-2020, 7 (Seven) Board Meetings were held viz.
-(i) 27th May, 2019
-(ii) 11th July, 2019
-(iii) 12th August, 2019
-(iv) 30th August, 2019
-(v) 30th September, 2019
-(vi) 11th November, 2019, and
-(vii) 12th February, 2020.
-The Composition of the Board of Directors as on March 31, 2020 with their attendance at the Board Meetings held during the year
-2019-20 and at the last Annual General Meeting is given below:
-Name of the
-Director
-Office/
-Designation
-Executive/
-Non-
-Executive
-Independent/
-Non-
-Independent
-No. of
-Board
-Meetings
-attended
-Attendance
-at the Last
-AGM
-No. of Other
-Director-ships
-Mr. Bikram
-Bhattacharya
-Whole Time
-Director
-Executive
-Non
-Independent
-Director
-6 meetings
-attended
-out of 7
-Yes
-Ms. Maria
-Fernandes
-Director
-Non-
-Executive
-Independent
-Director
-6 meetings
-attended
-out of 7
-Yes
-Ms. Ambika
-Chowdhary
-Director
-Non-
-Executive
-Independent
-Director
-Yes
-Mr. Charandeep
-Singh Jolly**
-Director
-Non-
-Executive
-Non
-Independent
-Director
-4 meetings
-attended
-out of 7
-NA
-Notes:
-**Mr. Charandeep Singh Jolly has been appointed w.e.f. July 11, 2019.
-(b) Details of Director Seeking Appointment/Re-appointment in the ensuing Annual General Meeting
-The brief background and functional experience of the Directors proposed for appointment/re-appointment or Director retire by
-rotation and offer himself for re-appointment are given below along with the details of the Companies in which they are directors
-and committees of which they are members.
-(I) Ms. Maria Fernandes has rich experiences in the field of management. She has served as Principal of Holy Cross Mission
-College; Coordinator, Regional Study Centre Kakatiya University; Director, St. Frencis College, Mumbai; Program Officer,
-Calicut University Centre Mumbai and Gen. Secretary, TFM Educational Society. Presently serving as Vice-Chairperson West
-Bengal Minorities Commission.
-Ms. Maria Fernandes is also a Chairperson and Member of the committees of other Companies (including this listed entity).
-(II) Mr. Charandeep Singh Jolly is having about 39 years of technical experience in the field of Sales, Marketing and Distribution
-of Pharmaceutical products in Companies including MNC’s.
-He is graduate in B.Sc. and diploma holder in Public Relations &amp; Advertising.
-Mr. Charandeep Singh jolly is not a Chairman but he is a Member of the Nomination and Remuneration Committee of the
-Company w.e.f July 11,2020.
-(c) Separate Meeting of Independent Directors
-(i)
-As stipulated by the Code of Independent Directors under the Companies Act, 2013 and SEBI (Listing Obligations and Disclosures
-Requirement) Regulations, 2015, a separate meeting of the Independent Directors of the Company was held on February 12, 2020,
-to review the performance of Non-independent Directors (including the Chairman) and the Board as whole. The Independent
-Directors also reviewed the quality, content and timeliness of the flow of information between the Management and the Board
-and it’s Committees which is necessary to effectively and reasonably perform and discharge their duties.
-(d) Remuneration of Directors
-(Rs. in Lakhs)
-Name of the director
-Salary inclusive of Perquisites and allowances
-Sitting fees
-Total
-Executive Directors
-Mr. Bikram Bhattacharya
-27.79
-Nil
-27.79
-Non-Executive Directors
-Ms. Maria Fernandes
-Nil
-0.60
-0.60
-Ms. Ambika Chowdhary
-Nil
-0.65
-0.65
-Mr. Vinay Kumar Mittal
-Nil
-Nil
-Nil
-Total
-27.79
-1.25
-29.04
-3.
-CODE OF CONDUCT
-As required by Regulations 26(3) of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015, the Company has
-adopted a Code of Conduct for its Directors and Senior Executives. The CEO and Whole Time Director have given a declaration that all
-the Directors and Senior Executives have affirmed the compliance with the Code of Conduct. A declaration to this effect signed by Mr.
-Charandeep Singh Jolly, Director and Mr. Anop Singh Negi, Chief Financial Officer of the Company is annexed as Annexure A to this
-report.
-4.
-AUDIT COMMITTEE
-MEETING AND ATTENDANCE
-During the year 2019-20 the Audit Committee of the Company was duly constituted and there are no changes in the composition of
-the Committee having the following member’s viz Ms. Maria Fernandes, Ms. Ambika Chowdhary and Mr. Bikram Bhattacharya.
-The Audit Committee met 5 (Five) times during the year on 27th May 2019, 11th July 2019, 12th August, 2019, 11th November, 2019 and
-12th February, 2020 was attended by members as under:
-Name of members
-Designation in the
-Committee
-No. of meetings held
-No. of meetings attended
-Ms. Maria Fernandes
-Chairperson
-Ms. Ambika Chowdhary
-Member
-Mr. Bikram Bhattacharya
-Member
-The Committee reviewed the Financial Results of the Company and recommended the same to the Board of Directors for their approval.
-The Company Secretary acts as Secretary of the Audit Committee.
-The role and terms of reference of the Audit Committee covers the area as mentioned in the Listing Agreement and the Companies Act,
-2013 are as under:-
-Oversight of the company’s financial reporting process and the disclosure of its financial information to ensure that the financial
-statement is correct, sufficient and credible;
-Recommendation for appointment, remuneration and terms of appointment of auditors of the company;
-Approval of payment to statutory auditors for any other services rendered by the statutory auditors.
-Reviewing, with the management, the annual Financial Statements and auditor’s report thereon before submission to the board
-for approval, with particular reference to:
-a.
-Matters required to be included in the Director’s Responsibility Statement to be included in the Board’s report in terms of
-clause (c) of sub-section 3 of section 134 of the Companies Act, 2013
-b.
-Changes, if any, in accounting policies and practices and reasons for the same
-c.
-Major accounting entries involving estimates based on the exercise of judgment by management
-d.
-Significant adjustments made in the Financial Statements arising out of audit findings
-e.
-Compliance with listing and other legal requirements relating to Financial Statements
-f.
-Disclosure of any related party transactions
-g.
-Qualifications in the draft audit report
-Reviewing, with the management, the quarterly financial statements before submission to the board for approval;
-Reviewing, with the management, the statement of uses / application of funds raised through an issue (public issue,
-rights issue, preferential issue, etc.), the statement of funds utilized for purposes other than those stated in the offer
-document / prospectus / notice and the report submitted by the monitoring agency monitoring the utilization of
-proceeds of a public or rights issue, and making appropriate recommendations to the Board to take up steps in this
-matter;
-Review and monitor the auditor’s independence and performance, and effectiveness of audit process;
-Approval or any subsequent modification of transactions of the company with related parties;
-Scrutiny of inter-corporate loans and investments;
-Valuation of undertakings or assets of the company, wherever it is necessary;
-Evaluation of internal financial controls and risk management systems;
-Reviewing, with the management, performance of statutory and internal auditors, adequacy of the internal control
-systems;
-Reviewing the adequacy of internal audit function, if any, including the structure of the internal audit department,
-staffing and seniority of the official heading the department, reporting structure coverage and frequency of internal
-audit;
-Discussion with internal auditors of any significant findings and follow up there on;
-Reviewing the findings of any internal investigations by the internal auditors into matters where there is suspected fraud
-or irregularity or a failure of internal control systems of a material nature and reporting the matter to the board;
-Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as post-
-audit discussion to ascertain any area of concern;
-To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders (in
-case of non-payment of declared dividends) and creditors;
-To review the functioning of the Whistle Blower mechanism;
-Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance function
-or discharging that function) after assessing the qualifications, experience and background, etc. of the candidate;
-Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
-5.
-NOMINATION &amp; REMUNERATION COMMITTEE
-The Nomination and Remuneration Committee constituted with terms of reference as per provisions of the Companies Act, 2013 and
-SEBI (Listing Obligations and Disclosure Requirement) Regulations, 2015.
-During the year 2019-20 there was a change in the composition of Nomination and Remuneration Committee of the Company due
-to appointment of Mr. Charandeep Singh Jolly as Non-Executive Director of the Company w.e.f. 11th July, 2019 and the Company re-
-constitute the Committee and appoint as a member of the Nomination and Remuneration Committee in its meeting held on 11th July,
-2019.
-MEETING AND ATTENDANCE
-The Committee met 3 (Three) times during the year on 27th May 2019, 11th July 2019, and 12th February, 2020 and was attended by
-members as under:
-Name of members
-Designation in the
-Committee
-No. of Meetings held
-No. of Meetings attended
-Ms. Maria Fernandes
-Chairperson
-Ms. Ambika Chowdhary
-Member
-Mr. Bikram Bhattacharya*
-Member
-Mr. Charandeep Singh Jolly**
-Member
-Notes:
-*Mr. Bikram Bhattacharya has been designated as Member of</t>
+DIN-03595530</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25113</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.7769338759032949</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['risk management', 'segment performance']</t>
+          <t>C- , Village Chanalon, Near Kurali, District Mohali , Punjab</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>Report on Corporate Governance</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.8195173137460651</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -1580,645 +1474,19 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>PRIMED
 TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-with the Stock Exchanges. Accordingly resolutions will be
-placed at the ensuing Annual General meeting (AGM) for their
-appointment as Independent Directors for a period of five
-consecutive years from the date of ensuing AGM not liable to
-retire by rotation.
-Further, the required resolutions for confirmation/appointment/
-re-appointment of the above Directors at the forthcoming
-Annual General Meeting are included in the Notice convening
-28th Annual General Meeting.
-Directors’ Responsibility Statement
-Your Directors state that:
-i.
-in the preparation of the annual accounts for the 18
-months period ended 31st March, 2015, the applicable
-Accounting Standards have been followed and there has
-been no material departure from the same;
-ii.
-the Directors have selected such accounting policies,
-consulted and applied them consistently and made
-judgments and estimates that are reasonable and prudent
-so as to give a true and fair view of the state of affairs of
-your Company as at 31st March, 2015 and of the profit of
-your Company for the period ended on that date;
-iii.
-the Directors have taken proper and sufficient care for
-the maintenance of adequate accounting records in
-accordance with the provisions of the Companies Act
-for safeguarding the assets of your Company and for
-preventing and detecting fraud and other irregularities;
-iv.
-they have prepared the annual accounts for the 18
-months period ended 31st March, 2015 on a ‘going
-concern’ basis and
-v.
-the Company has adequate internal systems and controls
-in place to ensure compliance of laws applicable to the
-Company.
-vi.
-the Directors have devised proper systems to ensure
-compliance with the provisions of all applicable laws and
-that such systems are adequate and operating effectively.
-Consolidated financial statements
-Your
-Company
-has
-prepared
-Consolidated
-Financial
-Statements in accordance with Accounting Standards AS-
-21, AS-23 and AS-27 issued by the Institute of Chartered
-Accountants of India. The Consolidated Statements reflect
-the results of the Company and that of its Subsidiaries, Joint
-Ventures and Associates.
-As required by clause 32 of the Listing Agreement with
-the Stock Exchanges, the Audited Consolidated Financial
-Statements together with the Auditors Report thereon are
-annexed and form part of this Annual Report.
-The Consolidated Financial Statements of the Company
-prepared as per the Accounting Standard AS-21 and
-Accounting Standard AS-23, consolidating the Company’s
-accounts with its subsidiaries and an associate have also been
-included as part of this Annual Report.
-Auditors
-Messrs Deloitte Haskins &amp; Sells LLP, Chartered Accountants
-(Firm Registration No.117366W/ W-100018), Statutory Auditors
-of the Company, hold office till the conclusion of the ensuing
-Annual General Meeting and are eligible for re-appointment.
-The Company has received a confirmation from Messrs Deloitte
-Haskins &amp; Sells LLP to the effect that their appointment, if
-made, at the ensuing AGM would be in terms of Sections 139
-and 141 of the Companies Act, 2013 and rules made there
-under and that they are not disqualified for re-appointment.
-Cost Auditor
-Pursuant to the directives of the Central Government under the
-provisions of the Companies Act, 2013, the Board of Directors
-at their meeting held on 28th May 2015 has appointed M/s
-B. J. D. Nanabhoy &amp; Co., Cost Accountants as Cost Auditors
-to conduct audit of cost records relating to the products
-manufactured by your Company for the Financial Year
-2015-16.
-Secretarial Audit
-Pursuant to provisions of Section 204 of the Companies Act,
-2013, the Board appointed Mr. Virendra G Bhatt, Practising
-Company Secretary, as Secretarial Auditor to carry out the
-secretarial audit for the financial year 2015-2016. Since the
-provisions relating to the disclosures are not applicable for the
-year under review, the secretarial audit report is not enclosed
-to the Boards’ report for the year ended 31st March, 2015.
-Particulars of Employees
-Your Directors appreciate the significant contribution made by
-the employees to the operations of your Company during the
-period.
-The information required on particulars of employees as
-per Section 217(2A) of the Companies Act, 1956, read with
-Companies (Particulars of Employees) Rules, 1975 is given in
-a separate Annexure to this Report. As per the provisions of
-Section 219(1) (b) (iv) of the Companies Act, 1956, the Report
-and Accounts are being sent to all shareholders of your
-Company excluding the Statement of Particulars of Employees
-(Annexure). Any shareholder interested in obtaining a copy of
-the said Annexure may write to your Company Secretary at the
-Corporate Office of your Company.
-More details on the Human Resources function of your
-Company and its various activities are given in the ‘Human
-Resources’ and ‘Sustainability’ sections of the attached
-Management Discussion &amp; Analysis.
-Vigil mechanism/ Whistle Blower Policy:
-The Company has formulated a vigil mechanism (whistle
-blower policy) for its directors and employees of the Company
-for reporting genuine concerns about unethical practices and
-suspected or actual fraud or violation of the code of conduct
-of the Company as prescribed under the Companies Act, 2013
-and Clause 49 of the Listing Agreement. This vigil mechanism
-Statutory Section
-Directors’ Report to the Members
-Innovative Textile Solutions 45
-shall provide a channel to the employees and Directors to
-report to the management concerns about unethical behavior,
-and also provide for adequate safeguards against victimization
-of persons who use the mechanism and also make provision
-for direct access to the chairperson of the Audit Committee in
-appropriate or exceptional cases.
-Conservation of Energy, Technology Absorption,
-Foreign Exchange Earnings and Outgo
-The information under Section 134 (3) (m) of the Companies
-Act, 2013 read with Rule 8(3) of the Companies (Accounts)
-Rules, 2014 for the year ended March 31, 2015 are annexed
-hereto and forms part of this report.
-Green Initiative by The Ministry Of Corporate
-Affairs
-The Ministry of Corporate Affairs (“MCA”) has taken a Green
-Initiative in Corporate Governance by permitting electronic
-mode for service of documents to Members (shareholders) as
-per relevant provisions of the Companies Act, 2013 (“the Act”).
-Pursuant to provisions of the Act, and rules made thereunder,
-service of documents to Members can be now made by
-electronic mode on the email address provided for the
-purpose of communication. If a Member has not provided an
-email address, other permitted modes of service would to be
-applicable.
-Your Company sincerely appreciates shareholders who have
-contributed towards furtherance of Green Initiative. We further
-appeal to other shareholders to contribute towards furtherance
-of Green Initiative by opting for electronic communication.
-The shareholders may also reach out to the Company/RTA
-by sending a request letter alongwith a self attested PAN
-copy. The request can also be made online on Alok website
-(www.alokind.com), post which the RTA would contact the
-concerned shareholder for the requisite documentation.
-This initiative will ease the burden on corporates (and the
-environment) of sending physical documents such as
-notices, annual reports etc. Those who have not provided
-their email address will continue to receive communications,
-dissemination, notice(s), documents etc. via permitted mode
-of service of documents. Further the shareholders, who
-request for physical copies, will be provided the same at no
-additional cost to them.
-The Company is providing e-voting facility for all Members to
-enable them to cast their votes electronically on all resolutions
-set forth in the 28th AGM Notice. This is pursuant, interalia,
-to Section 108 of the Companies Act, 2013 and Rule 20 of
-the Companies (Management and Administration) Rules 2014.
-The detailed instructions for e-voting are provided in the AGM
-Notice which is being sent separately as per prescribed mode
-of dispatch.
-Companies Act, 2013
-The Companies Act, 2013 was notified in the Official Gazette
-of the Government of India on August 29, 2013. On September
-12, 2013, the Ministry of Corporate Affairs (MCA) notified 98
-sections and on March 27, 2014, the MCA notified another 198
-sections, which were deemed to come into force with effect
-from April 1, 2014.
-The MCA vide Circular No. 08/2014 dated April 4, 2014 clarified
-that the financial statements and the documents required
-to be attached thereto, the auditors’ and directors’ report in
-respect of the financial year under reference shall continue to
-be governed by the relevant provisions of the Companies Act,
-1956, schedules and rules made there under.
-The Company has accordingly prepared this balance sheet,
-statement of profit &amp; loss, the schedules and notes thereto
-and the Directors’ Report in accordance with the relevant
-provisions of the Companies Act, 1956, schedules and rules
-made there under. The Company has taken cognisance of the
-new legislation and shall comply with the provisions of the
-Companies Act, 2013, as applicable.
-GENERAL
-Your Directors state that no disclosure or reporting is required
-in respect of the following items as there were no transactions
-on these items during the period under review:
-1.
-Details relating to deposits covered under Chapter V of
-the Act.
-2.
-Issue of equity shares with differential rights as to
-dividend, voting or otherwise.
-3.
-Issue of shares (including sweat equity shares) to
-employees of the Company under any scheme save and
-except ESOS referred to in this Report.
-4.
-Neither the Managing Director nor the Whole-time
-Directors of the Company receive any remuneration or
-commission from any of its subsidiaries.
-5.
-No significant or material orders were passed by the
-Regulators or Courts or Tribunals which impact the going
-concern status and Company’s operations in future.
-Your Directors further state that during the year under review,
-there were no cases filed pursuant to the Sexual Harassment of
-Women at Workplace (Prevention, Prohibition and Redressal)
-Act, 2013.
-Acknowledgements
-The Board of Directors wish to place on record its sincere
-appreciation for the support received from its stakeholders
-including shareholders, bankers, distributors, suppliers
-and business associates. The Directors recognize and
-appreciate the sincere, hard work, loyalty, dedicated efforts
-and contribution of all the employees that ensured sustained
-performance in a challenging business environment.
-For and on behalf of the Board
-Dilip B. Jiwrajka
-Managing Director
-Place: Mumbai
-Dated: 28th May 2015
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-ANNEXURE I
-PARTICULARS PURSUANT TO THE SECURITIES &amp; EXCHANGE BOARD OF INDIA (EMPLOYEES’ STOCK OPTION SCHEMES
-AND EMPLOYEES’ STOCK PURCHASE SCHEME) GUIDELINES, 1999
-Grant 3
-(a)
-Options granted
-23,044,650
-(b)
-Pricing Formula
-` 10.00
-(c)
-Options vested (Upto 31 March, 2015)
-19331900
-(d)
-Options exercised (Upto 31 March, 2015)
-202300
-(e)
-Total number of shares arising as a result of exercise of
-options
-202300
-(f)
-Options lapsed/surrendered (Upto 31 March, 2015)
-3712750
-(g)
-Variation of terms options (Upto 31 March, 2015)
-NA
-(h)
-Money realized by exercise of options
-(I)
-Total number of options in force (Upto 31 March, 2015)
-19129600
-(j)
-Employee wise details of options granted during the
-period ended 31.03.2015 to:
-Senior Management Personnel
-Nil
-Employees to whom more than 5% options granted
-during the period ended 31.03.2015
-Nil
-Employees to whom options more than 1% of issued
-capital granted during the period ended 31.03.2015
-Nil
-(k)
-Diluted EPS, pursuant to issue of shares on exercise of
-options
-2.53
-(l)
-Method of calculation of employee compensation cost
-Calculation is based on intrinsic value method
-Instrinsic Value per share
-Nil
-Difference between the above and employee
-compensation cost that shall have been recognized if it
-had used the fair value of the options
-Employee compensation cost would have been higher
-by ` 3,48,40,259/- had the Company used fair value
-method for accounting the options issued under
-ESOS
-Impact of this difference on Profits and on EPS of the
-Company
-Profits would have been lower by ` 3,48,40,259/-
-and EPS would have been lower by ` 0.02, had the
-Company used fair value method of accounting the
-options issued under ESOS
-(m)
-Weighted average exercise price
-` 10.00
-Weighted average fair value of options based on Black
-Scholes methodology
-` 1.82
-(n)
-Sigificant assumptions used to estimate fair value of
-options including weighted average
-Risk free interest rate
-8.71%
-Expected life
-Average life taken as 1 years from date of Vesting
-Expected volatility
-42%
-Expected dividends
-Not considered separately included, factored in
-volatility working
-Closing market price of share on a date prior to date of
-grant
-` 8.16
-Statutory Section
-Directors’ Report to the Members
-Innovative Textile Solutions 47
-(A) CONSERVATION OF ENERGY:
-In line with the company’s commitment towards
-conservation of energy, all units continue with their
-endeavor to make more efficient use of energy through
-improved operational and maintenance practices. The
-measures taken in this direction at the units are as under:
-1.
-Replaced inefficient motors with energy efficient
-motors;
-2.
-Installed power factor capacitor banks to save
-energy;
-3.
-Heat recovery from CRP hot water to boiler feed;
-4.
-Increase in temperature of feed water for saving on
-coal consumption in boilers;
-5.
-Shades were covered by installing Natural
-ventilation equipment;
-6.
-Load on air-conditioning plant reduced by
-introducing special methods;
-7.
-Caustic handling system has been installed on
-process machines;
-8.
-Made use of waste water generated by cooling coil
-moisture;
-9.
-Energy audits are being conducted periodically;
-10. Employees have been trained in energy
-conservation measures;
-11. Trimming of impellers to save on power
-consumption in chilled water pumps;
-12. Rain water harvesting for bore wells.
-(b) TECHNOLOGY ABSORBTION
-1.
-LED lights installed in place of florescent ones
-which are more energy efficient with minimum
-maintenance and long life.
-2.
-Conversion of DC to AC drive on machines,
-wherever possible.
-3.
-Installation of 28W tube with special reflectors in
-place of 40W tube with same illumination.
-4.
-Usage of coal gassifiers to enhance boiler utility
-and reduce utility cost.
-5.
-Bore wells are connected to one central tank
-and special arrangement being erected for water
-supply with centralized controls attached with level
-sensors.
-6.
-Installation of Energy Monitoring System for
-greater accuracy of energy consumption
-7.
-Replacement of fixed speed compressors with
-variable speed compressors.
-(c) Impact of the measures at (a) and (b) for reduction of
-energy consumption and consequent impact on the
-cost of production:
-The energy conservation measures undertaken have
-resulted in reduction in energy consumption and losses
-and improving the overall production performance.
-ANNEXURE II
-THE INFORMATION UNDER SECTION 134 (3) (M) OF THE COMPANIES ACT, 2013 READ WITH RULE 8 (3) OF THE COMPANIES
-(ACCOUNTS) RULES, 2014 FOR THE PERIOD ENDED 31ST MARCH 2015 IS GIVEN HEREIN BELOW AND FORMS PART OF
-THE DIRECTORS’ REPORT.
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-FORM “A”
-Form for disclosure of particulars with respect to conservation of energy
-A)
-Power &amp; Fuel Consumption for the period ended 31.03.2015
-2014-15
-2012-13
-1)
-Electricity Purchased
-Units:
-940,080,365
-Total amount (` in crores )
-459.67
-506.54
-Average Rate/Unit (`)
-4.89
-4.27
-2)
-Own Generation through Diesel Generator Set
-Units:
-402,161
-Total amount (` in crores)
-0.80
-102.89
-Average Rate/Unit (`)
-19.98
-7.55
-3)
-Own Generation through Co-generation
-Units
-1,88,47,763
-Total amount (` in Crores)
-7.55
-Average Rate/Unit (`)
-4.01
-4)
-Own Generation through Gas Turbine
-Units
-4,72,28,007
-Total amount (` in Crores)
-34.28
-Average Rate/Unit (`)
-7.26
-5)
-a)
-Furnace Oil consumed
-Total amount (` in crores)
-61.45
-10.44
-b)
-Natural Gas consumed
-Total amount (` in crores)
-86.56
-428.95
-c)
-Coal consumed
-Total amount (` in Crores)
-102.55
-30.50
-d)
-Diesel Consumed
-Total amount (` in Crores)
-1.30
-5.02
-e)
-Electricity Duty Paid
-1.73
-4.05
-B)
-Consumption per unit of production
-2014-15
-2012-13
-a)
-Yarn (Kgs)
-Units Consumed (per kgs)
-1.13
-1.11
-b)
-Fabric Knits (Kgs)
-Units Consumed (per kgs)
-0.52
-0.51
-c)
-Fabric Woven (Mtrs)
-Units Consumed (per mtrs)
-0.13
-0.30
-d)
-Processing Woven (Mtrs)
-Units Consumed (per mtrs)
-0.29
-0.27
-e)
-Processing Knits (Kgs)
-Units Consumed (per kgs)
-1.41
-1.94
-f)
-Garments (Pcs)
-Units Consumed (per pcs)
-0.42
-0.31
-g)
-Madeups (Sets/Pcs)
-Units Consumed (Per Sets/Pcs)
-0.50
-0.19
-h)
-Poy (Kgs)
-Statutory Section
-Directors’ Report to the Members
-Innovative Textile Solutions 49
-B)
-Consumption per unit of production
-2014-15
-2012-13
-Units Consumed (per Kgs)
-0.38
-0.39
-i)
-Spinning (Kgs)
-Units Consumed (per Kgs)
-4.98
-4.11
-j)
-Handkerchief (Pcs)
-Units Consumed (per pcs)
-0.03
-0.05
-k)
-Chips (Kgs)
-Units Consumed (per kgs)
-0.18
-0.14
-l)
-FDY (Kgs)
-Units Consumed (per kgs)
-1.19
-1.11
-m) Packing Material (Pcs)
-Units Consumed (per Pcs)
-0.06
-0.05
-n)
-Embroidery Fabric (mtrs)
-Units Consumed (per mtrs)
-0.58
-0.75
-o)
-Polyester Staple Fiber (Kgs)
-Units Consumed (per kgs)
-0.42
-0.50
-p)
-Yarn Dyed (kgs)
-Units Consumed (per kgs)
-1.68
-1.76
-q)
-Terry Towel (Kgs)
-Units Consumed (per kgs)
-4.43
-1.17
-(B) TECHNLOGY ABSORPTION
-Research and Development (R &amp; D)
-The Company has well established R &amp; D facilities for carrying out research in areas of technical textiles and polyester yarn.
-The company Incured following expenditure on R &amp; D during the period.
-(` In Crore)
-Plant Location
-Capital
-Recurring
-Total
-Silvassa
-10.28
-12.80
-23.08
-Vapi
-0.10
-0.10
-Head Office
-1.97
-0.30
-2.27
-Total
-12.25
-13.20
-25.45
-Total R &amp; D Expenditure as a percentage of total turnover
-0.11%
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
-C)
-Foreign Exchange Earnings and Outgo
-2014-15
-2012-13
-i)
-Total Earnings of Foreign Exchange
-FOB Value of Exports
-3513.82
-4667.74
-Total
-3513.83
-4667.74
-ii)
-Total Outgo in Foreign Exchange
-Commission to sales
-10.26
-23.15
-Interest on Fixed Loan
-186.67
-86.01
-Legal and Professional Fees
-1.85
-4.32
-Marketing Service charge
-219.98
-113.34
-Sales Promotion Expenses
-3.54
-2.74
-Bank Charges
-5.77
-8.77
-Miscellaneous Expenses
-11.75
-11.60
-Total
-439.82
-249.93
-Innovative Textile Solutions 51
-Management Discussion
-and Analysis
-Statutory Section
-Directors’ Report to the Members | Management Discussion and Analysis
-PRIMED
-TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
+52
 Management Discussion And Analysis
 With manufacturing facilities primarily in India, Alok Industries
 is an integrated textiles manufacturer that is developing global
@@ -2275,6 +1543,7 @@
 declining confidence, and the repercussions of the oil price
 decline point to a more severe weakening of the outlook in
 the Commonwealth of Independent States (CIS) as a whole for
+CY2015 and CY2016.
 With the advanced economies regaining steam, its imports
 have increased (see chart B). Unlike in the recent past, in
 CY2014 the growth in imports of advanced economies did not
@@ -2310,12 +1579,16 @@
 Emerging and
 Developing
 Economies
+2013
+2014
 2015 (P)
 Chart B: Global Trade (% growth)
 Imports-Advanced
 Economies
 Exports-Emerging
 Economies
+2013
+2014
 2015 (P)
 2.1
 3.3
@@ -2325,7 +1598,7 @@
 5.3
 Statutory Section
 Management Discussion and Analysis
-Innovative Textile Solutions 53
+Innovative Textile Solutions    53
 Four things have affected the pricing dynamics. First, demand
 is low because of weak economic activity, increased efficiency,
 and a growing switch away from oil to other fuels. Second,
@@ -2406,6 +1679,8 @@
 Chart C: Crude Oil Futures (CLM-5)
 US$/Barrel
 Chart D: Prices (% growth)
+2013
+2014
 2015 (P)
 Oil
 Non-oil Commodities
@@ -2428,7 +1703,7 @@
 Chart E: Real GVA Growth, India
 PRIMED
 TO UNLOCK VALUE
-28th Annual Report | 1st October, 2013 to 31st March, 2015
+54
 However, it is only fair to say that while trends may be in the
 right direction, India has not yet seen the kind of investments
 needed in the real sectors of the economy to regain its earlier
@@ -2496,26 +1771,58 @@
 S
 No
 Region
+2013
+2025
 CAGR
+1
 EU-27
+355
+440
 2%
+2
 US
+230
+285
 2%
+3
 China
+165
+540
 10%
+4
 Japan
+110
+150
 2%
+5
 Brazil
+60
+100
 5%
+6
 India
+46
+200
 12%
+7
 Russia
+45
+105
 8%
+8
 Canada
+30
+50
 4%
+9
 Australia
+25
+45
 5%
+10
 Rest of the world
+80
+195
 8%
 Total
 1,146
@@ -2575,30 +1882,699 @@
 RBI Exchange rate Rupee per $
 Statutory Section
 Management Discussion and Analysis
-Innovative Textile Solutions 55
+Innovative Textile Solutions    55
 Given that consumption centres for apparel are in different
 regions compared to production centres, there is a flourishing
 world trade that supports the global apparel industry. In fact,
 world trade in textile and apparel grew in 2014 and is estimated
-to be US$821 Bn. The overall trade is expected</t>
+to be US$821 Bn. The overall trade is expected to grow at a
+CAGR of 6.6% up to 2020 and reach US$1,180 by the end of
+this decade.
+Source: UN Comtrade, WTO, Wisedge Analysis
+In terms of categories, apparels continue to be the largest
+segment in global textiles and apparel trade with a share of
+56%; while fabric accounts for 17%;yarn and fibre is 7%
+and 6% respectively; while made-ups ins 4% (see chart H).
+However, in terms of growth in the period between 2005 and
+2013, the fastest category was fibre with a CAGR of 9.4%,
+followed by apparel (CAGR: 6.8%); made-ups (CAGR: 6.4%);
+yarn (CAGR: 5.1%); and fabric (CAGR: 4.1%).
+Chart H: Sector-wise break up of Global Textile
+and Apparel Trade (2013)
+Source: UN Comtrade, CII Knowledge Report
+Imports of Textiles and Apparel
+Import demand for textiles and apparel at the global level
+continues to be driven by the advance economies of USA
+and EU. Together, they continued to account for 52% of
+global imports. Japan, also has a high share of 7% and
+imports grew at a fast pace of 9% during 2005-2013.
+Table 2 lists textiles and apparel imports for various countries
+over the last eight years.
+Table 2: Textiles and Apparel Imports (US$ billion)
+Country
+2005
+2010
+2011
+2012
+2013
+CAGR (2005-13)
+USA
+97
+100
+108
+108
+131
+4%
+China &amp; Hong Kong
+55
+57
+65
+67
+69
+3%
+Germany
+36
+48
+57
+50
+62
+7%
+Japan
+27
+33
+41
+42
+54
+9%
+The United Kingdom
+31
+33
+37
+31
+39
+3%
+France
+25
+28
+31
+28
+31
+3%
+Italy
+21
+26
+30
+25
+29
+4%
+Spain
+14
+18
+20
+17
+20
+5%
+The Netherlands
+9
+12
+15
+14
+16
+8%
+Russian Federation
+2
+9
+11
+13
+12
+25%
+Rest
+154
+235
+308
+313
+308
+9%
+Total
+473
+598
+723
+707
+770
+6%
+* EU27
+196
+233
+269
+235
+270
+4%
+Source: UN Comtrade
+2005
+2011
+2012
+2013
+2014 (E)
+2020
+473
+723
+707
+770
+821
+Chart G: Global Textile and Apparel Trade
+(US$ billion)
+1180
+Made Ups
+4%
+Others
+10%
+Fabric
+17%
+Yarn
+7%
+Apparel
+56%
+Previous Year
+Fiber
+6%
+PRIMED
+TO UNLOCK VALUE
+56
+US Imports: After a slight drop in 2012, US apparel and textile
+imports have been growing steadily every year. In calendar
+year (CY) 2014 the total US textile and apparel imports grew
+by 2.6% over the previous year. The domestic US market for
+textiles and Apparel was healthy during 2014. Domestic mill
+production grew around 3.5% in 2014, which was higher than
+import growth. There has been a trend towards promoting
+domestic production and import growth has been affected.
+The market demand is expected to continue growing steadily
+in 2015, but there will be greater impediments to imports
+some easing out of cost arbitrage opportunities with domestic
+players improving operational cost. So while opportunity
+for exports to USA persists, competition continues to get
+cut throat not only amongst exporting countries but from a
+stronger domestic production base.
+Source: OTEXA
+Table 3 illustrates that even though China is the largest
+import partner for US, due to a variety of reasons including
+increased domestic costs, the exchange rate appreciation
+of the Yuan compared to the dollar, and environment related
+cost increments, China’s import growth to USA has reduced in
+2014. In fact, Vietnam and India are growing much faster. They
+are also looking to diversify from Bangladesh in recent times
+due to social compliance issues. Hence, going forward the
+opportunity for India and Vietnam should increase to further
+penetrate US markets.
+Table 3: US Textiles and Apparel Imports
+(Leading countries)
+SN
+Export Country
+2013
+2014
+%
+Growth
+%
+Share
+1
+China
+41,675
+41,820
+0%
+39%
+2
+Vietnam
+8,772
+9,955
+13%
+9%
+3
+India
+6,299
+6,717
+7%
+6%
+4
+B’Desh
+5,105
+5,005
+-2%
+5%
+5
+Indonesia
+5,230
+5,065
+-3%
+5%
+6
+Mexico
+4,650
+4,775
+3%
+4%
+7
+Total
+104,725 107,460
+3%
+68%
+Source: OTEXA
+EU Imports: EU is also a major import market constituting 35%
+of global textile and apparel trade. EU imports had declined in
+2011 and 2012, which was the major reason for the contraction
+in global trade. Of the 2% total growth in textiles and apparel
+imports of EU28 countries, 3.3% was on account of textiles,
+while 1.6% was driven by apparel.
+Source: Eurostat, (data for EU 28)
+Indian Textile and Apparel Market Overview
+The size of the Indian textile and apparel industry is estimated
+to reach US$ 200 Bn by 2020 from an estimated size of US$
+111 Bn in 2014. It is expected to grow at a CAGR of 10.3%
+from 2014 to 2020 to reach US$ 200 Bn, on account of growth
+emanating from both the domestic and export markets. The
+size of the export market is expected to reach US$ 80 Bn from
+estimated US$ 44 Bn in the corresponding period. Whereas,
+the size of the domestic market is estimated to reach US$ 120
+Bn by 2020 from US$ 67 Bn (E) in 2014.
+Source: Ministry of Textiles, secondary sources &amp; Wisedge Analysis
+India Textile and Apparel Export Market
+With a 5% share of global textile and apparel trade, India has
+emerged as the second largest exporter of textile and apparel
+in 2013. The Indian export market is expected to grow at a
+CAGR of 10.5% between 2014 and 2020 to reach US$ 80
+Bn. Chinese and other major countries exports are facing
+challenges in terms of higher wages, political instability, high
+inflation, currency appreciation and concerns over workplace
+conditions, India is likely to attract more business in years to
+come.
+2012
+2014
+2013
+100.9
+104.7
+107.5
+Chart I: US Textiles and Apparel Import
+Chart J: EU T&amp;A Imports- (EURO bn)
+Textiles
+Apparel
+2011
+2012
+2013
+23
+2010
+27
+24.52
+5.3
+63
+68
+65.9
+67
+2005
+2013
+2014
+2020 (E)
+45
+Chart K: Indian Textile and Apparel Industry
+Size &amp; Projections (US$ bn)
+Exports
+Domestic
+Total
+101
+111
+200
+80
+120
+67
+44
+40
+61
+28
+17
+Statutory Section
+Management Discussion and Analysis
+Innovative Textile Solutions    57
+Source: Ministry of Textiles, UN Comtrade &amp; Wisedge Analysis
+Chart M: Category wise Exports
+Source: DGFT, Ministry of Commerce, Wisedge Analysis
+Apparel and yarn are the largest export categories for India. Apparel contributes about 40% of India’s textile exports, followed
+by yarn at 18%. Fibre, Fabric and made-ups contributed to 12% of the exports each. With more focus on “Make in India” and
+export of value added finished products, overall exports are expected to increase further for apparel and home textiles etc.
+Table 4: Category wise Growth of India’s T&amp;A Exports (USD Mn)
+SN
+Categories
+2012-2013
+2013-2014
+2014-15 (E)
+Growth in  last
+1 Yr
+Growth in last
+2 Years
+1
+Apparel
+12,962
+15,001
+16,663
+11%
+29%
+2
+Made Ups
+4,039
+4,457
+4,661
+5%
+15%
+3
+Fabric
+696
+890
+1,041
+17%
+50%
+4
+Yarn
+4,169
+4,654
+4,588
+-1%
+10%
+5
+Fiber
+9,590
+10,570
+8,326
+-21%
+-13%
+6
+Others
+1,738
+1,903
+2,168
+14%
+25%
+7
+Total
+33,195
+37,475
+37,447
+0%
+13%
+Source: DGFT, Ministry of Commerce, Wisedge Analysis
+Category wise break up of India’s export in textile and apparel
+shows that overall exports has increased by 13% in last 2
+years. Overall Exports in 2014-15 are almost same as previous
+year mainly due to decreasing trend of cotton fiber exports
+out of India. Apparel exports in 2014-15 have increased by
+11% over 2013-14 and by 29% over 2012-13. This is mainly
+due to increased focus on value added exports and change
+in exchange rates. Made up exports have grown by 15% in
+last 2 years. Fabric exports have also increased by 50% over
+last 2 years and this is mainly due to increased exports of
+fabric to countries like Bangladesh and Vietnam for converting
+into apparel. As can be observed there is a good demand
+for finished products and the Company is also focussing on
+exports of value added items.
+Domestic market scenario in Textile and
+Apparel:
+Chart N: Textiles and Apparel Domestic Market
+(US$ bn)
+Source: Ministry of Textiles, UN Comtrade &amp; Wisedge Analysis
+The Indian domestic market is expected to reach US$ 120 Bn
+by 2020 from US$ 61 Bn in 2013. As per Images yearbook report
+2015, the market size for Apparel In India in 2014 was around
+` 2,49,000 crores. As the USD exchange rate has changed a
+Technical
+Textiles
+Home
+Textiles
+Apparel
+Total
+2005
+2013
+2020
+21
+45
+12
+24
+7
+89
+2
+4
+28
+61
+120
+5
+Textiles
+Apparel
+Total
+2005
+2012
+2013
+2020
+8
+13
+16
+35
+45
+17
+33
+40
+80
+24
+9
+20
+Chart L: Textile and Apparel Exports of India
+(US$ bn)
+Break-up of India’s Textiles &amp;
+Apparel exports 2013-14(%)
+Apparel
+40%
+Yarn
+18%
+Fabric
+12%
+Fibre
+12%
+Made ups
+12%
+Others
+6%
+PRIMED
+TO UNLOCK VALUE
+58
+lot over last 1 year the market size at current exchange rate of
+1 USD = ` 63 is lower in terms of USD but in terms of ` it has
+grown in 2014 by around 10. Increasing demand for apparels
+is due to increase in per capita consumption, rising disposable
+incomes, rising fashion consciousness, internet and smart
+phone growth in smaller cities,  growth of organized retail and
+e-commerce etc.
+Outlook
+The Indian textile industry has the potential to double itself
+in size over the next 6-7 years. Among the major competing
+nations, China is losing its competitive advantage in textile
+mainly on account of increasing labor costs, appreciating
+Yuan, rising power costs, focus on domestic market and
+also due to conscious strategy to move towards higher value
+additions industries.
+Other major exporting countries like Pakistan and Bangladesh
+are facing geo-political issues. In this scenario all major
+export markets like USA, Europe, Japan and Australia are
+increasingly looking to shift a large portion of their sourcing
+pie. India is well placed to fill this gap since its entire major
+costs like cotton, yarn, power, wages, dyes and chemicals are
+today globally competitive. In addition, the government also
+has been supportive for the industry and in order to unlock the
+complete potential of India, more efforts are needed from the
+industry as well as the government.
+A ‘Make in India’ campaign covering 25 sectors, including the
+textile and garment industry, has been unveiled by the Prime
+Minister in the presence of big names from the corporate world
+of India and abroad at a ceremony in New Delhi.
+The ‘Make in India’ scheme also puts in place the logistics
+and systems to address in a timely manner queries of potential
+investors. At present, the Government of India allows 100%
+foreign direct investment (FDI) under the automatic route in
+the textile sector, subject to all applicable regulations and
+laws, which effectively backs the make in India program for
+the textile and garment industry.
+Under the ‘Make in India’ initiative, investment opportunities
+for foreign companies and entrepreneurs are available across
+the entire value chain of synthetics, value-added and specialty
+fabrics, fabric processing set-ups for all kinds of natural and
+synthetic textiles, technical textiles, garments, and retail
+brands.
+Technology Up-gradation Fund Scheme (TUFS): This
+scheme, which was launched by the Ministry of Textiles on
+April 1, 1999 has given major thrust for the sector. SIDBI is
+the nodal agency for the SSI in the textile and cotton ginning
+and pressing sector. This Scheme aims at making available
+funds at competitive rates to the domestic textile industry for
+technology up-gradation of existing units as well as to set up
+new units with state-of-the-art technology so that its viability
+and competitiveness in the domestic as well as international
+markets may enhance.
+The Cabinet Committee on Economic Affairs late in August
+2014 gave its approval for continuing the TUFS during the 12th
+Plan period with a major focus on power looms in accordance
+with the Budget announcement for the financial year 2013-14.
+The total budget outlay for continuation of the scheme will be
+about ` 11,900 crore, out of which ` 2,400 crore was allocated
+for 2013-14. The scheme is one of the flagship schemes of
+the Ministry of Textiles and has helped the industry to garner
+investments of ` 2,430 crore. The scheme is expected to
+generate 11.5 % annual growth in volume terms in cloth
+production and 15% in value exports by increasing domestic
+value addition and technological depth and by enhancing
+the global competitiveness of textile products to generate an
+additional employment to 15.81 million workers.
+Concerns of the sector:
+The sector continues to face certain concerns, which need to
+be ironed out by companies in the industry and the government
+working in tandem. Some of the issues are highlighted below.
+Preferential tax regime: The textile sector has not got its due
+under the new Foreign Trade Policy (FTP) despite it being one
+of the largest employment providers in country. According to
+cotton textiles export promotion council or (TEXPROCIL) the
+industry faces the challenges of high tariffs barriers on account
+of preferential tariff arrangements. Duty sops of 2% only were
+granted to the mainstream cotton textile products, while higher
+rates were given for handlooms, carpets, coir products under
+the merchandise exports from India scheme (MEIS).
+Further, man-made textile industry which is highly capital
+intensive and the only sector capable of attracting FDI has
+been discriminated against vis-à-vis the cotton industry. The
+sector which can help the government achieve its ambitious
+target has not been mentioned in the list of items granted
+liberal MEI’S benefits under the FTP announced on the first
+of April.
+MMF textiles that contributes ` 7000 crore as taxes and holds
+high potential has been given lower reward in the FTP’s new
+scheme. For Europe and the US, MMF products have been
+given lower incentives as compared to cotton textiles.
+Further, the benefits for promoting exports to major emerging
+markets for MMF textiles such as Latin America, Far East
+and African countries have been completely stopped in the
+new FTP without giving the sector’s exporters any scope for
+adjustment.
+Import of second hand machinery: Import of second-hand
+textile machineries is hitting the local textile industry. Many
+old machines are imported, into the country, which are more
+than 10 years old, particularly in the weaving segment. With
+the global textile industry moving out of the Western world,
+mills are looking to dump machinery into markets like India.
+Rigid and dated labour laws: The current labour laws have been
+a major reason behind the inability of the sector to expand
+and acquire global scale. This is specifically valid for ‘cut and
+sew’ operations, where the labour involvement is maximum
+compared to other steps of the manufacturing value chain.
+Hence, in order to attract large-scale investments, acquire
+global scale and bring the Indian sector at par with other
+Statutory Section
+Management Discussion and Analysis
+Innovative Textile Solutions    59
+competing countries, there is an immediate need to review the
+labour laws to make them investor and labour friendly. Ideally
+the 44 labour laws, most of which were drafted in the earlier
+part of the last century, need to be repealed and replaced
+by one, or at best a few, user-friendly law(s) suited to the
+conditions of the 21st century.
+Lack of economies of scale: Lack of economies of scale is
+a major issue in Indian textile and apparel manufacturing
+sector. Countries like China and Bangladesh have developed
+large production set-ups, whereas smaller units, which lack
+economies of scale and have a low level of technology,
+dominate the Indian textile sector. Due to lack of large
+manufacturing capacities Indian manufacturers are unable to
+cater to large orders and become globally competitive.
+Business Strategy
+Alok Industries (‘Alok’ or ‘the Company’) is primarily an
+integrated business operation with a presence across the entire
+value chain of cotton and polyester. The business continues to
+leverage opportunities to optimise financial returns but gaining
+from its integrated operations and presence across the value
+chain. In addition, the Company has expanded its markets
+with a customer base that spans across global territories. This
+integrated diversified model provides the opportunity to adjust
+production and sales across product segments according to
+independent market fluctuations.
+Essentially, business growth is driven by the following levers:
+•
+Preferred Vendor status with leading Global Brands &amp;
+Retailers and established relationships
+•
+Critical supplier for buyers due to Quality, Cost &amp;
+Delivery (QCD)
+•
+Economies of scale provides competitive advantage
+•
+Forward and backward Integration leading to sustained
+margins
+•
+Wide range of products across different market
+segments
+•
+In-house product development and designing strength
+•
+State-of-the-art manufacturing facilities with world class
+infrastructure viz., captive power plants, reverse osmosis
+ETP, housing colonies, fire brigades, training centers, etc.
+Apart from the diversification in product and markets, there
+are two essential characteristics of the Company’s business
+model – focus on value added products and reaping benefits
+of creating global scale of operations, which are essential to
+compete in the global market place and leverage opportunities
+to create long term value.
+Creating the manufacturing and operations facilities of
+such scale and product diversity has entailed large scale
+investments, much of which has been financed by debt. In
+addition, economic conditions in the last few years have been
+such that the regular operations have also warranted exposure
+to credit terms and requirements of working capital in line with
+the scale of operations.
+Consequently, while the Company has created and developed
+the requisite foundation to leverage global market opportunities
+and embark on an accelerated growth path, Alok is today,
+having to deal with a  financially leveraged balance sheet. This
+is a natural phase of such investment led growth objectives.
+There is always a time lag between creating infrastructure and
+generating sufficient returns from the investments incurred.
+Today, Alok Industries is in this phase and there are certain
+important strategic decisions that have to be implemented in
+this interim period.
+The focus is on reaping maximum benefits from existing assets
+and developing capital structures that minimise finance costs.
+Therefore, the Company is now implementing a management
+system that continuously stresses on maximising Return on
+Capital Employed (ROCE) across different layers and sectors
+of the Company’s business operations. In addition, there are
+active efforts at reducing the cost of debt and deleveraging the
+balance sheet. On a specific note, there is a concerted effort
+at developing innovative financial structures to dollarize its
+debt and secure low cost international finance that is hedged
+against currency fluctuations by the Company’s growing
+exports.
+In a bid to further diversify the business risks and leverage
+market opportunities, the Company had also invested into
+certain new initiatives that were in addition to its core textiles
+manufacturing operations out of India.
+This included acquisitio</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17599</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.7601681179087036</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Management Discussion &amp; Analysis</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Balance Sheet</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>15167</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.7516244296630201</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -2632,16 +2608,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>FAITH FOCUS COMMITMENT
-29th Annual Report | 1st April, 2015 to 31st March, 2016
+46
 Management Discussion
 and Analysis
-Innovative Textile Solutions 47
+Innovative Textile Solutions    47
 STATUTORY SECTION
 Management Discussion and Analysis
 Alok Industries (‘Alok’ or ‘the Company’) is one of India’s leading
@@ -2725,7 +2701,7 @@
 and sizable pool of underutilized labor.
 Management Discussion and Analysis
 FAITH FOCUS COMMITMENT
-29th Annual Report | 1st April, 2015 to 31st March, 2016
+48
 The recovery in the Euro Area is progressing at a moderate pace,
 supported by an exceptional level of monetary policy accommodation,
 low oil prices, and slightly expansionary ﬁ scal policies. However,
@@ -2793,7 +2769,7 @@
 like the ones for start-ups and the ‘Make in India’ campaign are yet
 to be meaningfully implemented. The all-important reform of Goods
 and Services Tax (GST) remains a legislative challenge. Hopefully,
-Innovative Textile Solutions 49
+Innovative Textile Solutions    49
 STATUTORY SECTION
 Management Discussion and Analysis
 the GST Bill will be passed in the course of 2016-17, as it must for
@@ -2831,28 +2807,50 @@
 Table 1: Global Apparel Market Consumption (US$ Bn)
 Apparel Market size projections for 2025 (USD bn)
 Region
+2015
 Projected
 CAGR
+2025
 EU 28
+350
 1%
+390
 USA
+315
 2%
+385
 China
+237
 10%
+615
 Japan
+93
 1%
+105
 India
+59
 12%
+180
 Brazil
+56
 5%
+90
 Russia
+40
 4%
+59
 Canada
+25
 2%
+30
 Row
+510
 4%
+746
 Total
+1685
 4%
+2600
 Source: Wazir Advisors Analysis, Note*Estimates
 Per capita apparel consumption in developing countries like India and
 China is expected to increase by more than 2 times in next 10 years
@@ -2863,19 +2861,54 @@
 Table 2: Per Capita Consumption of textiles and Apparel
 in US$ Bn
 Country
+2015
+2025
 USA
+980
+1114
 Japan
+780
+980
 Canada
+690
+854
 Australia
+711
+846
 EU-28
+702
+732
 China
+159
+402
 Russia
+286
+390
 Brazil
+270
+372
 India
+44
+123
 Source: Wazir Analysis
 Chart F: Per Capita Consumption of Apparel from 2015 to 2025(in
 US $)
+978
+736
+683
+693
+172
+270
+282
+45
 1,116
+855
+768
+766
+435
+404
+390
+123
 United
 States
 Japan
@@ -2885,6 +2918,8 @@
 Brazil
 Russia
 India
+2015
+2025
 Source: Wazir Analysis
 Along with the growing consumption, global textile and apparel trade
 is estimated at US$820 bn and has grown at 5.6% CAGR since 2005
@@ -2903,7 +2938,7 @@
 continued to account for 52% of global imports. Japan, also has a high
 share of 7% and imports grew at a fast pace of 9% during 2005-2013.
 FAITH FOCUS COMMITMENT
-29th Annual Report | 1st April, 2015 to 31st March, 2016
+50
 EU imports: Data from European Textile and Apparel Confederation
 (EURATEX) suggests that overall import of clothing and textiles into
 Europe across all product types increased 9.6% to Euro 104.9 bn (US$
@@ -2975,36 +3010,52 @@
 cut-throat.
 Thus, the global textile market is expected to grow and the key take
 aways are:
+•
 The global apparel consumption will increase from USD 1.7
 trillion in 2015 to USD 2.6 trillion by 2025
+•
 Developing / Emerging economies will drive the apparel market
 growth
+•
 Per Capita expenditure on apparel in developed countries in a
 decade from now will still be far more than that in developing
 nations
+•
 China and India will be the fastest growing apparel markets, both
 growing in double digits
+•
 China will become the biggest apparel market adding more than
 USD 378 bn in market size by 2025. India will be the second
 most attractive apparel market adding USD 121 bn by 2025
 Indian Textile and Apparel Market Overview
 Textile plays a major role in the Indian economy because of its
 following contributions:
+•
 Largest producer of Cotton in the world
+•
 Largest producer of Jute in the world
+•
 2nd Largest producer of Silk in the world
+•
 2nd Largest producer of Man-made staple ﬁ ber
+•
 10th Largest producer of Wool with production
 The Indian Textile and Apparel Industry have following inherent
 Strengths:
+•
 Raw material availability
+•
 Presence in complete value chain
+•
 Big domestic market
+•
 Large pool of skilled workers at comparative less wage rates
+•
 Capability to process small lots with good design development
+•
 Alignment with Government ﬂ agship schemes and initiatives like
 ‘Make in India’ &amp; ‘Skill India’
-Innovative Textile Solutions 51
+Innovative Textile Solutions    51
 STATUTORY SECTION
 Management Discussion and Analysis
 The size of India’s textile market in 2014 was US$76 bn, which is
@@ -3026,6 +3077,7 @@
 kg in 1998-99 to 9959 mn kg in 2013-14, man-made ﬁ bre increased
 from 782 mn kg to 1307 mn kg during the same period at a CAGR
 of 5%. (Table 3 gives details) Production of yarn increased from
+2808 mn kg in 1998-99 to 6707 mn kg in 2013-14 at a CAGR of4%.
 Fabric production increased from 35542 mn square meter in 1998-99
 to 63500 mn square meter in 2013-14 at a CAGR of 4%. Garment
 production increased from 6228 mn pieces in 1998-99 to 16485 mn
@@ -3041,21 +3093,39 @@
 CAGR
 Fiber
 Mn kg
+5022
+8913
+9959
 5%
 Natural ﬁ ber
 Mn kg
+4240
+7628
+8652
 5%
 Man-made ﬁ ber
 Mn kg
+782
+1285
+1307
 3%
 Yarn
 Mn kg
+3658
+6263
+6707
 4%
 Spun yarn
 Mn kg
+2808
+4713
+5309
 4%
 Filament yarn
 Mn kg
+850
+1550
+1398
 3%
 Fabric
 Mn sq mtr
@@ -3071,16 +3141,21 @@
 3%
 Knitted
 Mn sq mtr
+6276
 14634
 16199
 7%
 Garment
 Mn pcs
+6228
 13284
 16485
 7%
 Made ups
 Mn kg
+1070
+1887
+2061
 4%
 Source: Ministry of Textiles, Wazir Analysis
 India Textile and Apparel Export Market
@@ -3094,8 +3169,14 @@
 2005 (US$ bn)
 2014 (US$ bn)
 Textiles
+9
+25
 Apparels
+8
+17
 Total
+17
+42
 While exports to US and EU had picked up there was strong
 competition not only from China but from other low cost countries like
 Vietnam and Bangladesh.
@@ -3116,10 +3197,15 @@
 Kenya
 Labour cost * US$/month
 140-160
+100
 500-550
+180
+190
+50-60 125-150
 Power cost
 US$/kwh
 0.10-0.12
+0.09-0.12 0.15-0.16
 0.08
 0.22
 0.04
@@ -3130,10 +3216,15 @@
 13%
 5-6%
 6-7%
+15% 8.5-9.5% 16-18%
 Water cost*** US Cents / m
+3
+18
 20.5
+57
 50-80
 70-90
+30-40 150-180
 Source: Texprocil benchmarking report May 2014, ITMF cost comparison report, 2014
 and Wazir analysis
 * cost for semi-skilled labour; includes all beneﬁ ts
@@ -3156,11 +3247,13 @@
 Correspondingly additional investments in manufacturing across all
 sectors are expected to come in near future as shown in Table 6.
 FAITH FOCUS COMMITMENT
-29th Annual Report | 1st April, 2015 to 31st March, 2016
+52
 Table 6: India’s future textile production requirement
 Segment
 Production
+2014
 Demand
+2025
 Additional
 Manufacturing
 Unit
@@ -3205,6 +3298,7 @@
 Sewing
 20,255
 43740
+23,485 Mn Pcs
 7%
 Source: Ministry of Textiles, Wazir Analysis
 Domestic market scenario in Textile and Apparel
@@ -3231,6 +3325,8 @@
 e-commerce etc.
 Table 7: Market Size
 Particulars
+2014
+2025
 CAGR
 Domestic
 US$ 76 Bn
@@ -3252,31 +3348,47 @@
 Required
 by 2025 (US$ Bn)*
 Yarn Manufacturing (Spun + Filament)
+68
 Weaving
+100
 Knitting
+10
 Processing
+88
 Sewing
+25
 Technical Textiles
+29
 Total
+320
 *includes investment in replacement of some of the old existing machinery
 It can be summarised that Indian Textile industry is poised for a growth
 as under:
+•
 Global textile and apparel textile industry market &amp; trade is
 growing and will continue to do so in future
+•
 India’s growing domestic market will also provide major boost to
 the textile &amp; apparel industry
+•
 Global trade trends will favour India as a promising textile and
 apparel base
+•
 Fundamentals of Indian textile manufacturing are strong and
 makes India globally competitive
+•
 High investments are required across the value chain to cater to
 the future demand potential
+•
 Indian government is also providing good support to textile
 industry
+•
 India has huge potential to increase its product basket especially
 in MMF textiles
+•
 Indian textile companies are also growing in size and scale and
 becoming globally competitive
+•
 Overall India’s Textile and Apparel sector is well placed to tap the
 huge market opportunity and consolidate its global position.
 Business Strategy
@@ -3294,7 +3406,7 @@
 built up global scale of operations, which are essential to compete
 in the global market place and focus on diversiﬁ cation in product and
 markets.
-Innovative Textile Solutions 53
+Innovative Textile Solutions    53
 STATUTORY SECTION
 Management Discussion and Analysis
 In a bid to further diversify the business risks and leverage market
@@ -3340,16 +3452,23 @@
 ﬁ nanced by the banks.
 The reasons for the Company’s present tight liquidity situation can be
 summarised as under:
+•
 Temporary miss-match of funds caused due to bunching of
 repayments of core and non-core loans.
+•
 Substantial amount from operations was used to service debt
 resulting in tight working capital situation impacting operations.
+•
 This was further aggravated by the higher receivables &amp; Inventory
 in the domestic market for woven fabric due to tight liquidity.
+•
 Increase in average interest cost from about 7% per annum in FY
+2010 to around 13% by FY2014.
+•
 Delay in monetization of non-core assets due to depressed
 economic conditions which resulted in additional burden of
 interest of non core business loans on core textile business.
+•
 Delay in sanction/ release of credit facilities and delay in
 receiving export advances against the Export Performance Bank
 Guarantee.
@@ -3370,33 +3489,45 @@
 also a case ﬁ led by a Singapore based bank led consortium of banks
 for winding up of the Company for non-payment of their dues and they
 have also restricted the further issue of shares without their approval.
-There are some other cases ﬁ led on the company by banks/ institutions
-&amp; suppliers for recovering their dues. Most of these cases are being
-pursued due to uncertainty about the way forward for the Company.
-We believe, once the deﬁ nite course of action about the revival of the
-Company is known, most of the legal cases ﬁ led on the Company
-would also get addressed.
-The Company is working with all ﬁ nancial stake holders to evolve an
-effective debt recasting programme and exploring various avenues
-to</t>
+There are some other cases ﬁ led on the com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10263</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.7507173303700264</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Management Discussion and Analysis</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>Corporate Governance Report and Annexure</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>12338</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.7543013609056357</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>['risk management']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -3425,81 +3556,1155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>As mentioned earlier, the overall performance of
-Alok industries in recent past has been impacted by
-low plant utilization levels due to unavailability of re-
-quired working capital. However, once working capi-
-tal requirement is addressed all the business divisions
-of Alok are capable of running on self-sustaining basis
-and there are good opportunities for each division to
-grow. In the polyester division, Alok has developed
-a very good reputation for quality and developed a
-good brand name (Alok) for its polyester yarn in the
-domestic and export market. The Company has de-
-veloped strong network of agents and distributors for
-marketing of its products both in the domestic and
-export markets. Alok has a well-established Home
-Textiles division. Its large scale and integrated opera-
-tions, high product quality, competitive pricing and
-timely delivery schedules has enabled it to add in its
-portfolio of customers large reputed global retailers,
-and importers over the years. The apparel fabric seg-
-ment company is the largest revenue generator for
-the company. Alok has been expanding its apparel
-fabric capacities i.e. weaving, knitting and process-
-ing from time to time and has emerged as the largest
-supplier of Apparel fabrics. Alok is also offering more
-value added products than before and its consumer
-base includes globally renowned brands. Overall
-Alok’s position in terms of its operational capabilities
-are good technically and sustainable for each of the
-divisions and capable of growing once the debt reso-
-lution is achieved.
-I would like to take this opportunity to thank all our
-stakeholders - our financers, our shareholders, our
-employees, our customers, our vendors and our well-
-wishers across the country and the globe for their tre-
-mendous dedication, commitment and contribution
-towards strengthening Alok over the years. We are
-continuously working forward to fulfill our mission
-of generating maximum value for our stakeholders.
-I also wish to express my gratitude to fellow Board
-members for their guidance and direction; and our
-shareholders for placing their faith in us. I urge you
-all to continue to repose faith in us as we strive to re-
-solve current issues and turn the corner for a brighter
-future.
-Yours Sincerely
-S.K. Bhoan
-Chairman</t>
+          <t>61
+Alok industries is amongst the largest vertically integrated
+textile companies in India with manufacturing capabilities
+across both cotton and polyester value chain. Alok has
+presence in domestic as well as international market
+through its various subsidiaries and associate concerns.
+The company has widespread presence and caters to
+globally renowned brands. Alok has been facing some
+hurdles over the last few years due to liquidity crunch
+and a highly leveraged financial position. Despite of all
+the uncertainties and challenges faced by the company,
+Alok Industries is optimistic of a resolution and regain
+its position in the future due to strong fundamentals like
+technology, manpower, quality, relationship etc.
+Economic Overview
+World
+2016 was a positive year for the global economy with
+constant good economic news. The “World Economic
+Outlook” report by IMF has projected the global economic
+growth at 3.5% in 2017 from 3.1% in 2016. The global
+economy performed especially well in the fourth quarter
+of 2016 and the momentum generated is likely to persist
+in 2017 also.  Condition of emerging markets &amp; developing
+economies is likely to improve in the current scenario as
+the hurdles to growth of commodity exports from these
+nations is gradually going down while on the other hand
+demand of commodity importers is still solid. In case of
+advanced economies, economic activities are likely to
+gain momentum owing to the higher projected growth of
+US. Other major consumption regions like EU and Japan
+have also reflected strong growth forecast due to their
+increasing domestic demand and exports.  However, there
+are some negative revision to the growth forecasts which
+aroused due to the structural changes happening across the
+world including slow trade liberalization (TPP agreement),
+consolidation of manufacturing in China, policy uncertainty
+etc.
+Chart A illustrates the growth in the overall global economy
+along with advanced and emerging economies. Advanced
+economies have shown marginal increase at their levels
+of growth – 1.9% in CY2015 compared to 2.0% in CY2017,
+emerging markets and developing economies saw growth
+from 4.0% in CY2015 to 4.5% in CY2017.
+MANAGEMENT DISCUSSION AND ANALYSIS
+As illustrated from the graph, growth in the emerging
+&amp; developing economies have strengthened over the
+last three years. Stable commodity prices, recovering
+manufacturing activity, increasing investments, and
+strengthening confidence are driving the growth in these
+nations. This retrieval of growth will impact nearly 70% of
+such emerging and developing nations.
+Chart A:
+GDP Growth CY2015, CY2016,CY2017*
+3.1%
+0.0%
+2.0%
+4.0%
+6.0%
+3.2% 3.5%
+1.9% 1.9% 2.0%
+4.0% 4.1%
+4.5%
+World
+Advanced
+Countries
+Emerging
+Countries
+2015
+2016
+2017
+US elections have resulted in a stronger dollar due to
+expectations of a slacker fiscal policy. After the elections,
+market sentiments have been strong resulting in gains in
+both advanced and emerging markets.
+Commodity prices have also recovered owing to solid
+global demands and agreements on restriction on oil
+supply. Chart B indicates a fall in the oil prices between
+2015 and 2016 and a trend towards price stabilization in
+the first quarter of 2017.
+Advanced economies have shown stable economic growth
+irrespective of the policy uncertainty that is looming
+Source: IMF estimates, Note:*2017 is a forecast
+62
+around. Output gaps are narrowing in these economies and
+a solid recovery is expected in the near future. Increasing
+investments, improving import demand and rising exports
+have contributed in the overall recovery of global trade.
+US showed growth slowdown in 2016 mainly due to
+weak investments and exports. However, it is expected to
+recover in 2017 due to strengthening private investments,
+diminishing economic slack and improvement in the labour
+market conditions. However, there are certain challenges
+still present such as steep decline in capital expenditure
+in the energy sector, slow wage and productivity growth,
+lower job flows, underemployment and large unused
+capacities in manufacturing. Under the new government,
+expected tax cuts and infrastructural programs might lead
+to robust growth, however, if substantial changes are made
+in the policies over a short period of time, it might lead
+to disruption in the economic activities between US &amp; its
+trading partners.
+European region experienced good growth in 2016 owing to
+rise in manufacturing activity and exports. Unemployment
+rate fell continuously in 2016 although it is still higher than
+structural norms. Inflation has risen in the region due to
+increase in energy prices but it is still under the expected
+levels. Overall, the growth is expected to maintain at a good
+level in the near future at an estimated 1.2% (European
+Commission, 2017). However, these growth prospects
+are clouded by growing uncertainties of the political and
+economic environment in the European region due to
+BREXIT, high levels of non-performing bank loans and
+policy uncertainty in US, EU’s largest export destinations.
+India
+2016-17 was marked by two major policy changes in the
+Indian economy, passing of the GST bill and the step to
+demonetize the two biggest currency notes. The former
+decision is aimed at bringing a common tax regime in the
+country in order to improve tax compliance, governance
+and to enhance investment and growth.  The latter had
+some harsh short term cost to the public but it is expected
+to reap a good result in the longer run. However, these
+major changes have not affected the Indian economy in
+adverse fashion.
+As Chart C shows, real GDP growth was improving steadily
+from a low of 6.6% in FY2014 to 7.6% in FY2016. But in
+FY2017, it dropped down to 7.1% owing to the effects of
+demonetization and decline in fixed investment, however
+India’s economy recovered well to attain respectable levels.
+Hence, India still stands as one of the fastest growing large
+economy in the world.
+6.6%
+6.6%
+Chart C: Real GDP Growth Rate, India
+7.6%
+7.1%
+FY2014
+0%
+2%
+4%
+6%
+8%
+FY2015
+FY2016
+FY2017
+Source: Central Statistical Organization (CSO), Government of India
+Trends in the other macroeconomic factors such as inflation,
+fiscal deficit and trade deficit have been encouraging.
+Inflation rates declined to a level of 3.4% in December 2016
+end. This fall in inflation was characterized by the fall in CPI
+which was attributed to the high production of agricultural
+commodities and subsequent decline in their prices. The
+second contributing factor was the revival of WPI inflation
+from a level of -5.1% in 2015-16 to 3.4 % in 2016-17
+primarily due to increase in international oil prices.
+The current account deficit of the country has declined to
+reach a level of 0.3% (first half of FY 2017) of GDP while
+the trade deficit has declined by 23.5% in 2016-17 (Apr to
+Dec) over the last year. This was due to a steeper fall in
+imports as compared to fall in exports. However, recovery
+was observed in exports and imports of the country owing
+to the improvements in the world economy. Trends in
+0
+Apr 15
+May 15
+Jun 15
+Jul 15
+Aug 15
+Sep 15
+Oct 15
+Nov 15
+Dec 15
+Jan 16
+Feb 16
+Mar 16
+Apr 16
+May 16
+Jun 16
+Jul 16
+Aug 16
+Sep16
+Oct 16
+Nov 16
+Dec 16
+Jan 17
+Feb 17
+Mar 17
+10
+20
+30
+40
+50
+60
+70
+Chart B : Oil Future Prices- US$/Barrel
+Source: Market Reports
+63
+the fiscal sector are also encouraging. Fiscal deficit of the
+country has reduced from a level of 4.5% of GDP in 2013-
+14 to 3.5% of GDP in 2016-17.
+From a global context, three changes in the global market
+are likely to have a significant effect on the Indian economy.
+US election results and the expected changes in their
+monetary and fiscal policy will have an impact on the global
+interest rates and also on India’s exchange rates and capital
+flows. The second change is the change in the political
+outlook of advanced nations which are focusing on making
+more protectionist policies. This change in the outlook
+of major markets will affect India’s exports and growth
+prospects. The third factor is China’s efforts of balancing
+its economy in the wake of rising US Dollar. If China is able
+to stabilize its economy and the falling ‘Yuan’ then it would
+result in a positive impact on the world as well as Indian
+economy. However, if China fails to achieve this, a further
+fall in Yuan would create trade frictions which will have a
+negative impact on India.
+Textiles &amp; Apparel Industry
+Global Scenario
+Textile and apparel industry has undergone some
+substantial changes over the last few decades. Over the
+years, a major part of textile and apparel industry has
+moved away from ‘higher cost’ developed countries like
+the USA, EU and Japan to ‘lower cost’ destinations like
+China, South Asia and South East Asia. Two most important
+factors which caused this shift were the availability of low
+cost manpower and abundant availability of raw material in
+Asian countries. India, among other Asian countries, is one
+of the most competitive textile and apparel manufacturing
+country today.  For Indian industry, these are specifically
+interesting times. India stands a chance to gain prominent
+market share because of China’s growth slowdown,
+supporting Government policies and a strong textile
+manufacturing base. The fact that India’s own domestic
+demand is also large and growing is icing on the cake.
+The current global apparel market is estimated at
+approximately US$ 1.7 trillion which forms nearly 2.0% of
+the world GDP. Almost 60% of this market is concentrated
+in EU, USA, China and Japan. The next largest markets are
+India, Brazil, Russia and Canada in descending order with a
+share of approximately 11%.
+Table 1: Global Apparel Market Size in 2016 (US$ Bn.)
+Region
+2016
+Projected
+CAGR
+2025
+EU-28
+399
+1%
+441
+USA
+326
+2%
+397
+China
+212
+10%
+550
+Japan
+99
+1%
+110
+India
+63
+12%
+196
+Brazil
+61
+5%
+99
+Russia
+25
+3%
+34
+Canada
+31
+2%
+38
+Rest of the
+world
+470
+2%
+7000
+Total
+1,686
+4%
+2,563
+Source: Wazir Analysis
+An analysis of “Per-capita Expenditure on Apparel” (PEAP)
+reveals few interesting trends. US and EU are home to
+11% of the world population while their combined apparel
+consumption share is 40% indicating extremely high PEAP
+in these markets. There is also a clear demarcation of
+PEAP between the developed and developing economies –
+developing countries having a much lower PEAP value than
+developed one.
+India has the lowest PEAP of US$ 47, which is less than 5%
+of the highest – US$ 1,005 in USA. Very often, comparisons
+are drawn between the markets of China and India;
+however, India’s PEAP is only one-quarter of that of China.
+Table 2: Per Capita Consumption of textiles and Apparel
+(US$ bn)
+Country
+2016
+2025
+USA
+1,005
+1,150
+Japan
+788
+894
+Canada
+860
+973
+EU-28
+789
+865
+China
+153
+388
+Russia
+175
+239
+Brazil
+289
+442
+India
+47
+134
+Source: Wazir Analysis
+64
+1005
+1150
+788
+894
+860
+973
+789 865
+153
+388
+289
+442
+175
+239
+47 134
+Chart D: Per Capita Consumpon of Apparel from 2016 to 2025(in US $)
+USA
+Japan
+Canada
+EU 28
+China
+Brazil
+Russia
+India
+2016
+2025
+Source: Wazir Analysis
+Chart E: Global Texles &amp; Apparel Export (US$ Bn.)
+556
+616
+643
+556
+641
+752
+728
+788
+827
+776
+765
+4%
+4%
+3%
+22%
+54%
+6%
+6%
+5%
+4%
+3%
+21%
+55%
+6%
+6%
+6%
+6%
+6%
+6%
+7%
+7%
+6%
+7%
+6%
+6%
+6%
+6%
+7%
+7%
+6%
+7%
+6%
+6%
+4%
+4%
+3%
+21%
+56%
+4%
+4%
+3%
+20%
+57%
+5%
+4%
+3%
+20%
+54%
+6%
+4%
+3%
+20%
+54%
+6%
+4%
+3%
+20%
+55%
+5%
+4%
+3%
+20%
+56%
+4%
+4%
+3%
+19%
+56%
+4%
+4%
+3%
+19%
+57%
+4%
+4%
+3%
+19%
+58%
+Fibre
+Yarn
+Filament
+Fabric
+Apparel
+Home Tex
+les
+Others
+Total
+Source: UN Comtrade, WTO, Wazir Analysis
+Comparison of projected PEAP for 2025 with that in 2016
+shows that while Indian market is expected to register
+highest CAGR but its PEAP will still remain lowest. China,
+on the other hand, will emerge as the single largest market
+registering double digit growth rate in PEAP as well. Still,
+PEAP for developed countries will remain higher than the
+BRIC nations.
+Global textile and apparel trade in 2016 was US$ 765 bn.
+which was a 1% decline over 2015 trade value of US$ 776
+bn. Since 2006, the trade has grown at a CAGR of 3.2%.
+Chart F: Texle &amp; Apparel Imports (US$ Bn.)
+USA
+95
+105
+115
+125
+111.9
+104.7
+116.4
+122.4
+EU
+2015
+2016
+Source: Euratex and OTEXA
+65
+It is expected to grow further at a CAGR of 8.5% to reach
+US$1600 bn. by 2025 as shown in Chart G. In last 10 years,
+the share of fabric in trade has reduced from 22% in 2006
+to 19% in 2016. During the same period, share of apparel
+increased from 54% to 58%.
+EU imports:
+Data from European Textile and Apparel Confederation
+(EURATEX) suggests that overall import of clothing and
+textiles into Europe across all product types increased 5%
+to Euro 104.9 bn (US$116 bn), with textile import up 1.7%
+to Euro 29.1 bn (US$ 32.3 bn) while clothing remained
+stagnant at Euro 81.2 bn (US$ 90.2 bn). Import from top
+two suppliers – China and Bangladesh – recorded double
+digit growth. China saw its shipments rise 25% to Euro
+37.54 bn (US$ 41.7 bn). Bangladesh registered a 12%
+increase in shipments to Euro 15.3 bn (US$17 bn). Imports
+from the third largest supplier – Turkey – increased by 53%
+to Euro 14.4 bn (US$16 bn), while India was the fourth
+largest supplier registering sales of Euro 7.8 bn (US$8.6
+bn), which was a growth of 52% over 2015.
+US Imports:
+Total apparel and clothing imports into USA declined by
+6% to US$104.7 bn. China, the largest exporter to the US
+with a share of 37% of total US imports, witnessed a drop
+of 11% to US$38.5 bn. Vietnam was the second largest
+exporter with a share of 11% with US$11.3 bn imports,
+followed by India, whose exports to USA decreased by 1%
+to US$7.2 bn and Bangladesh with exports worth US$5.5
+mn, declining by 4%.
+The overall global trade faced some stiff challenges in 2016,
+growing at a slower pace than the world economy. Global
+trade agreements such as TPP are also becoming less likely
+to become effective in the near future. However, amidst
+all this, Asia’s exports have started to pick up some speed.
+Countries like China, South Korea, Japan, Singapore and
+Taiwan showed strong export orders over the year. This
+overall growth in Asia’s exports can be attributed to a slow
+yet solid global demand. Though the global growth has
+not recovered from the 2008 crisis but it is heading in the
+right direction as both IMF and World Bank are confident
+that global economic growth will grow at a slightly higher
+pace this year. Structural changes occurring in Asia will
+also shape up the global trade growth in the coming years.
+China’s growing focus on consolidation of its industry to
+cater its domestic market is also a big contributor to the
+slowdown of global trade. However, this is an opportunity
+for less developed countries in Asia to rake the profits of
+the export orders spill from China.
+2016 was a year of contrast in terms of textile and apparel
+imports of the two biggest consumption regions in the
+world. US imports of textile and apparel fell while EU’s
+import for the same increased. Asian countries hold the
+largest share of exports to the markets of US and EU.
+According to data provided by OTEXA, the top 5 supplier
+nations to US for textile and apparel were Asian countries
+which accumulated a total share of ~64%. However, as
+mentioned above, these countries gave a lack luster
+performance in 2016 with 4 out of 5 countries registering
+a negative growth. This slowdown can be an effect of the
+looming concern over the change in trade policies under
+the new Trump administration. Although for the EU market,
+Asian countries performed exceedingly with nations like
+China, Bangladesh &amp; India registering double digit growth
+in their textile and apparel export to the EU market.
+The key take aways from the global textile and apparel
+trade of the last decade are:
+•
+Global textile and apparel trade in 2016 was US$ 765
+bn. which was a 1% decline over 2015 trade value
+of US$ 776 bn. Since 2006, the trade has grown at a
+CAGR of 3.2%
+•
+In last 10 years, the share of fabric in trade has reduced
+from 22% in 2006 to 19% in 2016. During the same
+period, share of apparel increased from 54% to 58%
+•
+Imports of EU and US have grown at a 2% and 1% CAGR
+respectively from 2006 to 2016.  Vietnam and UAE
+have emerged as the fastest growing import markets
+during this period.
+•
+Exports from China and India have grown at a CAGR
+of 4% and 8%, respectively from 2006 to 2016.
+Bangladesh and Vietnam have emerged as the fastest
+growing exporting nations.
+•
+Over the last decade, share of top 10 global suppliers
+has increased from 62% in 2006 to 68% in 2016
+indicating consolidation of global sourcing. China has
+maintained the top position with 36% share.
+Indian Textile and Apparel Market Overview
+Indian textile and apparel market is estimated at US$
+124 billion in 2016. Domestic consumption of textile and
+apparel is valued at US$ 84 bn. for 2016. Within this,
+apparel retail contributes ~ US$ 63 bn., technical textiles
+contributes ~ US$ 15 bn. and home textiles contributes ~
+US$ 6 bn. While export is estimated at US$ 40 billion with
+66
+US$ 23 billion and US$ 17 billion of textile and apparel
+export respectively.
+A large &amp; growing domestic apparel market
+India’s high market growth is attributed to a large &amp; growing
+consuming class and continuous growth in their spending
+power. It is estimated that India’s domestic market will
+grow from the current level of US$ 63 billion to reach US$
+180 bn. in 2025 adding a value of US$ 117 bn. during this
+period.
+Domestic market growth will be led by following important
+drivers:
+a.
+Demographic dividend:
+India has a large population base comprising of more
+than one and a quarter bn. people. Almost half of
+the Indian population is under 25 years and as this
+population joins the workforce and gets more money
+in their hands, their spending power will increase.
+Apparel category will be the prime beneficiary of this
+increase in purchasing power.
+b.	 Aspirational buying:
+Over the last two decades, the consumer buying
+habits have changed significantly in India. They have
+shifted from a need based purchase to aspiration-
+based purchase. Nowadays consumers are inclining
+more towards branded product, especially in fashion
+segment People in in tier-II, tier-III and tier-IV cities
+2007
+2008
+2009
+2010
+2015
+2016
+2025 (P)
+35
+39
+10.2% CAGR
+12.2% CAGR
+Apparel
+Home
+Texles
+Technical
+Texles
+44
+80
+84
+238
+Chart H: Projected Growth of Indian Domesc Market
+(in US$ Billion)
+Source: Wazir Analysis
+Total Market Size
+US$ 124 bn
+Apparel
+US$ 63 bn
+Technical Tex
+les
+US$ 15 bn
+Home Tex
+les
+US$ 6 bn
+Domesc Consumpon
+US$ 84 bn
+Exports
+US$ 40 bn
+Tex
+les*
+US$ 23 bn
+Apparel
+US$ 17 bn
+Chart G: Domes
+c Tex
+le &amp; Apparel
+Market Size of India
+Source: DGCIS &amp; Wazir Analysis
+67
+are spending much more on apparel than they did a
+decade ago which has resulted in an increased focus
+by brands and retailers in these cities.
+c.
+Increasing urbanization
+Since the turn of this century, an increase in the
+urban population, expansion of cities and a growing
+influence of urban patterns and services in rural areas
+is being witnessed in India. The combined effect of
+these changes is putting more money in the hands of
+people and is creating new aspirations and demand
+which will in turn will have a major growth impact on
+apparel consumption.
+d.	 Growth in online retail sales:
+India is experiencing a digital revolution over the last
+few years and millions of people are now connected to
+the internet. This has resulted in an upsurge in online
+retailing as more and more people are looking for ease
+of shopping, heavy discounts offered by online portals,
+and better payment and return policies.  Online
+apparel sales in 2015 stood at US$ 1.5 bn. forming a
+large share i.e. 30% in the overall online sales in India
+and it is expected to grow at a CAGR of 41% to reach
+US$ 45 bn. by 2025.
+•
+Changing Trade Patterns &amp; Opportunities for Indian
+Textile and Apparel Industry
+Today’s textile and apparel sector is again at the cusp
+of some major structural changes. The demand pattern
+is governed by the economic growth of regions, which
+indicates a slowdown in developed countries while
+strong growth in China and India. The export growth
+rate of China has already slowed down, a trend that
+will lead China to lose some share of global market
+while still being the largest exporting nation. The
+opportunity arising because of China’s export growth
+slowdown can help countries like India, Bangladesh,
+Vietnam, etc. to increase their trade share. FTAs of
+these suppliers with major markets of EU, USA and
+Japan will be of special importance. On the supply
+side, lack of growth in cotton output will help synthetic
+to gain share continually. These are some of the mega
+trends that will impact the industry structure over the
+next decade. Some of these trends are discussed in
+details ahead.
+Indian textile &amp; apparel exports have maintained
+status-quo with exports worth of ~US$ 40 bn. for both
+2015 &amp; 2016. However, as mentioned, global trade in
+textile and apparel fell by 1.4% over the last year to
+reach a value of US$ 765 bn. in 2016. India enjoys the
+position of being the second largest exporter of textile
+products to the world, however its share in the global
+exports tell a different story. As compared to the share
+of the largest exporter i.e China (40%), India’s share
+is a mere 5% in the global trade. Countries like Italy,
+Germany and Bangladesh which are comparitively
+much smaller than India have similar share of around
+4-5% in the global trade. This clearly indicates that,
+India as a manufacturer and exporter of textile and
+apparel has not been able to realize its potential even
+though it enjoys the presence of a complete value
+chain and an abundant supply of cheap and skilled
+labour. Below table gives competitive advantage of
+India vis-à-vis other competing countries
+India is fairly competitive in terms of factor costs.
+Labour cost, power cost and water cost in India
+are either lower or comparable to its competitors.
+Although, lending rates in India are on a higher side as
+compared to its counterparts.
+India’s Manufacturing Scenario
+Indian textile and apparel industry has developed itself
+into a full-fledged manufacturing center with good scale
+capacities across every segment of the textile value chain.
+In terms of fibre production, India is the largest producer
+of cotton with 26.5% share in total world production. India
+is also the largest producer of jute, second largest producer
+of silk and tenth largest producer of wool.
+India has the second largest installed spinning capacity in
+the world after China with approx. 51 mn. spindles and
+9 lakh rotors. India has the largest weaving capacity with
+approximately 25 lakh power looms in the decentralized
+sector and approximately 1 lakh shuttle less looms in the
+mill sector.
+Total fibre production in India increased from 5,022 mn kg
+in 1998-99 to 9,090 mn kg in 2015-16 whereas man-made
+fibre production increased from 782 mn kg to 1,396 mn
+kg during the same period at a CAGR of 4%. (Table 3 gives
+details). Production of yarn increased from 3,658 mn kg
+in 1998-99 to 6,829 mn kg in 2015-16 at a CAGR of 4%.
+Fabric production increased from 35,542 mn square meter
+in 1998-99 to 66,860 mn square meter in 2015-16 at a
+CAGR of 4%. Garment production increased from 6228 mn
+pieces in 1998-99 to 18166 mn square meter in 2015-16 at
+a CAGR of 7%. Made Ups production increased from 1,070
+mn kgs in 1998-99 to 2,089 mn kgs in 2015-16 at a CAGR
+of 4%.
+68
+Source: Ministry of Textiles, UN Comtrade &amp; Wazir Analysis
+16.9
+23.1
+40.0
+2015
+2016
+2025 (P)
+17.5
+22.8
+40.3
+58.0
+42.0
+100.0
+CAGR: 14%
+CAGR: 7%
+CAGR: 11%
+Texles
+Apparel
+Chart I: Growth of Indian Texle &amp; Apparel
+Exports (in US$ Bn.)
+Table 3: Competitive cost manufacturing base
+Cost Element
+Unit
+Ethiopia
+India
+China
+Bangladesh
+Vietnam
+Myanmar
+Pakistan
+Labor cost*
+US$/month
+50-60
+140-160
+550-600
+100-110
+170-180
+130-180
+173
+Power cost
+US$/kwh
+0.04
+0.10-0.12
+0.15-0.16
+0.09-0.12
+0.08
+0.09
+0.11
+Lending rate
+%
+8.5-9.5
+12-14
+5-6
+13
+6-7
+13
+6.5-19
+Water cost**
+US Cents /
+m3
+30-40
+18
+57
+20.5
+50-80
+13-16
+133
+Source: Texprocil benchmarking report May 2014, ITMF cost comparison report, 2014 and Wazir analysis
+* cost for semi-skilled labour; includes all benefits
+**Water cost is based on the average tariff of the water supply companies of specific countries
+Paradigms for achieving high growth
+Indian textile and apparel industry much like the Indian
+economy is going through some structural changes. It
+has achieved robust growth over the last decade and the
+prevailing market trends indicate a higher rate growth in
+the coming future. But this growth will be built upon the
+requisite changes that Indian textile industry has to make
+in terms of cost, quality, compliances, logistics, services
+and product development.
+As per the estimated market size of the country which
+will become US$ 238 billion in 2025 from a current US$
+84 billion, Indian textile industry would need to produce
+more than double of its current capacity. Table 5 details the
+additional manufacturing demand due to growing market
+size.
+Large scale FDI in this sector would support the future
+investment demands. However, FDI inflow in the textile
+sector has been very low up till now with approximately
+Table 4: India’s textile production scenario
+Sector
+Unit
+1998-99
+2010-11
+2015-16
+CAGR
+Fiber
+Mn kg
+5,022
+8,913
+9,090
+4%
+Natural fiber
+4,240
+7,628
+7,694
+4%
+Man-made fiber
+782
+1,234
+1,347
+4%
+Yarn
+Mn kg
+3,658
+6,263
+6,829
+4%
+Spun yarn
+2,808
+4,713
+5,665
+4%
+Filament yarn
+850
+1,550
+1,164
+2%
+Fabric
+Mn sq. mtr
+35,542
+62,559
+66,860
+4%
+Woven
+29,266
+47,925
+49,213
+3%
+Knitted
+6,276
+14,634
+17,647
+7%
+Garment
+Mn pcs
+6,228
+13,284
+18,166
+7%
+Made ups
+Mn kg
+1,070
+1,887
+2,089
+4%
+Source: Ministry of Textiles, Wazir Analysis
+69
+~US$ 1.9 bn in inflows over the last 15 years. Indian
+Government’s ‘Make in India’ initiative is also building a
+positive environment amongst global investors and Indian
+textile industry is expected to reap benefits of the same
+in the coming future in the form of increasing foreign
+investments.
+Way forward for the Indian textile and apparel industry
+Future opportunity for Indian textile and apparel industry
+is beyond question but for it to gain the desired market
+share overall manufacturing competitiveness will be the
+key. Attaining manufacturing excellence is the way forward
+for the Indian textile industry and the following six factors
+will be the key:
+a.
+Productivity Enhancement:  The importance of higher
+productivity cannot be overstated. Not only it leads
+to cost competitive manufacturing but it enables
+companies to improve their lead time and execute
+larger orders. At a country level, presence of efficient
+firms would increase India’s overall image in the world
+market attracting larger orders and also enhance wage
+earning opportunities of the workforce.
+b.	 Market Intelligence: Market intelligence forms an
+important part of growth as it helps the businesses
+to figure out the upcoming high traffic products and
+customers. It helps companies take decisions on
+taking the right move like entering into a new market,
+expanding an existing business, establish a distinctive
+identity or marketing around customer needs.
+Continuous tracking of global and domestic trends
+is a must for any business and T&amp;A is no exception,
+though the reality is that Indian T&amp;A companies at
+large are yet to appreciate this aspect and establish
+such systems in-house.
+c.
+Sustainable Manufacturing: Environmental and social
+compliances are no more optional. The general motto
+these days is “Compliance first, Business next”. Any
+large buyer before selecting a supplier ensures that
+all the compliance aspects are met by the factories.
+Any failure in these aspects are a strong ground for
+rejections.
+d.	 Product
+and
+Design
+Development:
+Product
+development involves modification of an existing
+product, or formulation of an entirely new product
+that satisfies a newly defined customer want or market
+niche by offering additional benefits.  It has become
+important for companies to assess the gap in market
+and come up with new or improved products to have
+an advantage over competitors. A successful product
+development strategy can help businesses increase
+revenue and gain profitability.
+e.
+Recruiting &amp; Retaining Talent: Recruiting and retaining
+talent is amongst the most formidable challenges to
+achieve growth in any organization. The textile industry
+specifically faces this challenge on a large scale as the
+awareness about career opportunities in the sector is
+low. Hence, it becomes important for the businesses
+to not only locate and recruit employees but rather
+bring a change in the working environment as well for
+their successful retention. Thus, hiring and retaining
+talent should be considered a marketing activity the
+same way as finding new clients is.
+f.
+International Partnerships: With an emphasis on
+product development, many companies have started
+exploring potential tie-ups or partnerships with
+international players be it for manufacturing, marketing
+or brand licensing. Such collaborations help the
+company upgrade in terms of skill sets, manufacturing
+capacity, design and operational efficiency as they get
+an access to the partner company’s valuable resources
+including market foot-print.
+Table 5: India’s future textile production requirement
+Segment
+Production 2015
+Demand 2025
+Additional
+Manufacturing
+Unit
+Spun Yarn
+5,665
+19,000
+13,335
+Mn kg
+Filament Yarn
++ Man made
+staple fibre
+2,560
+19,000
+16,440
+Mn kg
+Woven Fabric
+49,213
+1,03,450
+54,237
+Mn sq. mtr
+Knitted Fabric
+17,647
+58,960
+41,313
+Mn sq. mtr
+Processing
+66,860
+1,62,435
+95,575
+Mn sq. mtr
+Sewing
+18,166
+43,740
+25,574
+Mn pcs
+Source: Ministry of Textiles, Wazir Analysis
+70
+Business Strategy
+Being one of India’s leading textiles manufacturers,
+Alok Industries has a global scale of operations and has
+presence in global markets. It is ready for the opportunities
+available in the growing global apparel and textiles market
+for Indian Textile Industry. The strategy followed was to
+create globally competitive capabilities across the value
+chain – from yarn to weaving to specialised products. Alok
+has uniquely positioned itself the apparel fabrics, home
+textiles and polyester yarn segments and thus covered
+both the cotton and polyester product streams.
+While each of these business divisions are like independent
+value generating entities, the focus is on offering product
+basket to cater to our ever demanding customers and
+for the stake holders. We have built up global scale of
+operations, which is essential to compete in the global
+market place and focus on diversification in product and
+markets.
+In a bid to further diversify the business risks and leverage
+market opportunities, the Company had also invested into
+certain new initiatives that were in addition to its core
+textiles manufacturing operations out of India.  However,
+these initiatives largely have not yielded the desired results
+and have also increased the leverage of the Company. The
+Company is now exploring the possibility to monetise these
+assets wherever possible to deleverage the balance sheet.
+The Company is making all efforts to sell its non-strategic
+assets and use the proceeds to reduce debt. Market
+conditions presently however, are not very conducive to
+make such asset sales in a reasonable span of time.
+Over the years, bunching of repayments, steep rise in
+interest cost and inability of the Company to sell the non-
+strategic assets have impacted Company’s operations
+and resulted into a tight liquidity situation that has been
+aggravated every passing year.
+The reasons for such tight liquidity situations can be
+summarised as under:
+•
+Temporary mis-match of funds caused due to bunching
+of repayments.
+•
+Delay in monetization of non-strategic assets due to
+depressed economic conditions.
+•
+Increase in average interest cost from about 7% per
+annum in FY 2010 to around 13% by FY2014.
+•
+Substantial amount from operations was used to
+service debt resulting in tight working capital situation
+impacting operations.
+•
+Delay in sanction/ release of credit facilities and
+delay in receiving export advances against the Export
+Performance
+Bank
+Guarantee
+(EPBG).
+Further,
+company could not meet the export obligations under
+EPBG due to sub-optimal level of operations.
+•
+This was further aggravated by the non-realisation of
+debtors in the domestic market for woven fabric due
+to depressed market conditions.
+Consequently, the Company is going through a very
+tight liquidity situation resulting in sub-optimal level of
+operations.
+During the financial year 2016-17 too, sales of the Company
+continued to decline and it continued to make losses due
+to various provisioning requirements, depreciation and
+interest. Over the last few years, operations from own
+manufacturing started to decrease due to working capital
+shortage. As a measure to counter this, the Company
+increased outsourcing/trading business. But due to th</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8202542744410346</t>
+          <t>fallback</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Management Discussion and Analysis</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>Corporate Governance Report and Annexure</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>13124</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.73446017490882</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['risk management', 'global economy']</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -3528,78 +4733,314 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.
-General Information
-2.
-Board of Directors
-3.
-Notice
-4.
-Directors’ Report
-5.
-Management Discussion &amp; Analysis
-6.
-Corporate Governance Report &amp; Annexures
-7.
-Certifications
-8.
-Independent Auditors’ Report on Standalone
-Financial Statement
-9.
-Balance Sheet
-10.
-Statement of Profit &amp; Loss Account
-11.
-Statement of Changes in Equity
-12.
-Cash Flow Statement
-13.
-Notes to the Standalone Financial Statement
-14.
-Independent Auditors’ Report on Consolidated
-Financial Statement
-15.
-Consolidated Balance Sheet
-16.
-Consolidated Statement of Profit &amp; Loss
-Account
-17.
-Consolidated Statement of Changes in Equity
-18.
-Consolidated Cash Flow Statement
-19.
-Notes to the Consolidated Financial Statement .................................................................................
-20.
-Attendance Slip and Proxy Form
-CONTENTS</t>
+          <t>62
+of its capacity due to the adverse financial situations,
+it has continued to utilize fully, the balance 50% even
+today and managed to obtain some premium pricing.
+Stabilized operations when achieved should re-establish
+the Company as a premium supplier of Polyester Yarn
+and fiber.
+Information Technology Risk
+Ever increasing dependency on information technology
+systems on business process, communications, MIS,
+controls and customer’s / vendors management make it
+most important to minimise disruptions of information
+technology systems. Unavailability of application or
+loss of data can result in impairment of business and
+production processes.
+The Company runs a centralised database application
+with the primary data centre at the corporate office
+with commensurate IT infrastructure. Disaster recovery
+of data and application is achieved through servers
+installed in two different locations outside the Corporate
+office. Adequate back up power is provided through
+multiple UPS systems and external power backup of the
+Corporate office.
+Infrastructure, WAN and LAN are secured through
+secured MPLS links, firewalls, well defined role based
+authorisations for system and applications access and
+enterprise vide end point security.
+Due to the liquidity crunch prevailing over the last few
+years, the Company’s ERP system is not under Annual
+Maintenance Contract (AMC) from SAP and is being
+managed by the in-house team. In case of major SAP
+related issues or system shut-offs, the Company may
+not get timely support from SAP and can face some
+disruption in operations. The Company plans to migrate
+to the updated version of the SAP and also carry out
+much needed replacement of its hardware, much of
+which is very old on priority once the implementation of
+the Resolution Plan starts.
+Financial Risk
+The large debt burden and rising interest cost caused
+defaults in payment of its obligations leading to the
+Company being admitted under the CIR process on 18
+July, 2017 vide an order of the Adjudicating Authority.
+The application filed by the RP for approval of Resolution
+Plan on 11 July, 2018 is currently pending adjudication
+before the Adjudicating Authority. In the event the
+Resolution Plan is approved, the capital structure and
+the associated risk profile of the Company is expected
+to significantly change and therefore at the moment,
+the management is not able to comment on the future
+capital structuring of the Company and the resultant
+change in the risk profile.
+Currency Risk
+The Company is subject to significant currency exposure
+risk given its significant dependence on exports. At the
+same time, the Company, at present, cannot avail any
+facilities from the banking system that allows it to hedge
+the currency exposure. Once the Resolution Plan, if
+approved by the Adjudicating Authority is implemented
+by the Resolution Applicants, the Company expects to
+obtain necessary lines from the banking system and
+institute a hedging policy to mitigate currency risks.
+Outlook
+Subject to the adjudication of the Adjudicating Authority
+and other appellate authorities in relation to the approval
+of the Resolution Plan and with the support of the
+Resolution Applicants, the Company is well positioned in
+terms of capacities, capabilities and established customer
+relationships to capitalise on market opportunities. The
+Company’s operations are affected mainly due to lack
+of adequate working capital. Approval of the Resolution
+Plan would enable the Company to progressively ramp
+up operations.
+Internal Control and Adequacy
+The Company has in place well established framework
+of internal control system, commensurate with the
+size and complexity of its business. The Company has
+an independent internal audit function covering major
+areas of operations and is carried out by external firms of
+Chartered Accountants engaged for this purpose.
+Cautionary Statement
+Statements in this Management Discussion and Analysis
+describing the Company’s objectives, projections,
+estimates and expectations may be ‘forward looking
+statements’ within the meaning of applicable laws and
+regulations and are made on the assumption that the
+Resolution Plan for the Company will be approved /
+upheld by the Adjudicating Authority and the Appellate
+Authorities at various levels and implemented. As
+explained in the discussions under “Revival Plan”, in case
+the challenges to the plan succeed, then the Company
+may be ordered to be liquidated by the concerned
+authorities. These statements have been based on
+current expectations and projections about future
+events. Wherever possible, all precautions have been
+taken to identify such statements by using words such
+as ‘anticipate’, ‘estimate’, ‘expect’, ‘project’, ‘intend’,
+‘plan’, ‘believe’ and words of similar substance in
+connection with any discussion of future performance.
+Such statements, however, involve known and unknown
+risks, significant changes in political and economic
+environment in India or key markets abroad, tax laws,
+litigation, labour relations, exchange rate fluctuations,
+interest and other costs and may cause actual results to
+differ materially. There is no certainty that these forward-
+looking statements will be realised, although due care
+has been taken in making these assumptions. There is
+no obligation to publicly update any forward-looking
+statements, whether as a result of new information,
+future events or otherwise
+63
+Corporate governance is a modus operandi of governing a corporate entity which includes a set of systems,
+procedures and practices which ensure that the Company is managed in the best interest of all corporate stakeholders
+i.e. shareholders, employees, suppliers, customers and society in general. Fundamentals of Corporate Governance
+include transparency, accountability, reporting and independence. For accomplishment of the objectives of ensuing
+fair Corporate Governance, the Government of India has put in place of framework based on the stipulations contained
+under the Companies Act, 2013, SEBI Regulations, Accounting Standard, Secretarial Standards etc. Corporate
+Governance has become a buzzword in the corporate world. Globalization, widespread of shareholders, changing
+ownership structure, greater expectations, etc. have made a good Corporate Governance sine qua non of modern
+management.
+COMPANY’S PHILOSOPHY ON CODE OF GOVERNANCE
+The Board of Directors of the Company (the “Board”) is at the core of our corporate governance practice and oversees
+how the management serves and protects the long-term interests of all our stakeholders. We believe that an active,
+well-informed and independent Board is necessary to ensure healthy standards of Corporate Governance. However,
+a company undergoing insolvency resolution process is exempted from the requirement of, amongst others,
+composition of board of directors, constitution, meetings and terms of reference of the audit committee, constitution,
+meetings and terms of reference of the nomination and remuneration committee, constitution, meetings and terms
+of reference of the stakeholders’ relationship committee as required under SEBI (Listing Obligations and Disclosure
+Requirements) Regulations, 2015 (the “SEBI LODR Regulations”). Further, the role and responsibilities of the Board
+of Directors as specified under Regulation 17 of the SEBI LODR Regulations is required to be fulfilled by the interim
+resolution professional or resolution professional, as the case may be.
+This is to apprise the members that pursuant to an application made by State Bank of India, the Hon’ble National
+Company Law Tribunal, Ahmedabad bench (“Adjudicating Authority”), vide its order dated 18 July 2017, had ordered
+the commencement of the corporate insolvency resolution (“CIR”) process in respect of your company under the
+provisions of the Insolvency and Bankruptcy Code, 2016 (the “Code”). Thereafter, in accordance with Section 17 of the
+Code, the powers of the Board stood suspended and Mr. Ajay Joshi was appointed as interim resolution professional
+of the Company who was later confirmed as Resolution Professional of the Company on 16 August, 2017 for the
+management of the affairs of the Company (“RP”/ “Resolution Professional”).
+In compliance with the provisions of Section 134(3) of the Companies Act, 2013, a report containing the details and
+information as required to be disclosed in the Report on Corporate Governance to the shareholders of the Company
+is provided hereunder.
+During the CIR process, only one resolution plan dated 12 April, 2018 (“Resolution Plan”) was received from JM
+Financial Asset Reconstruction Company Limited, JM Finance ARC – March 18 Trust and Reliance Industries Limited
+jointly (“Resolution Applicants”).
+Further, pursuant to promulgation of the Insolvency and Bankruptcy (Amendment) Ordinance dated 6 June 2018
+(“Ordinance”), the voting threshold for approval of Resolution Plan was reduced from 75% to 66% of the voting share
+of the financial creditors. The Adjudicating Authority in an application filed by Alok Employees Benefit &amp; Welfare
+Trust, vide its order dated 11 June 2018, directed the committee of creditors of Company (“COC”) for a re-look and
+proper consideration of the Resolution Plan (“Order”). Accordingly, in compliance with the Order, the Resolution Plan
+submitted by the Resolution Applicants was again placed before the COC for consideration by the RP under Section
+30 (4) of the Code (as amended by the Ordinance). Thereafter, the Resolution Plan was approved by the COC with
+72.192% assenting voting share. Subsequently, vide its order dated 25 June, 2018, the Adjudicating Authority granted
+liberty to the RP to file the Resolution Plan for the approval of the Adjudicating Authority under Section 31 of the
+Code. The application filed by the RP for approval of Resolution Plan on 11 July, 2018 is currently pending adjudication
+before the Adjudicating Authority.
+REPORT ON CORPORATE GOVERNANCE
+64
+A report on Compliance with the principles of Corporate Governance as prescribed by the Securities and
+Exchange Board of India (SEBI) in Chapter VI of the SEBI LODR Regulations is given below:
+(1)
+BOARD OF DIRECTORS
+As the powers of the Board stood suspended with effect from 18 July, 2017 and the Resolution Plan is pending
+for approval before the Adjudicating Authority, there was no Board meeting held during the financial year under
+review except on 30 May, 2017.
+1.1
+Composition of the Board:
+The Board is entrusted with an ultimate responsibility of the Management, directions and performance of the
+Company. The Board of your Company has a good mix of Executives and Non-Executive Directors. The Board
+had 10 directors, comprising of five Executive Directors, two Non-Executive Independent Directors and three
+Nominee Directors.
+The following is the Composition of the Board as on 31st March, 2018#:
+Sr.
+No.
+Name of the Director
+Category of Director
+No. of
+Director-
+ship held
+(including
+Committee(s)
+position
+(including Alok)
+Member Chairman
+1
+Mr. Surinder Kumar Bhoan Chairman
+Non-Executive Independent Director
+2
+2
+2
+2
+Mr. Keshav D. Hodavdekar
+Non-Executive Independent Director
+3
+1
+0
+3
+Mr. Ashok B. Jiwrajka
+Executive Director &amp;
+CE (Home Textiles)
+6
+1
+0
+4
+Mr. Dilip B. Jiwrajka
+Executive Director &amp;
+CE (Apparel Fabrics)
+6
+1
+0
+5
+Mr. Surendra B. Jiwrajka
+Executive Director &amp;
+CE (Polyester)
+6
+1
+0
+6
+Mr. Senthilkumar M.A
+Executive Director &amp;
+CEO (Processing)
+1
+0
+0
+7
+Mr. Tulsi Tejwani
+Executive Director &amp;
+CEO (Weaving)
+1
+0
+0
+8
+Mr. Suneet Shukla
+Non-Executive Non Independent
+Director
+Nominee Director -IFCI Limited
+3
+0
+0
+9
+Mr. Atanu Sen*
+Non-Executive Non Independent
+Director
+Nominee Director -State Bank of India
+7
+0
+0
+10
+Mr. Pradeep Kumar
+Rath**
+Non-Executive Non Independent
+Director
+Nominee Director -LIC of India
+1
+0
+0
+#Pursuant to commencement of the CIR process of the Company, the powers of the Board stand suspended
+and are to be exercised by the interim resolution professional or resolution professional, as the case may be,
+in accordance with the provisions of the Code. Further, in terms of the SEBI LODR Regulations, a company
+undergoing CIR process is not required to comply with Regulation 17 of the SEBI LODR Regulations dealing with
+the requirement of composition of the board of directors.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.699017199017199</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Management Discussion &amp; Analysis</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.8065252854812398</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -3628,17 +5069,193 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Place New Delhi
+          <t>FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+During the fiscal 2014-15, the turnover of the Company increased to Rs. 3,205.52 Lakhs as compared to Rs. 2,638.57 Lakhs in the previous
+year. However due to sluggish market, increase in labour, power and other operational costs , and  financial constraints , Company could not
+optimally utilize its  capacities and its lossess increased to Rs. 2,411.71 Lakhs as compared to Rs. 962.02 Lakhs in the previous year.
+Further, over the period  the company has eroded its net worth completely and it has been declared as a Sick Company under Sick Industrial
+Companies (Special Provisions) Act'1985  by the  Board for industrial and financial restructuring (BIFR) vide its order dated 18th July'2012.
+Management Discussion and Analysis
+Indian Textile Industry is one of the leading textile Industries in the world. The textile sector has always been an important part of people's
+lives in India. The textile sector is highly diverse and has hand-spun and hand woven segments at one end of the spectrum, and capital-
+intensive, sophisticated and modern mills at the other. India's Textile Industry is largely dependent on textile manufacturing and export and
+India earns about 17% of its foreign exchange through Indian textile exports. The Indian Textile Industry also contributes 5% of the GDP and
+employs more than 35 million people, the second largest employment only after agriculture, and 14% of the industrial production of the
+country.
+However, for Amit Spinning the last fiscal was very difficult and challenging mainly due to sluggish market demand and rapid &amp; significant
+increase in labour, power and other operating costs and shortage of working capital .which  lead to fall  in EBITDA  levels.
+M/s Amit Spinning Industries Limited has already been declared as a Sick Company under SICA by BIFR and the UCO Bank has been
+appointed as the Operating Agency. However, with an attempt to safeguard the interests of the stakeholders particularly employees, unit has
+been engaged in carrying out under job work.
+Management is confident that once the rehabilitation scheme is approved by the BIFR, Company will turn around and recover from the
+current difficult phase and accordingly it is in process of reviewing its strategic plans and looking at means to find a way to increase its
+turnover, reduce its costs and achieve a higher value addition so that it could achieve positive result in the near future.
+Segment-Wise Performance
+Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of geographical
+categorization of market, ASIL identified two segments i.e. exports and domestic.
+During the year under review, Company has manufactured 1281.64 MT of yarn on its own resources and 1112.65 MT of yarn on job work
+basis.
+Subsidiary Companies
+As there are no subsidiaries/ associates / joint ventures of the Company, the provisions contained in Companies Act, 2013/Listing
+Agreements relating to subsidiaries are not applicable.
+Share Capital
+The Company's issued and paid up capital as on 31st March, 2015 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity
+shares of Rs. 5/- each.  During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
+share with differential Voting Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
+The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the benefit of employees.
+Hence the details under rule 16 (4) of Companies (Share Capital and Debentures) Rules, 2014 are not required to be disclosed.
+Management Perception On Opportunities, Risks, Concern &amp; Outlook
+The potential size of the Indian textile industry is expected to reach US$220 billion by 2020. Government has allowed 100% FDI in the Indian
+textiles sector under the automatic route. Further, the Government has proposed the establishment of Centres of Excellence for training the
+workforce in the textile sector and also to establish institutes under the public-private partnership (PPP) model to encourage private sector
+participation in the development of the industry. However due to change in China policy, Indian exports have been affected and showed
+down by 50% in the graph of financial year 2014-15, but could recover partially in the year 2015-16 to 1.2 million tones.
+Further, Government has approved a debt restructuring package to help loss making textile mills to be administered on case by case basis
+by the banks within the prudential norms of the Reserve Bank of India. Also, BIFR has decided on reliefs / concessions etc. to be given to
+units / companies on the revival packages which will prove to be beneficial for Amit Spinning Industries Limited, as well.
+Further, with focus on Make in India, the Indian Textile industry is expected to become resilient and robust through various support measures
+likely to be announced by the government. The future outlook for the Indian Textile Industry looks promising, buoyed by both strong domestic
+consumption and increase in export turnover.
+05
+Slow but potentially promising increase in demand of cotton yarn in domestic market and talk of economic reforms by the new government
+as well as encouraging export promotion policy for textile sector have already improved market sentiments to some extent. With the awaited
+approval of rehabilitation scheme by BIFR and with the continued support and co-operation of company's bankers, management believes
+that your Company would again initiate its own production, optimally utilize capacities, increase sales volumes, and consequently margins
+are also expected to be strengthened in due course.
+Directors
+(a) Change in Directors or Key Managerial Personnel
+In terms of provisions of the Companies Act, 2013 read with Clause 49 of Listing Agreement, during the year, Ms. Priya Lohani has been
+appointed as Additional Director in the position of Woman Director on the Board of the Company w.e.f.  31st March, 2015 and holds
+office upto ensuing Annual General Meeting. She however being eligible for reappointment, company has received an application from
+the member for consideration of her appointment as women director on the board in the ensuing Annual General Meeting itself.
+During the period under review, Mr. Shreyas S Alatkar, Manager Accounts has been entrusted with responsibility to discharge the
+functions of CFO (Chief Financial Officer) along with other functions of the Company w.e.f 13th February, 2015 in place of Mr. Mahesh
+Anand Raut, who was appointed as CFO on 11th August, 2014.
+Mr. K Sankaramani is retiring by rotation in the forthcoming Annual General Meeting and being eligible, offer himself for re-appointment.
+Brief resume of the Directors proposed to be appointed/re-appointed, nature of their expertise in specific functional areas and names of
+the companies in which they hold directorship and membership/chairmanships of the Board or its Committees, as stipulated under
+Clause 49 of the listing agreement entered by the Company with stock exchanges in India, is provided in the Report of Corporate
+(b) Number of Meetings of the Board
+Four meetings of the Board were held during the year. The detailed information regarding meetings of the Board held during the year is
+mentioned in the Corporate Governance Report which forms part to this report.
+(c) Declaration by Independent Directors
+All Independent Directors have given declarations that they meet the criteria of independence as laid down under Section 149(6) of the
+Companies Act, 2013 and Clause 49 of the Listing Agreement.
+(d) Annual Evaluation by the Board
+Pursuant to the provisions of the Companies Act, 2013 and Clause 49 of the Listing Agreement, the Board has carried out an annual
+performance evaluation of its own performance, the directors individually as well as its Committees. The manner in which the evaluation
+has been carried out has been explained in the Corporate Governance Report.
+(e) Remuneration Policy
+The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection and appointment of
+Directors, Senior Management and their remuneration. The Remuneration Policy is stated in the Corporate Governance Report. During
+the year, neither the Managing Director nor the Whole-time Directors of the Company received any remuneration or commission from
+any of its subsidiaries.
+Directors' Responsibility Statement
+Pursuant to the requirement of Section 134(3)(c) of the Companies Act, 2013, with respect to Directors' Responsibility Statement, it is
+hereby confirmed that:
+(a) in the preparation of the annual accounts for the financial year ended 31st March, 2015, the applicable accounting standards had been
+followed along with proper explanation relating to material departures;
+(b) the directors had selected such accounting policies and applied them consistently and made judgments and estimates that are
+reasonable and prudent so as to give a true and fair view of the state of affairs of the company as at March 31, 2015 and of the profit and
+loss of the company for that period;
+(c) the directors had taken proper and sufficient care for the maintenance of adequate accounting records in accordance with the
+provisions of the Companies Act, 2013 for safeguarding the assets of the company and for preventing and detecting fraud and other
+irregularities;
+(d) the directors had prepared the annual accounts on a going concern basis; and
+(e) the directors had laid down internal financial controls to be followed by the company and that such internal financial controls are
+adequate and were operating effectively.
+(f)
+the directors had devised proper systems to ensure compliance with the provisions of all applicable laws and that such systems were
+adequate and operating effectively.
+Related Party Transactions
+All related party transactions that were entered into during the financial year were on an arm's length basis and were in the ordinary course of
+business. Company has entered into a material transaction with one related party i.e. its holding Company M/s Spentex Industries Limited
+according to the policy framed for the related party transactions and the same has been disclosed in the note to financial statements.
+However there were no other materially significant related party transactions entered into by the Company with Promoters, Directors, Key
+Managerial Personnel or other designated persons which may have a potential conflict with the interest of the Company at large.
+Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for a period upto 31st March, 2015 and for the
+financial year 2015-16. The transactions entered into pursuant to the omnibus approval so granted were audited and a statement giving
+details of all related party transactions were placed before the Audit Committee for its review on a quarterly basis.
+The Company has framed a Related Party Transactions Policy for purpose of identification and monitoring of such transactions. The policy
+on Related Party Transactions as approved by the Board has been uploaded on the Company's website.
+None of the Directors has any pecuniary relationships or transactions vis-a-vis the Company. All related party transactions entered into by
+the Company were in ordinary course of business and were on an arm's length basis, however for the transaction entered with its holding
+company fall under material transaction and details of the same is mentioned in form AOC - 2 attached herewith as Annexure-1.
+06
+Significant and Material Orders passed by the Regulators or Courts
+There are no significant or material orders passed by the Regulators / Courts which would impact the going concern status of the Company
+and its future operations.
+Auditors
+(a) Statutory Auditors
+M/s. Sunil Jain &amp; Co., Chartered Accountants, (Registration No. 003855N) have been appointed as Statutory Auditors of the Company
+at 22nd Annual General Meeting held on 11th September, 2014 to hold office until conclusion of 26th Annual General Meeting for a
+period of four years, as provided in Section 139 of the Companies Act, 2013, the said appointment is being placed for ratification at the
+forthcoming Annual General Meeting.
+The Company has received a confirmation from M/s. Sunil Jain &amp; Co., Chartered Accountants to the effect that their appointment, if
+made, at the ensuing AGM would be in terms of Sections 139 and 141 of the Companies Act, 2013 and rules made there under and that
+they are not disqualified for re-appointment.
+Auditors Report
+The Auditors' Report read with the Notes to Accounts is self-explanatory and do not call for any further explanation under Section 134 of the
+Companies Act, 2013, except for the responses in respect of some observations as mentioned here in below.
+Directors' view on Auditor's Observations
+Directors' response to the various observations of the auditors made in their report, has been explained wherever necessary through
+appropriate notes to accounts, however pertinent notes are reproduced hereunder in compliance with the relevant legal requirements and
+wherever required further explanation is furnished:
+Note No. 30 of the Financial Statement qualified by Auditors
+“The Loans and Advances of the Company include a sum of Rs.1,93,46,572, being an amount receivable from Customs Department as
+drawbacks against the export sale pertaining to the period 1993 to September, 2004 when the unit was 100% Export Oriented Unit (EOU).
+The company has earlier filed an application with the office of DGFT for the claim and made significant efforts for receiving the claim. The
+Company has also filed claim against Jak Traders Private Ltd. for recovery of the claims.”
+Note No. 31 of the Financial Statement without qualifying, Auditors have drawn attention
+“As on March 31, 2015, the accumulated losses of the Company have far exceeded its net worth.  In the opinion of the management, the
+Company's operations are affected by global business downturn which has resulted in reduction in demand, increase in input costs and
+shortage of working capital. The Company has also filed a reference with Board for Industrial and Financial Restructuring (BIFR) under
+Section 15 of Sick Industrial Companies (Special Provisions) Act, 1985 for determination of sickness and measures to be adopted for
+rehabilitation.   The BIFR, vide its order, dated 18.07.2012 declared the Company as sick under section 3(1)(o) of SICA, 1985 and appointed
+UCO Bank as Operating Agency (OA) under section 17(3) to prepare Rehabilitation Scheme for the Company.  However, on the strength of
+management's plan of revival including reorganization of business, these financial statements are prepared on a going concern basis.”
+(b) Cost Auditor
+Pursuant to recent amendment to the Companies (Cost Records and Audit) Rules, 2014, the provision relating to carry out cost audit is
+not applicable to the Company for financial year 2015-16.
+(c) Secretarial Auditor &amp; Audit Report
+Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa &amp; Associates,
+Practicing Company Secretary (having CP No. 10753 &amp; Membership No. 25973) as Secretarial Auditor to carry out the secretarial audit
+for the financial year 2014-2015.
+The Secretarial Audit Report for the financial year ended March 31, 2015 is annexed herewith marked as Annexure 2 to this Report.
+There are no qualifications or observations or remarks made by the Secretarial Auditors in their Report.
+(d) Internal Auditors
+Pursuant to section 138 of the Companies Act, 2013 read with The Companies (Accounts) Rules, 2014, the Company has appointed Dr.
+Sunil Kumar Gupta as the  Internal Auditor of the Company.
+Internal Control Systems and Adequacy
+The Company has established adequate internal control systems, commensurate with its size and nature of business and such systems are
+periodically audited, verified and reviewed for their validity, considering the changing business scenario from time to time, the Audit
+Committee of the Board of Directors reviews the adequacy and effectiveness of internal control systems and suggests improvement for
+strengthening them from time to time.
+Extract of the Annual Return
+The details forming part of the extract of the Annual Return in form MGT 9 is annexed herewith as Annexure-3 to this Report.
+Conservation of Energy, Technology absorption and Foreign Exchange Earnings and Outgo
+Company has implemented energy conservation methods and such action has resulted into major savings in energy consumption as well as
+in cost control. The information as required to be disclosed under Section 134(3)(m) of the Companies Act, 2013 read with Rule, 8 of the
+Companies (Accounts) Rules, 2014 is set out in the Annexure – 4 to this Report.
+Particulars of Employees
+None of the employee has received remuneration exceeding the limit as stated in rule 5(2) of the Companies (Appointment and
+Remuneration of Managerial Personnel) Rules, 2014 read with the Companies(Particulars of Employees) Rules, 1975, as amended, hence
+no particulars are required to be given herein.
+Deposits
+The Company has not accepted or renewed any deposit during the year and there are no outstanding and/or overdue deposits as at 31st
+March, 2015.
+07
+Place  New Delhi
 Date : August 11, 2015
 On behalf of the BOARD OF DIRECTORS
 Sd/-
@@ -3664,7 +5281,7 @@
 During the year, the Company has not transferred any amount to reserves.
 Material changes between the date of the Board Report and end of financial year
 Due to market and financial constraints, the Company was not able to fully utilize and leverage its production capacity and the Rehabilitation
-Plan filed by the Company with BIFR is yet to be considered and approved, resultantly management was left with no option but to keep the
+Plan filed by the Company with BIFR is yet to be considered and approved, resultantly management was left with no option but to keep  the
 manufacturing unit situated at Kolhapur, Maharashtra inoperative.
 Human Resources/Industrial Relations
 The Company and its management value the talent, commitment and dedication of its employees and acknowledge their contribution. All
@@ -3678,24 +5295,23 @@
 There is no change in the nature of the business of the company.
 Corporate Governance and Management Discussion and Analysis
 As stipulated under Clause 49 of the Listing Agreement entered into with Stock Exchanges, a report on Corporate Governance is attached
-separately as a part of the Annual Report and the Management Discussion and Analysis (MD &amp; A) is included in this report so that duplication
 and overlap between Directors' Report and a separate MD &amp; A is avoided and the entire information is provided in a composite and
 comprehensive manner.
 Listing of Shares
 Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of India, Mumbai (NSE).
-Due to financial crises and running the manufacturing unit on job work basis, the Annual Listing Fee for the financial year 2015-16 is yet to
-paid to BSE &amp; NSE and Company is in process of making payment there for in due course.
+Due to financial crises and running the manufacturing unit on job work basis,  the Annual Listing Fee for the financial year 2015-16 is yet to
+paid to BSE &amp; NSE and Company is in process of making payment  there for   in due course.
 Conclusion
 Your company is presently going through challenging and difficult period due to market and financial constraints. It has already been
 declared as a Sick Company under Sick Industrial Companies (Special Provisions) Act, 1985 by BIFR vide its order dated 18th July'2012,
-and UCO Bank has been appointed as an Operating Agency to work out DRS for the Company in consultation with lenders. It is however
-expected, on Company receiving BIFR approval for its DRS, it would be in a better position to augment its production and sales, by utilizing
+and UCO Bank has been appointed as an Operating Agency to work out DRS for the Company in consultation with  lenders. It is however
+expected, on Company receiving  BIFR approval for its DRS, it would be in a better position to augment its production and sales, by utilizing
 its capacities optimally. In the meanwhile to meet its day to day expenses, fixed expenses and expenses relating to Employees/workers, it is
 undertaking job work from other yarn manufacturers.
 Acknowledgments
 The Directors take this opportunity to express their grateful appreciation for the whole hearted and sincere co-operation the Company had
 received from the various departments of Central and State Government, Bankers, Financial Institutions, Customers, Suppliers and
-Contractors as well as Members of the Company during the year under review of the Company. The Directors also wish to place on record
+Contractors as well as Members of the Company during the year under review of the Company.  The Directors also wish to place on record
 the appreciation for the contribution made by all the employees at all levels and hope that with their continued commitment and dedication
 the Company could look forward to more profitable operations ahead.
 Annexure - 1 to the Director's Report
@@ -3703,25 +5319,33 @@
 section 188 of the Companies Act, 2013 including certain arms length transaction under third proviso thereto.
 1.
 Details of contracts or arrangements or transactions not at Arm's length basis – N.A.
-2. Details of material contracts or arrangements or transactions at Arm's length basis.
+2.    Details of material contracts or arrangements or transactions at Arm's length basis.
 FORM NO. AOC -2
 (Pursuant to clause (h) of sub-section (3) of section 134 of the Act and
 Rule 8(2) of the Companies (Accounts) Rules, 2014.
 SL. No.
 Particulars
 Details
+1
 Name (s) of the related party &amp; nature of relationship
 Spentex Industries Ltd. (Holding Company)
+2
 Nature of contracts/arrangements/transaction
 Sale/Purchase of godds/services
+3
 Duration of the contracts/arrangements/transaction
+01.04.2014 – 31.03.2015
+4
 Salient terms of the contracts or arrangements or
 Ongoing transactions on normal business terms.
 transaction including the value, if any
 Value of all transactions is Rs. 114,502,038.00/-
+5
 Date of approval by the Board
 13.02.2015
+6
 Amount paid as advances, if any
+-
 Annexure-2 to the Director's Report
 Form No. MR-3
 SECRETARIAL AUDIT REPORT
@@ -3730,7 +5354,7 @@
 (Appointment and Remuneration of Managerial Personnel) Rules, 2014)
 To,
 The Members,
-Amit Spinning Industries Limited
+(CIN NO: L17100DL1991PLC171468)
 We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good corporate
 practices by Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was conducted in a manner that
 provided us a reasonable basis for evaluating the corporate conducts/statutory compliances and expressing our opinion thereon.
@@ -3745,7 +5369,7 @@
 The Companies Act, 2013 (the Act) and the rules made there under;
 (ii)
 The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
-(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
+(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there  under;
 (iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign Direct Investment,
 Overseas Direct Investment and External Commercial Borrowings;
 (v) The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act') viz.:
@@ -3758,15 +5382,16 @@
 (f)
 The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993 regarding the
 Companies Act and dealing with client;
-(g) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009: and
+(g) The Securities and Exchange Board of India (Delisting of Equity  Shares) Regulations, 2009: and
 (h) The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998.
-AMIT SPINNING INDUSTRIES LIMITED
+08
+09
 (vi) OTHER APPLICABLE ACTS
 (a) Factories Act, 1948
 (b) Payment Of Wages Act, 1936, and rules made there under,
 (c) The Minimum Wages Act, 1948, and rules made there under,
 (d) Employees' State Insurance Act, 1948, and rules made there under,
-(e) The Employees' Provident Fund and Miscellaneous Provisions Act, 1952, and rules made there under,
+(e) The Employees' Provident Fund and Miscellaneous Provisions Act, 1952, and rules made   there under,
 (f)
 The Payment of Bonus Act, 1965, and rules made there under,
 (g) Payment of Gratuity Act, 1972, and rules made there under.
@@ -3801,10 +5426,10 @@
 legal requirements of the Central, State and other Government and Local Authorities Concerning the business and affairs of the
 company.
 (a) That all sums to be deducted in accordance with the provisions of the Income Tax Act, 1961 have been properly deducted and further
-certified that all sums so deducted have been paid or will be paid with the prescribed time to the credit of the Central Government in
+certified that all  sums so deducted have been paid or will be paid with the prescribed time to the credit of the Central Government in
 pursuance to Section 200 of the Income Tax Act, 1961.
-(b) That there has been no breach by the company of any of the provisions of the Industrial Disputes Act, Industrial Relation(s) Act,
-Payment of Bonus Act, Contract Labour (Regulations and Abolition) Act and other Labour Legislations governing the Company and its
+(b) That there has been no breach by the company of any of  the provisions of the Industrial Disputes Act, Industrial Relation(s) Act,
+Payment of Bonus Act, Contract Labour (Regulations and Abolition) Act and other Labour Legislations governing the Company and  its
 Establishment.
 (c) That all the requirements of the Air (Prevention and Control of pollution )Act, 1981, Water (Prevention and Control of Pollution)Act, 1974
 and Environment Protection Act, 1986 and the Rules made there under have been complied with and the requisitions, if any made by
@@ -3829,6 +5454,8 @@
 Place: New Delhi
 Loveneet Handa
 Dated: August 11, 2015
+ACS NO: 25973
+C.P No: 10753
 Annexure - I
 Documents examined/verified while conducting secretarial audit:
 (a) Books ,Papers, as per Section 2 (12) of Companies Act, 2013,“book and paper” and “book or paper” include books of account, deeds,
@@ -3838,97 +5465,55 @@
 (d) Certificate of Incorporation
 (e) Audited balance sheet(s)
 (f)
-Statutory Registers maintained by the Company i.e, Register of Members/ Register of Charges/ Register of Directors Shareholding/
+Statutory Registers maintained by the Company i.e, Register of Members/  Register of Charges/ Register of Directors Shareholding/
 Register of Contract/ Register of Investment, Register of Director Shareholdings, Register of Contracts of the Co. and firms in which
 directors etc are interested, Common Seal Register etc.
-(g) Minutes of the Board meetings, Annual General Meeting, Investor Grievances Committee, and Audit Committee Meeting.
+(g) Minutes of the Board meetings, Annual General Meeting, Investor Grievances  Committee, and Audit Committee Meeting.
 (h) As per provisions of Companies Act, 2013 and Company rules 2014 read with various clauses of Listing Agreement, the Company has
 constituted the Risk Management Committee, Stakeholders Relationship Committee, Audit Committee, Nomination &amp; Remuneration
 Committee and uploaded applicable policies at Company's website.
 (i)
 Notice of calling Annual General Meeting along with the explanatory statement.
 (j)
-Copy of documents related to the appointment/Resignation of Statutory Auditor of the company
-(k) Copy of Internal Audit Report given by Internal Auditor appointed u/s 138 of Companies Act, 2013.
-AMIT SPINNING INDUSTRIES LIMITED
-I.
-REGISTRATION AND OTHER DETAILS:
-FORM NO. MGT 9
-EXTRACT OF ANNUAL RETURN
-as on financial year ended on 31.03.2015
-Pursuant to Section 92 (3) of the Companies Act, 2013 and rule 12(1) of the Company
-(Management &amp; Administration ) Rules, 2014.
-Annexure - 3 to the Director's Report
-i)
-CIN
-ii)
-Registration Date
-18.11.1991
-iii)
-Name of the Company
-Amit Spinning Industries Limited
-iv)
-Category/Sub-category of the Company
-Public Limited Company
-v)
-Address of the Registered office &amp; contact details
-A - 60, Okhla Industrial Area, Phase - II, New Delhi - 110020;
-vi)
-Whether listed company
-Yes
-vii)
-Name, Address &amp; contact details of
-RCMC Share Registry Pvt. Ltd., B-25/1, Okhla Industrial Area,
-the Registrar &amp; Transfer Agent, if any
-II.
-PRINCIPAL BUSINESS ACTIVITIES OF THE COMPANY
-All the business activities contributing 10 % or more of the total turnover of the company shall be stated:-
-Sr. No.
-Name &amp; Description of main products/services
-NIC Code of the
-% to total turnover
-Product /service
-of the company
-Yarn
-III.
-PARTICULARS OF HOLDING , SUBSIDIARY &amp; ASSOCIATE COMPANIES
-Sr.
-NAME AND ADDRESS OF
-CIN/GLN
-HOLDING/
-% OF
-APPLICABLE
-No.
-THE COMPANY
-SUBSIDIARY/
-SHARES
-SECTION
-ASSOCIATE
-HELD
-Spentex Industries Limited
-Holding
-50.96%
-2 (46)
-A - 60, Okhla Industrial Area,
-Phase - II, New Delhi - 110020</t>
+Copy of documents related to the appointment/Resignation of Statutory Audit</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>fallback</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.7878787878787878</t>
+          <t>fallback</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['risk management']</t>
+          <t>Annexures to Directors' Report</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
+        <is>
+          <t>Corporate Governance</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.7651032619185485</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['risk management', 'future outlook']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -3962,63 +5547,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BOARD'S REPORT
-Dear Members,
-Your Directors have great pleasure in presenting the 24th Annual Report together with Audited Statements of Accounts of the Company
-for the year ended March 31, 2016.
-Financial Results
-The summarized financial results for the year ended March 31, 2016 as compared to the previous year are as follows:
-(` in Lakhs)
-2015-2016
-2014-2015
-Revenue from Operation
-38.98
-3205.52
-Other Income
-1.63
-4.06
-Profit before depreciation, interest finance charges and tax (PBDIT)
-(847.18)
-(842.59)
-Less: Interest and Finance Charges
-309.38
-347.29
-Less: Depreciation
-346.61
-343.59
-Profit/(Loss) before Tax (PBT)
-(1503.17)
-(1533.46)
-Less : Tax Expense/Deferred Tax
-878.25
-Profit/(Loss) after Tax (PAT)
-(1503.17)
-(2411.71)
-FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
-During the financial year 2015-16 under review, your company could not utilize its capacities due to financial constraints/shortage of
+          <t>FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+During the financial year 2015-16 under review, your company could  not utilize its  capacities due to financial constraints/shortage of
 working capital and the unit of the company located at Kolhapur remained inoperative accordingly the revenue from operations
 decreased to Rs. 38.98 lakhs as compared to Rs. 3,205.52 lakhs in the previous year.
 Further, over the period the company has eroded its net worth completely and it has been declared as a Sick Company under Sick
-Industrial Companies (Special Provisions) Act'1985 by the Board for Industrial and Financial Restructuring (BIFR) vide its order dated
+Industrial Companies (Special Provisions) Act'1985  by the Board for Industrial and Financial Restructuring (BIFR) vide its order dated
+18th July'2012.
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 India’s Textiles Sector is one of the oldest Industry in Indian economy dating back several centuries. Even today, textiles sector is one of
 the largest contributor to India’s exports accounting for approximately 11% of total exports. The Textile Industry is also labor intensive
 and is one of the largest employers. The industry realised export earnings worth US$ 41.4 billion and a growth of 5.4 per cent.
 The textile industry has two broad segments. First, the unorganised sector consists of handloom, handicrafts and sericulture, which are
-operated on a small scale and through traditional tools and methods. The second is the organized sector consisting of Spinning,
+operated on a small scale and through traditional tools and methods.  The second is the organized sector consisting of Spinning,
 Apparel and Garment segment which apply modern machinery and technology.
 Amit Spinning is producing only Cotton Yarn with a capacity of 30672 spindles. However, during the period under review, the operations
 of Amit Spinning were badly affected due to shortage of Working Capital and non approval of Rehabilitation Plan by BIFR.
-Due to these constraints the Company operations have been suspended since 11th August, 2015 resulting in revenue from
+Due to these constraints  the Company operations have been suspended since 11th August, 2015 resulting in  revenue from
 operations decreasing to Rs. 38.98 Lakhs as compared to Rs. 32.05 Crores during 2014-15.
 MANAGEMENT PERCEPTION ON OPPORTUNITIES, RISKS, CONCERN &amp; OUTLOOK
-The Low per-capita domestic consumption of textile indicates potential of growth in the textile industry. The Indian government has
-come up with a number of export promotion policies for the textiles sector. A new National Textiles Policy is expected to be announced
+The Low per-capita domestic consumption of textile indicates potential of growth in the textile industry.   The Indian government has
+come up with a number of export promotion policies for the textiles sector.   A new National Textiles Policy is expected to be announced
 soon Further, the Government has proposed the establishment of Centres of Excellence for training the workforce in the textile sector
 and also to establish institutes under the public-private partnership (PPP) model to encourage private sector participation in the
 development of the industry.
@@ -4031,12 +5585,13 @@
 satisfaction the management is confident of a turnaround of the company in near future.
 With the awaited / impending approval of rehabilitation scheme of the company by BIFR and with the continued support and co-
 operation of company’s bankers, management believes that your Company would again resume production, optimally utilize
-capacities, and generate increasing sales volumes, margins in due course.
+capacities, and generate  increasing sales volumes, margins  in due course.
 SEGMENT-WISE PERFORMANCE
 Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of geographical
 categorization of market, ASIL identified two segments i.e. exports and domestic.
-During the year under review, Company has not manufactured yarn as against 1281.64 MT produced by the company in the previous
+During the year under review, Company has not manufactured yarn as against  1281.64 MT produced by the company in the previous
 year.
+04
 SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
 As there are no subsidiaries/associates/joint ventures of the Company, the provisions contained in Companies Act, 2013/ SEBI
 (LODR) Regulations relating to subsidiaries are not applicable.
@@ -4047,7 +5602,7 @@
 During the year, the Company has not transferred any amount to reserves.
 SHARE CAPITAL
 The Company's Authorized Share Capital as on 31st March, 2016 stands at Rs. 25,00,00,000/-and issued &amp; paid up capital as on 31st
-March, 2016 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity shares of Rs. 5/- each. During the year, under
+March, 2016 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity shares of Rs. 5/- each.  During the year, under
 review, the Company has not issued any share(s). Further the Company has not issued any shares with differential Voting
 Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
 The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the benefit of
@@ -4067,7 +5622,6 @@
 Brief resume of the Directors proposed to be appointed/re-appointed, nature of their expertise in specific functional areas and
 names of the companies in which they hold directorship and membership/chairmanships of the Board or its Committees, as
 stipulated under SEBI (LODR) Regulations entered by the Company with stock exchanges in India, is provided in the Report of
-Corporate Governance forming part of the Annual Report.
 (b) Number of Meetings of the Board
 Four meetings of the Board were held during the year. The detailed information regarding meetings of the Board held during the
 year was mentioned in the Corporate Governance Report which forms part to this report.
@@ -4076,7 +5630,7 @@
 the Companies Act, 2013 and SEBI (LODR) Regulations.
 (d) Annual Evaluation by the Board
 Pursuant to the provisions of the Companies Act, 2013 and SEBI (LODR) Regulations, the Board has carried out an annual
-performance evaluation of its own performance, the directors individually as well as its Committees. The manner in which the
+performance evaluation of its own performance, the directors individually as well as its Committees.  The manner in which the
 evaluation has been carried out has been explained in the Corporate Governance Report.
 (e) Remuneration Policy
 The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection and
@@ -4094,6 +5648,7 @@
 (c) the directors had taken proper and sufficient care for the maintenance of adequate accounting records in accordance with the
 provisions of the Companies Act, 2013 for safeguarding the assets of the company and for preventing and detecting fraud and
 other irregularities;
+05
 (d) the directors had prepared the annual accounts on a going concern basis; and
 (e) the directors had laid down internal financial controls to be followed by the company and that such internal financial controls are
 adequate and were operating effectively.
@@ -4103,11 +5658,11 @@
 RELATED PARTY TRANSACTIONS
 All transactions entered into with related parties as defined under the Companies Act, 2013 and SEBI (LODR) Regulations during the
 financial year were in the ordinary course of business and on an arm's length pricing basis. The Company has entered into a material
-transaction with one related party i.e. its holding Company M/s. Spentex Industries Limited according to the policy framed for the
+transaction with one related party i.e. its holding Company M/s.  Spentex Industries Limited according to the policy framed for the
 related party transactions and the same has been disclosed in the note to financial statements. However there was no other materially
 significant Related Party transaction entered into by the Company with Promoters, Directors, Key Managerial Personnel or other
 designated persons which may have a potential conflict with the interest of the Company at large.
-Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for a period upto 31st March, 2016 The
+Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for a period upto 31st March, 2016  The
 transactions entered into pursuant to the omnibus approval so granted were audited and a statement giving details of all related party
 transactions was placed before the Audit Committee for its review on a quarterly basis.
 The Company has framed a Related Party Transactions Policy for purpose of identification and monitoring of such transactions. The
@@ -4117,7 +5672,7 @@
 holding company fall under material transaction and details of the same is mentioned in form AOC - 2 attached herewith as Annexure-1.
 MATERIAL CHANGES AND COMMITMENTS AFFECTING THE FINANCIAL POSITION BETWEEN THE DATE OF THE BOARD
 REPORT AND END OF FINANCIAL YEAR
-The Company has appointed Mrs. Shivani Gupta as an Independent Women Director w.e.f. 30th June, 2016 and Ms. Priya Lohani,
+The Company has appointed Mrs. Shivani Gupta as an Independent Women Director  w.e.f. 30th June, 2016 and Ms. Priya Lohani,
 Company Secretary has resigned from the Company w.e.f 22nd June, 2016.
 SIGNIFICANT AND MATERIAL ORDERS PASSED BY THE REGULATORS OR COURTS.
 There are no significant or material orders passed by the Regulators / Courts which would impact the going concern status of the
@@ -4144,7 +5699,7 @@
 opinion that ultimately there would be no losses against these old balances and hence no provision is considered necessary at this
 stage.
 Note No. 30 of the Financial Statement without qualifying, Auditors have drawn attention:
-“As on March 31, 2016, the accumulated losses of the Company have far exceeded its net worth. In the opinion of the management,
+“As on March 31, 2016, the accumulated losses of the Company have far exceeded its net worth.  In the opinion of the management,
 the Company's operations are affected by global business downturn which has resulted in reduction in demand, increase in input costs
 and shortage of working capital. The Company has also filed a reference with Board for Industrial and Financial Restructuring (BIFR)
 under Section 15 of Sick Industrial Companies (Special Provisions) Act, 1985 for determination of sickness and measures to be
@@ -4152,8 +5707,9 @@
 1985 and appointed UCO Bank as Operating Agency (OA) under section 17(3) to prepare Rehabilitation Scheme for the Company.
 However, on the strength of management's plan of revival including reorganization of business, these financial statements are
 prepared on a going concern basis.”
+06
 (b) Cost Auditor:
-The company having been declared as a sick Company and having not produced any yarn in the year 2015-16, the Cost Records
+The company having been declared as a sick Company and having not produced any  yarn in the year 2015-16, the Cost Records
 and Audit Rules, 2014 is not applicable to the Company.
 (c) Secretarial Auditor &amp; Audit Report:
 Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa &amp; Associate,
@@ -4207,7 +5763,9 @@
 them as employees and factors relevant to the company's performance and other employee related issues on a non discriminatory
 basis.
 The Board of Directors place on record the active, dedicated and valuable contribution made by employees of the Company at all levels
-with regard to the affairs of the Company. The Industrial relations remained cordial within the Company.
+with regard to the affairs of the Company. The Industrial relations remained cordial within  the Company.
+07
+08
 FRAUD REPORTING
 During the year no fraud has been reported to the Audit Committee / Board.
 INFORMATION TECHNOLOGY
@@ -4221,9 +5779,9 @@
 Boards' Report and a separate MD &amp; A is avoided and the entire information is provided in a composite and comprehensive manner.
 LISTING OF SHARES
 Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of India, Mumbai
-(NSE). Due to closure of operations of manufacturing unit and non approval of Rehabilitation Scheme by concerned authority the
-company has not paid the Annual Listing Fee for the financial year 2015-16 and 2016-17 to BSE &amp; NSE and Company would be in a
-position to pay the same only after infusion of funds pursuant and subsequent to the approval of Rehabilitation Scheme.
+(NSE). Due to closure of operations of manufacturing unit and non approval of Rehabilitation Scheme by concerned authority  the
+company has not paid the Annual Listing Fee for the financial year  2015-16  and 2016-17  to BSE &amp; NSE and Company would be in a
+position to pay the same only after infusion of funds pursuant and subsequent to the  approval of Rehabilitation Scheme.
 CONCLUSION
 Your company is presently going through challenging and difficult period due to market and financial constraints. It has already been
 declared as a Sick Company under Sick Industrial Companies (Special Provisions) Act, 1985 by BIFR vide its order dated 18th
@@ -4233,9 +5791,9 @@
 Acknowledgments
 Your Directors place on record their sincere thanks to bankers, financial institutions business associates, consultants, customers,
 suppliers, contractors and various Government Authorities for their continued support extended to your Company's activities during
-the year under review. Your Directors also gratefully acknowledge the continuing support of the shareholders and the confidence
+the year under review. Your Directors also gratefully acknowledge the continuing support of the shareholders  and the confidence
 reposed by them in the company
-Place New Delhi
+Place  New Delhi
 Date : August 9, 2016
 On behalf of the BOARD OF DIRECTORS
 Sd/-
@@ -4244,26 +5802,34 @@
 Annexure - 1 to the Director's Report
 Form for Disclosure of particulars of contracts/arrangements entered into by the company with related parties referred to in sub section
 (1) of section 188 of the Companies Act, 2013 including certain arms length transaction under third proviso thereto.
-1. Details of contracts or arrangements or transactions not at Arm's length basis – N.A.
-2. Details of material contracts or arrangements or transactions at Arm's length basis.
+1.    Details of contracts or arrangements or transactions not at Arm's length basis – N.A.
+2.    Details of material contracts or arrangements or transactions at Arm's length basis.
 FORM NO. AOC -2
 (Pursuant to clause (h) of sub-section (3) of section 134 of the Act and
 Rule 8(2) of the Companies (Accounts) Rules, 2014)
 SL. No.
 Particulars
 Details
+1
 Name (s) of the related party &amp; nature of relationship
 Spentex Industries Ltd. (Holding Company)
+2
 Nature of contracts/arrangements/transaction
 Sale/Purchase of godds/services
+3
 Duration of the contracts/arrangements/transaction
+01.04.2015 – 31.03.2016
+4
 Salient terms of the contracts or arrangements or
 Ongoing transactions on normal business terms.
 transaction including the value, if any
 Value of all transactions is Rs. 50,71,101/-
+5
 Date of approval by the Board
 25.05.2016
+6
 Amount paid as advances, if any
+-
 Annexure-2 to the Director's Report
 Form No. MR-3
 SECRETARIAL AUDIT REPORT
@@ -4272,7 +5838,7 @@
 of the Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014)
 To,
 The Members,
-Amit Spinning Industries Limited
+(CIN NO: L17100DL1991PLC171468)
 We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good corporate
 practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was conducted in a manner
 that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances and expressing our opinion thereon.
@@ -4287,7 +5853,7 @@
 The Companies Act, 2013 (the Act) and the rules made there under;
 (ii)
 The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
-(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
+(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there  under;
 (iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign Direct
 Investment, Overseas Direct Investment and External Commercial Borrowings;
 (v) The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act') viz.:
@@ -4300,7 +5866,7 @@
 (f)
 The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993 regarding
 the Companies Act and dealing with client;
-(g) The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009; (N.A.) and
+(g) The Securities and Exchange Board of India (Delisting of Equity  Shares) Regulations, 2009; (N.A.) and
 (h) The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
 (vi) OTHER APPLICABLE ACTS
 (a) Factories Act, 1948
@@ -4328,84 +5894,48 @@
 We further report that:
 1.
 The Board of Directors of the Company was not constituted with proper balance of Executive Directors, Non-Executive/
-Independent Directors as on March 31, 2016. However, as on June 30, 2016, the composition of the Board of Directors of the
+Independent Directors as on March 31, 2016.  However, as on June 30, 2016, the composition of the Board of Directors of the
 Company is in conformity with the requirements as stipulated under SEBI (LODR) Regulations, 2015 and the Companies Act,
 2013 and rules framed there under.
-2.
-Adequate notice is given to all directors to schedule the Board Meetings, agenda and detailed notes on agenda were sent at least
-seven days in advance and a system exists for seeking and obtaining further information and clarifications on the agenda items
-before the meeting and for meaningful participation at the meeting.
-3.
-Majority decision is carried through while the dissenting members' views are captured and recorded as part of the minutes.
-4.
-There are adequate systems and processes in the company commensurate with the size and operations of the company to
-monitor and ensure compliance with applicable laws, rules, regulations and guidelines.
-5.
-The Company has well maintained all the Statutory Registers i.e. Register of Members, Register of Charges, Register of Directors
-Shareholding etc. mandatory to be maintained under Companies Act, 2013.
-6.
-The Company was unable to pay off listing fees to stock exchanges; NSE &amp; BSE, for the financial year 2015-16 &amp; 2016-17. The
-Rehabilitation Scheme filed by the company with BIFR is yet to be considered and approved. The management has no option but
-continue to keep the manufacturing unit situated at Kolhapur, Maharashtra, inoperative, as before for the time being, due to
-financial constraints and non-availability of working capital.
-7.
-The Company has paid all the statutory dues except dues related to EPF (Employee Provident Fund) and Service Tax for the
-financial year 2015-2016 due to financial constraints.
-8.
-The Company has complied with all the provisions of SEBI (Listing obligations and Disclosure Requirements) regulation, 2015
-and SEBI (Insider Trading) Regulations, 2015 in respect to opening trading window, Company intimated 24 hours instead of 48
-hours.
-9.
-On July 18, 2012 Board for Industrial &amp; Financial Reconstruction declared the company as Sick Industrial Company under Section
-3(1)(o) of SICA, 1985 &amp; has also appointed Operating Agency to prepare a rehabilitation scheme.
-10. As per provisions of Companies Act, 2013 and Company rules 2014 read with various clauses of Listing Agreement/SEBI (Listing
-Obligation and Disclosure Requirements) Regulations, 2015, the Company has constituted the Risk Management Committee,
-Stakeholders Relationship Committee, Audit Committee, Nomination &amp; Remuneration Committee and uploaded applicable
-policies at Company's website.
-11. The Company has appointed Mr. Malpeddi Nagnath S as Chief Financial Officer of the Company in the Board Meeting held on 08-
-02-2016 and filed all necessary documents with Registrar of Companies except MR-1 till today. At the time of appointment of CFO,
-Form MR-1 is applicable, however, the same have now been dispensed by Ministry of Corporate Affairs.
-During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines, Standards,
-etc. mentioned above and there were no specific events / actions having a major bearing on the company's affairs
-For Loveneet Handa &amp; Associates
-(Practicing Company Secretary)
-Sd/-
-Place: New Delhi
-Loveneet Handa
-Dated: August 03, 2016
-Annexure - I
-Documents examined/verified while conducting secretarial audit:
-(a) Books ,Papers, as per Section 2 (12) of Companies Act, 2013,“book and paper” and “book or paper” include books of account,
-deeds, vouchers, writings, documents, minutes and registers maintained on paper or in electronic form. (Registers Maintained by
-RTA)
-(b) Memorandum of association
-(c) Articles of association
-(d) Certificate of Incorporation
-(e) Audited balance sheet(s)
-(f)
-Statutory Registers maintained by the Company i.e. Register of Members/ Register of Charges/ Register of Directors
-Shareholding/ Register of Contract/ Register of Investment, Register of Director Shareholdings, Register of Contracts of the Co.
-and firms in which directors etc are interested, Common Seal Register etc.
-(g) Minutes of the Board meetings, Annual General Meeting, Stakeholders Relationship Committee Meeting, and Audit Committee
-Meeting, Nomination &amp; Remuneration Committee Meetin</t>
+09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.7503711746847785</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>. To consider and, if thought fit, to pass, with or without modifications the following resolution as an Ordinary Resolution</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.7904232181695012</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>['risk management', 'future outlook']</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -4434,199 +5964,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BOARD OF DIRECTORS
-REGISTERED &amp; CORPORATE OFFICE
-S P Setia
-(Non-Executive / Independent Chairman)
-A-60, Okhla Industrial Area,
-I. D. Desai
-(Manager)
-Phase - II, New Delhi - 110020
-Shivani Gupta
-(Non-Executive / Independent Woman Director)
-K Sankaramani
-(Non-Executive Director)
-Vijay Bhan Singh
-(Non-Executive Director)
-REGISTRAR &amp; TRANSFER AGENTS
-M/s. RCMC Share Registry Pvt. Ltd.
-B-25/1, Okhla Industrial Area, Phase-II,
-Near Rana Motor, New Delhi - 110020
-PLANT
-Gat No. 47 &amp; 48, Sangavade Village
-Kolhapur - Hupari Road
-Taluka Karveer
-Dist. Kolhapur 416 202
-MAHARASHTRA
-BANKERS / ARC
-AXIS Bank Limited
-JM Financial Asset Reconstruction
-Company Pvt. Ltd.
-AUDITORS
-Sunil Jain &amp; Co.
-Chartered Accountants
-New Delhi
-AUDIT COMMITTEE
-S P Setia (Chairman)
-K. Sankaramani
-Shivani Gupta
-NOMINATION AND REMUNERATION COMMITTEE
-S P Setia (Chairman)
-K. Sankaramani
-Shivani Gupta
-STAKEHOLDERS RELALTIONSHIP COMMITTEE
-S P Setia (Chairman)
-K. Sankaramani
-Shivani Gupta
-INDEX
-Page No.
-Notice
-Board’s Report Including
-Management Discussions &amp;
-Analysis Report
-Annexures to Boards’ Report
-Corporate Governance
-Auditor’s Report
-Balance Sheet
-Statement of Profit &amp; Loss
-Cash Flow Statement
-Notes
-25th AGM
-Date
-September 25, 2017 Time 11:30 A.M.
-Venue
-Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan Park, New Delhi - 110 019
-Book Closure :
-From Thursday September 21, 2017 to Monday, September 25, 2017 (both days inclusive).
-Company’s shares are listed on BSE Ltd. and National Stock Exchange of India Ltd.
-N O T I C E
-NOTICE is hereby given that the 25th Annual General Meeting of the Members of Amit Spinning Industries Limited will
-be held on Monday the 25th day of September, 2017 at 11.30 A.M at Bipin Chandra Pal Memorial Bhavan, A-81,
-Chittaranjan Park, New Delhi 110019 to transact the following business:
-ORDINARY BUSINESS:
-1.
-To consider and adopt the Audited Financial Statements of the Company for the financial year ended 31st March,
-2017 including Balance Sheet of the Company as at 31st March, 2017, Statement of Profit &amp; Loss for the year ended
-on that date and the Reports of the Board of Directors' and Auditors' thereon.
-2.
-To ratify appointment of the Statutory Auditors of the Company for the financial year 2017-18 and to fix their remuneration.
-SPECIAL BUSINESS:
-3.
-To consider and, if thought fit, to pass with or without modifications the following resolution as an Ordinary Resolution:
-"RESOLVED THAT pursuant to the provisions of sections 149, 152 and other applicable provisions, if any, of the
-Companies Act, 2013 read with Companies (Appointment and Qualification of Directors) Rules, 2014 and SEBI
-(Listing Obligation and Disclosure Requirements) Regulations 2015 (including any statutory modification(s) or re-
-enactment thereof, for the time being in force) , Mr. Vijay Bhan Singh (DIN 07764296), who was appointed as an
-Additional Director by the Board of Directors of the Company pursuant to section 161(1) of the Companies Act, 2013
-and Article 85 of the Article of Association of the company and who holds office up to the date of this Annual General
-Meeting and in respect of whom the Company has received a notice in writing from a member alongwith the requisite
-fee proposing his candidature for the office of director, be and is hereby appointed as Non Executive Director of the
-Company and who shall be liable to retire by rotation".
-For &amp; on behalf of the Board
-Sd/-
-Director
-(Signed under the authority of Parveen Bansal, who has been appointed as Interim Resolution Professional by
-order of Principal Bench, National Company Law Tribunal dated August 1, 2017 under the provisions of
-Insolvency and Bankruptcy Code, 2016)
-Place : New Delhi
-Date : 17th August, 2017
-NOTES:
-A.
-Explanatory Statement setting out all material facts regarding Special Business contained in Item Nos. 3 as required
-under Section 102 (1) of the Companies Act, 2013, is annexed hereto.
-B.
-A MEMBER ENTITLED TO ATTEND AND VOTE IS ENTITLED TO APPOINT A PROXY TO ATTEND AND VOTE
-INSTEAD OF HIMSELF/HERSELF AND THE PROXY NEED NOT BE A MEMBER OF THE COMPANY. PROXY
-SHOULD BE DEPOSITED AT THE REGISTERED OFFICE OF THE COMPANY ATLEAST 48 HOURS BEFORE
-THE COMMENCEMENT OF THE MEETING.
-C. A person can act as a proxy on behalf of members not exceeding fifty and holding in the aggregate not more than ten
-percent of the total share capital of the Company carrying voting rights. A member holding more than ten percent of
-the total share capital of the Company carrying voting rights may appoint a single person as proxy and such person
-shall not act as proxy for any other person or shareholder.
-D. The Register of Members and Share Transfer Books of the Company will be closed from Thursday, the 21st day of
-September, 2017 to Monday, the 25th day of September, 2017 (both days inclusive) for the purpose of this Annual
-General Meeting.
-E.
-All documents referred in the Notice and accompanying explanatory statement are open for inspection at the Registered
-Office of the Company on all working days of the Company between 10.00 A.M. to 1.00 P.M. upto the date of Annual
-General Meeting and also at the meeting.
-F.
-Members are requested to intimate the change, if any, in their registered address immediately.
-G.
-Members/Proxies should bring the attendance slips duly filled in and signed for attending the meeting.
-H. It will be appreciated that queries, if any, on accounts and operations of the Company are sent to the Registered Office
-of the company ten days in advance of the meeting so that the information may be made readily available.
-I.
-As per provisions of the Companies Act, facility of nomination is available to the members in respect of the shares
-held by them.
-J.
-For any query on the Depository System, members may contact any depository participant or the Share Department
-at the Registered Office of the Company.
-K.
-In terms of SEBI (Listing Obligation and Disclosure Requirements) Regulations, 2015, a brief resume of directors who
-are proposed to be appointed at this meeting is provided in Corporate Governance Report, forming part of the Annual
-ANNEXURE TO THE NOTICE
-EXPLANATORY STATEMENT PURSUANT TO SECTION 102(1) OF THE COMPANIES ACT, 2013
-ITEM NO. 3:
-Mr. Vijay Bhan Singh was appointed as an Additional Director on the position of Non-Executive Director of the Company
-on 27th March, 2017 by the Board of Directors of the Company and holds office upto the date of this Annual General
-Meeting. Mr. Singh (52 years) is Commerce Graduate and having rich experience in Accounts, finance and related
-matters.
-The Company has received a notice in terms of Section 160 of the Companies Act, 2013 alongwith the amount of requisite
-deposit from a member signifying his intention to propose the appointment of Mr. Vijay Bhan SIngh as a Director of the
-Company.
-As required under Section 152 of the Companies Act, 2013, the Company has received a declaration from Mr. Vijay Bhan
-Singh that he is not disqualified from being appointed as a Director in terms of Section 164 of the Act and has given his
-consent to act as a Director.
-Brief resume of Mr. Vijay Bhan Singh, nature of his expertise in specific functional areas are provided in the Corporate
-governance Report forming part of the Annual Report.
-None of the Directors and/or Key Managerial Personnel of the Company and/or their relatives, except Mr. Vijay Bhan
-Singh is concerned or interested in the resolution set out in Item No. 3.
-Board/ Interim Resolution Professional recommends the resolution in relation to appointment of Mr. Vijay Bhan Singh as
-a Director, for the approval by the shareholders of the Company.
-For &amp; on behalf of the Board
-Sd/-
-Director
-(Signed under the authority of Parveen Bansal, who has been appointed as Interim Resolution Professional by
-order of Principal Bench, National Company Law Tribunal dated August 1, 2017 under the provisions of
-Insolvency and Bankruptcy Code, 2016)
-Place : New Delhi
-Date : 17th August, 2017
-Report.
-L.
-Securities and Exchange Board of India (SEBI) made it mandatory for the transferees to furnish copy of PAN card to
-the Company/RTA for registration of shares held in Physical Form.
-M. Members are requested to send queries, if any, at E-mail ID secretarial@clcindia.com which is being used exclusively
-for the purpose of redressing the complaint(s) of the investors.
-N. VOTING THROUGH ELECTRONIC MEANS
-In accordance with provisions of section 108 of the Companies Act, 2013 read with Rule 20 of the Companies
-(Management and Administration) Rules, 2014 the business may be transacted through electronic voting system and
-the Company intends to provide facility for voting by electronic means ("e-voting") to its members. The Company has
-engaged the services of Central Depository Services (India) Limited (CDSL) to provide e-voting facilities and for
-security and enabling the members to cast their vote in a secure manner. However, the company has not paid the
-Annual Custodian Fee to the CDSL due to financial difficulties, the CDSL/NSDL have blocked the benpos and not
-provided the shareholders list, and the company is not in a position to conduct the e-voting process for the said
-meeting. Company has requested and assured the CDSL that the dues will be cleared, inspite of our request, CDSL
-has not provided the benpos.
-BOARD'S REPORT
-Dear Members,
-Your Directors have great pleasure in presenting the 25th Annual Report together with Audited Statements of Accounts of
-the Company for the year ended March 31, 2017.
-FINANCIAL RESULTS:
-The summarized financial results for the year ended March 31, 2017 as compared to the previous year are as follows:
-( in Lakhs)
-FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
-During the financial year 2016-17 under review, due to financial constraints and shortage of working capital the Company
+          <t xml:space="preserve">FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+During the financial year 2016-17 under review,  due to financial constraints and shortage of working capital the Company
 operations have remained suspended since 11th August, 2015 resulting in revenue from operations decreased in the
 current financial year ended 31st March, 2017 to Rs. 15.85 Lakhs as compared to Rs. 38.98 Lakhs during previous year
 ended 31st March, 2016.
@@ -4654,7 +6003,7 @@
 31st March, 2016.
 As members of Amit Spinning are aware that the Company was declared as a Sick Company under Section 3(1)(o) of
 SICA 1985, from 1st December, 2016, SICA has been repealed and such companies were allowed to approach National
-Company Law Tribunal (NCLT) within 180 days. Accordingly, the Company has filed its petition before NCLT for resolution
+Company Law Tribunal (NCLT) within 180 days.  Accordingly, the Company has filed its petition before NCLT for resolution
 of its debts and approval of resolution plan
 In addition to the above, the manufacturing unit situated at Kolhapur, Maharashtra stand closed with effect from 1st July,
 2017 in accordance with applicable legal provisions due to shortage of working capital and closing of unit is a major jolt to
@@ -4687,16 +6036,19 @@
 (1322.43)
 (1503.17)
 Less : Tax Expense/Deferred Tax
+0
+0
 Profit/(Loss) after Tax (PAT)
 (1322.43)
 (1503.17)
+4
 buoyed by both strong domestic consumption as well as export demand. With consumerism and disposable income on
 the rise, the retail sector has experienced a rapid growth in the past decade with the entry of several international players.
 Further, the Textile Ministry has also introduced a new textile policy to promote value additions which sets a target of
 doubling textile exports in next 10 years.
 The major factors hindering progress of the textiles industry are increase in the power costs, higher transaction costs, high
 cost of labour and general increase in input costs, thus the industry has to concentrate on cost reduction exercises and
-improvement in efficiency. Another key challenge presently is the Fiber/Raw Material cost, which is increasing abruptly
+improvement in efficiency.  Another key challenge presently is the Fiber/Raw Material cost, which is increasing abruptly
 and increase is not fully absorbed in the yarn prices and accordingly yarn spinners are hit the most in the entire textile
 chain.
 Due to fluctuating prices and uncertainties in the foreign exchange market, increase in power cost, introduction of GST
@@ -4709,7 +6061,7 @@
 confident of a turnaround of the company in near future.
 SEGMENT-WISE PERFORMANCE
 Amit Spinning Industries Ltd. (ASIL) being a cotton yarn manufacturer has only one business segment. On the basis of
-geographical categorization of market, ASIL identified two segments i.e. exports and domestic. During the year under
+geographical categorization of market, ASIL identified two segments i.e. exports and domestic.  During the year under
 review, Company has not manufactured yarn due to suspension of operations of manufacturing unit.
 SUBSIDIARY COMPANIES, JOINT VENTURES AND ASSOCIATE COMPANIES
 As there are no subsidiaries/ associates / joint ventures of the Company, the provisions contained in Companies Act,
@@ -4732,7 +6084,7 @@
 Mr. Vijay Bhan Singh has been appointed as an Additional Non-Executive Director on the Board of the Company with
 effect from 27th March, 2017.
 Mr. Ranjan Mangtani, Non-Executive Director has tendered his resignation w.e.f. closing hours of 10th November,
-2016. During the year, the term of I.B. Maner as Managing Director has expired on closing hours of 31st August, 2016
+2016.  During the year, the term of I.B. Maner as Managing Director has expired on closing hours of 31st August, 2016
 and has resigned from directorship w.e.f. 10th November, 2016 keeping in view of financial difficulties of the Company,
 members of the Company have appointed Mr. I D Desai as Manager for a period of 3 years w.e.f. 1st September, 2016.
 Further, during the year, under review, Ms. Priya Lohani, Company Secretary has resigned w.e.f. 22nd June, 2016 and
@@ -4743,9 +6095,9 @@
 Brief resume of the Director(s) proposed to be appointed/re-appointed, nature of their expertise in specific functional
 areas and names of the companies in which they hold directorship and membership/chairmanships of the Board or its
 Committees, as stipulated under SEBI (LODR) Regulations entered into by the Company with stock exchanges in
-India, is provided in the Report of Corporate Governance forming part of the Annual Report.
 (b) Number of Meetings of the Board
 Five meetings of the Board were held during the year. The detailed information regarding meetings of the Board held
+5
 during the year is mentioned in the Corporate Governance Report which forms part to this report.
 (c) Declaration by Independent Directors
 All Independent Directors have given declarations that they meet the criteria of independence as laid down under
@@ -4794,13 +6146,14 @@
 after completion of applicable legal formalities.
 As the Company was declared as a Sick Company under Section 3(1)(o) of SICA 1985 and SICA has been repealed w.e.f
 1st December, 2016, accordingly, the Company had filed its petition before NCLT under Insolvency and Bankruptcy Code,
-2016 and NCLT has pronounced the order admitting the petition of the Company, and appointing Mr. Parveen Bansal, as
+2016 and NCLT has pronounced the order admitting the petition of the Company, and  appointing Mr. Parveen Bansal, as
 an Interim Resolution Professional in accordance with applicable regulations under Insolvency and Bankruptcy Code,
 2016. With this, corporate insolvency resolution process, against the Company Commences w.e.f 1st August, 2017.
 SIGNIFICANT AND MATERIAL ORDERS PASSED BY THE REGULATORS OR COURTS.
 NCLT has, vide its order dated 1st August, 2017, admitted Company's petition under Insolvency and Bankruptcy Code,
 2016 and has appointed Interim Resolution Professional and with that Corporate Insolvency Resolution Process in respect
 of the Company under IBC, 2016, commences.
+6
 AUDITORS AND AUDITORS REPORT
 (a) Statutory Auditors
 At the 22nd Annual General Meeting held on 11.09.2014, M/s Sunil Jain &amp; Co., Chartered Accountants, (Firm Registration
@@ -4812,6 +6165,7 @@
 Accountants to the effect that their appointment, if made, at the ensuing AGM would be in terms of Sections 139 and
 141 of the Companies Act, 2013 and rules made there under and that they are not disqualified for re-appointment.
 Further, the Statutory Auditors have submitted Auditors' Report on the accounts of the Company for the period ended
+31st March 2017.
 Directors' view on Auditor's Observations
 Directors' response to the various observations of the auditors made in their report, have been explained wherever
 necessary through appropriate notes to accounts, however pertinent notes are reproduced hereunder in compliance with
@@ -4859,14 +6213,15 @@
 (c) Secretarial Auditor &amp; Audit Report:
 Pursuant to provisions of Section 204 of the Companies Act, 2013, the Company has appointed M/s. Loveneet Handa
 &amp; Associate, Practicing Company Secretary (having CP No. 10753 &amp; Membership No. F-9055) as Secretarial Auditor
-to carry out the secretarial audit for the financial year 2016-17. The Secretarial Audit Report for the financial year
+7
+to carry out the secretarial audit for the financial year 2016-17.  The Secretarial Audit Report for the financial year
 ended March 31, 2017 in Form MR-3 is annexed herewith as Annexure I to this Report in compliance with the provisions
 of Section 204 of the Companies Act, 2013.
 The qualifications/observations/remarks made by the Secretarial Auditors and management's view thereon are given
 in their Report attached hereto.
 (d) Internal Auditors
 During the year, Dr. Sunil Kumar Gupta is Internal Auditor of the Company pursuant to section 138 of the Companies
-Act, 2013 read with The Companies (Accounts) Rules, 2014. However he has tendered his resignation w.e.f. 25th
+Act, 2013 read with The Companies (Accounts) Rules, 2014.  However he has tendered his resignation w.e.f. 25th
 July, 2017.
 INTERNAL CONTROL SYSTEMS AND ADEQUACY
 The Company has established adequate internal control systems, commensurate with its size and nature of business and
@@ -4893,25 +6248,196 @@
 A Risk Management Committee has been constituted to oversee the risk management process in the Company as
 required under the Companies Act, 2013 and SEBI (LODR) Regulations. The details of the Committee and its terms of
 reference are set out in the Corporate Governance Report forming part of the Board's Report. The Risk Management
-Policy h</t>
+Policy has also been hosted on the website of the company
+VIGIL MECHANISM
+The Company has framed and implemented a vigil mechanism named as Whistle Blower Policy to deal with instances of
+fraud and mismanagement, if any. The details of the Whistle Blower Policy are provided in the Corporate Governance
+Report and also hosted on the website of the Company.
+During the year under review, there were no cases filed pursuant to the Sexual Harassment of Women at Workplace
+(Prevention, Prohibition and Redressal) Act, 2013.
+HUMAN RESOURCES/INDUSTRIAL RELATIONS
+A fundamental concept embodied in the company's code of conduct is to provide working environment that motivate
+employees to be productive and innovative and provide opportunities for employee training and development to maximize
+personal potential and develop careers within the Company. The Company values the involvement of its employees and
+keep them informed on matters affecting them as employees and factors relevant to the company's performance and
+other employee related issues on a non discriminatory basis.
+The Board of Directors place on record the active, dedicated and valuable contribution made by employees of the Company
+at all levels with regard to the affairs of the Company. The Industrial relations remained cordial within the Company.
+FRAUD REPORTING
+During the year no fraud has been reported to the Audit Committee / Board.
+INFORMATION TECHNOLOGY
+Information Technology continues to be an integral part of your company's business strategy. The Company is working on
+SAP platform integrating its business processes, financial parameters, customer transactions and people, effectively on
+real time basis.
+CHANGE IN THE NATURE OF BUSINESS
+8
+Annexure - 1 to the Director’s Report
+Form No. MR-3
+SECRETARIAL AUDIT REPORT
+FOR THE FINANCIAL YEAR ENDED ON 31ST MARCH, 2017
+(Pursuant to section 204(1) of the Companies Act, 2013 and Rule No. 9 of the Companies (Appointment and
+Remuneration of Managerial Personnel) Rules, 2014)
+To,
+The Members,
+(CIN NO: L17100DL1991PLC171468)
+We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good
+corporate practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was
+conducted in a manner that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances
+and expressing our opinion thereon.
+Based on our verification of the Company's books, papers, minute books, forms and returns filed and other records
+maintained by the Company and also information provided by the Company, its officers, agents and authorized
+representatives during the conduct of secretarial audit, We hereby report that in our opinion, the company has, during the
+audit period covering the financial year ended on 31st March, 2017, complied with the statutory provisions listed hereunder
+and also that the Company has proper Board-processes and compliance-mechanism in place to the extent, in the manner
+and subject to the reporting made hereinafter:
+There is no change in the nature of the business of the company.
+CORPORATE GOVERNANCE AND MANAGEMENT DISCUSSION AND ANALYSIS
+As stipulated under SEBI (LODR) Regulations a report on Corporate Governance is attached separately as a part of the
+overlap between Directors' Report and a separate MD &amp; A is avoided and the entire information is provided in a composite
+and comprehensive manner.
+LISTING OF SHARES
+Presently Company's shares are listed and traded at the BSE Limited, Mumbai (BSE) and National Stock Exchange of
+India, Mumbai (NSE). Due to closure of the manufacturing unit situated at Kolhapur and non approval of Rehabilitation
+Scheme by concerned authority the company has not paid the Annual Listing Fee for the last three financial year to BSE
+&amp; NSE and company would be in a position to pay the same only after infusion of funds pursuant and subsequent to
+approval of Rehabilitation Scheme.
+CONCLUSION
+Your company is presently going through challenging and difficult period due to market and financial constraints. NCLT
+has pronounced to initiate the commencement of a corporate insolvency resolution process w.e.f 1st August, 2017 pursuant
+to an application filed by the Company for resolution of its debts and approval of rehabilitation scheme and Mr. Parveen
+Bansal, has been appointed as Interim Resolution Professional, who shall be exercising management powers of the
+Company, in accordance with applicable regulations under Insolvency and Bankruptcy Code, 2016. It is however expected,
+that on approval of rehabilitation scheme by NCLT, It would be in a better position to augment its production and sales  by
+utilizing its capacities optimally.
+Acknowledgements
+Your Directors place on record their sincere thanks to bankers, financial institutions business associates, consultants,
+customers, suppliers, contractors and various Government Authorities for their continued support extended to your
+Companies activities during the year under review. Your Directors also acknowledge gratefully the shareholders for their
+support and confidence reposed on the Company.
+For &amp; on behalf of the Board
+Sd/-
+DIRECTOR
+(Signed under the authority of Parveen Bansal, who has been appointed as Interim Resolution Professional by
+order of Principal Bench, National Company Law Tribunal dated August 1, 2017 under the provisions of
+Insolvency and Bankruptcy Code, 2016)
+Place :  New Delhi
+Date  : 17th August, 2017
+9
+We have examined the books, papers, minute books, forms and returns filed and other records maintained by M/s Amit
+Spinning Industries Limited as given in Annexure I for the financial year ended on 31st March, 2017 according to the
+provisions of:
+(i)
+The Companies Act, 2013 (the Act) and the rules made there under;
+(ii) The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
+(iii) The Depositories Act, 1996 and the Regulations and Bye-laws framed there  under;
+(iv) Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign
+Direct Investment, Overseas Direct Investment and External Commercial Borrowings;
+(v) The Regulations and Guidelines prescribed under the Securities and Exchange Board of India Act, 1992 ('SEBI Act')
+viz.:
+(a)
+The Securities and Exchange Board of India (Substantial Acquisition of Shares and Takeovers) Regulations,
+2011;
+(b)
+The Securities and Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015;
+(c)
+The Securities and Exchange Board of India (Issue of Capital and Disclosure Requirements) Regulations, 2009;
+(N.A)
+(d)
+The Securities and Exchange Board of India (Share Based Employee Benefits) Regulations, 2014); (N.A.)
+(e)
+The Securities and Exchange Board of India (Issue and Listing of Debt Securities) Regulations. 2008; (N.A.)
+(f)
+The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations,
+1993 regarding the Companies Act and dealing with client;
+(g)
+The Securities and Exchange Board of India (Delisting of Equity  Shares) Regulations, 2009; (N.A.) and
+(h)
+The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
+(vi) OTHER APPLICABLE ACTS
+(a)
+Factories Act, 1948
+(b)
+Payment Of Wages Act, 1936, and rules made there under,
+(c)
+The Minimum Wages Act, 1948, and rules made there under,
+(d)
+Employees' State Insurance Act, 1948, and rules made there under,
+(e)
+The Employees' Provident Fund and Miscellaneous Provisions Act, 1952, and rules made there under,
+(f)
+The Payment of Bonus Act, 1965, and rules made there under,
+(g)
+Payment of Gratuity Act, 1972, and rules made there under.
+(h)
+The Water (Prevention &amp; Control of Pollution) Act, 1974, read with Water (Prevention &amp; Control of Pollution)
+Rules, 1975,
+(i)
+Food Safety and Standards Act, 2006, and rules made there under.
+(j)
+Environment (Protection) Act, 1986
+We have also examined compliance with the applicable clauses of the following:
+1.
+Secretarial Standards issued by The Institute of Company Secretaries of India.
+2.
+The Listing Agreements entered into by the Company with BSE Limited and National Stock Exchange of India Limited.
+3.
+Securities and Exchange Board of India (Listing Obligations and Disclosure Requirements) Regulations, 2015
+During the period under review the Company has complied with the provisions of the Act, Rules, Regulations, Guidelines,
+Standards, etc. mentioned above.
+We further report that:
+1.
+The Board of Directors of the Company was not constituted with proper balance of Executive Directors and Non-
+Executive Directors.  There is no Executive Director on the Board of the Company and due to the Financial Constraints;
+the Company is unable to appoint any other Director. However, the composition of Independent Directors on the
+Board of Directors of the Company is in conformity with the requirements as stipulated under SEBI (LODR) Regulations,
+2015 and the Companies Act, 2013 and rules framed there under.
+2.
+The Company is required to appoint a Whole Time Company Secretary as per the provisions of Section 203 of the
+Companies Act, 2013 read with Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014
+and SEBI (LODR) Regulations, 2015, however, there is no Whole Time Company Secretary of the Company, as on
+date and as per the Company's management representation, no person is willing to join the Company as Whole Time
+Company Secretary, due to the Financial Constraints of the Company.
+3.
+Mr. Bharat Kapoor has been appointed as Compliance Officer of the Company w.e.f. December 31, 2016 in place of
+Mr. Deepanshu Arora. </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17248</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.7688718769043267</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Brief resume of Mr. Vijay Bhan Singh, nature of his expertise in specific functional areas are provided in the Corporate</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Balance Sheet</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>24327</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.7270925290174922</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>['risk management']</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -4940,80 +6466,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BOARD OF DIRECTORS
-REGISTERED &amp; CORPORATE OFFICE
-S P Setia
-(Non-Executive / Independent Chairman)
-A-60, Okhla Industrial Area,
-Jitendra Chopra
-(Managing Director)
-Phase - II, New Delhi - 110020
-Deepak Choudhari
-(Joint Managing Director)
-Sharmila Devi Chopra (Non-Executive Director)
-Shivani Gupta
-(Non-Executive / Independent Woman Director)
-Vijay Bhan Singh
-(Non-Executive Director)
-REGISTRAR &amp; TRANSFER AGENTS
-M/s. RCMC Share Registry Pvt. Ltd.
-B-25/1, Okhla Industrial Area, Phase-II,
-Near Rana Motor, New Delhi - 110020
-PLANT
-Gat No. 47 &amp; 48, Sangavade Village
-Kolhapur - Hupari Road
-Taluka Karveer
-Dist. Kolhapur 416 202
-MAHARASHTRA
-AUDITORS
-Sunil Jain &amp; Co.
-Chartered Accountants
-New Delhi
-CHIEF FINANCIAL OFFICER
-Shreyans Rajendra Choudhari
-COMPANY SECRETARY
-Aniruddha Badkatte
-BANKERS / ARC
-AXIS Bank Limited
-JM Financial Asset Reconstruction Company Pvt. Ltd.
-INDEX
-Page No.
-Board’s Report Including
-Management Discussions &amp;
-Analysis Report
-Annexures to Boards’ Report
-Corporate Governance
-Auditor’s Report
-Balance Sheet
-Statement of Profit &amp; Loss
-Cash Flow Statement
-Notes
-26th AGM
-Date
-September 27, 2018 Time 11:30 A.M.
-Venue
-Bipin Chandra Pal Memorial Bhavan, A-81, Chittaranjan Park, New Delhi - 110 019
-Book Closure :
-Saturday, the 22nd September, 2018 to Thursday, the 27th September, 2018 (both days inclusive)
-Company’s shares are listed on BSE Ltd. and National Stock Exchange of India Ltd.
-BOARD'S REPORT
-Dear Members,
-Your Directors have great pleasure in presenting the 26th Annual Report together with Audited Statements of Accounts of
-the Company for the year ended March 31, 2018.
-FINANCIAL RESULTS:
-The summarized financial results for the year ended March 31, 2018 as compared to the previous year are as follows:
-( in Lakhs)
-FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
+          <t>FINANCIAL ANALYSIS AND PERFORMANCE REVIEW
 Due to the financial constraints the company's operations remain suspended during the year under review resulting in
 decrease in revenue from operations in the current financial year ended 31st March, 2018 of Nil as compared to Rs. 15.85
 Lakhs during the previous year ended 31st March, 2017. In addition to the above, the manufacturing unit situated at
@@ -5022,7 +6485,7 @@
 December, 2016, and such companies were allowed to approach (NCLT) within 180 days. Accordingly, the Company had
 filed its petition before NCLT for resolution of its debts and approval of rehabilitation scheme and NCLT has pronounced
 the commencement of a corporate insolvency resolution process, against the Company w.e.f 1st August, 2017 and Mr.
-Praveen Bansal was appointed as Interim Resolution Professional to exercise management powers of the Company, in
+Praveen Bansal was  appointed as Interim Resolution Professional to exercise management powers of the Company, in
 accordance with applicable regulations under Insolvency and Bankruptcy Code, 2016.
 Subsequently, NCLT has, vide its order dated 31st July, 2018 approved the resolution plan as submitted by Resolution
 Applicants for the Company pursuant to the Corporate Insolvency Resolution Process initiated as per the provisions of the
@@ -5053,6 +6516,7 @@
 2016-2017
 2017-2018
 Revenue from Operation
+-
 15.85
 Other Income
 0.19
@@ -5070,19 +6534,24 @@
 (3,662.11)
 (1,306.34)
 Less : Tax Expense/Deferred Tax
+0
+0
 Profit/(Loss) after Tax (PAT)
 (3,662.11)
 (1,306.34)
 Other Comprehensive Income
+-
 (16.08)
 Total Comprehensive Income
 (3,662.11)
 (1,322.42
 The major factors hindering progress of the textiles industry are Increase in the power costs, higher transaction costs,
 high cost of labour and general increase in input costs, thus the industry has to concentrate on cost reduction exercises
-and improvement in efficiency. Another key challenge presently is the Fiber/Raw Material cost, which is increasing
+AMIT SPINNING INDUSTRIES LIMITED
+2
+and improvement in efficiency.  Another key challenge presently is the Fiber/Raw Material cost, which is increasing
 abruptly and increase is not fully absorbed in the yarn prices and accordingly yarn spinners are hit the most in the entire
-textile chain. Due to fluctuating prices and uncertainties in the foreign exchange market, increase in power cost, introduction
+textile chain.  Due to fluctuating prices and uncertainties in the foreign exchange market, increase in power cost, introduction
 of GST and lack of adequate working capital, the EBITA levels may remain stagnant during the year.
 Further, to overcome the losses promptly in this challenging scenario, the Management is keeping a close watch on
 various threats/risks facing the company and taking all appropriate steps to restart of manufacturing unit.
@@ -5105,7 +6574,7 @@
 SHARE CAPITAL
 The Company's Authorized Share Capital as on 31st March, 2018 stands at Rs. 25,00,00,000/- and issued &amp; paid up
 capital as on 31st March, 2018 stands at Rs. 20,58,48,335/- divided into 4,11,69,667 fully paid up equity shares of Rs. 5/
-- each. During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
+- each.  During the year, under review, the Company has not issued any share(s). Further the Company has not issued any
 share with differential Voting Rights/Sweat Equity shares/under Stock Option Scheme (ESOS) earlier and during the year.
 The Company has no scheme of provision of money for purchase of its own shares by employees or by trustees for the
 benefit of employees. Hence the details under rule 16 (4) of Companies (Share Capital and Debentures) Rules, 2014 are
@@ -5136,6 +6605,7 @@
 (d) Annual Evaluation by the Board
 Pursuant to the provisions of the Companies Act, 2013 and SEBI (LODR) Regulations, the Board has carried out an
 annual performance evaluation of its own performance, the directors individually as well as its Committees. The manner
+3
 in which the evaluation has been carried out has been explained in the Corporate Governance Report.
 (e) Remuneration Policy
 The Board has, on the recommendation of the Nomination &amp; Remuneration Committee framed a policy for selection and
@@ -5168,7 +6638,7 @@
 Prior omnibus approval of the Audit Committee was obtained for Related Party Transactions for the year ended 31st
 March, 2018 and for transactions proposed to be entered into with related parties for the financial year 2018-19 were
 placed before the said committee and consent of the said committee was obtained.
-The policy on Related Party Transactions as approved by the Board has been uploaded on the website www.spentex.net.
+The policy on Related Party Transactions as approved by the Board has been uploaded on the  website www.spentex.net.
 None of the Directors has any pecuniary relationships or transactions vis-a-vis the Company. Since all related party
 transactions entered into by the Company were in ordinary course of business and were on an arm's length basis, form
 AOC - 2 is not applicable to the Company.
@@ -5194,6 +6664,8 @@
 The Audit Committee and Board of Directors, at their meeting held on 10th August, 2018, have recommended the
 appointment of M/s Sanjay Vhanbatte &amp; Company, Chartered Accountants, (Firm Registration No. 112996W) as statutory
 auditors of the Company in place of retiring Auditor, to hold office from the conclusion of 26th Annual General Meeting till
+AMIT SPINNING INDUSTRIES LIMITED
+4
 the conclusion of 31st Annual General Meeting. The Company has received a confirmation from M/s Sanjay Vhanbatte &amp;
 Company, Chartered Accountants to the effect that their appointment, if made, at the ensuing AGM would be in terms of
 Sections 139 and 141 of the Companies Act, 2013 and rules made there under and that they are not disqualified for the
@@ -5250,6 +6722,7 @@
 the year.
 HUMAN RESOURCES/INDUSTRIAL RELATIONS
 A fundamental concept embodied in the company's code of conduct is to provide working environment that motivate
+5
 employees to be productive and innovative and provide opportunities for employee training and development to maximize
 personal potential and develop careers within the Company. The Company values the involvement of its employees and
 keep them informed on matters affecting them as employees and factors relevant to the company's performance and
@@ -5267,7 +6740,6 @@
 There is no change in the nature of the business of the company.
 CORPORATE GOVERNANCE AND MANAGEMENT DISCUSSION AND ANALYSIS
 As stipulated under SEBI (LODR) Regulations entered into with Stock Exchanges, a report on Corporate Governance is
-attached separately as a part of the Annual Report and the Management Discussion and Analysis (MD &amp; A) is included in
 this report so that duplication and overlap between Directors' Report and a separate MD &amp; A is avoided and the entire
 information is provided in a composite and comprehensive manner.
 LISTING OF SHARES
@@ -5289,8 +6761,11 @@
 Sd/-
 S.P. Setia
 Chairman
-Place : New Delhi
-Date : 10th August, 2018
+DIN : 00255049
+Place :  New Delhi
+Date  : 10th August, 2018
+AMIT SPINNING INDUSTRIES LIMITED
+6
 Annexure - 1 to the Director’s Report
 Form No. MR-3
 SECRETARIAL AUDIT REPORT
@@ -5300,6 +6775,7 @@
 To,
 The Members,
 Amit Spinning Industries Limited
+(CIN NO: L17100DL1991PLC171468)
 We have conducted the Secretarial Audit of the compliance of applicable statutory provisions and the adherence to good
 corporate practices by M/s Amit Spinning Industries Limited (hereinafter called the Company). Secretarial Audit was
 conducted in a manner that provided us a reasonable basis for evaluating the corporate conducts/statutory compliances
@@ -5317,7 +6793,7 @@
 The Companies Act, 2013 (the Act) and the rules made there under;
 II.
 The Securities Contracts (Regulation) Act, 1956 ('SCRA) and the rules made there under;
-III. The Depositories Act, 1996 and the Regulations and Bye-laws framed there under;
+III. The Depositories Act, 1996 and the Regulations and Bye-laws framed there  under;
 IV. Foreign Exchange Management Act, 1999 and the rules and regulations made there under to the extent of Foreign
 Direct Investment, Overseas Direct Investment and External Commercial Borrowings;
 V.
@@ -5330,12 +6806,12 @@
 The Securities and Exchange Board of India (Issue and Listing of Debt Securities) Regulations. 2008; (N.A.)
 XI. The Securities and Exchange Board of India (Registrars to an Issue and Share Transfer Agents) Regulations, 1993
 regarding the Companies Act and dealing with client;
-XII. The Securities and Exchange Board of India (Delisting of Equity Shares) Regulations, 2009; (N.A.) and
+XII. The Securities and Exchange Board of India (Delisting of Equity  Shares) Regulations, 2009; (N.A.) and
 XIII.The Securities and Exchange Board of India (Buyback of Securities) Regulations, 1998. (N.A.)
 (i)
 OTHER APPLICABLE ACTS
-(a) Factories Act, 1948
-(b) Payment Of Wages Act, 1936, and rules made there under,
+(a)  Factories Act, 1948
+(b)  Payment Of Wages Act, 1936, and rules made there under,
 (c) The Minimum Wages Act, 1948, and rules made there under,
 (d) Employees' State Insurance Act, 1948, and rules made there under,
 (e) The Employees' Provident Fund and Miscellaneous Provisions Act, 1952, and rules made there under,
@@ -5362,6 +6838,7 @@
 The Board of Directors of the Company is not constituted with proper balance of Executive Directors and Non-
 Executive Directors. There is no Executive Director on the Board of the Company. The composition of Independent
 Directors on the Board of Directors of the Company is in conformity with the requirements as stipulated under SEBI
+7
 Listing Regulations and the Companies Act, 2013 and rules framed there under.
 2.
 The Company is required to appoint a Whole Time Company Secretary as per the provisions of Section 203 of the
@@ -5408,25 +6885,62 @@
 11. The Company didn't provide intimation to the BSE Ltd. and the National Stock Exchange Ltd., in accordance with
 SEBI (Prohibition of Insider Trading) Regulations, 2015, for the extension of trading window closure time period due to
 the adjournment of the Board Meeting to be held on 26th May, 2017 to 27th May, 2017.
-12. The Consent of the Secretarial Auditor of the Company to act as Secretarial Auditor of t</t>
+12. The Consent of the Secretarial Auditor of the Company to act as Secretarial Auditor of the Company for the financial
+year ended on 31st March, 2018 has not been filed with the Registrar of Companies, NCT of Delhi &amp; Haryana in e form
+MGT-14.
+13. Adequate notice is given to all directors/Resolution Professional to schedule the Board Meetings, agenda and detailed
+notes on agenda were sent at least seven days in advance and a system exists for seeking and obtaining further
+information and clarifications on the agenda items before the meeting and for meaningful participation at the meeting.
+14. Majority decision is carried through while the dissenting members' views are captured and recorded as part of the minutes.
+15. There are adequate systems and processes in the company commensurate with the size and operations of the
+company to monitor and ensure compliance with applicable laws, rules, regulations and guidelines.
+16. The Company has well maintained all the Statutory Registers i.e. Register of Members, Register of Charges, Register
+of Directors Shareholding etc. mandatory to be maintained under Companies Act, 2013.
+17. The Company had filed the petition before the National Company Law Tribunal (NCLT) under the Insolvency &amp; Bankruptcy
+Code, 2016 and the NCLT vide its order dated 01st August, 2017 has accepted the petition and appointed Mr. Parveen
+Bansal as Resolution Professional for the Company. The Resolution Applicants have submitted the Resolution Plans
+for the revival of the Company, out of which one Resolution Plan has been approved by the Committee of Creditors at
+their meeting held on 26th April, 2018 and the same was subsequently approved by the NCLT, vide its order dated
+31st July, 2018.
+During the period under review the Company has complied w</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14038</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.7866940703563237</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Saturday, the 22nd September, to Thursday, the 27th September, (both days inclusive)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Financial Statements</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10086</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.7769999684671901</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>['risk management']</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -5455,893 +6969,421 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ANNUAL REPORT 2015-16 | 37
-c.
-The number of permanent employees on the rolls of Company: 1415
-d.
-Average percentile increase already made in the salaries of employees other than the managerial personnel
-in the last financial year and its comparison with the percentile increase in the managerial remuneration and
-rustication thereof and point out if there are any exceptional circumstances for increase in the managerial
-remuneration: NIL
-e.
-Affirmation that the remuneration is as per the remuneration policy of the Company:
-The Company affirms remuneration is as per the remuneration policy of the Company.
-Annexure V(b)
-The Statement containing particulars of employees as required under section 197(12) of the Act read with Rule 5(2) of the
-Companies (Appointment and Remuneration of Managerial Personnel) Rules, 2014.
-Name of employee
-Mr. John Ernest Flintham
-Designation of the employee
-Vice Chairman &amp; Managing Director
-Remuneration received
-Rs. 119.98 Lakhs
-Nature of employment, whether contractual or otherwise
-Contractual
-Qualifications and experience of the employee
-More than 30 years of experience in the field of
-large-scale automotive component manufacturing
-operations and Commercial Sales
-Date of commencement of employment
-31.07.2007
-The age of employee
-The last employment held by such employee
-before joining the Company
-Sigmacast Ltd.
-The percentage of equity shares held by
-the employee in the Company
-NIL
-Whether any such employee is a relative of
-any director or manager of the Company and if so,
-name of such director or manager
-N.A.
-38 | AMTEK AUTO LIMITED
-Annexure VI
-Information as per Section 134 (3) (m) of the Companies Act, 2013, read with Rule 8 of the Companies (Accounts)
-Rules, 2014 and forming Part of the Directors’ Report for the period ended 31st March, 2016.
-CONSERVATION OF ENERGY
-The Company continues to take measures towards conservation of energy through optimum utilization of energy and other
-resources. Utilization of energy intensive machines, procurement of energy efficient technologies etc is done as part of
-energy conservation measures. Company has been consistent in its efforts to conserve energy and natural resources and
-reduce consumption of Power, Fuel, Oil, Water and other energy sources by following strict adherence to:
+          <t>MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 1.
-Power saving processes and methods
+GLOBAL ECONOMIC OVERVIEW
+The global economic recovery continued to be weighed down in FY2016 by weak aggregate demand, falling commodity
+prices (in particular crude oil), sharper than expected slowdown in the Chinese economy and increasing financial market
+volatility in some of the major economies. These developments, coupled with sluggishness in many of the emerging and
+developing markets, which constitute more than 70% of the global economy, offset the slight recovery in the developed
+economies. World GDP growth slowed to 2.4% in CY2015. Emerging Market and Developing Economies grew at 3.4%, while
+the US and the Euro Area grew at 2.4% and 1.6%, respectively. Japan grew at 0.6%.
+According to the World Bank, Emerging Market and Developing Economies (EMDEs) are facing stronger headwinds,
+including weaker growth among advanced economies and low commodity prices. Significant divergences persist between
+commodity exporters struggling to adjust to depressed prices and commodity importers showing continued resilience. In
+addition, UK’s impending exit from the European Union, as a consequence of the Brexit referendum, has also presented
+a cause of concern for the global economy. The World Bank revised its world GDP growth forecast for 2016 down to 2.4%,
+0.5 percentage points below the January 2016 forecast. The 2017 GDP forecast stands at 2.8%.
+Global growth is projected to pick up to 3% by 2018, as stabilizing commodity prices provide support to commodity exporting
+EMDEs. Downside risks have become more pronounced. These include deteriorating conditions among key commodity
+exporters, softer-than-expected activity in advanced economies, rising private sector debt in some large emerging markets,
+and heightened policy and geopolitical uncertainties.
 2.
-Innovation and up-gradation of technology.
+INDIAN ECONOMIC OVERVIEW
+Amidst a challenging global growth scenario and after a prolonged slowdown, the Indian economy recovered slightly and
+grew 7.6% in FY2016, compared to 7.2% in FY2015. This was led by strong domestic demand and supported by several
+policy initiatives of the Government of India, a low current account deficit, low inflation levels and adherence to fiscal
+prudence. Furthermore, the current account deficit declined and foreign exchange reserves rose to US$351.5 billion in early
+February 2016, and are well above standard norms for reserve adequacy. FDI to India has surged 37% since the launch
+of the ‘Make in India’ campaign in October 2014 to February 2016.
+However, the economy is still suffering from sluggishness in rural demand, caused by deficient monsoons for two years.
+Moreover, despite five interest rate cuts since 2015, credit growth to the corporate sector remains subdued because of
+stressed asset quality in the banking sector. Weak exports also weigh on growth: February marked the 15th consecutive
+month of decline. World Bank has forecasted the GDP growth of India at 7.6% for 2016 and 7.7% for 2017.
+According to one of India’s leading research and credit rating firms, the medium-term outlook will be shaped by progress
+on initiatives such as reforms in banking and successful implementation of the Goods and Services Tax (GST). Other key
+factors crucial to sustaining growth include physical infrastructure issues such as seamless availability of electricity, creation
+of road network and social aspects like health and education.
+Source: MOSPI
+64 | AMTEK AUTO LIMITED
 3.
-Installation of Auto Power Cut-Off for electrical energy consumption.
+AUTOMOBILE INDUSTRY
+3.1   Global Automobile Industry
+During FY2016, the performance of the global automotive industry remained region specific. Passenger car registrations
+in Europe marked their 31st consecutive month of growth in March 2016 indicating continued strength of the consumer
+sentiment in Europe. In the month of March, new car registrations in the EU reached more than 1.7 million units, which
+is close to March 2007 levels, just before the economic crisis started to impact the automotive industry. However, pressures
+over regulation and uncertainty over outlook still weigh on the industry.
+In the United States, favourable economic conditions continued to provide support to the automotive industry. Total light
+vehicle production grew 3.7% y-o-y over the six months ended March 2016. However, rising discounts and increasingly
+favourable loan terms have started to raise concerns that automobile sales may have peaked.
+Brazil’s domestic passenger car sales remained subdued owing to high inflation, credit constraints and low consumer
+confidence. However, exports of Brazil made cars remain strong.
+In Japan, continued erosion of purchasing power has hampered domestic automotive demand. Production has also been
+affected due to lower demand from Indonesia. However, exports to US and Europe remain relatively strong, despite the
+recent appreciation in Yen.
+Thailand’s automotive industry is primarily export oriented. Despite a slow global recovery, export demand for Thailand
+made automobiles remained strong.
+Source: Scotia Bank
+3.2
+Indian Automobile Industry
+The Indian automotive industry is one of the most attractive in the world and has witnessed growing interest from
+international OEMs over the last many years. The industry had been impacted by a slowdown for a couple of years before
+signs of a recovery in some of the automotive segments started to emerge in FY2016. However, this recovery has been
+slow and fragmented.
+Concerns around the new infrastructure ‘cess’ (tax) on automobiles and slowness in the rural economy continued to hamper
+growth of the Passenger Vehicle segment in India. SIAM has cut its FY2017 growth outlook for the PV segment to 6-8%
+from 11-12% earlier.
+Medium and Heavy Commercial Vehicles (M&amp;HCV) production has grown in FY2016 in anticipation of stronger economic
+activity, although off the low base of last year. Light Commercial Vehicle production rose on the back of greater availability
+of load from the consumer goods industry and expectations of good monsoons. SIAM has forecasted a 12-15% growth for
+the M&amp;HCV segment in FY2017.
+Demand from the rural market has remained low for the 2-Wheelers segment. However, higher sales to customers in the
+urban markets has offset some of the negative sentiment in the rural market. SIAM has a positive outlook on the sector
+for FY2017 and expects a 0-3% and 17-19% growth in Motorcycle and Scooter segments, respectively.
+Note: Fiscal Year ending March
 4.
-Energy saving in utility by proper machine planning.
+AUTOMOTIVE COMPONENTS INDUSTRY
+Over the last decade, the Indian automotive components industry has grown tremendously. This has been especially due
+to increasing investments by automotive OEMs in India in turn leading to demand for technologically advanced components.
+The growing scale has enabled manufacturers to keep costs low, further increasing the attractiveness of sourcing automotive
+parts from India.
+After witnessing a slowdown in the last few years, the Indian auto component industry registered better growth in FY2016.
+The industry turnover for FY2016 stood at Rs. 2,556 billion compared to Rs. 2,348 billion in FY2015, a growth of 8.8%.
+However, given the fragmented performance of the global automotive industry, Indian automotive component exports grew
+by only 3.5%.
+A key challenge faced by the Indian automotive components industry is the current duty structure that makes the cost of
+raw materials higher in India than anywhere else. Necessary reforms in this regard will further support the government’s
+‘Make in India’ campaign.
+Given the dependence of the Indian automotive components industry on the performance of international automotive
+markets, a more meaningful and broad based recovery in the global demand for automobiles would be needed to support
+the Indian automotive components industry.
+2.70
+2.50
+2.60
+2.79
+0.80
+0.60
+0.60
+0.70
+14.30
+15.30
+16.50
+16.99
+0.00
+5.00
+10.00
+15.00
+20.00
+FY2013
+FY2014
+FY2015
+FY2016
+No. of Vehicles
+(million)
+Domestic Sales Trends
+Passenger Vehicles
+Commercial Vehicles
+2/3 Wheelers
+0.56
+0.59
+0.62
+0.65
+0.08
+0.08
+0.09
+0.10
+2.26
+2.44
+2.86
+2.89
+0.00
+1.00
+2.00
+3.00
+4.00
+FY2013
+FY2014
+FY2015
+FY2016
+No. of Vehicles
+(million)
+Export Trends
+Passenger Vehicles
+Commercial Vehicles
+2/3 Wheelers
+66 | AMTEK AUTO LIMITED
+Indian Automotive Components Industry: Turnover and Exports
+Indian Automotive Component Exports by Geography
+Indian Automotive Components Supply to OEMs by End Market 1,2
+Source: ACMA
+Notes:
+1.
+SCV (Small Commerical Vehicle): &lt; 2T; LCV (Light Commercial Vehicle): 2-7.5T; MCV (Medium Commercial Vehicle:
+7.5-16T; HCV (Heavy Commercial Vehicle): &gt; 16T
+2.
+OEMs consumption includes locally produced components and imports
+2,160
+2,117
+2,348
+2,556
+527
+615
+685
+709
+-
+1,000
+2,000
+3,000
+FY2013
+FY2014
+FY2015
+FY2016
+INR Billion
+Turnover
+Exports
+Europe
+36%
+Asia
+25%
+Africa
+6%
+North America
+25%
+South America
+4%
+Central
+America
+3%
+Others
+1%
+PVs
+45%
+Tractors
+8%
+Others
+2%
+Backhoe Loaders
+2%
+Two Wheelers
+21%
+Three Wheelers
+4%
+HCV
+8%
+MCV
+5%
+LCV
+4%
+SCV
+1%
+According to the Automotive Component Manufacturers Association of India (ACMA), the Indian auto-components industry
+is expected to register a turnover of US$100 billion by 2020 backed by strong exports ranging between US$80-100 billion
+by 2026, from the current US$11.2 billion. A major contributor to this growth is expected to be the government’s Automotive
+Mission Plan 2016-26, which will drive the ‘Make in India’ campaign. The plan will place a special focus on exports of
+small cars, multi-utility vehicles (MUVs), two and three wheelers and automotive components.
+The passage of the GST Bill is a significant development as it is expected to impact favourably, the economy in general
+and the demand for automobiles, in particular. The automotive sector will gain by the lowering of taxes and, therefore, the
+final consumer prices. This is likely to add to the growth momentum in the sector in the medium to long term.
 5.
-Emphasis on non-conventional energy sources.
+AMTEK AUTO: STRATEGY AND OUTLOOK
+In the last few years, several macro headwinds have obstructed the growth of the automotive components industry
+including flagging vehicle sales, increasing capital costs and slowing investments in manufacturing. This slowdown, which
+still continues to impact the Indian automobile industry, has undermined our capacity expansions and utilizations, and
+impacted profitability through FY2016. The momentum in our new order wins has also been affected, in line with the overall
+demand scenario. The recent downgrade in industry forecasts by the automobile industry association lends veracity to this
+slowdown.
+Last year, for the first time in its rich 30 year history, Amtek Auto was faced with a cash flow mis-match owing to this
+slowdown. To counter this situation, the senior management team outlined a three pronged strategy. Firstly, the Company
+embarked on a Debt Realignment Program with its lenders. Significant progress has been made on this front with the
+support of our financial institution partners. Secondly, Amtek Auto formulated a Deleveraging Plan based on monetization
+of an international asset and certain non-core assets. This strategy is based on realising the significant equity value created
+in these assets for the purpose of reducing the debt in the Indian operations. The plan is progressing in line with
+management expectations. Thirdly, the management has also taken a highly strategic decision to bring a new investor on
+board and use the investment in further reducing debt. Discussions with potential investors have been very encouraging
+and we are confident of bringing this plan to fruition in the new future. The senior management team remains fully
+committed to the overall deleveraging plan which will not only enhance our free cash flows resulting from lower interest
+payments, but will also optimise Amtek Auto’s capital structure and create significant shareholder value.
+The Amtek Business Excellence Program, which we started in 2014, has facilitated a highly successful implementation of
+lean manufacturing processes. It remains the driving force behind Amtek Auto’s cost controls and productivity initiatives,
+and is a key attribute of the Company’s business strategy. Amtek Auto has also taken up certain other strategic initiatives
+such as realigning the product mix and expanding the product range to increase the share of our value added product
+offering. Other initiatives centre around overall fiscal control, quality improvement, up-gradation in technology and research
+&amp; development. The Company also continues to focus on cost reduction and rightsizing initiatives. We are confident that
+these initiatives, in particular the new set of products that are being developed, will help make Amtek Auto much more
+competitive in the market place.
+A key driver of Amtek Auto’s growth has been the expansion of global OEMs in India. This trend has already started to
+receive a greater push from the Government’s ‘Make in India’ campaign. Global OEMs are expected to not only increase
+investments into India, leading to higher car production levels, but also consolidate their suppliers who can achieve their
+operational and quality targets. This will lead to increasingly more opportunities being presented to larger suppliers such
+as Amtek Auto. In addition, we view the passage of the GST Bill as a positive development which would not only lead
+to better affordability of automobiles for the masses and in turn translate into higher sales of automotive components, but
+also bring in operational efficiencies.
+Being ready to capitalise on the opportunities arising from these developments calls for a highly strategic way forward.
+We are working to take the integration between our Indian and international operations to the next level, which will facilitate
+not only revenue synergies, cost savings and engineering process improvements but also sharing of best practices to
+achieve overall quality targets. Furthermore, we are actively looking to acquire new customers for many of our key products
+that have already been widely accepted in the global marketplace. This will allow us to realise our objective of increasing
+utilisations of the world class capacities that we have built and increase exports out of India, which offer the biggest cost
+advantage to us.
+Amtek Auto’s global manufacturing capacities, geographic market reach and blue chip customer base have made us one
+of the world’s most dynamic companies in the engineered components sector. Our customers around the world acknowledge
+68 | AMTEK AUTO LIMITED
+the level of engineering in our manufacturing processes, the technological advancement of our products and for the highest
+standards we have set in customer service. The relationships with these OEM and Tier 1 customers, which have been
+reinforced time and again, will continue to help us compete at the highest levels in the global market place.
 6.
-Proper training to the employees and workforce to ensure minimum wastage of energy and natural resources.
-I.
-Research and Development
-a)
-Specific area in which (R&amp;D)
-1.
-Product design and development
-carried out by the Company
-2.
-Process design &amp; improvement for various products
-b)
-Benefits derived as result
-1.
-Reduction in process time
-2.
-Increase in productivity
-3.
-Cost reduction and high precision of product
-c)
-Future Plan of action in
-To achieve better yield by way of cost reduction through higher
-Manufacturing Process &amp;
-level of automation
-operation
-d)
-Expenditure on R &amp; D
-a.
-Capital
-b.
-Recurring
-c.
-Total
-d.
-Total R&amp;D Expenditure as a
-percentage of total turnover
-II.
-Technology, Absorption, Adaptation and Innovation
-a)
-Efforts in brief made towards
-The Company has indigenized and absorbed technological changes as
-Technology Absorption,
-advised by collaboration in the past. Amtek Auto continuously strives to
-Adaptation and Innovation
-meet international standards of precision through improvisation of existing
-processes, innovation and adaptation of new technologies and methods.
-The product quality has improved significantly due to better utilization of
-machines, improvised processes and enhanced precision
-b)
-Benefits derived as a result
-Cost reduction to saving in raw material, dies &amp; moulds &amp; power and fuel.
-of the above efforts
-Operational efficiency has increased leading to reduced time-loss and
-rejections
-c)
-In case of imported technology
-(Import) during the last 6 years
-reckoned from the beginning of
-the financial year
-Nil
-The development work is
-carried on by the concerned
-department continuously. No
-separate
-record
-of
-the
-expenditure incurred on R&amp;D
-ANNUAL REPORT 2015-16 | 39
-III.
-FOREIGN EXCHANGE EARNINGS AND OUTGO
-1.
-Activities relating to Exports, initiatives to increase exports, Development of new Export Markets for Products
-and Services and Export plans:
-The Company has strategic alliance with its group Companies in U.K, Asia, Europe and America, to increase
-its share of business in the international market, which has access to all automobile majors in the U.S and
-European market and existing supplier, business relationship
-2.
-Total Foreign Exchange used and earned:
-(` In Lakhs)
-Particulars
-Current Year
-Previous Year
-Foreign Exchange Used
-2585.18
-16,504.78
-Foreign Exchange Earned
-17514.36
-28,816.52
-For and on behalf of the board of directors
-For AMTEK AUTO LIMITED
-(Arvind Dham)
-Place :
-New Delhi
-Chairman
-Date
-30.08.2016
-40 | AMTEK AUTO LIMITED
-CORPORATE GOVERNANCE REPORT FOR THE YEAR 2015 - 2016
-The Company has been following high standards of Corporate Governance Principles, Policies and Practices over the
-period.
-I.
-AMTEK’S GOVERNANCE POLICY:
-Amtek believes that effective corporate governance practices constitute the robust foundation on which successful commercial
-enterprises are built to last. The Company’s philosophy on corporate governance oversees business strategies and ensures
-fiscal accountability, ethical corporate behavior and fairness to all stakeholders comprising regulators, employees, customers,
-vendors, investors and the society at large.
-Amtek views corporate governance in its widest sense almost like a trusteeship, a philosophy to be progressed, a value
-to be imbibed and an ideology to be ingrained into the corporate culture.
-The Company has adopted a Code of Conduct for its non-executive directors which includes Code of Conduct for
-Independent Directors which suitably incorporates the duties of independent directors as laid down in the Companies Act,
-2013 (‘the Act’).
-Pursuant to Securities and Exchange Board of India (Listing Obligations and Disclosure Requirements) Regulations, 2015
-(“SEBI Listing Regulations”) the Company has executed fresh Listing Agreements with the Stock Exchanges.
-The Company is in compliance with the requirements stipulated under Clause 49 of the Listing Agreements and Regulation
-17 to 27 read with Schedule V and clauses (b) to (i) of sub-regulation (2) of Regulation 46 of SEBI Listing Regulations, as
-applicable, with regard to corporate governance.
-II.
-CORPORATE GOVERNANCE FRAMEWORK
-The driving principles of our corporate governance framework are encapsulated in the following diagram:
-In view of the SEBI Listing Regulation 2015, the Company continuously follows the procedure of Corporate Governance for
-ensuring and protecting the rights of its shareholders by means of transparency, integrity, accountability, trusteeship and
-checks at the different levels of the management of the Company.
-CORPORATE
-GOVERNANCE
-FRAMEWORK
-RISK
-MANAGEMENT
-REPORTING
-DISCLOSURE
-INTERNAL
-CONTROL
-TRANSPARENCY
-COMPLIANCE AS
-PER ABSOLUTE
-MEANING OF
-LAW
-ANNUAL REPORT 2015-16 | 41
-III.
-BOARD OF DIRECTORS
-At Amtek, the Board along with its Committees provides leadership and guidance to the Company’s management as also
-direct, supervise and control the performance of the Company. We believe an active, well-informed board is vital to attain
-the highest standards of Corporate Governance. An independent and strong board is the utmost requirement of the
-Company so as to ensure that the best practices are adopted by the Company. At Amtek, we have a proper blend of
-executive, non-executive and independent directors, who have rich knowledge and experience in the industry for providing
-strategic guidance and direction to the Company.
-BOARD PROCEDURES
-The members of the Board have been provided with the requisite information in the Listing Agreement and SEBI Listing
-Regulations, as applicable well before the Board Meeting and the same was dealt with appropriately.
-All the Directors who are in various committees are within the permissible limit of the SEBI listing regulations and none
-of the Directors are disqualified for appointment as director under any of the provisions of the Companies Act, 2013.
-POST MEETING FOLLOW-UP MECHANISM
-All the important decision taken at the Board/Committee Meetings are promptly communicated to the concerned departments.
-Action Taken Report on decision/minutes of previous meeting is placed at the succeeding meeting of the Board/Committee
-for noting.
-(A)
-COMPOSITION AND CATEGORY OF DIRECTORS
-The Company’s policy is to maintain an optimum combination of Executive &amp; Non-executive directors and in conformity
-with Regulation 17 of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015.
-As on March 31, 2016, the Company has Eleven Directors. Out of the Eleven directors, Eight (i.e. 72.7 %) are non- executive
-directors, Six (i.e. 54.5 %) are independent directors and One is Nominee director. The composition of the board is in
-conformity with Regulation 17 of SEBI (Listing Obligations and Disclosure Requirements) Regulations, 2015 read with Section
-149 of the Act.
-The Composition of the Board as on March 31, 2016 was as under:
-S.No. Name
-Promoter &amp;
-Executive
-Non-
-Independent
-Nominee
-Chairman
-Executive
-Mr. Arvind Dham
-✓
-–
-✓
-–
-–
-Mr. John Ernest Flintham
-–
-✓
-–
-–
-–
-Mr. Deshpal Singh Malik
-–
-✓
-–
-–
-–
-Mr. Gautam Malhotra
-–
-–
-✓
-–
-–
-Mr. Mukesh Gupta*
-–
-–
-–
-–
-✓
-Mr. Sanjay Chhabra
-–
-–
-✓
-✓
-–
-Mr. Raj Narain Bhardwaj
-–
-–
-✓
-✓
-–
-Mr. Bahushrut Lugani
-–
-–
-✓
-✓
-–
-Mr. Rajeev Kumar Thakur
-–
-–
-✓
-✓
-–
-Mrs. Madhu Vij
-–
-–
-✓
-✓
-–
-Mr. Sanjiv Bhasin
-–
-–
-✓
-✓
-–
-* Mr. Mukesh Gupta is Nominee Director of Life Insurance Corporations of India [“referred as LIC”] to represent LIC on the
-Board of the Company.
-42 | AMTEK AUTO LIMITED
-(B)
-THE DETAILS OF THE DIRECTORS WITH REGARD TO THEIR DIRECTORSHIP IN OTHER COMPANIES, COMMITTEE
-POSITION AS WELL AS ATTENDANCE AT LAST ANNUAL GENERAL MEETING AND BOARD MEETING DURING THE
-FINANCIAL YEAR ARE AS FOLLOWS:
-Name of Director
-Attendance at the last
-No. of Board Meetings held and attended
-AGM
-during tenure
-Mr. Arvind Dham
-Mr. John Ernest Flintham
-Mr. Deshpal Singh Malik
-Mr. Gautam Malhotra
-Mr. Mukesh Gupta
-Mr. Sanjay Chhabra
-Mr. Raj Narain Bhardwaj
-Mr. Bahushrut Lugani
-Mr. Rajeev Kumar Thakur
-Mrs. Madhu Vij
-Mr. Sanjiv Bhasin
-Note:
-– Present
-– Absent
-Executive Directors
-1.
-John Ernest Flintham
-2.
-Deshpal Singh Malik
-Non-Executive Independent Directors
-1.
-Sanjay Chhabra
-2.
-Raj Narain Bhardwaj
-3.
-Bahushrut Lugani
-4.
-Rajeev Kumar Thakur
-5.
-Madhu Vij
-6.
-Sanjiv Bhasin
-Non-Executive/Non Independent Directors
-1.
-Mr. Arvind Dham
-2.
-Mr. Gautam Malhotra
-Nomniee Directors
-Mr. Mukesh Gupta
-18%
-9%
-18%
-55%
-ANNUAL REPORT 2015-16 | 43
-Name of the Director
-Designation
-Total
-Committees
-Chairman of
-Directorship
-Memberships
-Committees
-(1)
-(2)
-(2)
-EXECUTIVE DIRECTOR
-Vice Chairman &amp;
-Mr. John Ernest Flintham
-Managing Director
-Nil
-Mr. Deshpal Singh Malik
-Managing Director
-Nil
-INDEPENDENT AND NON – EXECUTIVE DIRECTORS
-Mr. Sanjay Chhabra
-Independent Director
-Mr. Raj Narain Bhardwaj
-Independent Director
-Mr. Bahushrut Lugani
-Independent Director
-Mr. Rajeev Kumar Thakur
-Independent Director
-Nil
-Nil
-Nil
-Mrs. Madhu Vij
-Independent Director
-Nil
-Mr. Sanjiv Bhasin
-Independent Director
-OTHER NON – EXECUTIVE DIRECTORS
-Mr. Arvind Dham
-Chairman
-Nil
-Nil
-Mr. Gautam Malhotra
-Non – Executive Director
-Nil
-Mr. Mukesh Gupta
-Nominee Director
-Notes to above table
-1.
-These directorships exclude Private Limited Companies, Foreign Companies and Companies under section 8 of
-Companies Act, 2013.
-2.
-In accordance with Regulation 26 of the Listing Regulations, Membership(s) / Chairmanship(s) of only Audit Committees
-and Stakeholders Relationship Committees in all public limited Companies (excluding Amtek Auto Limited) have
-been considered.
-(C)
-NUMBER OF BOARD MEETING
-During the period under review (i.e. October 01, 2015 to March 31, 2016), Two (2) Board Meetings were held on 28th
-November, 2015 and 11th February, 2016. The maximum time-gap between any two consecutive meetings did not exceed
-120 days.
-(D)
-DISCLOSURE OF RELATIONSHIP BETWEEN DIRECTORS INTER SE:
-Mr. Gautam Malhotra is Nephew of Mr. Arvind Dham and none of the other directors are related to any other director on
-the Board.
-(E)
-DETAILS OF EQUITY SHARES &amp; CONVERTIBLE INSTRUMENTS HELD BY NON EXECUTIVE DIRECTORS OF THE
-COMPANY AS ON MARCH 31, 2016 ARE GIVEN BELOW:
-During the Period under review Non-Executive Director are not holding any Equity Shares or convertible instruments in the
-Company except the following:
-Name of Directors
-No. of Shares Held
-% of Total Shares
-Mr. Arvind Dham
-2390645
-1.064
-44 | AMTEK AUTO LIMITED
-(F)
-INDEPENDENT DIRECTORS
-Independent Directors are non-executive directors as defined under Regulation 16(1)(b) of the SEBI Listing Regulations read
-with Section 149(6) of the Act. The maximum tenure of independent directors is in compliance with the Act. All the
-Independent Directors have confirmed that they meet the criteria as mentioned under Regulation 16(1)(b) of the SEBI Listing
-Regulations read with Section 149(6) of the Act.
-The Familiarization Program for Independent Directors has been adopted by the Board of Directors pursuant to SEBI Listing
-Regulations; the detailed policy is available at the website of the Company (www.amtek.com)
-One Meeting of the Independent directors of the Company was held on 11th February, 2016 in which Mr. Sanjay Chhabra,
-Mr. Rajeev Kumar Thakur, Mr. Bahushrut Lugani and Mr. Raj Narain Bhardwaj , Ms. Madhu Vij were present and Mr. Sanjiv
-Bhasin was granted leave of absence.
-IV.
-COMMITTEES OF THE BOARD
-In compliance to the SEBI Listing Regulations, the Board of Directors has constituted various committees.
-None of Directors of the Company’s Board is a member of more than 10 committees and Chairman of more than 5
-Committees (Committees includes Audit Committee and Stakeholder Relationship Committee) across all Indian Public
-Companies in which he is a director. All the directors have made necessary disclosures regarding Committee positions
-held by them in other companies and do not hold the office of Director in more than twenty Companies, including ten public
-companies. None of the directors are related to each other.
-Details of such committees are as follows:
-Board and Committees Composition as on March 31, 2016
-Name
-Board
-Committee
-Audit
-CSR
-Nomination &amp;
-Risk
-Stakeholders
-Finance
-Remuneration
-Management
-Relationship
-Mr. Arvind Dham
-C
-C
-C
-Mr. Bahushrut Lugani
-M
-C
-M
-M
-M
-Mr. Rajeev Kr. Thakur
-M
-M
-C
-M
-M
-C
-Mr. Sanjay Chhabra
-M
-M
-C
-M
-Mr. John E. Flintham
-M
-M
-M
-Mr. Deshpal Singh Malik
-M
-M
-M
-Mr. Gautam Malhotra
-M
-M
-M
-M
-Mr. Mukesh Gupta
-M
-Mr. Raj N. Bhardwaj
-M
-Mrs. Madhu Vij
-M
-Mr. Sanjiv Bhasin
-M
-C - Chairman
-M – Member
-The Board determines the terms of reference of the Board Committees from time to time. The respective Committee
-Chairman convenes meetings of the Board Committees. Minutes of the Committee meetings are placed before the Board
-for perusal and noting. The quorum for meetings of all the Committees is either two members or one-third of the members
-of the Committees, whichever is higher. Each committee has the authority to engage outside experts, advisers and counsel
-to the extent it considers appropriate to assist it in its work.
-ANNUAL REPORT 2015-16 | 45
-1.
-AUDIT COMMITTEE
-The role of the Audit Committee has been strengthened and all major changes in financial policies are reviewed or
-approved by this Committee.
-QUALIFIED AND INDEPENDENT AUDIT COMMITTEE
-The Audit Committee comprises of three directors. All the members of the Committee viz. Mr. B. Lugani (Chairman), Mr.
-Rajeev Kumar Thakur and Mr. Sanjay Chhabra are independent and non executive Directors. The Company Secretary acts
-as the Secretary of the Audit Committee.
-The constitution of the Audit Committee meets the requirement of Section 139 of the Companies Act, 2013 and the
-Regulation 18 of SEBI Listing Regulations. The Term of Reference of the Audit Committee is as per the Regulations set out
-in the SEBI Listing Regulations and as prescribed under Section 177 of the Companies Act, 2013.
-MEETING OF AUDIT COMMITTEE
-During the period, the Audit Committee met 2 (two times) during the Financial Year 2015-16 and all the members were
-present in both the meetings i.e. 27th November, 2015 and 10th February, 2016.
-TERM OF REFERENCE
-The terms of reference of the audit committee are broadly as under:
+OPPORTUNITIES &amp; STRENGTHS
+Positive Outlook for the Global Automotive Industry: Strong economic growth and employment levels are expected to
+help the US market to cross 18 million units over the next two years. Low European interest rates and government incentives
+are likely to help maintain the sales momentum across many of the key European markets. China’s initiative to reduce
+sales tax for passenger vehicles is expected to continue to bode well for production volumes in the near term. With a strong
+momentum in key international automotive markets and an impending recovery in the Indian automotive industry, Amtek
+Auto is in a position to ramp up utilisations and capture a significant share of this additional demand.
+Strong Growth Prospects for the Global Forging Industry: According to a recent research by Technavio, the global forging
+market during 2016-2020 is set to grow at a CAGR of around 8%. Characteristics associated with forged parts such as
+reliability, strength, and economic viability have helped increase the use of forging over the years. The industry will continue
+to witness growing demand both from automotive and non-automotive sectors.
+Inherent Strengths of Manufacturing in India: Cost efficient labour, government support and availability of skilled
+manpower have make India an attractive manufacturing destination over the years. This has resulted in increased interest
+from various global OEMs in the form of tie-ups with local suppliers. As a result, many global OEMs have also managed
+to achieve a fairly high level of localization in India. This continuing trend is expected to open significant opportunities for
+the Indian component makers to supply to these players for their Indian and international demand.
+In addition, total automotive component exports out of India are expected to continue to increase in the years to come.
+India’s proximity to emerging markets such as South East Asia and Africa is a key advantage for developing an export base.
+Furthermore, shipments to Europe from India are more cost effective as compared to those from Brazil and Thailand.
+‘Make in India’: The Indian government’s focus on improving ease of business with its ‘Make in India’ initiative is expected
+to soften regulations and reduce complex procedures. The initiative will also result in making India an even more cost
+effective manufacturing destination.
+The Government of India has taken a series of steps to support this program such as:
 ●
-Oversight of the company’s financial reporting process and the disclosure of its financial information to ensure that
-the financial statement is correct, sufficient and credible;
+New Trade Policy: Export and import taxes on small volumes of goods have been abolished, and incentives
+have been introduced for export-oriented units and export processing zones.
 ●
-Recommendation for appointment, remuneration and terms of appointment of auditors of the Company;
+New Labor Laws: Theses include a “single window” labor compliance process for companies, simpler
+Provident Fund (compulsory employee insurance and pension) procedures and a new inspection scheme.
 ●
-Approval of payment to statutory auditors for any other services rendered by the statutory auditors;
+Simplification of Regulatory Compliance: In an effort to enhance the ease of doing business, it has been
+made possible for companies to obtain environmental approvals and licenses online.
+The Indian Government’s Automotive Mission Plan 2016-26, the key driver of the ‘Make in India’ campaign envisages four-
+fold growth in automotive volumes by FY2026. The Indian auto sector has the potential to generate up to US$300 billion
+in annual revenues by FY2026, create around 65 million additional jobs and contribute more than 12% to India’s GDP,
+according to the plan prepared jointly by SIAM and the Government of India.
+Focus on Import Substitution to Drive Growth in the Non-automotive Sector: With the government of India’s emphasis
+on substitution of imported goods to reduce import bills, sectors such as railways and defence are expected to look to Indian
+companies for procurement. This provides manufacturing companies an opportunity to grow in the non-automotive
+business.
+7.
+RISK AND CONCERNS
+Macroeconomic Uncertainty: Amtek Auto’s operations are spread across many different regions. In the six month financial
+year 2016, international business contributed 76.9% to the revenues. Due to the global nature of Amtek Auto’s business,
+its operations are directly dependent on the general economic conditions across all key global markets. In the recent past,
+global economic growth has remained volatile and uneven with several key markets facing economic challenges. The
+Company, on a regular basis, assesses and evaluates the macroeconomic performance in its key markets and takes
+suitable remedial actions as may be necessary from time to time to mitigate such risks.
+Changes in Tax, Tariffs or Fiscal Policies: Imposition of additional taxes and levies designed to limit the use of automobiles
+could adversely affect demand for the Company’s products. Changes in corporate and other taxation policies, as well as
+changes in export and other incentives granted by various governments, or import or tariff policies, could also adversely
+affect the Company’s financial results.
+We are in the process of evaluating thoroughly the impact of the implementation of GST on our business.
+Geopolitical and other Risks: Political instability, wars, terrorism, multinational conflicts, natural disasters, fuel shortages
+and their prices, epidemics, labour strikes all present business risks. To counter these risks, the Company continues to
+expand its geographic presence across all major automotive economies in the world.
+Country Risk through Exports: Products produced by Amtek Auto are exported to a number of different automobile markets
+globally. This exposes the Company to various risks associated with international business transactions. These include
+various geopolitical risks, currency price regulatory risks and other such concerns.
+Raw Material Prices: Prices and availability of various raw materials such as steel, non-ferrous, precious metals, rubber
+and petroleum products are dependent on various environmental factors. Even as the Company continues to pursue cost
+control measures, any unforeseen or sudden spike in cost of these items could impact the profitability of the Company
+to the extent that customer price pass through terms are not available. For Amtek Auto, increase in the price of raw
+materials, especially steel, are passed through so there is a limited impact on our profitability.
+Global Competition: With the integration of global automobile supply chains, the automobile components industry has
+become increasingly competitive with OEMs continuously scanning the market for lower prices and better terms. Even as
+the Company enjoys strong and long standing relationship with many global OEMs, it continues to invest in newer products
+and better quality control.
+Financial Risk: Any change in interest rates, foreign exchange rates and commodity prices can potentially impact the
+financial performance of the Company.
+Technological Changes: The business environment is evolving at a rapid pace. The changing technologies have led to
+a shortening of the life cycle of new vehicles. Additional challenges include supply constraints from Tier II suppliers,
+sustenance of operating cost efficiency gains and capacity expansions in the context of rapidly changing consumer demand
+preferences. The Company continues to invest in new technologies and capacities to address such risks. In addition, our
+focus on rationalization both in terms of size and functions, enables us to continue to complement the manufacturing
+excellence programs that are being developed.
+Risk Management: Strategic, operating and financial business risks are reviewed by the Risk Management Committee on
+a regular basis. In addition to the above risks, the committee monitors any potential new risks that may arise due to changes
+in the external environment. While the possibility of a negative impact due to one or more of such risks cannot be totally
+avoided, the Company proactively takes reasonable steps to pre-empt and mitigate these.
+8.
+INTERNAL CONTROL SYSTEMS AND THEIR ADEQUACY
+The Company has an elaborate internal control system which monitors compliance to internal processes. It ensures that
+all transactions are authorised, recorded and reported correctly. The systems are routinely tested and certified by Statutory
+as well as Internal Auditors and cover all offices, plant facilities and key areas of business. The Internal Auditors
+independently evaluate the adequacy of internal controls and concurrently audit the majority of the transactions in value
+terms.
+To further strengthen the internal control process, the Risk Management Committee has documented control procedures
+covering all aspects of key financial and operating functions. The Company’s internal control systems provide for:
 ●
-Reviewing, with the management, the annual financial statements and auditor’s report thereon before submission
-to the board for approval, with particular reference to:
-Matters required to be included in the Director’s Responsibility Statement to be included in the Board’s Report
-in terms of clause (c) of sub-section 3 of section 134 of the Companies Act, 2013.
-Changes, if any, in accounting policies and practices and reasons for the same.
-Major accounting entries involving estimates based on the exercise of judgment by management.
-Significant adjustments made in the financial statements arising out of audit findings.
-Compliance with listing and other legal requirements relating to financial statements.
-Disclosure of any related party transactions.
-Qualifications in the draft audit report.
+Adherence to applicable accounting standards and policies
 ●
-Reviewing, with the management, the quarterly financial statements before submission to the board for approval;
+Accurate recording of transactions with internal checks, prompt reporting and timely action
 ●
-Reviewing, with the management, the statement of uses / application of funds raised through an issue (public issue,
-rights issue, preferential issue, etc.), the statement of funds utilized for purposes other than those stated in the offer
-document / prospectus / notice and the report submitted by the monitoring agency monitoring the utilization of
-proceeds of a public or rights issue, and making appropriate recommendations to the Board to take up steps in
-this matter;
+Compliance with applicable statues, policies, listing requirements and management policies and procedures
 ●
-Review and monitor the auditor’s independence and performance, and effectiveness of audit process;
+Review of capital investments and long term business plans
 ●
-Approval or any subsequent modification of transactions of the company with related parties;
+Periodic review meetings to guide optimum utilization of resources
 ●
-Scrutiny of inter-corporate loans and investments;
-●
-Valuation of undertakings or assets of the Company, wherever it is necessary;
-●
-Evaluation of internal financial controls and risk management systems;
-46 | AMTEK AUTO LIMITED
-●
-Reviewing, with the management, performance of statutory and internal auditors, adequacy of the internal control
-systems;
-●
-Reviewing the adequacy of internal audit function, if any, including the structure of the internal audit department,
-●
-Staffing and seniority of the official heading the department, reporting structure coverage and frequency of internal
-audit;
-●
-Discussion with internal auditors of any significant findings and follow up there on;
-●
-Reviewing the findings of any internal investigations by the internal auditors into matters where there is suspected
-fraud or irregularity or a failure of internal control systems of a material nature and reporting the matter to the board;
-●
-Discussion with statutory auditors before the audit commences, about the nature and scope of audit as well as post-
-audit discussion to ascertain any area of concern;
-●
-To look into the reasons for substantial defaults in the payment to the depositors, debenture holders, shareholders(in
-case of non-payment of declared dividends) and creditors;
-●
-To review the functioning of the Whistle Blower Mechanism;
-●
-Approval of appointment of CFO (i.e., the whole-time Finance Director or any other person heading the finance
-function or discharging that function) after assessing the qualifications, experience and background, etc. of the
-candidate;
-●
-Carrying out any other function as is mentioned in the terms of reference of the Audit Committee.
-●
-To mandatorily review the following information:
-o
-Management discussion and analysis of financial condition and results of operations;
-o
-Statement of significant related party transactions (as defined by the Audit Committee), submitted by
-management;
-o
-Management letters/letters of internal control weaknesses issued by the statutory auditors;
-o
-Internal audit reports relating to internal control weaknesses; and
-o
-The appointment, removal and terms of remuneration of the Chief internal auditor shall be subject to review
-by the Audit Committee.
-●
-The audit committee invites executives, as it considers appropriate (particularly the head of the finance function),
-representatives of the statutory auditors and representatives of the internal auditors to be present at its meetings.
-2.
-HUMAN RESOURCES, NOMINATION &amp; REMUNERATION COMMITTEE
-The Human Resources, Nomination and Remuneration Committee (HRNR Committee) of the Company is constituted in line
-with the provisions of Regulation 19 of SEBI Listing Regulations entered into with the stock exchanges read with Section
-178 of the Act, comprising three non executive and independent directors viz. Mr. Sanjay Chhabra (Chairman), Mr. Rajeev
-Kumar Thakur and Mr. B. Lugani.
-TERMS OF REFERENCE
-●
-Formulation of the criteria for determining qualifications, positive attributes and independence of a director and
-recommend to the Board a policy, relating to the remuneration of the directors, key managerial personnel and other
-employees;
-●
-Formulation of criteria for evaluation of Independent Directors and the Board;
-●
-Devising a policy on Board diversity;
-●
-Identifying persons who are qualified to become directors and who may be appointed in senior management in
-accordance with the criteria laid down, and recommend to the Board their appointment and removal. The company
-shall disclose the remuneration policy and the evaluation criteria in its Annual Report;
-ANNUAL REPORT 2015-16 | 47
-●
-Carry out evaluation of every director’s performance and support the board and independent directors in evaluation
-of the performance of the board, its committees and individual directors;
-●
-Recommend to the board the remuneration policy for directors, executive team or key managerial personnel as well
-as the rest of the employees.
-MEETINGS AND ATTENDANCE
-During the period under review, only one (1) meeting of the Remuneration Committee was held, in which all the members
-were present.
-PERFORMANCE EVALUATION CRITERIA FOR INDEPENDENT DIRECTOR
-The Independent Directors comply with the definition of Independent Directors as given under Section 149(6) of the
-Companies Act, 2013 and Regulation 16(1)(b) of the SEBI (Listing Obligations &amp; Disclosure Requirements) Regulations, 2015.
-While appointing/re-appointing any Independent Directors/Non-Executive Directors on the Board, the HRNR Committee
-considers the criteria as laid down in the Companies Act, 2013 and Regulation 16(1)(b) of the SEBI (Listing Obligations &amp;
-Disclosure Requirements) Regulations, 2015.
-All the Independent Directors give a certificate confirming that they meet the “independence criteria” as mentioned in Section
-149(6) of the Companies Act, 2013 and SEBI (Listing Obligations &amp; Disclosure Requirements) Regulations, 2015.
-2A.
-REMUNERATION OF DIRECTORS
-REMUNERATION POLICY
-The Company’s remuneration policy is directed towards rewarding performance, based on review of achievements on a
-periodical basis. The remuneration policy is in consonance with the existing industry practice. The remuneration of the Vice
-Chairman cum Managing Director, Managing Director, Key Managerial Personnel and Senior Management Personnel’s of
-the Company is reviewed and recommended by Committee, based on criteria such as industry benchmarks, the Company’s
-performance visa-vis the industry, responsibilities shouldered, performance/track record, macro-economic review on
-remuneration packages of heads of other organizations. The Company pays remuneration by way of salary, perquisites
-and allowances (fixed component), incentive remuneration. Annual increments are decided by the Remuneration Committee
-within the salary scale approved by the Members.
-The sitting fees paid/payable to the non Whole-time directors is excluded whilst calculating the limits of remuneration in
-accordance with Section 197 of the Act. The Company also reimburses out-of-pocket expenses to Directors attending
-meetings held at a city other than the one in which the Directors reside.
-Remuneration of employees largely consists of basic remuneration, perquisites, allowances and performance incentives.
-The components of the total remuneration vary for different employee grades and are governed by industry patterns,
-qualifications and experience of the employee, responsibilities handled by them, their individual performances, etc. The
-annual variable pay of senior managers is linked to the Company’s performance in general and their individual performance
-for the relevant year is measured against specific major performance areas which are closely aligned to the Company’s
-objectives.
-The Company does not have any Employee Stock Option Scheme.
-There were no other pecuniary relationships or transactions of the Non Executive Directors with the Company.
-NON – EXECUTIVE DIRECTORS COMPENSATION &amp; DISCLOSURES
-The details of the remuneration paid to the Non Executive Director provided as per accounts for the financial ended on
-March 31, 2016 are given below:-
-(Amount in `)
-S.No
-Non Executive Director
-Sitting Fee
-Commission
-Total
-Mr. B. Lugani
-1,50,000
-1,50,000
-Mr. Sanjay Chhabra
-1,50,000
-1,50,000
-48 | AMTEK AUTO LIMITED
-Mr. Sanjiv Bhasin
-1,50,000
-1,50,000
-Mr. Rajeev Kumar Thakur
-1,50,000
-1,50,000
-Mr. Raj Narain Bhardwaj
-1,50,000
-1,50,000
-Mr. Mukesh Kumar Gupta
-(LIC Nominee Director)
-1,00,000
-1,00,000
-Mrs. Madhu Vij
-1,50,000
-1,50,000
-Mr. Gautam Malhotra
-Mr. Arvind Dham
-REMUNERATION TO MANAGING DIRECTOR, WHOLE-TIME DIRECTORS AND/OR MANAGER
-(Rupees In Lacs)
-S.No
-Particulars of Remuneration
-Name of Managing Director
-Total Amount
-Mr. John Flintham
-Mr. D.S. Malik
-(a)
-Salary as per provisions
-contained in section 17(1) of the
-Income Tax Act, 1961.
-87.07
-10.92
-97.99
-(b)
-Value of perquisites u/s 17(2)
-of theIncome Tax Act, 1961
-32.91
-1.76
-34.67
-Total (A)
-119.98
-12.68
-132.66
-3.
-STAKEHOLDERS RELATIONSHIP COMMITTEE
-The Stakeholders Relationship Committee comprises of three directors under the Chairmanship of Mr. Rajeev Kumar Thakur.
-The other members in the committee being, Mr. Sanjay Chhabra and Mr. Bahushrut Lugani. The Board has constituted
-Stakeholders Relationship Committee in accordance with the provisions of the Companies Act, 2013 and Regulation 20 of
-SEBI Listing Regulations. The terms of reference of Shareholders’ / Investors’ Grievance (SIG) Committee was conferred on
-the Stakeholders Relationship Committee. The Stakeholders Relationship Committee met 1 (One time) during year under
-review, on 10th February, 2016.
-The Company has also adopted code of internal procedures and conduct for prevention of insider trading in the shares
-of the Company, pursuant to Securities &amp; Exchange Board of India (Prohibition of Insider Trading) Regulations, 2015, as
-amended. The Board has designated Company Secretary as the Compliance Officer for this purpose and has authorized
-this committee to monitor the compliances as required under the aforesaid Regulation.
-TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
-●
-Oversee and review all matters connected with the transfer of the Company’s securities;
-●
-Monitor remedy of investors’ / shareholders’ / security holders’ grievances;
-●
-Oversee the performance of the Company’s Registrars and Transfer Agents;
-●
-Recommend methods to upgrade the standard of services to investors;
-●
-Monitor implementation of the Company’s Code of Conduct for Prohibition of Insider Trading;
-●
-Carry out any other function as is referred by the Board from time to time or enforced by any statutory notification/
-amendment or modification as may be applicable.
-ANNUAL REPORT 2015-16 | 49
-STATUS OF INVESTORS COMPLAINTS
-Details of investor complaints received and redressed during the financial year 2015- 16 are as follows:
-Complaints Received
-Investor Complaints
-Received
-Disposed
-Unresolved
-From
-pending at the
-during the
-Off during
-as at
-beginning i.e 01.10.2015
-Period Ended
-Period Ended
-31.03.2016
-SEBI
-NIL
-BSE/NSE
-NIL
-NIL
-NIL
-NIL
-Shareholders/Investors
-NIL
-NIL
-During the period, the committee met One time. All the members were present in the meeting held during the period.
-4.
-CORPORATE SOCIAL RESPONSIBILITY (CSR) COMMITTEE
-The Company proactively reviews its governance practices and standards inter alia considering best practices and
-regulatory developments
-Constitution of ‘Corporate Social Responsibility Committee’: Considering the work being done by the Company on social
-front, the Company’s Board has constituted a ‘Corporate Social Responsibility Committee’ (CSR Committee). CSR Committee
-is primarily responsible for formulating and monitoring the implementation of the framework of corporate social responsibility
-policy, other policies under Business Responsibility Policy Manual and to look into sustainability matters and matters related
-to overall governance.
-The members of Corporate Social Responsibility Committee are Mr. Rajiv Kumar Thakur, the Chairman, Mr. D.S Malik and
-Mr. Gautam Malhotra. During the period, the committee met One time. All the members were present in the meeting held
-during the period.
-TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
-●
-To formulate and recommend to the Board, a Corporate Social Responsibility (CSR) Policy indicating activities to be
-undertaken by the Company in compliance with provisions of the Companies Act, 2013 and rules made there under;
-●
-To recommend the amount of expenditure to be incurred on the CSR activities;
-●
-To monitor the implementation of the framework of the CSR Policy;
-●
-To oversee the implementation of polices.
-5.
-FINANCE COMMITTEE
-The Board of Directors has constituted Finance Committee comprising of Mr. Arvind Dham (Chairman), Mr. John Ernest
-Flintham, Mr. D.S Malik and Mr. Gautam Malhotra and Mr. B. Lugani.
-TERMS OF REFERENCE OF THE COMMITTEE, INTER ALIA, INCLUDES THE FOLLOWING:
-●
-Review the Company’s financial policies, risk assessment and minimization procedures, strategies and capital
-structure, working capital and cash flow management, and make such reports and recommendations to the Board
-with respect thereto, as it may deem advisable;
-●
-Review banking arrangements and cash management;
-●
-Exercise all powers to borrow money (otherwise than by issue of debentures) within limits approved by the Board,
-and take necessary actions connected therewith, including refinancing for optimization of borrowing costs;
-●
-Give guarantees/issue letters of comfort/providing securities within the limits approved by the Board;
-●
-Borrow money by way of loan and/or issue and allot bonds/notes denominated in one or more foreign currencies
-in international markets for the purpose of refinancing the existing debt, capital expenditure, general corporate
-purposes, including working capital requirements and possible strategic investments within limits approved by the
-Board;
-50 | AMTEK AUTO LIMITED
-●
-Carry out any other function as is mandated by the Board from time to time and/or enforced by any statutory
-notification, amendment or modification as may be applicable;
-●
-Other transactions or financial issues that the Board may desire to have them reviewed by the Finance Committee;
-●
-Delegate authorities from time to time to the executives/ authorised persons to implement the Committee’s decisions;
-●
-Review regularly and make recommendations about changes to the charter of the Committee.
-6.
-SEXUAL HARASSMENT COMMITTEE
-As per the requirement of The Provisions of the Sexual Harassment of women at work place (Prevention, Prohibition and
-Redressal) Act, 2013 &amp; the Rules made there under Company has duly constituted Sexual Harassment Committee,
-comprising of the following members:-
-1.
-Ms. Anuradha Kapur
-–
-The Presiding Officer
-2.
-Mr. Vinod Kr. Uppal
-–
-Finance Department
-3.
-Mr. Rajesh Soni
-–
-HR Department
-4.
-Ms. Sonal Choudhary
-–
-HR Department
-The Committee met One time. All the members were present in the meeting held during the period.
-The Company is totally committed in providing an environment that is free from discrimination and harassment. We
-recognize the rights of our employees and provide forums,</t>
+Effective use of resources and safeguarding of assets</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13654</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.7906108417002482</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['opportunities and threats', 'risk management', 'global economy']</t>
+          <t>Management Discussion &amp; Analysis Report</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Auditors’ Report</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.8018895531123281</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>['risk management', 'global economy']</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -6414,7 +7456,6 @@
 in October 2016. Growth in the group of emerging market and developing economies is forecast to rise to 4.5% and 4.8%,
 respectively, in 2017 and 2018, from an estimated outturn of 4.1% in 2016.
 * Source IMF
-ANNUAL REPORT 2016-17 | 65
 2.
 INDIAN ECONOMIC OVERVIEW
 Domestic Economic activity has been losing momentum since second half of 2015-16 on a combination of structural and
@@ -6505,7 +7546,6 @@
 During the year, OEMs launched new models with additional functionalities and features to attract customers. Performance
 of Indian auto industry during last three years is as follows:-
 Fig. 2 Automotive Production Trends
-ANNUAL REPORT 2016-17 | 67
 India is also a prominent auto exporter and has strong export growth expectations for the near future. In April-March 2017,
 overall automobile exports grew by 1.91 per cent. PV, Commercial Vehicles, and Two Wheelers registered a growth of
 9.17 per cent, 3.03 per cent, and 8.29 per cent respectively during first quarter of 2017. In addition, several initiatives by
@@ -6588,13 +7628,12 @@
 SCV
 1%
 Fig. 6 Indian Automotive Components Supply to OEMs by End Market
-ANNUAL REPORT 2016-17 | 69
 5.
 SWOT ANALYSIS
 Strengths
 Geographical spread of operations in India allows proximity
 to a large and diversified customer base.
-One of the Largest Forgings player in the country with vast
+One of the Largest Forgings  player in the country with vast
 capabilities
 One of the best metallurgical laboratory in India with
 availability of key machines such as spectrometer,
@@ -6706,12 +7745,11 @@
 teams to enhance their efficiency and introduce industry-leading practices. With strong focus on developing skills and
 capabilities of our employees.
 The forward integration strategy of the Company is to move in fully machined &amp; assembled supply of auto components
-for its customers. The Company has demonstrated sound technology absorption capabilities, translating into a shortened
+for its customers.  The Company has demonstrated sound technology absorption capabilities, translating into a shortened
 learning curve and stronger proprietary knowledge management. Moving ahead, we are graduating to the next level and
 charting our next course of growth. The company is investing in tomorrow’s technologies to further hone our innovative
 drive and thereby lead change. Being a value-accretive and solutions-driven Company, we are constantly fine-tuning our
 growth strategies and leveraging our intrinsic strengths to create and deliver incremental value to our stakeholders.
-ANNUAL REPORT 2016-17 | 71
 7.
 INTERNAL CONTROL SYSTEMS AND THEIR ADEQUACY
 The Company has an elaborate internal control system which monitors compliance to internal processes. It ensures that
@@ -6751,7 +7789,7 @@
 Consolidated loss after tax for FY2017 before minority interest and associate/Joint ventures income was Rs. 19,142 million.
 9.
 DEBT POSITION
-As of March 31, the Company had consolidated debt (Continuing Operations) of Rs. 137,721 million comprising Rs. 98,440
+As of March 31, the Company had consolidated debt (Continuing Operations) of  Rs. 137,721 million comprising Rs. 98,440
 million of long term debt and Rs. 39,281 of short term borrowings. Cash and equivalents stood at Rs. 692 million,
 translating into net debt of Rs. 137,029 million.
 10.
@@ -6786,27 +7824,49 @@
 Gautam Malhotra
 Place :
 New Delhi
+DIN No. 00157498
 Date
+:
 22.07.2017
 DIN No. 000472(Whole Time Director)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8030005473101317</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>Management Discussion &amp; Analysis Report</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Independent Auditor</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.8038418079096045</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -6840,13 +7900,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ANNUAL REPORT 2017-18 | 65
-(Company under Corporate Insolvency Resolution Process)
+          <t>(Company under Corporate Insolvency Resolution Process)
 MANAGEMENT DISCUSSION AND ANALYSIS REPORT
 1.
 GLOBAL ECONOMIC OVERVIEW
@@ -6868,6 +7927,7 @@
 driven by production cuts administered by OPEC.
 ii.
 US monetary measures – US Dollar appreciated on the back of rising Federal Reserve rates from 0.75-1% in March
+2017 to 1.50-1.75% in March 2018.
 iii.
 Landmark tax reforms in the US, reducing tax rates from 35% to 21% to bolster investment and employment.
 Figure 1 – Global Growth
@@ -6882,7 +7942,6 @@
 next 10-15 years, backed by its strong democracy and partnerships. India’s GDP is estimated to have increased 6.6 per
 cent in 2017-18 and is expected to grow 7.3 per cent in 2018-19.
 (AVERAGE GROWTH OF GDP DURING 2014-2017)
-ANNUAL REPORT 2017-18 | 67
 (Company under Corporate Insolvency Resolution Process)
 The investment cycle exhibited a growth of 7.6% in FY18 and 14.4% in the Q-4’18. The FY18 is likely to see an improved
 growth of 7.5% due to transformative reforms undertaken by the Government.
@@ -6894,7 +7953,7 @@
 US$ 60 billion in 2016-17 to US$ 61.96 billion in 2017-18, indicating that government’s effort to improve ease of doing
 business and relaxation in FDI norms is yielding results. The foreign exchange reserves crossed the US$400 billion mark
 in September, 2017 and reached an all time high to US$424 billion in April 2018.
-The Goods and Services Tax (GST) - constitution amendment bill, passed by the government, to be implemented from July
+The Goods and Services Tax (GST) - constitution amendment bill, passed by the government, to be implemented from     July
 1st, 2017 will have a significant impact on the taxation structure in the country. The GST will create a common Indian market,
 improve tax compliance and governance, and boost investment and growth; it is also a bold new experiment in the
 governance of India’s cooperative federalism. The Goods and Services Tax (GST), reformed the system of indirect taxes by
@@ -6912,7 +7971,7 @@
 services digitally and to increase the digital literacy.
 3.
 AUTOMOBILE INDUSTRY
-3.1 Global Automobile Industry
+3.1   Global Automobile Industry
 The worldwide automotive industry has been on its growth path for the eighth year in succession. In 2017 it added 3%
 and come to 96.8 million motor vehicles which includes passenger cars, commercial vehicles and buses.
 For 2018 forecast is that the global automotive market will increase by around 1%, reaching almost 98 million units. The
@@ -6957,7 +8016,6 @@
 network in India is expected to rise to 250 cities in 2018 from 125 cities in 2014. Also, the luxury car market could register
 high growth and is expected to reach 150,000 units by 2020.
 AUTOMOBILE PRODUCTION TRENDS
-ANNUAL REPORT 2017-18 | 69
 (Company under Corporate Insolvency Resolution Process)
 DOMESTIC SALES TRENDS
 EXPORTS TRENDS
@@ -6995,7 +8053,6 @@
 billion by 2026, from the current US$ 13.2 billion.
 Indian Automotive Components Industry: Exports
 Indian Automotive Component Exports by Geography
-ANNUAL REPORT 2017-18 | 71
 (Company under Corporate Insolvency Resolution Process)
 Indian Automotive Components Supply to OEMs by End Market
 Source: ACMA
@@ -7018,7 +8075,7 @@
 Strengths
 Geographical spread of operations in India allows proximity
 to a large and diversified customer base.
-One of the Largest Forgings player in the country with vast
+One of the Largest Forgings  player in the country with vast
 capabilities
 One of the best metallurgical laboratory in India with
 availability of key machines such as spectrometer,
@@ -7097,7 +8154,6 @@
 The company has realised that cyclicality demand coupled with a leveraged balance sheet can lead the Company to a
 vicious cycle which eventually leads to stagnation. Keeping this in mind, we have constantly emphasized on de-risking
 our business by entering new sectors thereby adding breadth to our customer profile.
-ANNUAL REPORT 2017-18 | 73
 (Company under Corporate Insolvency Resolution Process)
 The Company’s in-house R&amp;D team focus is to commit to work on various projects including developing technologies to
 minimize carbon footprint and manufacture light weight products that result in lower energy consumption. Innovation is
@@ -7145,72 +8201,45 @@
 Periodic review meetings to guide optimum utilisation of resources
 Effective use of resources and safeguarding of assets
 The Audit Committee reviews the effectiveness of internal control systems, and also provides timely updates on operating
-effectiveness and controls to senior management team. A CEO and CFO Certificate, forming part of the Corporate Governance
-Report, confirms the existence and effectiveness of internal controls and reiterates their responsibilities to report deficiencies
-to the Audit Committee and rectify the same.
-74 | AMTEK AUTO LIMITED
-(Company under Corporate Insolvency Resolution Process)
-Our auditors carry out periodic audits as per an agreed internal audit programme. They bring to the notice of management,
-issues which require their attention and also highlight the severity of the issue. Corrective actions are then set in place.
-The internal auditors report is reviewed by the Audit Committee and placed before the Board of Directors for their
-consideration.
-8.
-FINANCIAL OVERVIEW
-Amtek Auto’s performance in the last six months is a reflection of the challenges faced by the automotive industry in
-general and certain other regions interenationally. In the financial year 2018, the consolidated revenues of the Company
-were at Rs. 47,446 million. During the year under review, Revenue from discontinued operations is Rs. 1,836 million.
-Consolidated EBITDA of Continuing operations (before exceptional item and impairment losses) for the year stood at
-Rs. 4,357 million at a margin of 9 %. Management remained focused on cost optimization and value enhancement during
-this period.
-9.
-DEBT POSITION
-As of March 31,2018 the Company had consolidated debt (Continuing Operations) of Rs. 1,16,144 million comprising Rs.
-94,477 million of long term debt and Rs. 21,667 of short term borrowings. Cash and equivalents stood at Rs. 2,068 million,
-translating into net debt of Rs. 1,14,076 million.
-10.
-HUMAN RESOURCES AND INDUSTRIAL RELATIONS
-During the year, the Company delivered value to its customers and investors. This was made possible by the relentless
-efforts of each and every employee. The Company has developed a robust and diverse talent pipeline which enhances
-Amtek Auto’s organizational capabilities for future readiness, further driving greater employee engagement. Our human
-resource program is focused on attracting the right talent, providing excellent on the job training opportunities, and finally
-giving them the growth opportunities consistent with their aspirations.
-Amtek Auto has always enjoyed strong industrial relations. The Company has a systematic grievance redressal system
-to further strengthen these relationships. This system encourages employees to share their views and opinion with the
-management. The Company reflects on this feedback and incorporates relevant changes into the existing policies, systems
-and processes.
-11.
-STATUTORY COMPLIANCE
-The Whole Time Director before Commencement of Corporate Insolvency Resolution Process (CIRP) makes a declaration
-to the Board of Directors every quarter regarding compliance with provisions of various statutes as applicable. The Company
-Secretary ensures compliance with the Companies Act, 2013, SEBI (Listing Obligations and Disclosure Requirements)
-Regulations, 2015 and compliance with the guidelines on insider trading for prevention of the same.
-12.
-CAUTION STATEMENT
-The above mentioned statements are only ‘forward looking statements’ based on certain assumptions and expectations.
-The Company’s actual performance could differ materially from those expressed/projected depending upon changes in
-various factors. The Company does not assume any responsibility to any change(s) in forward looking statements’, on the
-basis of subsequent developments, information or events etc.
-Important developments that could affect the Company’s operations include a downward trend in the domestic automotive
-industry, competition, rise in input costs, exchange rate fluctuations, and significant changes in the political and economic
-environment in India, environmental standards, tax laws, litigation and labour relations.</t>
+effectiveness and controls to senior management team. A CEO and CFO Certificate, forming part of the</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.7960415967796042</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>Management Discussion &amp; Analysis Report</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Auditors’ Report</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.7941509762900977</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>['global economy']</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -7244,7 +8273,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7274,7 +8303,7 @@
 Source: MOSPI
 3.
 AUTOMOBILE INDUSTRY
-3.1 Global Automobile Industry
+3.1   Global Automobile Industry
 In some of the developed nations in North America and Europe, improved consumer confidence has led to a rebound
 in automotive sales in 2015. North America is expected to register a growth of 6.3% in passenger car sales in 2015; the
 growth forecast for Western Europe remains equally encouraging at 7.0%. However, the 12 months period ending
@@ -7282,7 +8311,6 @@
 continues to weaken in Brazil and Russia, owing to deteriorating economic conditions. Passenger car sales are expected
 to decline 20.1% and 15.7% in eastern Europe and South America respectively. Concerns over a slowdown in China, a
 major automotive market, have also impacted the automotive industry sentiment.
-ANNUAL REPORT 2014-15 | 57
 3.2
 Indian Automobile Industry
 The Indian automotive industry is one of the largest in the world with annual production of 23.5 million vehicles, with
@@ -7322,7 +8350,6 @@
 term potential remains intact. India already offers one of the most cost effective manufacturing bases and
 a high degree of technological advancement to global OEMs, which are expected to continue to increase
 their investments in India.
-ANNUAL REPORT 2014-15 | 59
 Source: SIAM-ACMA-EY Vision 2020 Report (August 2010)
 Exports: Not only does India offer a low cost manufacturing advantage, increasing investments in technology
 have made India-made automotive components much more technologically advanced, resulting in growing
@@ -7410,7 +8437,6 @@
 on a regular basis, assesses and evaluates the macroeconomic performance in its key markets and takes suitable
 remedial actions as may be necessary from time to time to mitigate such risks.
 Changes in Tax, Tariffs or Fiscal Policies: Imposition of additional taxes and levies designed to limit the use of automobiles
-ANNUAL REPORT 2014-15 | 61
 could adversely affect demand for the Company‘s products. Changes in corporate and other taxation policies, as well
 as changes in export and other incentives granted by various governments, or import or tariff policies, could also
 adversely affect the Company’s financial results.
@@ -7456,94 +8482,47 @@
 Review of capital investments and long term business plans
 Periodic review meetings to guide optimum utilization of resources
 Effective use of resources and safeguarding of assets
-The Audit Committee reviews the effectiveness of internal control systems, and also provides timely updates on operating
-62 | AMTEK AUTO LIMITED
-effectiveness and controls to senior management team. A CEO and CFO Certificate, forming part of the Corporate
-Governance Report, confirms the existence and effectiveness of internal controls and reiterates their responsibilities to
-report deficiencies to the Audit Committee and rectify the same.
-Our auditors carry out periodic audits as per an agreed internal audit programme. They bring to the notice of management,
-issues which require their attention and also highlight the severity of the issue. Corrective actions are then set in place.
-The internal auditors report is reviewed by the Audit Committee and placed before the Board of Directors for their
-consideration.
-9.
-DISCUSSION ON FINANCIAL PERFORMANCE WITH RESPECT TO OPERATIONAL PERFORMANCE
-Amtek Auto’s performance in the last financial year is a reflection of the challenges faced by the automotive industry in
-India and in certain other regions internationally. In FY2015, the consolidated revenues of the Company were Rs. 1,521,346
-Lacs, a decline of 3.1% over the previous year.
-Consolidated EBITDA for the year decreased by 30.2% to Rs. 240,896 Lacs at a margin of 15.8%. Management remained
-focused on cost optimisation and value enhancement during this period.
-Consolidated loss after tax for FY2015 before minority interest and associate income was Rs. 62,850 Lacs.
-10.
-FINANCIAL CONDITION
-Amtek Auto monitors its financial position regularly and deploys a robust cash management system. The Company has
-also been able to arrange adequate liquidity at an optimum cost to meet its business and liquidity requirements. Amtek
-Auto would like to thank the financial institutions, shareholders and other stakeholders for their continuous support.
-11.
-DEBT POSITION
-As of September 30, 2015, the Company had consolidated debt of Rs. 1,457,204 Lacs comprising Rs. 941,897 Lacs of long
-term debt, Rs. 240,825 Lacs of current maturities of long term debt and Rs. 274,482 Lacs of short term borrowings. Cash
-and cash equivalents stood at Rs. 59,999 Lacs, translating into net debt of Rs. 1,397,205 Lacs. As of September 30, 2015,
-Amtek Auto had a Net Debt/EBITDA of 5.8x and Debt/Equity of 2.3x.
-Amtek Auto is in advanced discussions with existing lenders for the re-alignment of debt obligations to ensure the
-Company’s repayments are better matched with its operating cash flows. After the process has been concluded, Amtek
-Auto will be in a better position to re-engage with credit rating agencies.
-12.
-HUMAN RESOURCES AND INDUSTRIAL RELATIONS
-During the year, the Company delivered value to its customers and investors. This was made possible by the relentless
-efforts of each and every employee. The Company has developed a robust and diverse talent pipeline which enhances
-Amtek Auto’s organizational capabilities for future readiness, further driving greater employee engagement. Our human
-resource program is focused on attracting the right talent, providing excellent on the job training opportunities, and
-finally giving them the growth opportunities consistent with their aspirations. In addition, the trust our employees place
-in us is evident in our ability to retain key employees and senior executives during a challenging FY2015.
-Amtek Auto has always enjoyed strong industrial relations. The company has a systematic grievance redressal system
-to further strengthen these relationships. This system encourages employees to share their views and opinion with the
-management. The Company reflects on this feedback and incorporates relevant changes into the existing policies,
-systems and processes.
-During the year under review, the Company maintained a cordial relationship with its workforce. The Directors would like
-to place on record their appreciation and recognition towards all its employees who continue to exude confidence and
-commitment toward brand ‘Amtek’.
-13.
-STATUTORY COMPLIANCE
-The company secretary, as compliance officer, ensures compliances of the SEBI regulations and provisions of the listing
-agreement. Compliance certificates are obtained from various departments of the Company and the Board is informed
-of the same at every Board Meeting.
-ANNUAL REPORT 2014-15 | 63
-14.
-CAUTION STATEMENT
-The above mentioned statements are only ‘forward looking statements’ based on certain assumptions and expectations.
-The Company’s actual performance could differ materially from those expressed/projected depending upon changes in
-various factors. The Company does not assume any responsibility to any change(s) in forward looking statements’, on
-the basis of subsequent developments, information or events etc.
-Important developments that could affect the Company’s operations include a downward trend in the domestic automotive
-industry, competition, rise in input costs, exchange rate fluctuations, and significant changes in the political and economic
-environment in India, environmental standards, tax laws, litigation and labour relations.
-BY ORDER OF THE BOARD
-for AMTEK AUTO LIMITED
-Sd/-
-Date
-(ARVIND DHAM)
-Place : New Delhi
-CHAIRMAN</t>
+The Audit Committee reviews the effectiveness of internal control systems, and also provides timely updates on operating</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3631</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.811975996935779</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>Management Discussion &amp; Analysis Report</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Auditors’ Report</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.8160675381263617</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>['risk management', 'global economy']</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/mdna_extraction_project/output/mdna_extracted.xlsx
+++ b/mdna_extraction_project/output/mdna_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,30 +481,20 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mdna_title_used</t>
+          <t>word_count</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>next_title_used</t>
+          <t>narrative_density</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>keyword_hits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>narrative_density</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>keyword_hits</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>quality_passed</t>
         </is>
@@ -1114,30 +1104,20 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LSC, Near Savitri Market, Janakpuri, New Delhi - 110058</t>
+          <t>32968</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Financial Statements</t>
+          <t>0.7227276596147117</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>32968</t>
+          <t>['risk management', 'segment performance']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>0.7227276596147117</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>['risk management', 'segment performance']</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -1426,30 +1406,20 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C- , Village Chanalon, Near Kurali, District Mohali , Punjab</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Report on Corporate Governance</t>
+          <t>0.8195173137460651</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>0.8195173137460651</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -2551,30 +2521,20 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis</t>
+          <t>15167</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Balance Sheet</t>
+          <t>0.7516244296630201</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15167</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>0.7516244296630201</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -3504,30 +3464,20 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Management Discussion and Analysis</t>
+          <t>12338</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Corporate Governance Report and Annexure</t>
+          <t>0.7543013609056357</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12338</t>
+          <t>['risk management']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>0.7543013609056357</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -4681,30 +4631,20 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Management Discussion and Analysis</t>
+          <t>13124</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Corporate Governance Report and Annexure</t>
+          <t>0.73446017490882</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13124</t>
+          <t>['risk management', 'global economy']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>0.73446017490882</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -5017,30 +4957,20 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>0.8065252854812398</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>0.8065252854812398</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -5490,30 +5420,20 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Annexures to Directors' Report</t>
+          <t>5897</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Corporate Governance</t>
+          <t>0.7651032619185485</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5897</t>
+          <t>['risk management', 'future outlook']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>0.7651032619185485</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>['risk management', 'future outlook']</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -5912,30 +5832,20 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>. To consider and, if thought fit, to pass, with or without modifications the following resolution as an Ordinary Resolution</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>0.7904232181695012</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>['risk management', 'future outlook']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>0.7904232181695012</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>['risk management', 'future outlook']</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -6414,30 +6324,20 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Brief resume of Mr. Vijay Bhan Singh, nature of his expertise in specific functional areas are provided in the Corporate</t>
+          <t>24327</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Balance Sheet</t>
+          <t>0.7270925290174922</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>24327</t>
+          <t>['risk management']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>0.7270925290174922</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -6917,30 +6817,20 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Saturday, the 22nd September, to Thursday, the 27th September, (both days inclusive)</t>
+          <t>10086</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Financial Statements</t>
+          <t>0.7769999684671901</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10086</t>
+          <t>['risk management']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>0.7769999684671901</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -7358,30 +7248,20 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis Report</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Auditors’ Report</t>
+          <t>0.8018895531123281</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3756</t>
+          <t>['risk management', 'global economy']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>0.8018895531123281</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -7843,30 +7723,20 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis Report</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Independent Auditor</t>
+          <t>0.8038418079096045</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>0.8038418079096045</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -8216,30 +8086,20 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis Report</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Auditors’ Report</t>
+          <t>0.7941509762900977</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>['global economy']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>0.7941509762900977</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>['global economy']</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
@@ -8497,30 +8357,20 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Management Discussion &amp; Analysis Report</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Auditors’ Report</t>
+          <t>0.8160675381263617</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>['risk management', 'global economy']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>0.8160675381263617</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/mdna_extraction_project/output/mdna_extracted.xlsx
+++ b/mdna_extraction_project/output/mdna_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>start_method</t>
+          <t>word_count</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>end_method</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>word_count</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>narrative_density</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>keyword_hits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>quality_passed</t>
         </is>
       </c>
     </row>
@@ -1094,32 +1074,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>32968</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>32968</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>0.7227276596147117</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['risk management', 'segment performance']</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1396,32 +1356,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3402</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>0.8195173137460651</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2511,32 +2451,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>15167</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15167</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>0.7516244296630201</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3454,32 +3374,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>12338</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12338</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>0.7543013609056357</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4621,32 +4521,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>13124</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>fallback</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>13124</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>0.73446017490882</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4947,32 +4827,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1887</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>0.8065252854812398</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -5410,32 +5270,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>fallback</t>
+          <t>5897</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>fallback</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5897</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t>0.7651032619185485</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>['risk management', 'future outlook']</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -5822,32 +5662,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>0.7904232181695012</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>['risk management', 'future outlook']</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -6314,32 +6134,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>24327</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>24327</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>0.7270925290174922</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -6807,32 +6607,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>10086</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>10086</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>0.7769999684671901</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>['risk management']</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -7238,32 +7018,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
           <t>0.8018895531123281</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
@@ -7713,32 +7473,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>4852</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>0.8038418079096045</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -8076,32 +7816,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>3643</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>0.7941509762900977</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>['global economy']</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -8347,32 +8067,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2833</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>0.8160675381263617</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>['risk management', 'global economy']</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
